--- a/20220426_algo_v2_10/algo_results/rec_result/item_cf_recommendation_map.xlsx
+++ b/20220426_algo_v2_10/algo_results/rec_result/item_cf_recommendation_map.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>动态:22507,动态:22685,动态:17337,动态:22696,动态:22019,动态:22697,动态:22692,动态:22323,动态:21776,动态:21780,动态:22688,动态:22702,动态:21737,动态:22512,动态:20720,动态:21740,动态:7746,动态:20440,动态:22699,动态:21757,动态:22684,动态:22146,动态:4036,动态:21756,动态:21972,动态:22659,动态:22680,动态:22698,动态:21857,动态:21556,动态:21753,动态:20399,动态:20364,动态:21436,动态:21745,动态:22710,动态:21727,动态:21763,动态:21741,动态:22706,动态:21975,动态:22667,动态:20439</t>
+          <t>动态:22706,动态:20440,动态:22323,动态:21857,动态:22692,动态:21756,动态:22146,动态:20720,动态:22699,动态:21556,动态:22697,动态:22512,动态:22507,动态:20399,动态:22688,动态:21737,动态:22702,动态:4036,动态:20364,动态:20439,动态:22696,动态:21776,动态:21972,动态:21757,动态:21745,动态:22710,动态:21763,动态:21741,动态:22680,动态:22698,动态:21436,动态:21780,动态:21740,动态:22684,动态:22019,动态:22685,动态:21975,动态:22659,动态:21753,动态:7746,动态:17337,动态:21727,动态:22667</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>动态:17460,动态:7388,动态:7386,动态:8259,动态:6893,动态:11441,动态:11044,动态:19723,动态:13782,动态:14192,动态:13495,动态:13751,动态:16152,动态:16074,动态:9769,动态:20017,动态:17337,动态:21780,动态:22697,动态:7746,动态:21756,动态:21753,动态:21757,动态:21727,动态:22323,动态:21741,动态:22692,动态:21972,动态:22507,动态:20720,动态:22680,动态:20364,动态:22667,动态:22512,动态:22659,动态:21436,动态:4036,动态:21556,动态:21857,动态:20440,动态:22706,动态:21737,动态:21763,动态:21740,动态:22696,动态:22698,动态:22685,动态:22702,动态:22684,动态:22710</t>
+          <t>动态:17460,动态:7388,动态:7386,动态:8259,动态:6893,动态:11441,动态:11044,动态:19723,动态:13782,动态:14192,动态:13495,动态:13751,动态:16152,动态:16074,动态:9769,动态:20017,动态:22685,动态:21975,动态:22659,动态:22702,动态:22512,动态:21972,动态:21757,动态:7746,动态:21727,动态:22688,动态:22146,动态:21780,动态:20720,动态:22323,动态:22019,动态:21756,动态:22696,动态:21857,动态:20439,动态:22710,动态:17337,动态:21436,动态:20440,动态:22667,动态:22680,动态:21753,动态:22698,动态:22684,动态:21745,动态:4036,动态:22692,动态:21741,动态:20364,动态:21740</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>动态:7746,动态:22680,动态:22685,动态:22659,动态:21756,动态:20399,动态:22710,动态:21763,动态:20364,动态:22696,动态:22146,动态:21737,动态:22699,动态:21745,动态:21753,动态:21436,动态:21972,动态:22702,动态:22688,动态:21727,动态:22684,动态:22692,动态:21741,动态:22507,动态:21780,动态:22706,动态:21556,动态:22323,动态:20440,动态:21975,动态:17337,动态:21740,动态:21776,动态:21757,动态:22019,动态:21857,动态:22512,动态:22698,动态:20720,动态:22697,动态:20439,动态:22667</t>
+          <t>动态:22698,动态:22146,动态:21857,动态:21780,动态:22688,动态:22659,动态:22697,动态:21436,动态:21972,动态:22702,动态:20440,动态:22696,动态:20439,动态:22019,动态:21556,动态:22323,动态:22512,动态:21740,动态:21763,动态:20364,动态:20720,动态:21741,动态:21727,动态:21753,动态:21776,动态:22685,动态:21975,动态:22507,动态:7746,动态:22706,动态:17337,动态:22684,动态:20399,动态:22699,动态:21737,动态:22680,动态:21757,动态:21745,动态:22710,动态:22667,动态:21756,动态:22692</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>动态:20439,动态:21756,动态:22685,动态:22702,动态:20440,动态:20399,动态:21763,动态:21745,动态:22710,动态:22323,动态:22698,动态:22667,动态:22692,动态:22688,动态:21737,动态:22659,动态:22507,动态:4036,动态:21972,动态:21780,动态:21757,动态:20720,动态:22696,动态:21556,动态:22680,动态:17337,动态:20364,动态:22697,动态:21753,动态:22019,动态:7746,动态:22146,动态:21436,动态:22512,动态:21776,动态:22699,动态:22706,动态:21740,动态:21975,动态:21857,动态:22684,动态:21727,动态:21741</t>
+          <t>动态:21975,动态:20364,动态:20440,动态:17337,动态:22706,动态:21740,动态:22698,动态:22323,动态:22699,动态:7746,动态:21741,动态:22702,动态:22507,动态:22146,动态:22659,动态:21556,动态:21763,动态:4036,动态:21737,动态:22696,动态:22692,动态:22685,动态:20720,动态:21972,动态:22697,动态:20439,动态:21757,动态:22680,动态:22684,动态:21780,动态:22019,动态:22667,动态:22512,动态:21436,动态:20399,动态:21776,动态:21753,动态:22710,动态:21745,动态:21857,动态:22688,动态:21756,动态:21727</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>动态:22688,动态:22659,动态:20364,动态:21780,动态:22706,动态:21776,动态:22680,动态:20720,动态:20399,动态:22667,动态:22697,动态:21556,动态:22699,动态:22692,动态:22684,动态:22323,动态:22019,动态:22698,动态:21436,动态:21763,动态:21727,动态:21757,动态:21756,动态:21740,动态:21753,动态:22146,动态:22696,动态:21972,动态:21857,动态:20439,动态:20440,动态:22685,动态:7746,动态:21737,动态:21745,动态:21975,动态:22710,动态:21741,动态:22702,动态:22507,动态:22512,动态:17337</t>
+          <t>动态:22699,动态:21763,动态:7746,动态:20439,动态:21436,动态:20720,动态:21975,动态:22710,动态:22512,动态:21737,动态:22667,动态:22702,动态:22323,动态:21757,动态:21972,动态:22684,动态:21745,动态:22697,动态:21857,动态:21740,动态:21556,动态:21727,动态:21776,动态:20364,动态:17337,动态:21753,动态:22680,动态:20399,动态:22698,动态:21780,动态:21756,动态:22019,动态:22706,动态:22685,动态:20440,动态:22696,动态:22692,动态:22659,动态:22688,动态:21741,动态:22507,动态:22146</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>动态:20439,动态:11525,动态:16582,动态:7045,动态:7059,动态:15151,动态:15142,动态:15150,动态:15147,动态:22699,动态:4036,动态:7746,动态:22019,动态:21556,动态:21737,动态:21745,动态:22685,动态:22146,动态:22702,动态:17337,动态:21776,动态:20440,动态:21780,动态:22692,动态:22680,动态:22659,动态:22512,动态:22698,动态:22697,动态:21436,动态:22507,动态:22688,动态:21972,动态:22684,动态:20364,动态:22710,动态:20720,动态:22706,动态:22696,动态:21753,动态:20399,动态:22667,动态:22323,动态:21757,动态:21857,动态:21756,动态:21727,动态:21740,动态:21975</t>
+          <t>动态:20439,动态:11525,动态:16582,动态:7045,动态:7059,动态:15151,动态:15142,动态:15150,动态:15147,动态:21745,动态:22706,动态:21741,动态:22667,动态:20364,动态:21757,动态:21776,动态:22507,动态:21740,动态:21972,动态:21756,动态:21780,动态:21857,动态:22698,动态:21763,动态:21975,动态:22688,动态:22512,动态:4036,动态:21436,动态:21556,动态:22146,动态:22684,动态:22323,动态:7746,动态:22697,动态:22659,动态:22685,动态:21753,动态:22699,动态:22019,动态:22702,动态:22692,动态:21737,动态:22680,动态:21727,动态:22710,动态:20399,动态:20440,动态:22696</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>动态:20439,动态:22146,动态:22680,动态:21740,动态:21756,动态:21753,动态:22659,动态:21975,动态:22698,动态:21741,动态:22697,动态:22685,动态:22702,动态:22710,动态:21737,动态:22706,动态:22512,动态:22507,动态:22667,动态:21763,动态:20440,动态:22688,动态:22699,动态:20720,动态:20399,动态:4036,动态:21727,动态:22323,动态:22684,动态:21745,动态:21436,动态:22692,动态:20364,动态:22019,动态:21857,动态:22696,动态:21757,动态:21556,动态:21780,动态:17337,动态:21776,动态:21972,动态:7746</t>
+          <t>动态:22146,动态:21740,动态:21857,动态:21556,动态:22702,动态:22710,动态:22698,动态:21745,动态:22706,动态:22684,动态:20440,动态:7746,动态:22696,动态:22667,动态:21756,动态:21741,动态:22680,动态:22692,动态:21780,动态:22323,动态:20439,动态:21727,动态:21975,动态:21753,动态:21776,动态:22512,动态:21763,动态:21757,动态:22019,动态:22688,动态:20720,动态:20399,动态:22507,动态:21972,动态:22659,动态:21436,动态:22685,动态:20364,动态:4036,动态:17337,动态:22699,动态:22697,动态:21737</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>动态:22699,动态:22698,动态:21740,动态:21776,动态:17337,动态:21753,动态:22684,动态:22692,动态:20440,动态:21436,动态:21737,动态:21763,动态:22512,动态:22696,动态:20720,动态:22659,动态:21741,动态:21756,动态:21857,动态:22688,动态:22685,动态:22507,动态:22667,动态:20399,动态:21727,动态:22019,动态:21556,动态:22323,动态:21745,动态:21975,动态:22697,动态:22680,动态:20439,动态:20364,动态:22702,动态:7746,动态:22146,动态:21757,动态:4036,动态:22710,动态:21972,动态:21780,动态:22706</t>
+          <t>动态:22684,动态:4036,动态:21780,动态:20439,动态:22697,动态:17337,动态:22512,动态:22706,动态:20720,动态:21972,动态:22680,动态:22710,动态:21753,动态:7746,动态:21756,动态:20364,动态:21741,动态:22696,动态:22667,动态:22659,动态:22698,动态:21857,动态:21436,动态:22507,动态:20440,动态:22146,动态:22685,动态:21745,动态:22019,动态:22688,动态:21556,动态:20399,动态:21737,动态:22692,动态:21776,动态:21975,动态:21727,动态:21757,动态:22699,动态:21740,动态:22323,动态:21763,动态:22702</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>动态:21756,动态:21556,动态:21727,动态:22019,动态:21737,动态:21763,动态:21972,动态:22697,动态:22710,动态:22146,动态:21740,动态:22688,动态:17337,动态:22698,动态:20399,动态:21757,动态:22659,动态:21745,动态:22692,动态:22696,动态:21975,动态:21857,动态:22702,动态:21741,动态:22323,动态:22507,动态:21776,动态:22680,动态:21780,动态:20364,动态:7746,动态:20440,动态:22667,动态:22706,动态:20439,动态:22699,动态:22685,动态:20720,动态:22512,动态:22684,动态:21436,动态:4036,动态:21753</t>
+          <t>动态:22507,动态:21753,动态:21436,动态:7746,动态:22146,动态:20439,动态:21741,动态:20440,动态:21780,动态:20364,动态:21975,动态:22659,动态:22680,动态:21556,动态:4036,动态:21757,动态:22667,动态:22696,动态:21857,动态:22019,动态:21745,动态:22699,动态:21756,动态:22692,动态:21763,动态:22684,动态:22685,动态:21776,动态:17337,动态:22698,动态:22688,动态:21727,动态:22706,动态:21737,动态:22512,动态:22710,动态:20399,动态:20720,动态:22697,动态:22702,动态:21972,动态:22323,动态:21740</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>动态:21776,动态:22507,动态:21757,动态:20720,动态:22667,动态:22685,动态:20399,动态:20440,动态:22696,动态:22323,动态:21737,动态:21741,动态:22146,动态:20439,动态:21857,动态:21756,动态:22698,动态:4036,动态:22659,动态:22697,动态:7746,动态:21972,动态:21753,动态:21780,动态:22019,动态:22684,动态:22688,动态:21436,动态:21727,动态:21556,动态:22710,动态:21740,动态:22706,动态:22699,动态:21975,动态:22680,动态:21763,动态:22512,动态:17337,动态:22692,动态:20364,动态:21745,动态:22702</t>
+          <t>动态:21763,动态:22512,动态:22688,动态:22696,动态:22659,动态:17337,动态:21436,动态:22019,动态:22685,动态:22702,动态:22692,动态:22710,动态:20439,动态:22323,动态:22706,动态:21737,动态:21776,动态:7746,动态:20440,动态:22680,动态:21780,动态:22697,动态:22699,动态:21972,动态:22698,动态:22684,动态:21745,动态:21975,动态:20399,动态:21757,动态:22507,动态:22146,动态:21727,动态:20720,动态:22667,动态:21556,动态:4036,动态:21756,动态:21741,动态:21740,动态:20364,动态:21753,动态:21857</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>动态:21776,动态:4036,动态:22702,动态:20364,动态:22698,动态:21737,动态:21857,动态:21975,动态:21753,动态:21740,动态:22692,动态:20399,动态:21436,动态:21763,动态:21757,动态:22507,动态:21727,动态:20720,动态:22685,动态:22019,动态:22688,动态:22659,动态:21556,动态:22706,动态:21741,动态:22684,动态:20440,动态:7746,动态:22697,动态:22680,动态:21780,动态:22710,动态:22512,动态:22667,动态:21745,动态:20439,动态:22323,动态:22696,动态:21972,动态:17337,动态:22699,动态:22146,动态:21756</t>
+          <t>动态:21556,动态:22659,动态:7746,动态:21857,动态:21757,动态:20439,动态:22692,动态:22507,动态:21727,动态:21740,动态:22680,动态:21776,动态:22667,动态:21975,动态:17337,动态:20720,动态:22706,动态:22697,动态:20399,动态:22710,动态:21756,动态:22146,动态:22512,动态:21780,动态:21745,动态:22019,动态:22323,动态:21753,动态:22698,动态:21737,动态:4036,动态:21972,动态:20440,动态:22688,动态:22684,动态:22702,动态:22699,动态:21436,动态:21741,动态:21763,动态:22685,动态:22696,动态:20364</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>动态:8002,动态:6767,动态:6779,动态:6773,动态:6777,动态:6762,动态:6761,动态:6755,动态:6752,动态:6692,动态:6790,动态:6666,动态:6845,动态:6652,动态:6848,动态:20439,动态:21776,动态:22323,动态:4036,动态:21737,动态:22697,动态:22667,动态:22507,动态:22146,动态:20440,动态:20364,动态:22706,动态:21753,动态:22698,动态:7746,动态:22512,动态:21857,动态:20720,动态:21436,动态:22688,动态:21757,动态:21972,动态:22019,动态:22659,动态:22699,动态:22702,动态:21556,动态:21745,动态:21741,动态:21756,动态:22692,动态:21763,动态:20399,动态:21780,动态:22710</t>
+          <t>动态:8002,动态:6767,动态:6779,动态:6773,动态:6777,动态:6762,动态:6761,动态:6755,动态:6752,动态:6692,动态:6790,动态:6666,动态:6845,动态:6652,动态:6848,动态:21737,动态:22684,动态:21753,动态:22512,动态:21436,动态:20720,动态:7746,动态:21745,动态:22507,动态:21857,动态:21756,动态:21740,动态:21975,动态:22696,动态:22706,动态:4036,动态:21741,动态:22688,动态:22699,动态:22698,动态:22659,动态:21776,动态:21556,动态:22146,动态:22702,动态:21727,动态:22323,动态:22019,动态:21780,动态:22710,动态:22697,动态:21972,动态:20440,动态:22667,动态:20439</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>动态:20399,动态:22680,动态:20440,动态:21972,动态:22146,动态:21756,动态:22696,动态:21737,动态:20364,动态:22706,动态:22710,动态:21741,动态:21436,动态:22697,动态:22699,动态:22684,动态:22702,动态:21975,动态:22323,动态:22688,动态:21763,动态:20720,动态:20439,动态:4036,动态:22659,动态:22692,动态:22667,动态:21753,动态:22019,动态:7746,动态:21727,动态:22507,动态:22512,动态:21757,动态:21776,动态:22685,动态:17337,动态:21740,动态:21556,动态:21780,动态:21745,动态:21857,动态:22698</t>
+          <t>动态:22146,动态:4036,动态:22688,动态:22706,动态:22697,动态:22659,动态:20440,动态:21776,动态:22019,动态:20399,动态:22512,动态:22696,动态:21780,动态:22667,动态:21757,动态:22710,动态:21972,动态:20439,动态:22323,动态:17337,动态:22680,动态:21975,动态:21737,动态:22507,动态:22698,动态:21741,动态:21756,动态:21753,动态:21740,动态:21745,动态:21857,动态:22684,动态:21436,动态:21763,动态:22685,动态:21727,动态:22699,动态:7746,动态:20720,动态:21556,动态:20364,动态:22702,动态:22692</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>动态:7746,动态:21756,动态:22688,动态:21556,动态:21763,动态:22702,动态:4036,动态:22684,动态:21975,动态:22146,动态:22507,动态:21737,动态:22710,动态:22685,动态:20720,动态:22659,动态:22323,动态:22696,动态:17337,动态:21753,动态:21776,动态:22667,动态:22698,动态:22706,动态:21972,动态:20440,动态:21741,动态:22019,动态:20399,动态:22680,动态:22512,动态:21740,动态:22692,动态:21757,动态:21727,动态:22699,动态:20439,动态:20364,动态:21745,动态:21436,动态:21857,动态:21780,动态:22697</t>
+          <t>动态:22680,动态:7746,动态:20439,动态:21757,动态:21763,动态:22697,动态:4036,动态:20399,动态:21436,动态:21776,动态:22706,动态:22146,动态:21741,动态:21780,动态:22019,动态:22659,动态:21857,动态:21740,动态:21556,动态:20720,动态:22667,动态:21975,动态:21756,动态:22685,动态:17337,动态:22507,动态:22512,动态:22702,动态:22710,动态:21972,动态:20364,动态:22684,动态:22696,动态:20440,动态:21737,动态:21753,动态:22698,动态:22699,动态:21727,动态:22688,动态:22692,动态:21745,动态:22323</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>动态:20439,动态:20440,动态:21763,动态:7746,动态:22685,动态:22019,动态:21857,动态:22702,动态:22692,动态:21745,动态:20399,动态:21727,动态:20720,动态:22507,动态:22323,动态:21741,动态:22684,动态:21972,动态:22697,动态:22688,动态:21737,动态:22659,动态:21757,动态:21753,动态:21436,动态:20364,动态:22706,动态:21756,动态:22698,动态:21776,动态:21780,动态:22146,动态:17337,动态:21740,动态:22680,动态:22667,动态:21975,动态:22710,动态:22512,动态:22699,动态:21556,动态:4036,动态:22696</t>
+          <t>动态:17337,动态:22706,动态:21975,动态:21727,动态:22667,动态:20440,动态:4036,动态:20364,动态:21763,动态:22692,动态:21780,动态:22146,动态:21741,动态:20399,动态:22710,动态:7746,动态:22507,动态:21972,动态:21737,动态:20720,动态:22697,动态:22696,动态:22685,动态:21757,动态:22323,动态:21740,动态:20439,动态:21556,动态:21756,动态:22688,动态:22019,动态:22512,动态:21857,动态:22702,动态:21776,动态:22698,动态:21745,动态:21753,动态:22680,动态:22684,动态:22659,动态:21436,动态:22699</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>动态:22685,动态:22146,动态:22706,动态:21737,动态:21975,动态:22710,动态:21857,动态:22688,动态:21753,动态:22696,动态:22512,动态:7746,动态:20720,动态:21780,动态:21741,动态:22019,动态:21740,动态:20439,动态:22507,动态:20440,动态:21436,动态:21756,动态:22323,动态:17337,动态:22702,动态:21556,动态:21757,动态:22680,动态:21763,动态:22699,动态:22659,动态:22667,动态:20364,动态:21776,动态:22698,动态:22697,动态:21972,动态:21745,动态:4036,动态:20399,动态:21727,动态:22684,动态:22692</t>
+          <t>动态:21756,动态:22323,动态:22692,动态:22667,动态:21740,动态:22698,动态:21757,动态:22710,动态:20364,动态:21741,动态:21975,动态:22684,动态:21556,动态:22512,动态:17337,动态:20440,动态:20399,动态:22507,动态:22696,动态:21737,动态:20439,动态:21780,动态:22685,动态:4036,动态:21776,动态:22659,动态:21763,动态:21857,动态:22699,动态:22702,动态:21972,动态:22688,动态:21745,动态:7746,动态:20720,动态:21727,动态:22706,动态:21753,动态:22019,动态:21436,动态:22697,动态:22680,动态:22146</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>动态:21757,动态:22706,动态:22019,动态:22507,动态:17337,动态:22710,动态:20440,动态:22688,动态:22699,动态:21857,动态:21556,动态:22659,动态:21745,动态:21741,动态:22680,动态:4036,动态:22512,动态:21780,动态:21776,动态:21972,动态:22696,动态:22698,动态:21740,动态:20399,动态:22697,动态:21737,动态:20720,动态:22667,动态:22323,动态:22146,动态:22685,动态:21975,动态:22692,动态:20439,动态:21436,动态:21753,动态:21727,动态:21756,动态:20364,动态:22702,动态:21763,动态:7746,动态:22684</t>
+          <t>动态:21556,动态:21763,动态:21727,动态:21737,动态:22697,动态:21436,动态:20399,动态:21753,动态:22702,动态:22688,动态:22667,动态:21972,动态:21757,动态:22512,动态:22696,动态:22684,动态:22706,动态:22507,动态:22659,动态:21745,动态:21741,动态:20439,动态:21780,动态:22146,动态:20440,动态:21857,动态:4036,动态:22692,动态:22323,动态:22699,动态:17337,动态:21776,动态:22698,动态:22685,动态:20720,动态:21740,动态:21756,动态:20364,动态:21975,动态:7746,动态:22710,动态:22019,动态:22680</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>动态:21780,动态:22698,动态:21972,动态:20440,动态:22659,动态:21745,动态:22323,动态:21740,动态:22684,动态:22696,动态:22706,动态:20439,动态:21757,动态:22146,动态:20364,动态:7746,动态:22680,动态:22702,动态:21975,动态:22685,动态:22699,动态:17337,动态:21763,动态:22019,动态:21556,动态:21727,动态:22697,动态:22667,动态:21741,动态:22507,动态:22688,动态:21436,动态:21857,动态:4036,动态:21776,动态:22710,动态:21756,动态:22512,动态:21753,动态:20720,动态:20399,动态:21737,动态:22692</t>
+          <t>动态:22323,动态:21756,动态:22697,动态:22696,动态:20440,动态:21975,动态:22685,动态:22659,动态:21727,动态:22706,动态:22146,动态:22512,动态:20720,动态:21763,动态:21741,动态:22667,动态:22688,动态:21757,动态:21737,动态:21753,动态:21776,动态:22699,动态:22698,动态:21436,动态:17337,动态:22680,动态:21857,动态:20364,动态:21556,动态:21780,动态:21972,动态:21740,动态:20439,动态:22692,动态:7746,动态:22710,动态:22019,动态:22702,动态:4036,动态:22684,动态:21745,动态:20399,动态:22507</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>动态:22659,动态:22680,动态:20439,动态:22706,动态:22702,动态:22512,动态:22684,动态:21737,动态:20399,动态:22685,动态:21763,动态:22019,动态:7746,动态:21740,动态:21780,动态:20364,动态:17337,动态:20720,动态:22698,动态:21975,动态:21753,动态:22710,动态:21745,动态:22697,动态:21556,动态:22146,动态:22667,动态:21436,动态:22692,动态:22696,动态:21972,动态:21727,动态:4036,动态:22323,动态:21776,动态:22699,动态:21857,动态:22507,动态:21741,动态:20440,动态:22688,动态:21756,动态:21757</t>
+          <t>动态:22667,动态:22680,动态:22146,动态:22698,动态:22692,动态:4036,动态:21757,动态:7746,动态:20399,动态:21975,动态:20720,动态:22659,动态:22710,动态:22702,动态:22512,动态:21776,动态:20439,动态:21436,动态:22696,动态:21780,动态:22019,动态:20364,动态:21753,动态:22699,动态:21741,动态:22688,动态:21756,动态:22684,动态:22697,动态:21737,动态:17337,动态:21745,动态:22685,动态:21740,动态:22706,动态:20440,动态:21556,动态:21972,动态:22323,动态:21763,动态:21727,动态:21857,动态:22507</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>动态:21745,动态:17337,动态:20440,动态:20399,动态:22692,动态:21757,动态:21727,动态:22512,动态:20364,动态:7746,动态:21776,动态:22702,动态:22659,动态:21780,动态:21737,动态:22019,动态:21972,动态:22507,动态:22706,动态:21436,动态:20439,动态:21740,动态:22710,动态:22688,动态:21753,动态:22699,动态:21763,动态:21556,动态:22680,动态:22697,动态:22323,动态:22684,动态:21756,动态:22698,动态:21741,动态:21857,动态:20720,动态:22685,动态:22696,动态:22146,动态:4036,动态:22667,动态:21975</t>
+          <t>动态:22698,动态:22323,动态:21741,动态:22692,动态:21753,动态:20440,动态:22696,动态:22019,动态:21972,动态:21756,动态:21737,动态:21763,动态:22697,动态:22667,动态:22507,动态:21740,动态:22706,动态:21436,动态:22699,动态:21757,动态:21745,动态:20364,动态:21556,动态:20439,动态:22512,动态:22684,动态:22688,动态:22146,动态:22659,动态:4036,动态:21776,动态:21780,动态:20399,动态:21857,动态:22702,动态:20720,动态:7746,动态:22685,动态:22680,动态:17337,动态:21727,动态:21975,动态:22710</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>动态:21972,动态:21975,动态:21741,动态:22706,动态:22685,动态:22699,动态:22688,动态:22323,动态:22507,动态:21745,动态:21727,动态:22698,动态:22696,动态:21753,动态:21737,动态:17337,动态:22512,动态:21780,动态:7746,动态:20364,动态:20439,动态:21857,动态:22680,动态:20440,动态:21740,动态:22710,动态:22146,动态:20720,动态:4036,动态:22019,动态:21556,动态:22692,动态:21436,动态:22659,动态:20399,动态:22667,动态:21776,动态:22697,动态:21763,动态:22702,动态:21757,动态:21756,动态:22684</t>
+          <t>动态:20440,动态:22667,动态:21737,动态:22019,动态:22507,动态:22146,动态:20399,动态:21857,动态:22710,动态:22692,动态:22680,动态:20439,动态:21745,动态:21740,动态:21753,动态:7746,动态:22697,动态:4036,动态:17337,动态:21780,动态:20364,动态:21757,动态:22698,动态:21972,动态:22696,动态:22706,动态:21741,动态:22699,动态:22685,动态:21556,动态:20720,动态:22323,动态:21727,动态:22688,动态:21763,动态:22659,动态:22684,动态:22702,动态:21436,动态:22512,动态:21975,动态:21776,动态:21756</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>动态:21780,动态:21756,动态:22659,动态:22697,动态:21757,动态:21436,动态:20439,动态:21556,动态:7746,动态:22692,动态:21857,动态:22507,动态:17337,动态:4036,动态:21745,动态:22710,动态:22696,动态:20720,动态:22706,动态:21753,动态:22688,动态:22684,动态:21975,动态:22702,动态:22680,动态:22323,动态:22146,动态:21763,动态:22667,动态:20364,动态:21776,动态:22512,动态:20440,动态:20399,动态:21737,动态:21741,动态:22685,动态:22019,动态:22699,动态:21740,动态:22698,动态:21727,动态:21972</t>
+          <t>动态:21727,动态:22706,动态:4036,动态:22146,动态:21857,动态:22688,动态:21972,动态:20720,动态:22685,动态:22684,动态:21975,动态:21756,动态:22697,动态:22512,动态:22323,动态:22710,动态:21740,动态:21780,动态:21776,动态:22507,动态:22698,动态:22667,动态:20440,动态:22699,动态:22680,动态:7746,动态:22692,动态:22019,动态:21741,动态:21753,动态:22696,动态:17337,动态:20399,动态:22659,动态:21436,动态:21556,动态:21737,动态:20439,动态:21763,动态:21757,动态:20364,动态:22702,动态:21745</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>动态:22019,动态:21763,动态:22692,动态:21756,动态:22684,动态:21975,动态:22696,动态:20440,动态:22512,动态:22699,动态:22507,动态:22667,动态:21556,动态:22698,动态:21776,动态:21741,动态:22710,动态:22659,动态:21857,动态:21753,动态:17337,动态:20439,动态:22685,动态:22697,动态:4036,动态:20720,动态:22146,动态:7746,动态:21745,动态:21780,动态:22702,动态:21727,动态:22680,动态:21737,动态:20364,动态:22688,动态:21436,动态:21972,动态:22706,动态:21757,动态:20399,动态:21740,动态:22323</t>
+          <t>动态:21780,动态:20364,动态:22685,动态:21857,动态:22659,动态:21763,动态:20399,动态:22680,动态:21741,动态:21757,动态:22146,动态:22706,动态:22710,动态:21745,动态:22019,动态:7746,动态:20440,动态:21756,动态:21737,动态:22323,动态:22699,动态:22697,动态:17337,动态:22688,动态:21972,动态:22696,动态:21436,动态:22507,动态:21753,动态:22698,动态:21776,动态:20720,动态:22667,动态:21727,动态:22702,动态:22692,动态:20439,动态:21740,动态:22684,动态:21556,动态:21975,动态:4036,动态:22512</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>动态:22659,动态:21975,动态:21857,动态:22507,动态:21740,动态:20399,动态:21757,动态:22512,动态:20720,动态:7746,动态:22698,动态:22019,动态:22702,动态:22696,动态:21741,动态:4036,动态:22710,动态:22680,动态:22697,动态:21972,动态:20364,动态:21753,动态:22667,动态:21436,动态:21763,动态:22706,动态:21556,动态:21745,动态:21727,动态:21756,动态:21776,动态:22685,动态:20439,动态:20440,动态:22699,动态:22692,动态:17337,动态:22146,动态:22684,动态:21780,动态:22323,动态:22688,动态:21737</t>
+          <t>动态:17337,动态:21737,动态:4036,动态:22688,动态:22698,动态:7746,动态:22323,动态:22710,动态:22699,动态:22512,动态:22146,动态:21975,动态:21757,动态:21763,动态:20364,动态:22507,动态:21556,动态:21776,动态:22685,动态:21745,动态:22697,动态:21753,动态:22680,动态:21436,动态:20440,动态:21857,动态:22659,动态:22019,动态:22706,动态:21972,动态:21741,动态:20439,动态:20399,动态:21740,动态:22684,动态:21780,动态:21756,动态:22702,动态:22696,动态:20720,动态:22692,动态:22667,动态:21727</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>动态:22697,动态:21556,动态:22667,动态:22710,动态:17337,动态:21756,动态:4036,动态:22019,动态:22698,动态:20399,动态:22507,动态:21763,动态:21780,动态:21727,动态:21975,动态:22685,动态:22146,动态:21740,动态:21737,动态:21745,动态:21776,动态:22699,动态:21741,动态:21436,动态:21857,动态:22684,动态:22702,动态:21972,动态:21753,动态:22512,动态:22688,动态:20440,动态:7746,动态:22696,动态:22706,动态:22680,动态:22659,动态:22692,动态:22323,动态:21757,动态:20439,动态:20720,动态:20364</t>
+          <t>动态:4036,动态:22323,动态:22507,动态:22702,动态:21737,动态:21757,动态:22685,动态:22680,动态:22512,动态:20720,动态:21756,动态:22684,动态:22667,动态:21975,动态:21763,动态:17337,动态:21780,动态:20399,动态:22698,动态:21776,动态:21741,动态:21740,动态:21857,动态:21745,动态:22688,动态:22699,动态:22146,动态:21436,动态:22710,动态:21727,动态:22697,动态:7746,动态:22696,动态:20364,动态:20440,动态:22706,动态:20439,动态:22692,动态:21753,动态:22019,动态:21556,动态:21972,动态:22659</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>动态:20298,动态:7059,动态:7045,动态:7603,动态:13605,动态:16754,动态:6820,动态:22244,动态:21960,动态:21661,动态:21675,动态:22294,动态:22296,动态:10136,动态:21410,动态:19606,动态:21763,动态:22507,动态:22692,动态:22697,动态:22685,动态:21737,动态:21757,动态:21727,动态:22659,动态:22696,动态:21780,动态:22680,动态:4036,动态:22706,动态:21556,动态:21776,动态:21857,动态:22684,动态:22512,动态:21741,动态:22323,动态:22019,动态:20720,动态:17337,动态:22699,动态:21753,动态:21740,动态:21436,动态:21975,动态:22688,动态:22710,动态:21756,动态:22146,动态:22702</t>
+          <t>动态:20298,动态:7059,动态:7045,动态:7603,动态:13605,动态:16754,动态:6820,动态:22244,动态:21960,动态:21661,动态:21675,动态:22294,动态:22296,动态:10136,动态:21410,动态:19606,动态:22019,动态:22659,动态:21972,动态:22706,动态:21763,动态:22680,动态:21757,动态:22697,动态:22146,动态:21780,动态:4036,动态:21740,动态:21857,动态:22699,动态:21975,动态:21436,动态:21776,动态:22710,动态:21753,动态:21745,动态:22702,动态:22692,动态:22685,动态:22684,动态:21737,动态:21741,动态:20720,动态:21556,动态:17337,动态:22698,动态:22512,动态:21756,动态:22688,动态:22323</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>动态:20419,动态:20389,动态:19896,动态:19883,动态:19822,动态:19826,动态:19882,动态:19856,动态:19835,动态:19847,动态:19836,动态:19881,动态:19838,动态:19858,动态:19859,动态:19867,动态:19886,动态:19857,动态:11044,动态:19723,动态:11441,动态:6584,动态:18024,动态:6606,动态:22684,动态:22706,动态:21757,动态:21741,动态:21740,动态:22698,动态:22659,动态:20364,动态:21756,动态:21972,动态:22667,动态:22680,动态:21975,动态:22512,动态:21763,动态:21857,动态:7746,动态:22692,动态:21727,动态:22697,动态:22507,动态:21745,动态:22019,动态:22696,动态:22710,动态:22699</t>
+          <t>动态:20419,动态:20389,动态:19896,动态:19883,动态:19822,动态:19826,动态:19882,动态:19856,动态:19835,动态:19847,动态:19836,动态:19881,动态:19838,动态:19858,动态:19859,动态:19867,动态:19886,动态:19857,动态:11044,动态:19723,动态:11441,动态:6584,动态:18024,动态:6606,动态:21776,动态:21975,动态:22685,动态:22697,动态:21745,动态:22699,动态:22696,动态:20720,动态:21972,动态:21436,动态:21780,动态:22019,动态:21740,动态:7746,动态:21756,动态:4036,动态:22507,动态:22680,动态:22710,动态:22698,动态:22692,动态:17337,动态:22667,动态:22702,动态:21556,动态:22659</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>动态:21745,动态:21756,动态:21727,动态:21556,动态:17337,动态:22696,动态:22697,动态:22659,动态:22680,动态:22698,动态:21780,动态:21975,动态:21972,动态:21737,动态:21740,动态:22692,动态:22685,动态:22146,动态:20439,动态:21763,动态:7746,动态:22706,动态:21753,动态:22702,动态:22323,动态:20720,动态:22688,动态:21436,动态:21776,动态:21857,动态:22667,动态:20440,动态:21741,动态:21757,动态:22019,动态:22507,动态:20364,动态:22512,动态:22684,动态:20399,动态:4036,动态:22710,动态:22699</t>
+          <t>动态:21857,动态:21556,动态:21975,动态:22667,动态:20364,动态:22680,动态:20440,动态:21780,动态:7746,动态:21753,动态:21741,动态:22507,动态:22697,动态:22692,动态:22696,动态:17337,动态:22702,动态:21737,动态:22685,动态:20439,动态:22710,动态:21776,动态:21763,动态:21756,动态:4036,动态:21727,动态:22323,动态:21757,动态:22659,动态:21745,动态:22019,动态:22698,动态:21436,动态:22146,动态:22699,动态:22688,动态:21972,动态:20720,动态:22684,动态:20399,动态:22706,动态:22512,动态:21740</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>动态:7746,动态:22710,动态:21741,动态:21857,动态:20364,动态:22680,动态:22019,动态:21757,动态:22667,动态:21972,动态:22698,动态:22659,动态:20399,动态:22696,动态:22699,动态:21727,动态:21780,动态:21740,动态:22692,动态:22323,动态:22684,动态:21556,动态:22507,动态:22512,动态:21763,动态:22702,动态:17337,动态:21756,动态:20439,动态:22146,动态:21745,动态:21737,动态:22697,动态:21975,动态:22706,动态:20440,动态:21436,动态:22688,动态:21753,动态:4036,动态:20720,动态:21776,动态:22685</t>
+          <t>动态:20364,动态:21780,动态:21727,动态:22507,动态:4036,动态:21556,动态:22702,动态:22667,动态:22684,动态:20720,动态:21740,动态:22692,动态:21763,动态:22710,动态:21737,动态:22685,动态:22146,动态:20439,动态:22323,动态:22688,动态:21776,动态:21741,动态:22699,动态:22698,动态:22019,动态:22696,动态:22512,动态:21857,动态:21975,动态:22706,动态:22680,动态:21436,动态:21753,动态:7746,动态:21757,动态:21745,动态:22659,动态:20399,动态:17337,动态:21756,动态:22697,动态:21972,动态:20440</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>动态:6689,动态:6686,动态:6680,动态:6683,动态:6500,动态:6729,动态:11055,动态:7049,动态:6615,动态:20230,动态:20227,动态:5896,动态:7047,动态:7129,动态:11118,动态:11116,动态:6643,动态:6462,动态:6759,动态:7604,动态:6240,动态:6733,动态:6825,动态:6852,动态:6766,动态:6898,动态:6891,动态:6186,动态:6187,动态:22512,动态:21776,动态:20439,动态:22692,动态:21740,动态:21741,动态:22680,动态:22019,动态:22684,动态:22685,动态:22667,动态:22710,动态:22697,动态:20399,动态:21727,动态:7746,动态:22706,动态:21556,动态:21857,动态:22323,动态:21753</t>
+          <t>动态:6689,动态:6686,动态:6680,动态:6683,动态:6500,动态:6729,动态:11055,动态:7049,动态:6615,动态:20230,动态:20227,动态:5896,动态:7047,动态:7129,动态:11118,动态:11116,动态:6643,动态:6462,动态:6759,动态:7604,动态:6240,动态:6733,动态:6825,动态:6852,动态:6766,动态:6898,动态:6891,动态:6186,动态:6187,动态:22696,动态:22702,动态:21436,动态:22692,动态:20439,动态:22688,动态:21780,动态:17337,动态:20364,动态:7746,动态:22507,动态:22659,动态:21556,动态:21857,动态:21763,动态:22699,动态:22698,动态:21975,动态:21745,动态:21756,动态:22512</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>动态:21436,动态:21740,动态:21741,动态:22697,动态:21757,动态:22685,动态:21556,动态:20439,动态:21756,动态:22323,动态:22710,动态:22698,动态:4036,动态:21745,动态:21776,动态:21727,动态:22706,动态:22019,动态:22692,动态:22507,动态:20440,动态:22512,动态:22659,动态:22684,动态:21780,动态:17337,动态:22696,动态:22688,动态:21857,动态:22699,动态:21763,动态:7746,动态:22702,动态:20364,动态:22146,动态:20399,动态:21975,动态:22680,动态:21972,动态:22667,动态:21737,动态:21753,动态:20720</t>
+          <t>动态:22698,动态:22680,动态:21737,动态:20399,动态:22696,动态:21857,动态:20720,动态:21975,动态:22688,动态:22697,动态:21972,动态:22685,动态:22019,动态:21556,动态:22667,动态:20364,动态:21780,动态:22323,动态:17337,动态:22146,动态:22710,动态:22702,动态:21436,动态:21727,动态:21753,动态:20440,动态:21756,动态:22507,动态:22512,动态:21757,动态:20439,动态:21745,动态:21763,动态:21740,动态:7746,动态:4036,动态:22699,动态:22692,动态:22659,动态:21776,动态:21741,动态:22706,动态:22684</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>动态:21740,动态:22323,动态:21727,动态:21780,动态:21436,动态:21857,动态:22512,动态:22685,动态:21763,动态:21737,动态:21556,动态:22019,动态:22706,动态:22688,动态:4036,动态:21741,动态:22680,动态:7746,动态:21972,动态:21756,动态:20440,动态:21753,动态:22146,动态:22702,动态:22698,动态:20399,动态:22667,动态:20720,动态:20364,动态:21757,动态:22697,动态:22699,动态:22692,动态:17337,动态:21776,动态:22684,动态:22507,动态:22696,动态:21975,动态:22659,动态:22710,动态:20439,动态:21745</t>
+          <t>动态:22688,动态:21776,动态:21753,动态:22667,动态:22698,动态:22697,动态:21857,动态:21740,动态:21741,动态:17337,动态:21763,动态:20439,动态:21972,动态:22019,动态:21727,动态:21737,动态:22702,动态:22696,动态:21756,动态:22699,动态:22507,动态:21436,动态:21757,动态:22685,动态:21556,动态:21780,动态:22692,动态:21975,动态:20720,动态:4036,动态:22706,动态:20440,动态:22146,动态:21745,动态:22659,动态:22512,动态:20399,动态:22323,动态:7746,动态:20364,动态:22680,动态:22710,动态:22684</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>动态:22075,动态:6773,动态:6845,动态:6848,动态:6762,动态:6790,动态:6666,动态:6761,动态:6652,动态:6692,动态:6779,动态:6752,动态:6777,动态:6767,动态:6755,动态:6584,动态:18024,动态:6606,动态:8002,动态:13605,动态:6820,动态:7603,动态:16754,动态:10136,动态:22146,动态:4036,动态:22699,动态:20439,动态:20364,动态:22702,动态:21740,动态:20399,动态:21756,动态:22696,动态:21753,动态:22507,动态:22710,动态:21757,动态:21763,动态:22706,动态:21780,动态:21745,动态:22659,动态:22697,动态:22685,动态:21436,动态:22688,动态:22667,动态:21975,动态:22692</t>
+          <t>动态:22075,动态:6773,动态:6845,动态:6848,动态:6762,动态:6790,动态:6666,动态:6761,动态:6652,动态:6692,动态:6779,动态:6752,动态:6777,动态:6767,动态:6755,动态:6584,动态:18024,动态:6606,动态:8002,动态:13605,动态:6820,动态:7603,动态:16754,动态:10136,动态:21740,动态:22696,动态:21436,动态:20399,动态:20364,动态:21780,动态:22692,动态:22659,动态:22698,动态:21975,动态:21556,动态:22688,动态:22702,动态:22507,动态:22146,动态:21745,动态:22699,动态:21753,动态:21763,动态:21972,动态:21727,动态:21737,动态:22697,动态:22710,动态:21741,动态:22685</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>动态:20364,动态:21975,动态:21757,动态:20720,动态:21740,动态:21763,动态:22702,动态:21745,动态:22706,动态:17337,动态:21756,动态:22696,动态:22323,动态:20399,动态:21556,动态:21972,动态:21741,动态:20440,动态:22146,动态:22667,动态:21753,动态:21780,动态:22019,动态:22684,动态:22507,动态:22698,动态:22512,动态:21776,动态:22688,动态:21737,动态:4036,动态:21436,动态:22699,动态:20439,动态:7746,动态:21727,动态:22685,动态:22659,动态:22680,动态:21857,动态:22692,动态:22697,动态:22710</t>
+          <t>动态:21740,动态:21780,动态:22706,动态:20399,动态:4036,动态:21745,动态:21556,动态:21975,动态:22692,动态:20720,动态:22684,动态:21857,动态:22697,动态:22507,动态:21727,动态:22146,动态:20439,动态:22710,动态:21436,动态:22680,动态:22659,动态:22512,动态:22667,动态:21763,动态:22685,动态:20440,动态:22698,动态:22702,动态:22688,动态:21776,动态:22323,动态:7746,动态:21741,动态:20364,动态:21737,动态:22696,动态:21757,动态:22019,动态:22699,动态:21756,动态:21753,动态:17337,动态:21972</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>动态:20440,动态:21436,动态:17337,动态:21727,动态:22706,动态:22696,动态:22507,动态:21857,动态:21556,动态:22659,动态:4036,动态:21975,动态:20364,动态:22688,动态:22698,动态:22667,动态:20720,动态:21753,动态:21737,动态:21757,动态:22684,动态:20399,动态:22512,动态:21740,动态:22697,动态:21780,动态:22680,动态:22692,动态:21763,动态:21741,动态:21776,动态:22685,动态:21745,动态:22710,动态:20439,动态:22323,动态:22699,动态:7746,动态:22702,动态:21756,动态:22019,动态:22146,动态:21972</t>
+          <t>动态:20364,动态:22688,动态:21972,动态:22697,动态:21745,动态:21975,动态:22323,动态:21780,动态:4036,动态:22699,动态:21740,动态:22692,动态:21436,动态:22507,动态:21556,动态:22667,动态:20439,动态:21727,动态:22684,动态:22019,动态:20440,动态:22706,动态:22696,动态:22680,动态:22698,动态:21757,动态:21763,动态:17337,动态:22710,动态:20399,动态:20720,动态:22512,动态:22702,动态:21753,动态:22685,动态:21741,动态:21737,动态:22659,动态:21776,动态:21857,动态:22146,动态:21756,动态:7746</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>动态:21727,动态:22692,动态:22688,动态:20440,动态:21436,动态:22019,动态:21741,动态:22697,动态:22146,动态:21763,动态:22680,动态:22512,动态:4036,动态:22696,动态:20364,动态:21780,动态:22698,动态:21776,动态:20399,动态:22706,动态:21745,动态:21757,动态:21740,动态:22699,动态:22710,动态:21556,动态:22685,动态:20720,动态:17337,动态:20439,动态:22507,动态:21975,动态:21753,动态:22684,动态:7746,动态:22667,动态:22702,动态:22659,动态:21737,动态:21972,动态:21857,动态:22323,动态:21756</t>
+          <t>动态:20720,动态:22699,动态:22697,动态:21741,动态:21740,动态:21972,动态:22685,动态:22692,动态:21780,动态:22696,动态:22512,动态:22702,动态:22667,动态:22323,动态:22507,动态:20439,动态:22710,动态:21763,动态:22688,动态:22684,动态:21745,动态:20399,动态:22706,动态:20364,动态:22146,动态:22680,动态:22659,动态:21727,动态:21857,动态:22019,动态:4036,动态:21737,动态:21776,动态:20440,动态:21756,动态:21556,动态:21436,动态:22698,动态:7746,动态:17337,动态:21975,动态:21757,动态:21753</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>动态:21737,动态:20399,动态:22323,动态:17337,动态:22146,动态:22692,动态:22507,动态:22710,动态:21556,动态:21740,动态:20364,动态:21776,动态:4036,动态:22680,动态:22702,动态:22706,动态:21972,动态:21436,动态:21763,动态:21975,动态:22699,动态:22659,动态:20440,动态:22688,动态:7746,动态:21780,动态:22697,动态:21756,动态:21757,动态:21745,动态:21753,动态:21727,动态:22667,动态:22696,动态:22685,动态:20720,动态:21741,动态:22019,动态:22512,动态:20439,动态:22698,动态:21857,动态:22684</t>
+          <t>动态:22696,动态:22699,动态:22323,动态:21753,动态:20440,动态:20720,动态:22512,动态:22146,动态:21745,动态:22019,动态:22684,动态:22702,动态:21975,动态:22507,动态:21763,动态:22685,动态:21780,动态:21776,动态:21436,动态:21756,动态:20439,动态:21556,动态:22692,动态:21737,动态:4036,动态:22680,动态:21757,动态:20399,动态:17337,动态:22667,动态:7746,动态:21972,动态:21727,动态:21740,动态:22688,动态:22697,动态:22659,动态:22706,动态:21741,动态:20364,动态:22698,动态:21857,动态:22710</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>动态:22512,动态:22667,动态:21975,动态:4036,动态:22692,动态:22697,动态:22680,动态:21737,动态:21972,动态:17337,动态:22659,动态:21763,动态:22698,动态:22146,动态:22684,动态:22323,动态:20439,动态:7746,动态:21780,动态:20720,动态:22688,动态:22507,动态:21556,动态:22699,动态:20440,动态:22019,动态:22702,动态:22696,动态:21741,动态:21745,动态:21727,动态:21776,动态:21756,动态:21740,动态:22710,动态:21436,动态:22706,动态:22685,动态:21857,动态:20364,动态:21753,动态:21757,动态:20399</t>
+          <t>动态:22507,动态:22019,动态:22146,动态:22697,动态:22685,动态:20440,动态:21857,动态:22699,动态:17337,动态:21741,动态:20720,动态:21756,动态:21737,动态:21745,动态:22667,动态:22696,动态:22702,动态:21556,动态:21972,动态:21727,动态:22512,动态:22680,动态:4036,动态:22688,动态:22323,动态:21757,动态:20364,动态:22659,动态:21763,动态:21975,动态:22698,动态:22684,动态:21740,动态:21753,动态:21780,动态:21776,动态:22692,动态:21436,动态:7746,动态:20399,动态:22706,动态:20439,动态:22710</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>动态:22680,动态:22512,动态:21756,动态:21737,动态:7746,动态:21745,动态:21740,动态:22685,动态:21857,动态:20439,动态:21753,动态:22710,动态:21436,动态:20440,动态:21757,动态:17337,动态:21556,动态:22667,动态:22659,动态:22692,动态:20720,动态:22507,动态:21780,动态:21776,动态:21741,动态:21975,动态:22688,动态:20364,动态:22699,动态:22706,动态:20399,动态:22146,动态:22697,动态:22696,动态:22323,动态:22702,动态:22019,动态:22684,动态:21763,动态:21727,动态:22698,动态:21972,动态:4036</t>
+          <t>动态:22702,动态:22692,动态:4036,动态:21857,动态:17337,动态:20439,动态:22685,动态:21756,动态:22706,动态:22019,动态:22699,动态:7746,动态:21556,动态:22698,动态:22507,动态:21780,动态:20720,动态:22710,动态:22659,动态:20399,动态:21972,动态:21757,动态:21741,动态:21776,动态:21763,动态:20364,动态:22696,动态:22688,动态:21753,动态:21975,动态:21727,动态:22697,动态:22323,动态:21737,动态:21745,动态:22512,动态:20440,动态:21740,动态:21436,动态:22684,动态:22146,动态:22667,动态:22680</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>动态:21972,动态:22696,动态:21776,动态:22702,动态:21740,动态:20440,动态:4036,动态:22680,动态:21757,动态:22706,动态:21753,动态:22146,动态:22699,动态:22692,动态:17337,动态:22684,动态:21857,动态:20720,动态:22710,动态:21727,动态:20364,动态:22697,动态:22507,动态:22323,动态:22685,动态:21763,动态:20399,动态:21737,动态:21756,动态:21975,动态:7746,动态:22667,动态:22019,动态:21741,动态:21556,动态:21745,动态:20439,动态:22698,动态:22688,动态:21436,动态:22512,动态:21780,动态:22659</t>
+          <t>动态:22019,动态:21975,动态:21972,动态:22507,动态:21776,动态:21745,动态:22696,动态:20364,动态:22698,动态:22512,动态:21740,动态:22685,动态:21857,动态:20399,动态:22697,动态:22692,动态:17337,动态:21757,动态:21753,动态:21741,动态:22323,动态:22684,动态:22680,动态:22699,动态:21737,动态:21780,动态:21763,动态:20720,动态:21556,动态:21756,动态:22706,动态:21436,动态:7746,动态:22146,动态:20440,动态:22688,动态:21727,动态:22702,动态:4036,动态:20439,动态:22710,动态:22667,动态:22659</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>动态:20364,动态:22699,动态:20399,动态:21756,动态:21780,动态:21727,动态:21757,动态:20440,动态:22146,动态:21436,动态:21857,动态:21763,动态:21745,动态:22512,动态:22697,动态:21975,动态:20439,动态:20720,动态:22702,动态:22698,动态:22019,动态:4036,动态:7746,动态:21972,动态:22507,动态:21753,动态:22323,动态:22706,动态:21741,动态:22685,动态:21556,动态:22688,动态:17337,动态:22710,动态:22680,动态:22667,动态:22659,动态:21737,动态:22696,动态:21776,动态:22692,动态:22684,动态:21740</t>
+          <t>动态:22512,动态:21776,动态:21745,动态:21727,动态:21436,动态:22323,动态:21756,动态:21857,动态:21780,动态:21972,动态:21741,动态:20399,动态:22702,动态:22507,动态:22019,动态:22699,动态:22696,动态:21737,动态:22685,动态:21975,动态:22688,动态:22710,动态:22698,动态:20720,动态:21763,动态:22684,动态:17337,动态:22146,动态:20440,动态:22692,动态:21556,动态:22659,动态:20364,动态:22706,动态:22667,动态:22697,动态:22680,动态:20439,动态:21757,动态:7746,动态:21753,动态:21740,动态:4036</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>动态:20364,动态:22688,动态:21737,动态:21745,动态:21727,动态:21753,动态:17337,动态:21776,动态:21436,动态:22146,动态:22019,动态:20440,动态:21556,动态:21780,动态:20399,动态:4036,动态:22702,动态:22685,动态:21757,动态:22680,动态:22684,动态:22698,动态:22706,动态:22696,动态:22507,动态:22697,动态:21740,动态:21857,动态:20439,动态:22512,动态:21741,动态:22699,动态:20720,动态:22659,动态:22710,动态:22323,动态:21763,动态:21975,动态:22667,动态:7746,动态:21972,动态:21756,动态:22692</t>
+          <t>动态:21556,动态:21753,动态:21727,动态:17337,动态:21780,动态:22688,动态:22710,动态:4036,动态:22323,动态:21975,动态:20364,动态:20720,动态:22699,动态:22692,动态:21745,动态:21757,动态:22680,动态:22667,动态:22698,动态:21972,动态:21756,动态:22685,动态:21436,动态:22684,动态:22019,动态:22512,动态:21741,动态:20440,动态:20399,动态:22146,动态:21763,动态:22659,动态:22706,动态:20439,动态:22696,动态:22507,动态:21740,动态:7746,动态:21776,动态:22697,动态:21737,动态:21857,动态:22702</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>动态:4036,动态:7746,动态:22710,动态:22699,动态:22146,动态:22692,动态:21756,动态:22667,动态:21857,动态:22696,动态:21741,动态:22706,动态:21727,动态:22702,动态:21740,动态:21780,动态:22019,动态:22685,动态:21737,动态:21975,动态:21763,动态:21757,动态:20439,动态:22680,动态:21972,动态:22659,动态:22507,动态:22323,动态:22512,动态:20720,动态:22688,动态:22684,动态:21753,动态:22697,动态:21776,动态:21436,动态:17337,动态:21556,动态:22698,动态:21745,动态:20364,动态:20399,动态:20440</t>
+          <t>动态:21745,动态:21737,动态:21756,动态:22697,动态:22688,动态:20440,动态:22512,动态:22710,动态:22706,动态:22699,动态:21763,动态:17337,动态:22698,动态:22019,动态:22692,动态:21780,动态:22685,动态:21556,动态:21857,动态:21753,动态:21972,动态:22702,动态:21757,动态:22684,动态:20364,动态:20439,动态:21727,动态:22667,动态:22323,动态:22659,动态:22146,动态:22507,动态:21740,动态:20399,动态:7746,动态:4036,动态:21741,动态:22680,动态:20720,动态:21436,动态:21776,动态:21975,动态:22696</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>动态:21753,动态:17337,动态:22702,动态:22146,动态:21436,动态:22507,动态:20720,动态:21776,动态:21756,动态:21745,动态:21975,动态:21740,动态:21857,动态:7746,动态:22323,动态:22667,动态:21757,动态:21741,动态:22697,动态:20439,动态:4036,动态:22659,动态:22685,动态:21727,动态:22698,动态:21737,动态:20440,动态:21780,动态:22684,动态:22706,动态:22710,动态:20364,动态:21556,动态:21763,动态:22699,动态:21972,动态:22696,动态:22688,动态:22019,动态:22512,动态:22680,动态:20399,动态:22692</t>
+          <t>动态:21737,动态:22512,动态:22667,动态:22507,动态:22688,动态:22698,动态:21972,动态:21745,动态:21975,动态:22019,动态:22323,动态:21556,动态:21753,动态:4036,动态:22706,动态:22659,动态:22699,动态:22702,动态:21776,动态:22696,动态:22697,动态:21763,动态:22692,动态:20720,动态:20399,动态:21857,动态:21756,动态:20440,动态:17337,动态:22685,动态:21741,动态:21436,动态:22680,动态:21780,动态:20439,动态:22684,动态:21757,动态:20364,动态:22710,动态:22146,动态:21727,动态:7746,动态:21740</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>动态:17337,动态:22698,动态:22688,动态:22696,动态:22019,动态:21763,动态:20720,动态:22710,动态:22699,动态:21745,动态:20439,动态:22659,动态:22323,动态:21857,动态:21776,动态:22697,动态:21737,动态:21756,动态:22146,动态:21727,动态:21780,动态:22692,动态:22512,动态:21757,动态:21753,动态:7746,动态:21436,动态:22667,动态:22702,动态:4036,动态:20364,动态:21741,动态:21556,动态:21975,动态:22706,动态:22680,动态:22685,动态:20399,动态:22507,动态:21972,动态:22684,动态:21740,动态:20440</t>
+          <t>动态:20439,动态:21763,动态:21753,动态:20399,动态:21740,动态:22685,动态:21857,动态:22019,动态:22692,动态:22710,动态:22659,动态:21780,动态:21975,动态:21757,动态:17337,动态:22698,动态:21556,动态:4036,动态:21756,动态:22702,动态:22323,动态:20440,动态:22667,动态:21737,动态:22706,动态:22684,动态:21776,动态:22507,动态:21741,动态:21727,动态:21436,动态:22512,动态:7746,动态:22146,动态:21972,动态:22680,动态:20720,动态:22697,动态:22699,动态:21745,动态:22688,动态:22696,动态:20364</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>动态:21848,动态:22611,动态:17691,动态:17694,动态:17693,动态:12069,动态:20759,动态:21103,动态:22097,动态:20836,动态:20840,动态:6522,动态:20672,动态:12901,动态:12898,动态:12727,动态:21417,动态:12896,动态:12719,动态:12589,动态:12592,动态:12593,动态:12595,动态:12711,动态:20673,动态:12690,动态:16395,动态:19208,动态:20274,动态:20270,动态:20256,动态:20005,动态:6775,动态:19007,动态:19783,动态:17757,动态:17769,动态:18509,动态:18781,动态:18506,动态:19935,动态:18467,动态:19995,动态:20200,动态:18871,动态:22680,动态:22702,动态:17481,动态:21753,动态:22667</t>
+          <t>动态:21848,动态:22611,动态:17691,动态:17694,动态:17693,动态:12069,动态:20759,动态:21103,动态:22097,动态:20836,动态:20840,动态:6522,动态:20672,动态:12901,动态:12898,动态:12727,动态:21417,动态:12896,动态:12719,动态:12589,动态:12592,动态:12593,动态:12595,动态:12711,动态:20673,动态:12690,动态:16395,动态:19208,动态:20274,动态:20270,动态:20256,动态:20005,动态:6775,动态:19007,动态:19783,动态:17757,动态:17769,动态:18509,动态:18781,动态:18506,动态:19935,动态:18467,动态:19995,动态:20200,动态:18871,动态:19606,动态:12557,动态:16914,动态:21757,动态:6893</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>动态:22146,动态:21780,动态:20720,动态:20439,动态:4036,动态:22684,动态:21972,动态:20440,动态:21756,动态:20364,动态:21745,动态:22667,动态:21737,动态:22659,动态:21741,动态:22699,动态:22688,动态:22680,动态:17337,动态:22710,动态:22696,动态:21727,动态:22507,动态:21740,动态:22685,动态:22323,动态:22706,动态:21436,动态:21757,动态:22698,动态:22019,动态:21975,动态:22697,动态:21556,动态:21857,动态:21776,动态:21763,动态:22692,动态:7746,动态:21753,动态:22702,动态:20399,动态:22512</t>
+          <t>动态:22667,动态:22696,动态:21776,动态:22699,动态:21972,动态:21757,动态:22507,动态:21756,动态:21556,动态:21741,动态:22698,动态:21745,动态:20439,动态:22706,动态:21737,动态:7746,动态:22685,动态:4036,动态:22702,动态:21975,动态:22697,动态:22692,动态:22684,动态:21763,动态:22659,动态:22688,动态:22512,动态:22680,动态:22323,动态:20364,动态:21740,动态:21727,动态:20440,动态:22019,动态:22146,动态:20720,动态:21857,动态:21753,动态:21436,动态:20399,动态:22710,动态:21780,动态:17337</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>动态:22692,动态:21741,动态:22019,动态:22698,动态:20720,动态:21857,动态:22685,动态:7746,动态:21737,动态:21740,动态:22688,动态:21745,动态:20364,动态:20439,动态:22697,动态:22699,动态:22684,动态:22146,动态:22696,动态:21727,动态:22710,动态:22667,动态:22323,动态:21776,动态:22702,动态:21780,动态:21756,动态:22512,动态:21436,动态:4036,动态:22659,动态:21763,动态:20399,动态:21753,动态:21972,动态:20440,动态:22680,动态:21556,动态:21975,动态:22706,动态:22507,动态:21757</t>
+          <t>动态:21737,动态:22507,动态:20720,动态:22146,动态:21972,动态:21436,动态:22697,动态:21756,动态:22512,动态:22688,动态:22323,动态:21745,动态:21727,动态:22706,动态:22685,动态:22699,动态:20440,动态:21776,动态:22680,动态:22019,动态:22692,动态:21741,动态:22659,动态:22698,动态:22702,动态:21753,动态:7746,动态:22696,动态:21763,动态:20399,动态:20364,动态:22684,动态:22667,动态:21857,动态:20439,动态:4036,动态:21757,动态:21780,动态:21556,动态:21975,动态:21740,动态:22710</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>动态:7746,动态:22507,动态:22692,动态:22685,动态:21763,动态:20439,动态:22710,动态:22706,动态:22684,动态:22323,动态:21972,动态:21556,动态:22680,动态:21857,动态:21740,动态:22146,动态:22697,动态:20399,动态:22702,动态:20364,动态:21727,动态:21776,动态:21436,动态:22512,动态:21745,动态:21753,动态:21975,动态:21757,动态:22696,动态:20720,动态:20440,动态:22667,动态:22699,动态:4036,动态:22659,动态:17337,动态:22698,动态:21737,动态:22019,动态:21756,动态:21780,动态:21741,动态:22688</t>
+          <t>动态:22685,动态:22702,动态:21737,动态:22699,动态:20440,动态:22512,动态:21756,动态:7746,动态:21556,动态:22698,动态:21972,动态:21857,动态:20399,动态:22692,动态:21727,动态:22706,动态:22697,动态:21757,动态:21975,动态:21741,动态:21436,动态:22323,动态:22667,动态:22680,动态:22696,动态:22684,动态:22710,动态:4036,动态:21780,动态:21763,动态:17337,动态:20439,动态:21740,动态:22507,动态:21745,动态:21753,动态:22659,动态:22019,动态:20720,动态:22146,动态:22688,动态:21776,动态:20364</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>动态:22323,动态:21857,动态:21972,动态:21745,动态:22507,动态:22702,动态:4036,动态:22699,动态:22710,动态:21753,动态:22688,动态:21776,动态:20440,动态:21975,动态:22692,动态:21737,动态:22659,动态:22684,动态:21756,动态:22146,动态:20439,动态:22685,动态:17337,动态:22696,动态:21740,动态:21436,动态:22512,动态:22667,动态:21757,动态:7746,动态:20364,动态:21780,动态:20399,动态:20720,动态:22698,动态:21556,动态:21741,动态:22019,动态:22680,动态:21727,动态:21763,动态:22706,动态:22697</t>
+          <t>动态:22692,动态:22696,动态:21436,动态:22697,动态:21780,动态:22698,动态:22710,动态:22702,动态:21776,动态:21756,动态:20399,动态:22688,动态:21753,动态:21975,动态:22667,动态:22706,动态:21757,动态:21745,动态:22684,动态:21740,动态:21763,动态:22019,动态:17337,动态:22512,动态:22323,动态:21972,动态:22680,动态:22685,动态:22699,动态:21737,动态:21741,动态:22146,动态:21857,动态:21727,动态:7746,动态:4036,动态:22507,动态:21556,动态:22659,动态:20440,动态:20720,动态:20364,动态:20439</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>动态:22685,动态:22688,动态:21857,动态:22512,动态:21740,动态:22507,动态:21727,动态:21972,动态:21756,动态:22699,动态:20440,动态:22697,动态:22710,动态:20439,动态:22702,动态:21737,动态:20399,动态:20364,动态:21776,动态:22684,动态:22706,动态:21975,动态:21556,动态:7746,动态:22698,动态:21745,动态:22659,动态:22696,动态:4036,动态:22146,动态:17337,动态:20720,动态:21741,动态:22667,动态:21436,动态:21757,动态:22019,动态:21753,动态:21780,动态:21763,动态:22323,动态:22692,动态:22680</t>
+          <t>动态:22698,动态:20440,动态:21756,动态:7746,动态:20364,动态:21975,动态:21740,动态:21753,动态:22685,动态:22512,动态:22667,动态:21972,动态:21776,动态:22710,动态:22688,动态:21857,动态:21556,动态:21763,动态:22697,动态:22696,动态:4036,动态:22680,动态:22507,动态:20439,动态:21780,动态:22659,动态:17337,动态:22692,动态:21741,动态:21727,动态:21745,动态:22684,动态:22146,动态:21436,动态:22019,动态:20399,动态:22702,动态:22699,动态:22706,动态:20720,动态:22323,动态:21757,动态:21737</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>动态:21727,动态:21763,动态:21741,动态:22019,动态:22323,动态:21776,动态:20364,动态:22698,动态:7746,动态:21972,动态:21757,动态:22667,动态:21753,动态:22699,动态:20399,动态:22706,动态:22702,动态:22710,动态:21436,动态:22688,动态:17337,动态:22680,动态:21975,动态:21756,动态:21780,动态:20440,动态:22697,动态:22692,动态:21556,动态:20720,动态:22507,动态:22696,动态:22659,动态:22685,动态:21857,动态:20439,动态:4036,动态:22146,动态:22684,动态:21745,动态:22512,动态:21740,动态:21737</t>
+          <t>动态:21741,动态:21436,动态:21556,动态:21753,动态:21975,动态:20399,动态:22698,动态:20720,动态:20440,动态:22685,动态:22146,动态:22688,动态:22680,动态:22710,动态:21756,动态:21740,动态:21757,动态:22019,动态:22684,动态:17337,动态:22692,动态:22706,动态:21972,动态:22696,动态:21780,动态:4036,动态:7746,动态:20439,动态:22507,动态:21727,动态:22323,动态:21776,动态:22702,动态:21745,动态:22512,动态:22659,动态:22667,动态:22697,动态:21857,动态:21737,动态:21763,动态:20364,动态:22699</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>动态:21737,动态:21745,动态:7746,动态:22680,动态:4036,动态:22710,动态:22146,动态:20399,动态:21727,动态:21780,动态:21556,动态:22685,动态:22684,动态:22667,动态:22507,动态:17337,动态:20720,动态:22019,动态:21436,动态:21857,动态:22688,动态:21776,动态:21753,动态:22512,动态:22692,动态:21740,动态:20440,动态:21741,动态:21763,动态:20364,动态:21756,动态:22323,动态:22702,动态:22697,动态:21757,动态:22706,动态:22696,动态:20439,动态:21972,动态:22699,动态:22659,动态:21975,动态:22698</t>
+          <t>动态:22696,动态:22146,动态:22692,动态:21741,动态:20364,动态:21745,动态:21975,动态:17337,动态:21780,动态:21556,动态:4036,动态:21737,动态:21756,动态:20399,动态:22688,动态:22019,动态:22680,动态:22659,动态:22507,动态:22667,动态:20439,动态:22512,动态:21757,动态:20720,动态:21753,动态:22684,动态:22702,动态:7746,动态:21763,动态:21972,动态:22698,动态:22699,动态:21776,动态:22685,动态:20440,动态:21740,动态:22706,动态:21727,动态:22323,动态:22710,动态:21436,动态:22697,动态:21857</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>动态:22710,动态:20399,动态:21741,动态:17337,动态:22019,动态:4036,动态:21740,动态:21727,动态:21756,动态:21780,动态:20439,动态:21857,动态:22685,动态:7746,动态:22697,动态:22146,动态:21763,动态:21745,动态:21776,动态:21757,动态:22698,动态:21975,动态:22699,动态:21753,动态:21737,动态:20720,动态:22684,动态:22667,动态:21972,动态:22512,动态:22688,动态:22696,动态:22659,动态:22692,动态:22702,动态:22507,动态:21436,动态:22323,动态:22706,动态:22680,动态:21556,动态:20364</t>
+          <t>动态:22685,动态:22706,动态:22507,动态:21753,动态:21780,动态:22323,动态:21975,动态:21737,动态:20364,动态:21727,动态:21972,动态:22710,动态:21745,动态:21757,动态:21763,动态:22696,动态:22659,动态:21556,动态:22698,动态:21741,动态:22697,动态:20399,动态:22667,动态:21776,动态:20439,动态:21756,动态:22019,动态:17337,动态:22688,动态:7746,动态:21436,动态:22692,动态:4036,动态:21740,动态:20720,动态:22512,动态:22702,动态:22699,动态:22146,动态:21857,动态:22680,动态:22684</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>动态:7746,动态:21780,动态:20399,动态:22699,动态:20720,动态:21745,动态:22512,动态:21756,动态:21757,动态:22698,动态:22659,动态:22702,动态:20439,动态:21975,动态:22019,动态:21972,动态:20364,动态:22667,动态:22688,动态:22684,动态:21753,动态:21857,动态:21556,动态:22697,动态:22706,动态:21436,动态:20440,动态:22323,动态:4036,动态:21741,动态:22685,动态:22696,动态:22710,动态:22692,动态:21776,动态:17337,动态:22680,动态:21727,动态:21740,动态:22146,动态:22507,动态:21763,动态:21737</t>
+          <t>动态:21556,动态:20399,动态:21975,动态:21757,动态:21780,动态:22710,动态:17337,动态:22680,动态:21972,动态:20364,动态:22699,动态:22146,动态:21727,动态:7746,动态:21436,动态:20439,动态:21763,动态:22323,动态:21753,动态:22019,动态:22512,动态:22702,动态:22507,动态:21741,动态:22696,动态:21857,动态:4036,动态:22684,动态:22706,动态:21740,动态:20440,动态:21776,动态:22688,动态:20720,动态:21756,动态:21745,动态:21737,动态:22698,动态:22667,动态:22685,动态:22659,动态:22697,动态:22692</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>动态:21556,动态:22659,动态:21740,动态:22706,动态:21972,动态:21436,动态:22688,动态:4036,动态:21857,动态:21776,动态:21727,动态:22323,动态:21753,动态:21737,动态:20440,动态:21780,动态:20439,动态:7746,动态:21763,动态:22692,动态:21745,动态:22507,动态:22696,动态:22684,动态:22697,动态:22702,动态:22698,动态:20399,动态:22512,动态:20720,动态:22685,动态:21975,动态:21756,动态:22680,动态:17337,动态:21741,动态:22146,动态:20364,动态:22710,动态:22699,动态:21757,动态:22667,动态:22019</t>
+          <t>动态:21776,动态:22323,动态:21753,动态:22698,动态:22702,动态:22699,动态:22692,动态:22667,动态:22507,动态:17337,动态:22680,动态:21857,动态:22685,动态:22696,动态:21737,动态:21436,动态:7746,动态:22146,动态:21745,动态:21740,动态:21975,动态:22512,动态:21756,动态:22697,动态:21556,动态:21780,动态:22659,动态:20440,动态:21763,动态:22019,动态:20439,动态:20364,动态:20399,动态:21972,动态:21741,动态:22688,动态:22706,动态:4036,动态:22710,动态:20720,动态:21727,动态:21757,动态:22684</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>动态:22323,动态:21763,动态:22710,动态:22706,动态:4036,动态:22696,动态:7746,动态:22667,动态:21737,动态:22697,动态:21727,动态:21756,动态:22680,动态:21776,动态:21975,动态:20399,动态:21972,动态:22688,动态:22699,动态:21741,动态:22019,动态:21745,动态:17337,动态:21757,动态:20440,动态:21436,动态:22512,动态:22702,动态:22684,动态:22685,动态:22507,动态:22698,动态:22659,动态:22692,动态:21857,动态:21780,动态:20364,动态:20720,动态:20439,动态:21556,动态:22146,动态:21740,动态:21753</t>
+          <t>动态:22685,动态:22684,动态:22146,动态:22692,动态:22323,动态:22507,动态:22698,动态:22659,动态:21756,动态:20364,动态:21975,动态:4036,动态:22680,动态:20440,动态:21857,动态:21741,动态:20399,动态:17337,动态:22019,动态:22688,动态:21763,动态:22512,动态:21780,动态:20439,动态:21436,动态:21740,动态:22702,动态:21737,动态:7746,动态:20720,动态:22667,动态:21757,动态:21753,动态:21556,动态:22696,动态:22699,动态:21727,动态:21972,动态:22706,动态:22697,动态:21745,动态:22710,动态:21776</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>动态:21556,动态:21741,动态:22710,动态:21975,动态:21776,动态:22146,动态:20364,动态:21745,动态:21740,动态:22019,动态:20720,动态:22697,动态:22698,动态:21756,动态:22684,动态:20440,动态:21780,动态:21857,动态:22512,动态:4036,动态:22659,动态:22507,动态:21972,动态:22706,动态:21737,动态:20439,动态:22680,动态:22692,动态:20399,动态:7746,动态:22323,动态:22702,动态:21763,动态:21727,动态:22696,动态:21757,动态:22685,动态:22688,动态:17337,动态:22699,动态:21753,动态:22667,动态:21436</t>
+          <t>动态:22667,动态:7746,动态:21737,动态:22706,动态:22659,动态:22696,动态:22146,动态:20720,动态:20399,动态:21727,动态:4036,动态:20364,动态:22512,动态:20439,动态:22507,动态:22692,动态:21745,动态:21780,动态:21741,动态:22702,动态:22710,动态:21753,动态:22684,动态:22697,动态:22698,动态:17337,动态:21436,动态:22323,动态:22680,动态:22688,动态:21763,动态:20440,动态:21556,动态:22699,动态:21740,动态:21776,动态:21757,动态:22685,动态:21857,动态:21756,动态:21975,动态:22019,动态:21972</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>动态:21756,动态:22692,动态:20440,动态:21975,动态:20364,动态:21757,动态:22706,动态:21776,动态:21741,动态:21727,动态:22146,动态:21763,动态:21436,动态:22680,动态:22019,动态:21737,动态:20720,动态:22684,动态:22512,动态:22667,动态:21740,动态:22697,动态:22323,动态:21556,动态:22659,动态:22699,动态:21745,动态:21972,动态:22702,动态:22696,动态:21753,动态:22688,动态:22685,动态:21857,动态:21780,动态:20439,动态:17337,动态:22710,动态:20399,动态:22698,动态:4036,动态:7746,动态:22507</t>
+          <t>动态:20720,动态:22323,动态:20439,动态:22659,动态:22146,动态:21975,动态:20364,动态:21757,动态:21745,动态:21753,动态:22680,动态:21556,动态:21737,动态:22507,动态:21972,动态:22702,动态:21436,动态:21756,动态:20399,动态:17337,动态:22699,动态:22710,动态:7746,动态:22696,动态:22667,动态:22692,动态:22698,动态:21763,动态:21727,动态:22688,动态:21740,动态:22684,动态:21780,动态:20440,动态:21741,动态:22697,动态:22019,动态:21857,动态:22685,动态:21776,动态:4036,动态:22512,动态:22706</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>动态:21436,动态:21737,动态:22699,动态:20399,动态:21857,动态:22512,动态:22696,动态:21776,动态:7746,动态:21756,动态:17337,动态:22697,动态:22698,动态:22323,动态:22019,动态:22146,动态:22692,动态:22659,动态:21757,动态:21741,动态:21753,动态:22680,动态:21740,动态:4036,动态:21763,动态:21556,动态:21972,动态:22667,动态:21780,动态:22688,动态:22685,动态:20720,动态:21975,动态:20440,动态:21745,动态:22706,动态:21727,动态:22507,动态:22710,动态:20439,动态:20364,动态:22684,动态:22702</t>
+          <t>动态:4036,动态:22697,动态:21857,动态:20720,动态:22512,动态:21776,动态:21780,动态:21745,动态:22685,动态:21757,动态:7746,动态:22692,动态:22688,动态:20399,动态:22323,动态:17337,动态:22507,动态:21975,动态:22696,动态:21436,动态:21763,动态:21972,动态:22684,动态:22710,动态:22699,动态:20440,动态:22019,动态:20364,动态:21740,动态:21727,动态:22659,动态:21741,动态:22680,动态:22146,动态:21556,动态:21753,动态:22706,动态:22667,动态:22698,动态:21756,动态:21737,动态:22702,动态:20439</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>动态:20439,动态:22685,动态:22680,动态:22692,动态:21745,动态:21975,动态:20364,动态:22684,动态:22697,动态:21972,动态:22688,动态:21763,动态:21756,动态:22146,动态:21740,动态:21737,动态:22696,动态:21753,动态:22702,动态:22507,动态:22699,动态:22667,动态:22019,动态:22698,动态:22323,动态:22659,动态:21757,动态:22512,动态:21556,动态:4036,动态:20720,动态:22706,动态:21741,动态:21776,动态:21857,动态:7746,动态:21436,动态:21727,动态:20399,动态:22710,动态:21780</t>
+          <t>动态:21727,动态:22667,动态:22706,动态:21737,动态:22019,动态:21780,动态:21763,动态:20399,动态:22699,动态:21776,动态:22685,动态:21857,动态:21975,动态:22688,动态:20364,动态:22710,动态:21556,动态:22696,动态:20439,动态:7746,动态:22507,动态:21972,动态:21756,动态:20720,动态:21740,动态:22512,动态:21436,动态:21753,动态:21745,动态:21757,动态:22698,动态:22680,动态:22146,动态:22684,动态:22697,动态:21741,动态:4036,动态:22323,动态:22659,动态:22692,动态:22702</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>动态:17337,动态:21756,动态:22702,动态:21975,动态:20399,动态:20720,动态:22019,动态:21727,动态:22710,动态:21556,动态:22692,动态:21745,动态:22667,动态:21763,动态:21740,动态:20440,动态:21741,动态:22698,动态:22512,动态:20364,动态:21436,动态:22680,动态:22684,动态:22323,动态:21776,动态:21753,动态:22688,动态:22659,动态:21972,动态:22507,动态:22685,动态:22699,动态:22697,动态:21780,动态:21857,动态:22146,动态:20439,动态:22706,动态:7746,动态:22696,动态:21757,动态:4036,动态:21737</t>
+          <t>动态:22667,动态:21436,动态:20399,动态:22684,动态:21972,动态:22512,动态:22710,动态:21741,动态:22692,动态:22680,动态:22688,动态:22323,动态:22702,动态:4036,动态:21737,动态:21975,动态:22507,动态:20720,动态:21756,动态:21757,动态:21753,动态:7746,动态:20440,动态:21857,动态:21740,动态:21556,动态:22685,动态:20364,动态:21780,动态:22696,动态:22699,动态:21745,动态:22146,动态:17337,动态:21763,动态:20439,动态:21727,动态:22706,动态:21776,动态:22019,动态:22659,动态:22698,动态:22697</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>动态:20440,动态:22680,动态:22019,动态:7746,动态:22323,动态:21763,动态:17337,动态:21857,动态:20364,动态:22685,动态:21436,动态:21975,动态:21737,动态:22688,动态:22684,动态:22706,动态:21972,动态:20720,动态:20439,动态:21745,动态:22146,动态:22698,动态:21757,动态:22507,动态:21753,动态:22659,动态:22696,动态:22512,动态:21556,动态:20399,动态:21727,动态:22697,动态:22667,动态:4036,动态:21741,动态:21756,动态:21776,动态:22692,动态:21780,动态:22699,动态:21740</t>
+          <t>动态:7746,动态:21757,动态:4036,动态:20720,动态:22659,动态:21737,动态:22680,动态:22692,动态:22688,动态:21556,动态:21756,动态:22684,动态:21727,动态:20440,动态:21741,动态:22019,动态:22667,动态:22697,动态:21763,动态:21776,动态:21780,动态:20439,动态:22685,动态:21753,动态:20364,动态:22696,动态:22698,动态:20399,动态:22512,动态:21745,动态:21436,动态:22146,动态:22699,动态:17337,动态:22507,动态:21857,动态:22323,动态:21972,动态:21975,动态:22706,动态:21740</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>动态:4036,动态:22702,动态:22659,动态:21756,动态:21740,动态:17337,动态:22146,动态:21857,动态:22507,动态:21727,动态:22680,动态:22706,动态:22696,动态:22323,动态:21972,动态:21753,动态:21745,动态:20399,动态:22692,动态:20364,动态:22697,动态:22699,动态:22710,动态:21757,动态:20439,动态:22688,动态:21763,动态:21741,动态:20720,动态:22698,动态:21776,动态:22684,动态:22512,动态:21975,动态:21737,动态:20440,动态:7746,动态:22685,动态:22019,动态:21436,动态:22667,动态:21556,动态:21780</t>
+          <t>动态:20440,动态:17337,动态:22659,动态:21763,动态:21727,动态:22702,动态:21857,动态:22706,动态:22323,动态:21753,动态:21737,动态:22512,动态:22680,动态:22146,动态:22507,动态:22697,动态:22696,动态:21436,动态:20399,动态:21756,动态:22019,动态:21556,动态:4036,动态:20364,动态:21740,动态:22698,动态:7746,动态:20720,动态:22684,动态:22667,动态:22710,动态:22699,动态:21780,动态:21975,动态:21745,动态:21972,动态:22685,动态:21757,动态:21776,动态:20439,动态:22688,动态:22692,动态:21741</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>动态:20399,动态:21741,动态:7746,动态:22692,动态:21763,动态:22684,动态:22512,动态:21740,动态:21975,动态:21436,动态:21745,动态:22696,动态:22146,动态:22019,动态:22667,动态:4036,动态:20364,动态:22323,动态:21776,动态:21556,动态:22697,动态:22688,动态:20440,动态:22706,动态:21727,动态:22699,动态:22698,动态:22685,动态:21857,动态:20439,动态:21753,动态:17337,动态:22507,动态:22659,动态:21756,动态:22680,动态:21757,动态:21780</t>
+          <t>动态:20439,动态:22019,动态:21975,动态:21857,动态:4036,动态:21740,动态:21436,动态:22684,动态:22323,动态:22696,动态:21727,动态:22146,动态:20440,动态:22659,动态:21776,动态:21763,动态:22706,动态:22697,动态:21756,动态:21556,动态:22685,动态:21780,动态:20399,动态:21757,动态:21753,动态:22667,动态:21741,动态:22507,动态:22680,动态:17337,动态:21745,动态:22698,动态:20364,动态:22688,动态:22699,动态:22692,动态:22512,动态:7746</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>动态:22688,动态:21737,动态:21740,动态:21753,动态:22699,动态:22323,动态:4036,动态:22706,动态:21780,动态:21727,动态:22698,动态:21745,动态:21975,动态:21763,动态:22692,动态:20440,动态:22697,动态:21556,动态:22512,动态:20720,动态:21972,动态:22659,动态:22680,动态:20399,动态:22684,动态:7746,动态:21857,动态:22507,动态:22685,动态:21741,动态:21776,动态:22710,动态:22019,动态:21436,动态:22696,动态:22667,动态:21757,动态:22146,动态:20439,动态:22702,动态:20364,动态:17337</t>
+          <t>动态:20720,动态:22684,动态:21745,动态:20439,动态:21727,动态:22697,动态:20440,动态:4036,动态:22667,动态:22710,动态:21737,动态:22507,动态:20399,动态:17337,动态:21972,动态:22688,动态:22685,动态:22706,动态:21780,动态:22019,动态:21975,动态:21436,动态:22146,动态:20364,动态:22323,动态:21763,动态:22692,动态:22659,动态:22680,动态:21776,动态:22698,动态:22699,动态:21740,动态:22702,动态:21753,动态:21857,动态:21741,动态:21556,动态:7746,动态:21757,动态:22696,动态:22512</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>动态:20720,动态:22706,动态:20364,动态:22019,动态:17337,动态:21737,动态:21763,动态:21756,动态:21727,动态:22146,动态:21740,动态:21776,动态:21972,动态:4036,动态:21753,动态:21556,动态:22697,动态:21741,动态:22685,动态:22323,动态:22667,动态:22702,动态:22507,动态:22512,动态:22699,动态:22696,动态:20399,动态:21745,动态:21975,动态:21780,动态:21757,动态:22692,动态:7746,动态:20439,动态:22688,动态:21436,动态:20440,动态:22659,动态:22684,动态:21857,动态:22710,动态:22698,动态:22680</t>
+          <t>动态:22680,动态:22512,动态:21741,动态:22692,动态:22507,动态:20440,动态:22698,动态:21727,动态:21745,动态:7746,动态:20364,动态:21753,动态:21756,动态:22688,动态:22685,动态:4036,动态:22697,动态:21972,动态:20439,动态:22706,动态:17337,动态:21975,动态:22710,动态:21763,动态:20720,动态:22659,动态:21436,动态:22146,动态:21757,动态:22323,动态:22696,动态:21556,动态:20399,动态:22699,动态:21776,动态:22019,动态:21857,动态:22667,动态:22702,动态:22684,动态:21737,动态:21740,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>动态:21857,动态:22692,动态:22019,动态:21972,动态:17337,动态:22697,动态:4036,动态:21740,动态:20440,动态:22659,动态:20720,动态:22667,动态:21756,动态:22507,动态:22710,动态:22696,动态:21776,动态:21745,动态:21763,动态:21753,动态:21741,动态:22699,动态:21757,动态:22698,动态:7746,动态:20399,动态:22512,动态:22706,动态:22146,动态:21436,动态:22680,动态:21780,动态:21737,动态:22688,动态:22684,动态:21975,动态:21727,动态:21556,动态:22323,动态:22702,动态:20439,动态:22685,动态:20364</t>
+          <t>动态:22698,动态:21436,动态:22684,动态:21753,动态:22702,动态:20439,动态:20399,动态:21780,动态:22323,动态:22659,动态:22697,动态:21741,动态:20440,动态:21745,动态:21737,动态:21972,动态:22696,动态:21757,动态:22512,动态:22146,动态:21857,动态:7746,动态:21756,动态:22507,动态:22685,动态:22019,动态:21776,动态:21740,动态:22667,动态:21975,动态:22680,动态:21556,动态:4036,动态:22692,动态:22710,动态:22706,动态:20364,动态:22699,动态:17337,动态:21763,动态:20720,动态:22688,动态:21727</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>动态:22685,动态:21436,动态:22323,动态:21745,动态:22697,动态:21727,动态:20439,动态:22019,动态:22688,动态:22698,动态:21556,动态:4036,动态:22710,动态:17337,动态:21975,动态:21753,动态:22667,动态:21737,动态:21741,动态:21780,动态:21757,动态:22684,动态:20364,动态:22512,动态:21972,动态:21857,动态:22696,动态:22146,动态:21776,动态:22680,动态:20399,动态:22702,动态:22706,动态:22659,动态:22507,动态:7746,动态:21763,动态:21756,动态:22692,动态:21740,动态:22699</t>
+          <t>动态:21757,动态:20399,动态:22684,动态:21737,动态:21975,动态:4036,动态:22688,动态:22685,动态:20439,动态:22667,动态:22702,动态:21780,动态:17337,动态:22699,动态:22512,动态:22697,动态:7746,动态:21776,动态:21740,动态:22146,动态:21556,动态:21756,动态:21745,动态:21857,动态:21727,动态:22692,动态:21753,动态:21436,动态:22680,动态:22706,动态:22507,动态:22710,动态:21972,动态:21763,动态:22323,动态:20364,动态:22019,动态:22698,动态:21741,动态:22696,动态:22659</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>动态:21737,动态:20364,动态:22688,动态:21745,动态:22659,动态:20440,动态:21556,动态:21740,动态:21857,动态:21776,动态:22684,动态:22706,动态:22507,动态:22702,动态:22698,动态:20720,动态:22697,动态:22692,动态:21727,动态:22146,动态:21972,动态:22710,动态:21436,动态:22699,动态:20439,动态:4036,动态:21763,动态:21756,动态:22696,动态:21975,动态:21780,动态:22323,动态:17337,动态:7746,动态:22680,动态:22685,动态:21757,动态:20399,动态:21753,动态:22512,动态:22667,动态:21741,动态:22019</t>
+          <t>动态:22659,动态:22710,动态:22702,动态:21763,动态:22323,动态:21776,动态:20720,动态:20364,动态:22688,动态:22692,动态:22019,动态:21756,动态:22507,动态:22706,动态:22667,动态:21436,动态:22698,动态:17337,动态:21975,动态:22685,动态:22684,动态:21741,动态:21857,动态:22699,动态:21727,动态:20399,动态:7746,动态:21737,动态:21745,动态:22512,动态:21972,动态:21780,动态:22146,动态:20439,动态:21556,动态:4036,动态:22680,动态:22696,动态:21753,动态:20440,动态:21757,动态:21740,动态:22697</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>动态:21737,动态:22692,动态:7746,动态:22698,动态:22710,动态:22697,动态:17337,动态:20364,动态:22667,动态:21776,动态:22659,动态:22688,动态:21975,动态:22019,动态:21753,动态:21556,动态:21756,动态:20439,动态:22696,动态:21727,动态:21780,动态:21763,动态:22507,动态:21740,动态:22146,动态:22684,动态:21857,动态:22512,动态:22706,动态:21436,动态:21745,动态:22680,动态:22323,动态:4036,动态:21741,动态:22685,动态:20399,动态:20720,动态:22699,动态:22702,动态:21757,动态:21972</t>
+          <t>动态:21740,动态:21776,动态:22706,动态:22019,动态:22696,动态:21763,动态:21857,动态:22710,动态:22659,动态:22688,动态:21556,动态:22512,动态:21741,动态:22692,动态:20364,动态:21757,动态:20720,动态:22698,动态:21975,动态:21745,动态:22146,动态:22697,动态:21727,动态:22699,动态:22684,动态:17337,动态:22507,动态:22680,动态:22323,动态:21972,动态:4036,动态:22702,动态:22685,动态:7746,动态:21737,动态:20399,动态:21436,动态:20439,动态:22667,动态:21780,动态:21753,动态:21756</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>动态:21857,动态:22512,动态:22323,动态:22685,动态:20720,动态:22667,动态:22684,动态:7746,动态:21780,动态:17337,动态:21740,动态:22688,动态:21776,动态:22697,动态:21436,动态:22680,动态:22699,动态:21757,动态:20399,动态:22702,动态:22696,动态:20440,动态:21972,动态:20364,动态:21727,动态:21763,动态:21756,动态:22698,动态:4036,动态:21975,动态:21753,动态:22019,动态:22692,动态:22659,动态:21556,动态:21741,动态:21745,动态:22507,动态:22706,动态:20439</t>
+          <t>动态:20720,动态:22692,动态:22323,动态:21776,动态:7746,动态:21763,动态:21753,动态:22659,动态:21727,动态:22667,动态:21972,动态:21756,动态:21556,动态:22512,动态:20364,动态:22706,动态:22019,动态:17337,动态:21780,动态:20440,动态:22688,动态:20399,动态:22696,动态:22684,动态:4036,动态:22702,动态:22685,动态:21757,动态:22680,动态:21741,动态:21436,动态:20439,动态:21740,动态:22698,动态:21857,动态:21745,动态:22697,动态:22507,动态:22699,动态:21975</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>动态:21740,动态:22706,动态:22684,动态:21436,动态:21975,动态:22685,动态:21741,动态:4036,动态:21556,动态:22696,动态:21727,动态:22699,动态:22019,动态:20364,动态:21763,动态:22507,动态:22697,动态:22680,动态:21757,动态:21753,动态:21745,动态:7746,动态:20440,动态:20399,动态:22698,动态:21857,动态:21776,动态:17337,动态:21756,动态:22688,动态:22659,动态:22323,动态:22667,动态:22692,动态:20439,动态:22512,动态:21780</t>
+          <t>动态:22699,动态:21975,动态:20439,动态:22692,动态:22680,动态:22512,动态:21556,动态:21745,动态:22696,动态:22667,动态:21757,动态:21740,动态:21741,动态:4036,动态:21756,动态:21780,动态:22323,动态:20399,动态:20364,动态:21776,动态:22697,动态:21727,动态:22507,动态:17337,动态:22698,动态:20440,动态:21436,动态:22685,动态:22706,动态:22684,动态:21857,动态:22659,动态:21763,动态:7746,动态:21753,动态:22019,动态:22688</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>动态:22019,动态:21763,动态:22680,动态:22684,动态:21780,动态:21975,动态:21753,动态:21757,动态:17337,动态:20399,动态:22697,动态:22698,动态:22667,动态:21436,动态:21745,动态:22512,动态:22699,动态:20364,动态:22696,动态:4036,动态:22702,动态:21756,动态:21972,动态:22688,动态:21556,动态:22685,动态:21776,动态:21741,动态:22507,动态:22323,动态:7746,动态:22692,动态:22659,动态:20440,动态:21727,动态:21740,动态:22706,动态:21857,动态:20439</t>
+          <t>动态:21972,动态:21741,动态:22680,动态:22659,动态:21745,动态:22512,动态:4036,动态:21776,动态:21757,动态:20364,动态:21727,动态:22019,动态:22696,动态:22685,动态:21857,动态:21763,动态:22684,动态:22699,动态:20439,动态:21740,动态:22688,动态:22323,动态:22667,动态:21756,动态:22507,动态:21556,动态:21780,动态:21436,动态:20399,动态:22692,动态:22697,动态:21975,动态:22698,动态:22706,动态:7746,动态:20440,动态:17337,动态:21753,动态:22702</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>动态:22688,动态:22146,动态:22512,动态:22697,动态:22507,动态:22684,动态:20439,动态:4036,动态:21727,动态:21857,动态:21975,动态:22667,动态:21740,动态:20720,动态:22680,动态:22706,动态:22659,动态:21741,动态:20399,动态:21756,动态:21763,动态:17337,动态:22696,动态:21776,动态:20364,动态:7746,动态:22692,动态:22323,动态:22702,动态:22019,动态:21436,动态:21972,动态:22685,动态:21556,动态:21757,动态:21737,动态:22710,动态:21745,动态:21780,动态:22699,动态:21753,动态:22698</t>
+          <t>动态:21972,动态:21436,动态:22702,动态:21745,动态:21753,动态:22697,动态:22685,动态:22710,动态:22323,动态:22146,动态:21780,动态:20399,动态:21857,动态:22706,动态:21737,动态:21776,动态:22699,动态:21740,动态:20439,动态:17337,动态:22667,动态:7746,动态:22688,动态:22512,动态:22680,动态:22696,动态:20364,动态:21741,动态:4036,动态:21727,动态:22507,动态:20720,动态:21975,动态:21763,动态:22684,动态:22659,动态:22692,动态:22019,动态:22698,动态:21756,动态:21556,动态:21757</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>动态:22692,动态:21780,动态:21745,动态:21737,动态:20720,动态:22659,动态:22698,动态:22702,动态:22710,动态:17337,动态:22685,动态:22146,动态:7746,动态:20364,动态:22706,动态:20399,动态:21776,动态:21436,动态:22696,动态:20440,动态:20439,动态:21763,动态:4036,动态:21975,动态:22699,动态:22688,动态:21753,动态:22019,动态:22512,动态:22684,动态:21757,动态:21741,动态:22507,动态:21727,动态:22667,动态:21857,动态:22323,动态:22680,动态:22697,动态:21756,动态:21972,动态:21740,动态:21556</t>
+          <t>动态:22696,动态:7746,动态:21857,动态:22667,动态:22512,动态:21975,动态:22698,动态:22688,动态:21757,动态:20720,动态:21740,动态:22146,动态:22706,动态:21556,动态:21753,动态:21780,动态:21756,动态:22684,动态:20439,动态:22697,动态:21776,动态:21745,动态:20399,动态:21972,动态:21727,动态:21741,动态:22323,动态:22702,动态:21763,动态:22685,动态:22019,动态:21436,动态:22680,动态:21737,动态:4036,动态:22699,动态:22659,动态:22692,动态:20364,动态:22507,动态:22710,动态:20440,动态:17337</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>动态:21763,动态:22699,动态:22698,动态:20439,动态:17337,动态:20399,动态:21737,动态:22696,动态:21741,动态:21972,动态:22702,动态:7746,动态:22019,动态:22710,动态:21757,动态:22146,动态:21727,动态:21975,动态:21556,动态:22692,动态:22323,动态:21756,动态:22667,动态:21776,动态:21780,动态:21740,动态:21857,动态:21436,动态:4036,动态:22659,动态:20364,动态:22697,动态:22507,动态:21753,动态:22680,动态:22688,动态:22685,动态:22684,动态:22706,动态:21745,动态:20440,动态:22512,动态:20720</t>
+          <t>动态:22512,动态:20720,动态:21740,动态:21741,动态:21972,动态:22697,动态:22702,动态:22019,动态:4036,动态:22507,动态:21776,动态:22692,动态:21756,动态:21975,动态:22710,动态:22680,动态:21780,动态:7746,动态:21857,动态:21436,动态:22699,动态:22146,动态:22323,动态:22659,动态:22706,动态:21727,动态:21745,动态:21556,动态:22688,动态:21763,动态:22698,动态:21753,动态:22696,动态:22684,动态:20440,动态:20399,动态:21737,动态:20439,动态:21757,动态:22685,动态:20364,动态:17337,动态:22667</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>动态:22706,动态:21763,动态:22697,动态:22710,动态:21757,动态:21740,动态:20440,动态:21776,动态:22688,动态:21737,动态:22684,动态:22507,动态:22699,动态:21975,动态:20399,动态:22146,动态:22512,动态:22680,动态:21780,动态:22323,动态:22685,动态:22696,动态:7746,动态:21745,动态:22019,动态:22659,动态:4036,动态:21756,动态:22702,动态:22667,动态:22698,动态:21972,动态:21727,动态:21741,动态:17337,动态:20720,动态:21436,动态:21857,动态:22692,动态:20439</t>
+          <t>动态:21975,动态:21780,动态:22685,动态:22323,动态:21436,动态:22696,动态:22659,动态:21737,动态:22667,动态:22688,动态:17337,动态:7746,动态:20720,动态:21857,动态:20440,动态:22146,动态:21757,动态:21776,动态:21972,动态:21727,动态:20399,动态:22019,动态:21741,动态:22692,动态:22699,动态:22680,动态:4036,动态:21756,动态:22706,动态:21740,动态:22702,动态:22512,动态:22684,动态:20439,动态:22697,动态:21763,动态:22507,动态:22698,动态:22710,动态:21745</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>动态:21556,动态:21753,动态:22323,动态:22699,动态:21436,动态:21756,动态:22697,动态:20440,动态:17337,动态:20439,动态:21740,动态:22696,动态:22659,动态:21763,动态:20364,动态:21857,动态:21745,动态:4036,动态:22680,动态:22507,动态:21780,动态:22684,动态:7746,动态:22698,动态:22706,动态:22512,动态:22667,动态:22019,动态:21776,动态:21741,动态:22692,动态:21727,动态:21757,动态:21975,动态:22685,动态:20399,动态:22688</t>
+          <t>动态:21740,动态:22706,动态:22680,动态:22699,动态:21763,动态:22685,动态:21780,动态:21776,动态:22684,动态:21756,动态:20399,动态:21745,动态:22659,动态:21753,动态:21741,动态:22698,动态:22512,动态:21556,动态:7746,动态:20364,动态:17337,动态:22667,动态:21857,动态:20440,动态:22688,动态:22692,动态:22697,动态:21975,动态:22696,动态:22507,动态:21757,动态:22019,动态:20439,动态:22323,动态:21436,动态:21727,动态:4036</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>动态:22706,动态:20364,动态:21753,动态:21763,动态:21756,动态:22688,动态:20440,动态:21727,动态:20720,动态:20399,动态:21740,动态:22702,动态:7746,动态:22698,动态:22659,动态:22323,动态:22710,动态:4036,动态:21776,动态:17337,动态:22146,动态:22507,动态:21972,动态:22667,动态:22685,动态:22019,动态:21436,动态:22512,动态:22692,动态:22684,动态:21975,动态:22697,动态:21741,动态:20439,动态:21780,动态:21745,动态:22696,动态:22680,动态:22699,动态:21737,动态:21857,动态:21757,动态:21556</t>
+          <t>动态:22323,动态:21757,动态:21556,动态:21436,动态:21780,动态:21727,动态:17337,动态:21756,动态:20720,动态:21975,动态:21776,动态:22706,动态:21763,动态:7746,动态:20364,动态:22680,动态:22699,动态:22697,动态:21740,动态:21857,动态:21741,动态:22146,动态:22710,动态:4036,动态:22685,动态:21745,动态:22698,动态:22659,动态:22667,动态:22688,动态:22507,动态:21972,动态:20439,动态:20399,动态:20440,动态:22019,动态:21753,动态:22684,动态:22696,动态:22692,动态:22512,动态:22702,动态:21737</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>动态:21436,动态:21857,动态:22699,动态:22659,动态:20399,动态:21556,动态:21975,动态:21780,动态:22680,动态:22696,动态:22706,动态:21727,动态:21776,动态:21741,动态:21756,动态:7746,动态:22512,动态:22697,动态:21753,动态:21740,动态:4036,动态:22685,动态:21737,动态:22688,动态:22507,动态:21757,动态:22019,动态:22667,动态:22692,动态:20440,动态:22698,动态:22684,动态:21972,动态:20720,动态:20439,动态:22146,动态:21763,动态:20364,动态:17337,动态:22323,动态:21745</t>
+          <t>动态:22019,动态:22680,动态:21776,动态:22706,动态:22659,动态:20720,动态:22685,动态:21780,动态:21757,动态:21857,动态:22146,动态:22667,动态:22697,动态:22692,动态:21556,动态:21756,动态:22684,动态:21740,动态:22323,动态:20440,动态:4036,动态:21745,动态:21753,动态:21737,动态:17337,动态:22696,动态:22688,动态:20399,动态:21436,动态:21975,动态:22698,动态:7746,动态:20364,动态:22512,动态:20439,动态:22699,动态:21741,动态:21972,动态:22507,动态:21727,动态:21763</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>动态:22684,动态:21972,动态:22697,动态:22659,动态:21776,动态:21727,动态:21741,动态:22323,动态:21745,动态:22706,动态:22710,动态:22680,动态:21763,动态:21737,动态:22702,动态:22507,动态:21780,动态:21740,动态:22699,动态:22667,动态:22698,动态:22692,动态:17337,动态:21756,动态:20439,动态:22696,动态:7746,动态:22146,动态:4036,动态:21975,动态:20440,动态:21857,动态:22688,动态:22019,动态:21436,动态:21556,动态:22512,动态:21757,动态:22685,动态:20399,动态:20720,动态:21753,动态:20364</t>
+          <t>动态:22710,动态:21741,动态:21776,动态:21972,动态:7746,动态:22698,动态:21757,动态:21753,动态:22146,动态:22684,动态:21745,动态:21737,动态:20399,动态:20720,动态:4036,动态:22697,动态:22019,动态:21857,动态:22688,动态:22706,动态:22667,动态:22692,动态:21780,动态:21975,动态:21763,动态:22685,动态:22680,动态:21756,动态:22702,动态:17337,动态:21436,动态:22696,动态:22659,动态:20364,动态:21556,动态:20439,动态:22512,动态:20440,动态:22323,动态:21740,动态:21727,动态:22507,动态:22699</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>动态:17337,动态:20364,动态:22698,动态:20399,动态:21975,动态:21780,动态:22659,动态:21857,动态:22688,动态:22702,动态:22699,动态:22697,动态:4036,动态:21972,动态:22019,动态:20439,动态:21737,动态:22507,动态:7746,动态:21776,动态:22323,动态:21436,动态:22146,动态:21757,动态:22684,动态:21741,动态:22680,动态:21753,动态:20720,动态:22710,动态:22512,动态:21763,动态:21745,动态:22706,动态:21740,动态:22667,动态:22685,动态:22692,动态:21556,动态:21727,动态:20440,动态:21756,动态:22696</t>
+          <t>动态:20364,动态:22688,动态:17337,动态:22702,动态:22710,动态:21780,动态:22146,动态:22323,动态:22684,动态:21740,动态:22507,动态:22696,动态:22680,动态:20439,动态:21757,动态:21737,动态:4036,动态:21763,动态:22667,动态:22706,动态:22512,动态:21741,动态:20399,动态:22019,动态:22697,动态:20440,动态:21436,动态:21753,动态:21745,动态:22698,动态:22692,动态:22699,动态:22659,动态:21776,动态:21727,动态:7746,动态:22685,动态:21857,动态:21756,动态:20720,动态:21972,动态:21556,动态:21975</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>动态:6606,动态:18024,动态:6584,动态:21491,动态:21364,动态:21482,动态:21180,动态:21239,动态:22146,动态:22696,动态:22512,动态:21436,动态:21857,动态:22688,动态:21741,动态:22697,动态:22685,动态:22702,动态:21727,动态:20720,动态:21757,动态:20399,动态:21737,动态:17337,动态:22684,动态:22680,动态:22019,动态:20364,动态:20439,动态:22699,动态:21780,动态:21776,动态:22698,动态:22692,动态:21753,动态:22667,动态:21745,动态:21972,动态:22710,动态:4036,动态:21756,动态:22507,动态:21975,动态:22706,动态:21740,动态:21556,动态:7746,动态:20440,动态:22659,动态:22323</t>
+          <t>动态:6606,动态:18024,动态:6584,动态:21491,动态:21364,动态:21482,动态:21180,动态:21239,动态:22323,动态:20440,动态:21741,动态:22684,动态:22019,动态:21780,动态:20439,动态:4036,动态:20399,动态:21763,动态:20364,动态:22659,动态:21975,动态:21776,动态:22702,动态:22706,动态:17337,动态:21737,动态:22710,动态:21556,动态:22512,动态:21757,动态:22667,动态:21857,动态:21972,动态:22692,动态:22688,动态:21745,动态:22696,动态:21727,动态:21756,动态:21740,动态:22146,动态:7746,动态:22698,动态:22699,动态:20720,动态:22685,动态:22507,动态:22680,动态:21436,动态:22697</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>动态:21436,动态:22699,动态:22659,动态:22696,动态:21741,动态:20720,动态:22698,动态:22702,动态:20440,动态:21756,动态:21727,动态:22680,动态:21763,动态:21780,动态:21737,动态:7746,动态:22692,动态:21776,动态:21757,动态:22685,动态:22667,动态:20364,动态:21753,动态:22684,动态:21857,动态:22512,动态:22688,动态:20439,动态:21975,动态:22507,动态:21556,动态:22323,动态:22710,动态:22706,动态:22697,动态:4036,动态:17337,动态:21740,动态:21745,动态:22146,动态:22019,动态:20399</t>
+          <t>动态:21740,动态:22692,动态:21780,动态:22710,动态:21756,动态:21741,动态:21975,动态:22698,动态:21436,动态:22667,动态:21753,动态:22685,动态:22684,动态:20720,动态:21727,动态:22699,动态:21745,动态:22696,动态:21757,动态:21857,动态:22019,动态:20439,动态:7746,动态:22512,动态:22697,动态:21556,动态:22659,动态:22146,动态:22680,动态:21776,动态:21737,动态:20364,动态:22706,动态:21763,动态:22702,动态:20399,动态:4036,动态:22323,动态:22507,动态:17337,动态:20440,动态:22688</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>动态:21776,动态:4036,动态:21556,动态:21757,动态:22697,动态:22692,动态:20364,动态:21975,动态:21740,动态:22706,动态:21763,动态:22146,动态:21780,动态:22685,动态:22323,动态:22688,动态:22702,动态:22696,动态:22659,动态:22680,动态:20440,动态:22684,动态:21756,动态:22507,动态:17337,动态:20720,动态:22698,动态:22667,动态:22019,动态:7746,动态:21737,动态:21745,动态:21857,动态:21727,动态:22699,动态:22512,动态:20399,动态:22710,动态:20439</t>
+          <t>动态:17337,动态:22692,动态:22659,动态:21737,动态:22146,动态:22710,动态:20364,动态:21745,动态:22667,动态:21780,动态:22698,动态:22702,动态:7746,动态:4036,动态:21757,动态:22680,动态:20439,动态:21727,动态:21740,动态:20399,动态:22507,动态:22697,动态:21776,动态:21763,动态:21857,动态:22512,动态:22685,动态:21556,动态:21975,动态:22323,动态:20440,动态:21756,动态:22706,动态:22696,动态:22684,动态:22688,动态:22699,动态:20720,动态:22019</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>动态:21745,动态:21740,动态:22512,动态:7746,动态:22706,动态:22146,动态:21436,动态:22019,动态:21556,动态:22699,动态:20720,动态:22692,动态:22684,动态:22702,动态:22323,动态:22507,动态:4036,动态:21780,动态:20364,动态:21753,动态:17337,动态:22696,动态:21727,动态:21972,动态:21741,动态:21756,动态:22698,动态:20439,动态:22659,动态:22710,动态:21737,动态:21763,动态:22697,动态:20399,动态:21857,动态:22680,动态:21975,动态:22667,动态:22688,动态:21757,动态:20440,动态:22685</t>
+          <t>动态:21753,动态:20440,动态:21972,动态:20439,动态:22692,动态:17337,动态:7746,动态:22688,动态:21737,动态:4036,动态:22659,动态:22507,动态:22512,动态:22684,动态:21757,动态:21763,动态:20364,动态:21436,动态:20720,动态:21756,动态:22710,动态:22323,动态:21745,动态:21727,动态:22702,动态:21556,动态:21740,动态:22696,动态:20399,动态:22697,动态:22698,动态:22680,动态:21857,动态:21780,动态:21975,动态:22019,动态:22706,动态:21741,动态:22667,动态:22146,动态:22699,动态:22685</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>动态:21556,动态:21857,动态:22692,动态:22019,动态:22706,动态:22698,动态:21727,动态:22702,动态:17337,动态:20720,动态:21737,动态:21740,动态:22688,动态:21972,动态:21741,动态:7746,动态:21745,动态:21753,动态:21756,动态:22699,动态:21780,动态:20439,动态:22684,动态:20364,动态:20399,动态:21776,动态:22696,动态:22659,动态:22512,动态:22680,动态:21436,动态:21763,动态:22710,动态:22146,动态:21757,动态:22323,动态:22685,动态:22667,动态:21975,动态:4036,动态:22507,动态:20440,动态:22697</t>
+          <t>动态:20439,动态:17337,动态:22706,动态:22680,动态:22659,动态:21741,动态:22512,动态:22688,动态:22697,动态:21975,动态:22685,动态:21745,动态:22696,动态:22684,动态:22667,动态:22702,动态:20440,动态:22692,动态:22146,动态:7746,动态:22698,动态:21756,动态:20720,动态:22019,动态:21780,动态:21740,动态:22507,动态:21737,动态:21972,动态:21727,动态:22323,动态:20364,动态:21857,动态:4036,动态:22699,动态:21776,动态:21556,动态:21753,动态:21757,动态:20399,动态:21436,动态:22710,动态:21763</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>动态:20439,动态:22019,动态:22507,动态:20399,动态:21757,动态:21436,动态:20364,动态:21776,动态:22323,动态:22699,动态:21972,动态:22667,动态:22685,动态:21780,动态:22702,动态:21763,动态:7746,动态:22698,动态:22697,动态:21556,动态:22146,动态:20440,动态:21741,动态:21975,动态:4036,动态:22688,动态:21740,动态:21756,动态:22706,动态:22692,动态:22680,动态:21753,动态:22684,动态:22659,动态:22512,动态:20720,动态:22696,动态:21745,动态:17337,动态:22710</t>
+          <t>动态:21780,动态:22706,动态:22692,动态:21745,动态:21740,动态:21741,动态:22702,动态:20364,动态:21972,动态:22696,动态:21756,动态:22680,动态:22667,动态:22698,动态:21776,动态:22697,动态:4036,动态:22699,动态:17337,动态:21757,动态:21436,动态:22146,动态:20399,动态:22688,动态:22659,动态:22507,动态:21753,动态:7746,动态:22019,动态:21975,动态:22684,动态:20440,动态:22323,动态:22512,动态:21763,动态:20720,动态:22685,动态:22710,动态:20439,动态:21556</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>动态:21753,动态:22710,动态:21757,动态:22512,动态:20720,动态:22696,动态:22667,动态:20364,动态:22692,动态:21436,动态:22698,动态:21975,动态:22507,动态:22702,动态:21740,动态:21776,动态:22706,动态:21763,动态:17337,动态:22019,动态:21780,动态:20440,动态:22699,动态:22680,动态:22659,动态:22684,动态:22323,动态:21857,动态:21756,动态:21745,动态:7746,动态:21556,动态:22697,动态:4036,动态:21972,动态:22688,动态:20399,动态:20439,动态:22685,动态:22146,动态:21741</t>
+          <t>动态:21776,动态:22659,动态:22696,动态:22512,动态:22699,动态:22688,动态:21975,动态:20364,动态:22019,动态:21745,动态:20440,动态:22692,动态:21780,动态:22706,动态:22323,动态:21740,动态:4036,动态:20720,动态:21753,动态:22697,动态:22685,动态:21972,动态:21741,动态:22684,动态:22507,动态:21763,动态:22710,动态:22680,动态:22698,动态:7746,动态:21556,动态:21756,动态:21436,动态:20399,动态:22702,动态:22667,动态:21757,动态:17337,动态:21857,动态:22146,动态:20439</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>动态:21975,动态:22685,动态:22696,动态:21757,动态:21556,动态:20720,动态:21741,动态:22507,动态:21756,动态:22323,动态:21972,动态:20399,动态:21745,动态:20440,动态:17337,动态:21740,动态:21753,动态:21780,动态:20439,动态:22699,动态:7746,动态:22019,动态:22710,动态:22680,动态:22667,动态:21436,动态:21776,动态:4036,动态:22692,动态:22697,动态:22698,动态:22659,动态:22688,动态:22706,动态:22702,动态:22684,动态:22146,动态:21763,动态:20364,动态:22512</t>
+          <t>动态:21556,动态:21776,动态:20399,动态:22688,动态:22323,动态:21975,动态:22697,动态:22507,动态:22680,动态:22659,动态:20364,动态:22019,动态:22146,动态:22706,动态:21741,动态:22684,动态:22667,动态:22512,动态:21740,动态:20440,动态:21780,动态:21753,动态:22699,动态:20720,动态:21436,动态:22696,动态:21757,动态:21763,动态:21972,动态:4036,动态:22685,动态:21745,动态:7746,动态:22710,动态:20439,动态:22702,动态:21756,动态:22698,动态:17337,动态:22692</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>动态:17337,动态:22512,动态:21975,动态:21776,动态:21741,动态:21753,动态:22019,动态:21556,动态:22507,动态:22659,动态:22323,动态:22146,动态:20364,动态:22710,动态:22698,动态:20399,动态:7746,动态:22685,动态:22702,动态:21763,动态:22667,动态:21757,动态:22684,动态:22696,动态:22699,动态:22688,动态:21436,动态:22697,动态:22692,动态:22680,动态:22706,动态:21780,动态:20720,动态:20439,动态:21740,动态:20440,动态:4036,动态:21745,动态:21972,动态:21756</t>
+          <t>动态:21753,动态:22512,动态:22706,动态:21780,动态:7746,动态:21740,动态:21757,动态:22684,动态:20364,动态:22699,动态:20439,动态:21975,动态:22680,动态:22688,动态:21745,动态:20399,动态:22697,动态:22696,动态:22702,动态:22685,动态:21756,动态:22323,动态:22667,动态:22692,动态:21741,动态:21763,动态:22659,动态:21972,动态:22146,动态:22698,动态:4036,动态:22019,动态:22710,动态:21556,动态:21776,动态:22507,动态:20720,动态:17337,动态:21436,动态:20440</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>动态:22659,动态:22019,动态:22685,动态:21745,动态:22146,动态:20439,动态:21776,动态:21740,动态:22684,动态:20720,动态:20364,动态:22710,动态:21436,动态:21756,动态:22688,动态:21972,动态:22698,动态:22696,动态:22323,动态:22702,动态:22680,动态:17337,动态:7746,动态:20399,动态:21757,动态:22699,动态:21737,动态:22692,动态:22706,动态:21763,动态:22507,动态:22512,动态:21727,动态:20440,动态:21780,动态:22697,动态:4036,动态:21741,动态:21556,动态:21753,动态:22667,动态:21975,动态:21857</t>
+          <t>动态:22512,动态:21756,动态:22697,动态:7746,动态:4036,动态:22702,动态:21436,动态:22659,动态:22684,动态:22146,动态:21857,动态:20364,动态:22667,动态:22696,动态:21975,动态:21757,动态:22680,动态:20440,动态:22688,动态:22019,动态:22507,动态:22710,动态:21737,动态:21780,动态:21753,动态:20439,动态:21776,动态:22323,动态:21745,动态:21740,动态:22706,动态:22699,动态:21741,动态:22685,动态:22698,动态:21972,动态:21763,动态:20720,动态:21727,动态:17337,动态:20399,动态:21556,动态:22692</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>动态:22146,动态:22680,动态:22706,动态:22697,动态:21757,动态:21740,动态:21737,动态:22684,动态:17337,动态:21975,动态:22696,动态:21727,动态:21556,动态:22323,动态:21745,动态:22698,动态:21776,动态:21780,动态:21741,动态:20399,动态:22710,动态:22699,动态:22507,动态:21972,动态:21763,动态:21857,动态:21436,动态:20364,动态:7746,动态:22702,动态:4036,动态:21756,动态:22692,动态:22659,动态:22019,动态:20439,动态:21753,动态:22512,动态:20440,动态:20720</t>
+          <t>动态:22696,动态:21756,动态:21763,动态:22697,动态:22698,动态:21753,动态:4036,动态:21975,动态:21776,动态:7746,动态:22512,动态:22323,动态:22659,动态:22710,动态:21741,动态:20439,动态:22019,动态:21740,动态:20720,动态:21727,动态:22680,动态:20364,动态:22702,动态:21780,动态:22699,动态:22146,动态:22692,动态:20399,动态:21436,动态:21737,动态:20440,动态:22507,动态:22684,动态:22706,动态:21972,动态:21556,动态:21857,动态:21757,动态:21745,动态:17337</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>动态:22685,动态:22684,动态:21436,动态:22697,动态:22699,动态:20399,动态:4036,动态:21737,动态:22702,动态:21745,动态:7746,动态:21556,动态:21740,动态:21741,动态:20720,动态:22688,动态:21780,动态:22146,动态:22680,动态:21753,动态:22698,动态:22696,动态:20439,动态:22692,动态:21727,动态:20364,动态:17337,动态:22706,动态:21763,动态:22710,动态:22659,动态:21972,动态:21776,动态:21857,动态:21757,动态:22019,动态:20440,动态:22323,动态:21756,动态:22507,动态:22512,动态:22667</t>
+          <t>动态:21737,动态:22685,动态:21745,动态:22696,动态:4036,动态:21556,动态:22659,动态:20440,动态:21741,动态:22146,动态:17337,动态:21776,动态:22507,动态:22692,动态:22699,动态:21763,动态:21857,动态:20364,动态:21756,动态:22323,动态:22698,动态:21740,动态:20399,动态:21757,动态:22684,动态:20439,动态:22512,动态:7746,动态:22706,动态:21972,动态:22667,动态:22019,动态:22697,动态:21753,动态:21436,动态:22710,动态:22688,动态:22680,动态:22702,动态:21780,动态:20720,动态:21727</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>动态:22692,动态:20720,动态:21556,动态:17337,动态:22019,动态:20439,动态:21756,动态:22659,动态:21740,动态:22702,动态:21737,动态:21741,动态:20364,动态:22684,动态:22685,动态:21857,动态:21753,动态:22667,动态:7746,动态:20440,动态:22706,动态:22699,动态:21763,动态:4036,动态:21975,动态:22710,动态:22146,动态:22512,动态:21780,动态:21972,动态:21727,动态:22697,动态:22688,动态:21757,动态:21745,动态:22507,动态:20399,动态:21776,动态:22323,动态:21436,动态:22696,动态:22680,动态:22698</t>
+          <t>动态:22146,动态:22697,动态:22323,动态:21727,动态:22706,动态:22692,动态:21975,动态:7746,动态:22688,动态:22702,动态:21757,动态:21740,动态:22512,动态:21763,动态:22680,动态:21753,动态:22659,动态:17337,动态:20439,动态:20440,动态:21972,动态:21776,动态:21745,动态:20399,动态:22699,动态:22684,动态:22698,动态:4036,动态:22696,动态:22019,动态:21780,动态:22685,动态:20720,动态:21737,动态:22667,动态:21756,动态:22710,动态:21741,动态:21436,动态:20364,动态:21556,动态:21857,动态:22507</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>动态:7746,动态:22697,动态:21556,动态:4036,动态:22699,动态:21975,动态:20440,动态:22323,动态:22706,动态:22684,动态:22688,动态:22507,动态:22667,动态:20439,动态:22512,动态:22019,动态:20364,动态:21727,动态:21737,动态:22692,动态:17337,动态:21857,动态:22659,动态:21741,动态:20399,动态:21740,动态:22702,动态:22698,动态:21756,动态:21776,动态:21780,动态:21972,动态:21745,动态:22710,动态:22696,动态:20720,动态:21436,动态:22680,动态:22146,动态:22685,动态:21757,动态:21753,动态:21763</t>
+          <t>动态:22685,动态:22692,动态:22710,动态:22698,动态:21436,动态:21740,动态:21975,动态:22702,动态:21857,动态:22680,动态:22684,动态:22323,动态:22699,动态:21741,动态:21780,动态:4036,动态:21756,动态:22667,动态:21737,动态:22146,动态:22697,动态:21556,动态:21763,动态:21753,动态:21745,动态:21727,动态:20399,动态:20364,动态:20720,动态:21972,动态:7746,动态:20440,动态:22512,动态:22706,动态:21776,动态:22659,动态:22696,动态:20439,动态:22688,动态:21757,动态:22019,动态:22507,动态:17337</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>动态:22323,动态:20720,动态:20399,动态:21753,动态:22680,动态:21741,动态:21757,动态:22684,动态:22697,动态:20364,动态:21740,动态:17337,动态:22685,动态:20439,动态:21780,动态:21436,动态:7746,动态:22667,动态:22698,动态:21727,动态:21972,动态:21745,动态:21763,动态:22512,动态:21857,动态:4036,动态:21556,动态:22702,动态:22507,动态:22696,动态:22019,动态:21776,动态:22659,动态:22699,动态:20440,动态:22692,动态:21737,动态:22710,动态:21756,动态:22688,动态:22706,动态:21975,动态:22146</t>
+          <t>动态:21975,动态:21556,动态:21972,动态:22146,动态:22659,动态:21753,动态:21745,动态:7746,动态:22698,动态:20439,动态:20440,动态:21727,动态:22688,动态:21780,动态:22680,动态:22019,动态:22323,动态:22512,动态:21737,动态:17337,动态:22697,动态:20399,动态:4036,动态:22696,动态:22706,动态:21763,动态:21776,动态:20364,动态:21757,动态:21740,动态:22699,动态:21756,动态:21857,动态:20720,动态:22710,动态:22702,动态:21741,动态:22684,动态:22685,动态:22692,动态:22507,动态:21436,动态:22667</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>动态:21740,动态:7746,动态:22692,动态:21556,动态:17337,动态:22680,动态:22699,动态:21737,动态:22667,动态:21756,动态:22698,动态:21757,动态:22710,动态:22019,动态:20440,动态:22507,动态:20399,动态:22685,动态:21763,动态:21857,动态:22512,动态:21741,动态:20364,动态:21780,动态:22659,动态:21776,动态:21436,动态:21745,动态:22688,动态:22697,动态:22702,动态:22146,动态:21753,动态:22696,动态:20439,动态:22684,动态:22323,动态:21727,动态:22706,动态:21972,动态:20720,动态:21975,动态:4036</t>
+          <t>动态:22146,动态:21737,动态:22659,动态:21436,动态:22512,动态:21757,动态:21975,动态:22688,动态:22692,动态:22699,动态:20399,动态:21756,动态:22706,动态:21763,动态:20364,动态:22667,动态:21776,动态:20439,动态:21753,动态:21727,动态:21972,动态:21745,动态:21741,动态:21780,动态:4036,动态:20720,动态:22697,动态:22507,动态:21556,动态:17337,动态:21857,动态:7746,动态:20440,动态:22323,动态:22696,动态:22702,动态:22710,动态:22684,动态:22680,动态:22019,动态:22685,动态:21740,动态:22698</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>动态:22702,动态:20399,动态:21741,动态:21972,动态:22512,动态:21756,动态:22019,动态:22688,动态:22667,动态:20439,动态:21727,动态:21740,动态:22710,动态:7746,动态:22685,动态:21776,动态:21975,动态:21436,动态:22684,动态:20440,动态:20720,动态:22692,动态:21737,动态:4036,动态:22698,动态:21763,动态:22697,动态:22696,动态:21745,动态:22146,动态:22699,动态:21857,动态:22507,动态:22323,动态:21780,动态:22680,动态:22659,动态:21757,动态:22706,动态:17337,动态:21556,动态:21753</t>
+          <t>动态:21741,动态:22019,动态:22659,动态:21972,动态:4036,动态:20439,动态:22702,动态:21753,动态:22685,动态:22698,动态:21727,动态:21436,动态:21756,动态:21556,动态:22692,动态:21757,动态:22699,动态:21740,动态:21745,动态:22696,动态:22684,动态:22697,动态:20440,动态:22680,动态:22706,动态:22146,动态:21780,动态:22512,动态:21776,动态:7746,动态:22507,动态:21975,动态:21857,动态:17337,动态:22667,动态:22323,动态:21763,动态:21737,动态:22688,动态:20399,动态:22710,动态:20720</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>动态:22702,动态:22710,动态:21780,动态:22659,动态:21556,动态:22697,动态:22696,动态:21763,动态:21436,动态:20439,动态:21975,动态:21753,动态:22706,动态:22698,动态:7746,动态:22688,动态:21756,动态:21740,动态:22680,动态:22684,动态:20399,动态:21972,动态:22667,动态:22685,动态:20720,动态:21741,动态:4036,动态:20364,动态:22146,动态:21776,动态:22692,动态:21757,动态:21857,动态:21727,动态:20440,动态:21745,动态:22699,动态:17337,动态:22507,动态:22323,动态:21737,动态:22512,动态:22019</t>
+          <t>动态:21857,动态:22697,动态:7746,动态:21753,动态:22692,动态:22684,动态:17337,动态:22512,动态:22659,动态:4036,动态:22702,动态:21975,动态:21737,动态:21556,动态:22696,动态:22699,动态:20440,动态:21740,动态:22688,动态:22146,动态:21780,动态:22667,动态:21436,动态:20364,动态:21727,动态:22698,动态:22507,动态:22323,动态:21745,动态:21763,动态:21756,动态:21776,动态:22680,动态:22710,动态:21741,动态:20720,动态:22685,动态:21757,动态:22019,动态:20439,动态:20399,动态:21972,动态:22706</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>动态:21745,动态:21757,动态:17337,动态:21756,动态:22019,动态:22699,动态:22702,动态:20399,动态:21776,动态:20440,动态:4036,动态:22706,动态:22684,动态:21975,动态:20720,动态:22710,动态:22697,动态:21857,动态:22692,动态:22698,动态:22512,动态:21741,动态:21737,动态:21763,动态:22667,动态:21753,动态:21740,动态:22696,动态:21727,动态:21780,动态:21972,动态:22323,动态:21556,动态:21436,动态:22146,动态:20364,动态:20439,动态:22659,动态:7746,动态:22685,动态:22680,动态:22507,动态:22688</t>
+          <t>动态:20399,动态:22684,动态:21740,动态:21753,动态:21556,动态:21975,动态:22507,动态:22710,动态:22702,动态:21972,动态:22698,动态:22659,动态:21756,动态:20364,动态:21741,动态:22699,动态:20440,动态:22696,动态:21776,动态:7746,动态:21763,动态:22692,动态:22685,动态:20720,动态:22667,动态:21780,动态:22512,动态:21745,动态:4036,动态:21727,动态:22680,动态:21857,动态:22706,动态:21436,动态:22019,动态:20439,动态:22146,动态:21757,动态:17337,动态:21737,动态:22688,动态:22323,动态:22697</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>动态:22696,动态:22685,动态:22659,动态:4036,动态:22684,动态:21776,动态:21556,动态:21975,动态:21741,动态:7746,动态:22688,动态:20399,动态:17337,动态:20440,动态:22680,动态:21763,动态:20439,动态:21972,动态:21753,动态:21737,动态:22697,动态:22146,动态:22667,动态:22699,动态:21740,动态:21745,动态:22692,动态:22323,动态:22702,动态:21780,动态:22507,动态:22706,动态:21757,动态:22019,动态:21436,动态:21857,动态:20364,动态:22710,动态:22698,动态:20720,动态:21756,动态:21727,动态:22512</t>
+          <t>动态:4036,动态:22667,动态:21780,动态:22507,动态:17337,动态:22512,动态:21757,动态:21972,动态:20399,动态:21745,动态:22019,动态:22684,动态:22706,动态:22692,动态:21436,动态:21740,动态:22696,动态:22323,动态:20364,动态:22710,动态:22699,动态:20439,动态:21727,动态:21756,动态:22685,动态:21556,动态:22659,动态:21763,动态:20440,动态:21857,动态:21737,动态:22680,动态:21975,动态:22698,动态:21753,动态:22697,动态:22688,动态:20720,动态:7746,动态:21776,动态:22146,动态:22702,动态:21741</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>动态:21740,动态:17337,动态:4036,动态:21757,动态:22512,动态:22688,动态:22685,动态:21756,动态:20399,动态:20364,动态:22667,动态:22684,动态:22019,动态:22146,动态:22699,动态:22697,动态:22323,动态:21745,动态:21857,动态:22692,动态:22696,动态:20439,动态:22507,动态:20440,动态:21741,动态:7746,动态:21780,动态:20720,动态:21737,动态:22659,动态:21727,动态:22706,动态:22680,动态:22698,动态:21753</t>
+          <t>动态:22512,动态:21741,动态:20440,动态:20399,动态:22688,动态:21740,动态:21756,动态:22696,动态:22323,动态:20720,动态:21753,动态:22507,动态:22146,动态:22659,动态:21727,动态:21757,动态:21737,动态:21857,动态:7746,动态:22692,动态:4036,动态:22699,动态:22706,动态:20439,动态:22667,动态:22684,动态:21745,动态:17337,动态:22019,动态:22697,动态:22685,动态:21780,动态:22698,动态:20364,动态:22680</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>动态:22146,动态:21727,动态:22697,动态:21972,动态:21857,动态:21776,动态:21780,动态:22688,动态:22699,动态:22698,动态:22710,动态:22507,动态:20399,动态:21757,动态:21975,动态:22659,动态:21436,动态:21756,动态:7746,动态:21745,动态:21740,动态:21556,动态:22512,动态:22684,动态:20364,动态:22680,动态:17337,动态:21737,动态:22692,动态:4036,动态:22323,动态:20440,动态:20720,动态:22685,动态:22667,动态:21753,动态:20439,动态:22706,动态:21741,动态:22019,动态:22696,动态:21763</t>
+          <t>动态:21745,动态:22659,动态:21780,动态:22698,动态:22146,动态:21727,动态:4036,动态:21436,动态:21975,动态:22512,动态:20399,动态:20440,动态:22323,动态:20439,动态:21753,动态:22507,动态:22667,动态:21740,动态:21737,动态:22685,动态:22710,动态:22019,动态:22706,动态:22680,动态:22692,动态:22684,动态:21741,动态:17337,动态:21756,动态:22699,动态:21972,动态:22697,动态:21757,动态:21857,动态:7746,动态:22696,动态:20720,动态:20364,动态:21556,动态:22688,动态:21776,动态:21763</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>动态:22019,动态:20439,动态:22706,动态:22680,动态:21740,动态:22692,动态:21975,动态:22146,动态:22696,动态:7746,动态:21776,动态:21436,动态:21757,动态:21780,动态:22512,动态:22698,动态:21741,动态:22688,动态:21972,动态:21763,动态:4036,动态:20364,动态:20440,动态:21756,动态:22684,动态:20399,动态:21556,动态:22697,动态:22685,动态:22699,动态:22659,动态:21737,动态:21857,动态:17337,动态:22507,动态:20720,动态:21753,动态:21727,动态:21745,动态:22667</t>
+          <t>动态:17337,动态:22146,动态:21745,动态:21727,动态:21975,动态:7746,动态:22507,动态:21857,动态:22706,动态:21763,动态:21756,动态:22688,动态:20439,动态:22692,动态:21972,动态:21776,动态:21741,动态:21780,动态:22696,动态:22685,动态:22680,动态:21757,动态:22667,动态:21556,动态:22699,动态:21753,动态:21737,动态:22698,动态:22697,动态:21436,动态:20440,动态:22512,动态:22684,动态:22019,动态:21740,动态:20399,动态:20364,动态:20720,动态:22659,动态:4036</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>动态:20399,动态:21763,动态:4036,动态:21780,动态:21776,动态:20439,动态:21757,动态:20440,动态:22696,动态:21556,动态:22692,动态:21753,动态:21436,动态:22659,动态:22697,动态:22684,动态:21745,动态:22667,动态:21972,动态:22512,动态:22019,动态:22680,动态:22688,动态:21741,动态:21727,动态:21756,动态:20364,动态:22507,动态:22323,动态:22685,动态:22702,动态:20720,动态:22698,动态:22146,动态:21737,动态:7746,动态:21857,动态:22706,动态:21975,动态:22710,动态:21740,动态:22699,动态:17337</t>
+          <t>动态:21776,动态:21745,动态:22696,动态:20364,动态:22688,动态:22710,动态:21740,动态:22507,动态:21436,动态:21780,动态:22512,动态:22702,动态:22685,动态:22697,动态:21975,动态:22680,动态:17337,动态:21763,动态:22659,动态:22692,动态:22699,动态:21741,动态:21737,动态:21556,动态:22667,动态:21727,动态:22698,动态:20439,动态:21972,动态:20720,动态:22706,动态:22323,动态:21756,动态:20399,动态:21753,动态:21857,动态:20440,动态:7746,动态:22019,动态:21757,动态:22684,动态:22146,动态:4036</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>动态:22696,动态:20364,动态:20439,动态:22692,动态:22699,动态:22659,动态:21740,动态:22688,动态:22667,动态:21727,动态:21745,动态:4036,动态:21741,动态:21975,动态:22680,动态:22706,动态:20440,动态:21753,动态:20399,动态:22710,动态:22146,动态:21737,动态:22685,动态:20720,动态:22698,动态:21556,动态:21436,动态:21757,动态:22702,动态:21972,动态:17337,动态:22697,动态:22507,动态:22323,动态:21763,动态:21857,动态:22684,动态:21756,动态:22019,动态:21780,动态:7746,动态:22512,动态:21776</t>
+          <t>动态:22680,动态:21436,动态:22507,动态:22512,动态:22710,动态:20364,动态:20439,动态:22667,动态:22698,动态:22684,动态:17337,动态:22146,动态:21857,动态:22019,动态:7746,动态:20399,动态:22699,动态:22697,动态:20720,动态:21757,动态:20440,动态:21741,动态:22702,动态:4036,动态:21975,动态:22692,动态:21737,动态:22696,动态:21745,动态:22688,动态:21740,动态:22323,动态:21727,动态:22659,动态:21776,动态:21972,动态:21763,动态:21756,动态:22685,动态:21556,动态:22706,动态:21753,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>动态:22323,动态:22702,动态:21763,动态:22706,动态:22507,动态:21757,动态:22680,动态:22699,动态:20440,动态:20364,动态:22659,动态:22692,动态:22684,动态:7746,动态:21436,动态:17337,动态:21745,动态:21727,动态:22146,动态:20439,动态:22698,动态:22667,动态:21556,动态:21857,动态:22512,动态:21780,动态:21972,动态:22688,动态:20399,动态:4036,动态:21737,动态:21741,动态:22696,动态:22710,动态:21975,动态:22685,动态:22697,动态:21753,动态:20720,动态:21756,动态:21776,动态:21740,动态:22019</t>
+          <t>动态:22680,动态:22710,动态:22684,动态:22685,动态:22019,动态:7746,动态:21741,动态:21737,动态:20399,动态:22696,动态:21436,动态:21857,动态:21753,动态:22507,动态:21745,动态:20720,动态:20440,动态:22706,动态:4036,动态:22697,动态:21556,动态:20364,动态:22512,动态:22323,动态:22702,动态:21975,动态:22699,动态:21776,动态:21763,动态:20439,动态:21972,动态:22659,动态:22688,动态:21740,动态:22698,动态:17337,动态:21757,动态:22146,动态:22667,动态:21756,动态:22692,动态:21727,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>动态:21556,动态:21727,动态:21763,动态:20399,动态:22684,动态:21737,动态:21740,动态:22659,动态:20440,动态:21436,动态:22710,动态:21753,动态:22146,动态:7746,动态:22680,动态:22512,动态:21776,动态:22667,动态:17337,动态:20439,动态:22706,动态:22697,动态:21780,动态:20364,动态:22692,动态:21756,动态:21972,动态:22699,动态:22688,动态:21757,动态:21857,动态:21741,动态:22685,动态:22323,动态:20720,动态:21975,动态:22696,动态:4036,动态:21745,动态:22702,动态:22698,动态:22019,动态:22507</t>
+          <t>动态:21556,动态:21776,动态:22512,动态:21436,动态:22680,动态:22667,动态:21972,动态:20364,动态:7746,动态:20440,动态:21763,动态:21753,动态:21857,动态:22699,动态:20399,动态:22697,动态:22702,动态:22698,动态:21727,动态:22323,动态:21756,动态:21780,动态:21740,动态:22507,动态:21741,动态:20439,动态:21737,动态:21745,动态:22659,动态:21975,动态:22710,动态:22692,动态:22706,动态:22696,动态:22684,动态:22146,动态:17337,动态:22019,动态:21757,动态:4036,动态:20720,动态:22685,动态:22688</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>动态:7746,动态:21556,动态:20720,动态:22667,动态:21740,动态:22507,动态:21857,动态:22688,动态:22684,动态:22685,动态:20439,动态:21753,动态:22698,动态:20399,动态:22680,动态:20364,动态:21756,动态:22706,动态:22710,动态:22019,动态:21776,动态:22697,动态:22692,动态:21763,动态:20440,动态:21975,动态:17337,动态:4036,动态:22696,动态:22323,动态:21972,动态:21727,动态:21741,动态:22702,动态:22699,动态:21745,动态:21737,动态:21757,动态:21436,动态:22659,动态:22146,动态:22512,动态:21780</t>
+          <t>动态:22706,动态:17337,动态:21763,动态:22688,动态:22146,动态:22696,动态:21757,动态:22680,动态:22659,动态:21745,动态:20440,动态:22702,动态:22019,动态:22667,动态:22692,动态:21741,动态:22699,动态:22507,动态:21975,动态:7746,动态:21436,动态:21756,动态:20439,动态:21776,动态:21727,动态:20720,动态:22698,动态:22685,动态:22710,动态:20399,动态:21556,动态:4036,动态:22512,动态:22684,动态:22697,动态:22323,动态:21972,动态:21780,动态:20364,动态:21753,动态:21857,动态:21740,动态:21737</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>动态:21740,动态:22706,动态:22659,动态:22680,动态:21727,动态:22699,动态:21975,动态:22698,动态:22688,动态:21753,动态:22323,动态:21556,动态:4036,动态:7746,动态:22702,动态:22684,动态:21741,动态:22696,动态:21780,动态:21436,动态:21737,动态:21857,动态:21972,动态:20399,动态:17337,动态:21745,动态:22146,动态:20720,动态:22710,动态:22685,动态:21763,动态:22507,动态:20440,动态:20364,动态:22667,动态:21757,动态:22697,动态:21776,动态:21756,动态:20439,动态:22019,动态:22692,动态:22512</t>
+          <t>动态:22512,动态:22702,动态:21757,动态:21975,动态:22710,动态:21753,动态:20399,动态:4036,动态:22692,动态:22680,动态:22699,动态:21763,动态:21780,动态:21737,动态:7746,动态:21745,动态:21776,动态:21556,动态:22697,动态:22146,动态:22698,动态:22659,动态:20364,动态:20439,动态:17337,动态:22684,动态:21436,动态:20720,动态:22323,动态:21740,动态:22019,动态:22685,动态:22667,动态:20440,动态:21741,动态:22706,动态:21756,动态:22688,动态:21857,动态:21727,动态:21972,动态:22507,动态:22696</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>动态:21756,动态:22696,动态:21740,动态:21741,动态:21556,动态:21776,动态:20440,动态:22710,动态:22019,动态:22323,动态:21780,动态:20399,动态:22507,动态:22659,动态:22692,动态:21745,动态:22680,动态:22697,动态:21857,动态:22702,动态:7746,动态:22698,动态:22706,动态:4036,动态:22688,动态:20720,动态:21436,动态:22512,动态:21975,动态:22667,动态:21737,动态:21763,动态:22699,动态:21757,动态:22146,动态:17337,动态:21972,动态:22685,动态:20364,动态:20439,动态:21727,动态:21753,动态:22684</t>
+          <t>动态:22323,动态:22659,动态:21753,动态:21436,动态:22696,动态:20399,动态:22692,动态:7746,动态:21776,动态:22702,动态:22684,动态:21857,动态:21780,动态:21756,动态:22710,动态:21740,动态:20364,动态:21745,动态:20439,动态:4036,动态:21757,动态:22146,动态:17337,动态:22699,动态:22507,动态:22688,动态:22680,动态:21727,动态:21975,动态:22512,动态:22698,动态:22706,动态:21556,动态:20440,动态:22697,动态:21741,动态:21737,动态:22667,动态:21763,动态:21972,动态:22685,动态:22019,动态:20720</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>动态:20399,动态:21556,动态:22696,动态:21737,动态:7746,动态:22692,动态:20440,动态:22698,动态:22697,动态:21776,动态:20364,动态:22667,动态:22680,动态:22512,动态:21975,动态:21972,动态:21745,动态:21436,动态:21780,动态:22688,动态:22323,动态:22507,动态:21740,动态:22699,动态:4036,动态:21857,动态:17337,动态:21763,动态:22685,动态:21741,动态:21757,动态:21727,动态:22146,动态:20720,动态:22019,动态:21753,动态:21756,动态:22706,动态:22659,动态:22710,动态:22702,动态:22684,动态:20439</t>
+          <t>动态:22323,动态:20440,动态:7746,动态:22684,动态:22706,动态:22685,动态:21727,动态:22680,动态:22702,动态:21753,动态:22019,动态:22692,动态:22696,动态:22710,动态:21763,动态:22512,动态:17337,动态:21741,动态:20720,动态:21556,动态:21972,动态:20439,动态:22146,动态:21757,动态:22659,动态:22698,动态:20364,动态:21737,动态:22667,动态:21436,动态:21857,动态:21745,动态:20399,动态:21740,动态:22697,动态:22699,动态:21776,动态:21780,动态:22507,动态:22688,动态:4036,动态:21756,动态:21975</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>动态:21740,动态:21857,动态:21556,动态:22710,动态:21737,动态:21975,动态:21763,动态:20440,动态:22692,动态:21741,动态:20720,动态:22699,动态:22019,动态:22146,动态:22698,动态:7746,动态:22667,动态:22696,动态:4036,动态:21745,动态:22323,动态:20399,动态:21780,动态:22512,动态:20439,动态:17337,动态:22685,动态:22507,动态:22688,动态:21756,动态:22684,动态:22680,动态:21757,动态:22706,动态:22697,动态:21436,动态:22702,动态:21727,动态:20364,动态:22659,动态:21972,动态:21753,动态:21776</t>
+          <t>动态:21753,动态:21780,动态:4036,动态:21740,动态:22688,动态:20439,动态:20364,动态:21975,动态:21756,动态:22706,动态:21737,动态:22323,动态:20399,动态:20440,动态:22146,动态:22680,动态:22667,动态:21436,动态:22512,动态:21741,动态:22692,动态:22507,动态:21757,动态:7746,动态:22699,动态:22697,动态:22702,动态:22696,动态:21727,动态:20720,动态:17337,动态:21776,动态:22684,动态:22019,动态:21972,动态:22659,动态:22685,动态:21857,动态:21556,动态:21763,动态:22710,动态:22698,动态:21745</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>动态:21972,动态:21556,动态:22507,动态:21741,动态:22146,动态:22659,动态:20364,动态:21975,动态:22702,动态:17337,动态:21780,动态:21740,动态:21857,动态:21737,动态:21745,动态:22019,动态:22706,动态:20399,动态:21763,动态:22699,动态:20439,动态:4036,动态:22323,动态:22692,动态:22685,动态:20440,动态:22696,动态:22710,动态:22697,动态:7746,动态:21727,动态:22512,动态:21436,动态:22688,动态:21753,动态:22680,动态:21757,动态:22698,动态:20720,动态:21756,动态:22684,动态:21776,动态:22667</t>
+          <t>动态:22659,动态:22697,动态:22680,动态:4036,动态:22507,动态:21972,动态:22323,动态:22696,动态:17337,动态:22667,动态:21753,动态:22692,动态:22698,动态:20440,动态:20439,动态:21745,动态:21756,动态:7746,动态:21556,动态:20720,动态:21737,动态:21436,动态:21757,动态:22684,动态:21776,动态:22512,动态:21740,动态:21780,动态:22019,动态:22706,动态:21763,动态:21975,动态:22146,动态:22685,动态:20364,动态:21727,动态:22699,动态:20399,动态:22688,动态:22702,动态:22710,动态:21857,动态:21741</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>动态:22692,动态:22667,动态:21763,动态:22146,动态:21972,动态:22696,动态:21727,动态:22323,动态:21757,动态:21745,动态:20720,动态:22685,动态:21740,动态:20364,动态:21753,动态:20399,动态:4036,动态:21556,动态:21857,动态:22659,动态:21776,动态:21741,动态:22699,动态:21737,动态:22507,动态:22698,动态:22680,动态:7746,动态:22688,动态:22684,动态:22697,动态:17337,动态:21780,动态:20439,动态:22512,动态:21975,动态:20440,动态:22702,动态:21436,动态:22710,动态:22019,动态:22706,动态:21756</t>
+          <t>动态:22512,动态:22323,动态:21740,动态:22685,动态:21756,动态:21975,动态:22696,动态:22019,动态:22507,动态:22702,动态:22699,动态:22698,动态:22667,动态:22688,动态:4036,动态:21857,动态:20439,动态:22692,动态:20720,动态:20364,动态:22680,动态:22146,动态:17337,动态:21436,动态:20399,动态:21763,动态:22659,动态:21780,动态:21776,动态:7746,动态:21972,动态:22697,动态:21753,动态:21727,动态:22684,动态:21556,动态:21745,动态:21741,动态:22710,动态:21757,动态:21737,动态:22706,动态:20440</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>动态:22706,动态:22146,动态:21753,动态:22696,动态:21857,动态:21556,动态:22667,动态:20720,动态:20440,动态:22659,动态:7746,动态:22685,动态:21740,动态:21763,动态:22512,动态:4036,动态:22692,动态:17337,动态:20399,动态:22698,动态:22710,动态:22323,动态:21756,动态:22507,动态:21737,动态:21436,动态:21972,动态:21727,动态:22697,动态:20439,动态:21757,动态:22019,动态:21741,动态:21780,动态:20364,动态:22688,动态:21975,动态:22684,动态:22702,动态:22699,动态:22680,动态:21745,动态:21776</t>
+          <t>动态:20439,动态:22019,动态:21737,动态:21763,动态:21556,动态:21741,动态:21857,动态:20720,动态:7746,动态:21753,动态:22706,动态:21756,动态:17337,动态:22512,动态:4036,动态:22702,动态:21776,动态:22692,动态:22699,动态:22696,动态:20364,动态:21740,动态:20399,动态:22323,动态:21972,动态:22667,动态:22659,动态:22710,动态:21745,动态:22685,动态:22507,动态:20440,动态:21757,动态:22698,动态:22146,动态:21727,动态:22688,动态:22680,动态:21780,动态:21975,动态:22684,动态:21436,动态:22697</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>动态:17337,动态:22710,动态:20439,动态:22698,动态:21857,动态:4036,动态:22685,动态:22146,动态:20720,动态:21780,动态:21975,动态:21740,动态:21757,动态:22697,动态:22706,动态:22702,动态:22688,动态:22019,动态:20364,动态:22323,动态:22684,动态:20440,动态:22696,动态:21556,动态:22512,动态:22692,动态:21436,动态:22659,动态:21763,动态:21753,动态:22667,动态:21745,动态:22680,动态:7746,动态:21756,动态:21737,动态:21727,动态:22699,动态:21741,动态:22507,动态:21972,动态:21776,动态:20399</t>
+          <t>动态:21756,动态:22699,动态:20720,动态:22146,动态:21776,动态:21556,动态:20364,动态:21741,动态:22323,动态:22692,动态:21763,动态:22710,动态:21740,动态:20439,动态:22688,动态:22019,动态:22667,动态:21975,动态:22706,动态:21757,动态:21972,动态:22697,动态:22659,动态:22512,动态:22702,动态:21436,动态:20399,动态:21745,动态:22698,动态:21857,动态:22507,动态:21780,动态:20440,动态:22680,动态:17337,动态:22684,动态:4036,动态:22696,动态:21727,动态:21737,动态:22685,动态:21753,动态:7746</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>动态:20439,动态:22710,动态:21757,动态:22512,动态:20399,动态:22667,动态:21737,动态:21556,动态:21780,动态:22146,动态:22696,动态:21756,动态:21745,动态:21975,动态:21763,动态:21972,动态:17337,动态:22702,动态:22706,动态:22699,动态:22680,动态:21857,动态:22684,动态:22697,动态:21740,动态:22507,动态:22688,动态:22659,动态:22698,动态:21753,动态:22019,动态:4036,动态:22323,动态:20364,动态:7746,动态:20720,动态:21741,动态:20440,动态:21776,动态:21727,动态:22692,动态:22685,动态:21436</t>
+          <t>动态:21753,动态:21727,动态:22685,动态:21763,动态:22706,动态:22512,动态:20364,动态:21757,动态:22692,动态:22659,动态:21737,动态:22507,动态:4036,动态:21741,动态:20439,动态:22699,动态:22667,动态:17337,动态:22702,动态:22688,动态:22019,动态:21857,动态:21780,动态:20440,动态:22710,动态:22323,动态:21436,动态:21776,动态:7746,动态:21745,动态:22696,动态:22698,动态:21740,动态:21975,动态:21972,动态:22680,动态:20720,动态:21556,动态:21756,动态:22697,动态:22684,动态:20399,动态:22146</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>动态:22684,动态:22019,动态:21727,动态:21780,动态:17337,动态:21741,动态:21756,动态:22323,动态:20440,动态:22706,动态:22507,动态:22685,动态:20399,动态:4036,动态:7746,动态:22512,动态:22146,动态:21972,动态:20439,动态:22680,动态:20720,动态:21757,动态:22699,动态:21737,动态:21753,动态:22688,动态:20364,动态:22698,动态:22710,动态:21740,动态:22697,动态:22667,动态:22692,动态:22702,动态:22696,动态:21763,动态:21745,动态:21436,动态:21556,动态:21975,动态:21857,动态:21776,动态:22659</t>
+          <t>动态:22512,动态:22688,动态:22696,动态:22019,动态:21556,动态:22685,动态:7746,动态:20720,动态:21776,动态:21857,动态:21741,动态:17337,动态:21436,动态:22692,动态:22710,动态:22659,动态:22323,动态:22667,动态:20439,动态:21972,动态:22699,动态:21763,动态:22698,动态:22680,动态:21740,动态:22697,动态:21745,动态:22684,动态:22706,动态:21780,动态:21757,动态:21975,动态:21753,动态:20440,动态:22702,动态:20399,动态:21756,动态:20364,动态:22146,动态:22507,动态:21737,动态:21727,动态:4036</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>动态:22702,动态:17337,动态:22323,动态:20399,动态:22685,动态:22019,动态:22697,动态:21745,动态:22684,动态:21975,动态:22507,动态:21857,动态:7746,动态:22706,动态:22688,动态:21737,动态:22659,动态:22696,动态:22667,动态:21756,动态:22146,动态:21753,动态:21741,动态:21776,动态:21757,动态:22680,动态:4036,动态:20364,动态:22698,动态:20439,动态:21780,动态:21740,动态:22692,动态:21727,动态:22710,动态:22512,动态:21972,动态:21556,动态:21436,动态:22699,动态:20440,动态:21763,动态:20720</t>
+          <t>动态:22667,动态:20440,动态:22699,动态:22688,动态:22019,动态:22697,动态:21756,动态:21763,动态:21975,动态:22685,动态:22692,动态:22146,动态:21972,动态:21740,动态:21556,动态:22512,动态:21741,动态:22659,动态:20439,动态:20720,动态:21745,动态:22710,动态:21857,动态:20364,动态:21753,动态:22680,动态:21757,动态:22698,动态:22507,动态:21727,动态:21780,动态:21776,动态:20399,动态:21737,动态:22706,动态:22702,动态:21436,动态:4036,动态:17337,动态:22323,动态:22696,动态:7746,动态:22684</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>动态:20720,动态:22323,动态:22698,动态:21740,动态:22692,动态:21776,动态:4036,动态:21556,动态:22512,动态:22688,动态:7746,动态:22697,动态:22696,动态:20440,动态:22507,动态:20364,动态:22710,动态:21727,动态:21737,动态:22685,动态:17337,动态:22667,动态:21972,动态:22699,动态:22019,动态:21857,动态:21780,动态:20399,动态:21975,动态:22684,动态:22146,动态:21757,动态:21745,动态:22702,动态:21756,动态:21753,动态:22706,动态:20439,动态:22680,动态:21763,动态:21741,动态:22659,动态:21436</t>
+          <t>动态:4036,动态:22688,动态:7746,动态:21737,动态:21975,动态:21727,动态:22697,动态:22699,动态:22146,动态:21857,动态:21776,动态:22696,动态:21756,动态:22698,动态:21972,动态:22323,动态:21741,动态:21757,动态:17337,动态:20720,动态:21763,动态:22684,动态:22667,动态:21436,动态:22680,动态:22507,动态:22685,动态:20364,动态:22512,动态:20440,动态:22019,动态:21745,动态:21780,动态:22710,动态:20399,动态:21753,动态:21556,动态:22692,动态:20439,动态:22702,动态:22706,动态:22659,动态:21740</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>动态:22019,动态:21763,动态:22323,动态:21972,动态:22146,动态:21857,动态:21975,动态:20440,动态:21737,动态:20720,动态:22507,动态:22684,动态:22685,动态:22659,动态:21741,动态:21776,动态:21756,动态:22680,动态:22692,动态:22667,动态:7746,动态:21436,动态:21727,动态:22688,动态:22512,动态:21757,动态:20439,动态:22698,动态:22710,动态:22702,动态:21780,动态:21745,动态:22697,动态:21556,动态:22696,动态:20364,动态:21740,动态:22699,动态:22706,动态:17337,动态:4036,动态:20399,动态:21753</t>
+          <t>动态:21436,动态:22684,动态:17337,动态:21780,动态:21972,动态:21727,动态:22696,动态:21776,动态:20439,动态:21756,动态:22667,动态:22659,动态:21737,动态:20720,动态:21740,动态:22680,动态:22323,动态:7746,动态:21556,动态:21763,动态:22692,动态:21975,动态:20440,动态:21757,动态:22019,动态:4036,动态:21741,动态:22685,动态:22706,动态:22512,动态:20364,动态:22697,动态:22146,动态:22710,动态:22688,动态:22702,动态:22507,动态:21857,动态:22698,动态:22699,动态:20399,动态:21753,动态:21745</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>动态:21741,动态:22667,动态:22697,动态:22680,动态:21975,动态:21776,动态:22323,动态:17337,动态:21857,动态:21753,动态:4036,动态:20439,动态:21745,动态:22710,动态:22696,动态:22702,动态:22684,动态:21737,动态:20440,动态:22659,动态:22688,动态:21756,动态:21972,动态:22692,动态:20364,动态:22019,动态:21757,动态:22706,动态:20720,动态:22512,动态:22507,动态:21763,动态:7746,动态:22698,动态:21780,动态:21556,动态:21740,动态:22699,动态:20399,动态:21727,动态:22146,动态:22685,动态:21436</t>
+          <t>动态:21780,动态:21436,动态:22146,动态:22696,动态:21857,动态:22692,动态:22698,动态:21556,动态:22702,动态:21975,动态:20439,动态:20399,动态:22710,动态:20720,动态:22688,动态:22699,动态:21972,动态:21757,动态:22507,动态:21753,动态:22019,动态:22706,动态:17337,动态:21763,动态:22697,动态:21740,动态:21745,动态:21741,动态:20440,动态:21756,动态:22680,动态:21727,动态:20364,动态:22685,动态:21737,动态:4036,动态:22512,动态:7746,动态:21776,动态:22684,动态:22323,动态:22659,动态:22667</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>动态:22659,动态:21857,动态:21727,动态:4036,动态:17337,动态:21975,动态:22696,动态:22019,动态:20439,动态:21740,动态:21757,动态:22688,动态:20399,动态:22323,动态:20440,动态:22697,动态:21745,动态:21556,动态:22680,动态:20364,动态:22667,动态:21741,动态:22698,动态:21780,动态:22685,动态:21436,动态:21737,动态:22702,动态:22146,动态:21763,动态:22692,动态:22699,动态:22710,动态:20720,动态:21776,动态:22512,动态:22706,动态:21753,动态:22684,动态:21972,动态:22507,动态:7746,动态:21756</t>
+          <t>动态:22684,动态:21763,动态:17337,动态:21753,动态:22146,动态:21745,动态:21972,动态:21975,动态:21857,动态:22697,动态:22667,动态:21436,动态:22698,动态:20364,动态:20399,动态:20720,动态:22019,动态:4036,动态:22706,动态:22659,动态:21727,动态:21556,动态:22512,动态:21757,动态:20440,动态:21740,动态:7746,动态:22702,动态:21780,动态:21741,动态:22710,动态:22685,动态:22507,动态:22688,动态:22680,动态:21737,动态:22696,动态:21756,动态:20439,动态:22323,动态:22692,动态:22699,动态:21776</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>动态:21763,动态:20720,动态:21745,动态:22706,动态:4036,动态:22697,动态:22699,动态:21857,动态:21975,动态:17337,动态:22667,动态:21556,动态:21753,动态:20440,动态:21740,动态:21741,动态:22688,动态:22685,动态:21737,动态:22710,动态:21757,动态:22512,动态:20399,动态:21727,动态:22684,动态:22702,动态:21972,动态:22680,动态:22692,动态:22659,动态:20439,动态:21780,动态:22507,动态:22698,动态:22696,动态:7746,动态:21436,动态:21776,动态:22019,动态:22146,动态:21756,动态:20364,动态:22323</t>
+          <t>动态:22323,动态:22702,动态:21972,动态:21436,动态:21727,动态:22507,动态:22667,动态:20720,动态:20364,动态:21740,动态:21745,动态:21756,动态:22706,动态:17337,动态:22688,动态:21757,动态:7746,动态:20440,动态:21776,动态:21975,动态:21737,动态:22684,动态:21556,动态:22680,动态:21741,动态:20399,动态:22019,动态:21763,动态:22710,动态:22696,动态:22692,动态:21857,动态:22699,动态:22685,动态:21780,动态:22659,动态:22697,动态:21753,动态:4036,动态:20439,动态:22146,动态:22698,动态:22512</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>动态:22710,动态:22323,动态:21737,动态:4036,动态:22688,动态:20364,动态:22667,动态:21776,动态:21753,动态:22507,动态:22512,动态:21740,动态:22697,动态:21556,动态:20439,动态:21436,动态:22146,动态:22692,动态:21780,动态:20440,动态:20399,动态:22680,动态:22684,动态:22685,动态:22659,动态:21975,动态:22699,动态:22702,动态:21741,动态:22706,动态:21745,动态:22696,动态:21756,动态:22019,动态:21972,动态:21757,动态:20720,动态:21727,动态:7746,动态:21763,动态:22698,动态:17337,动态:21857</t>
+          <t>动态:20399,动态:22692,动态:22507,动态:22146,动态:21780,动态:22710,动态:22697,动态:22019,动态:22667,动态:21745,动态:22699,动态:22706,动态:21556,动态:22680,动态:22659,动态:21776,动态:22685,动态:22688,动态:20439,动态:21763,动态:21975,动态:22684,动态:22323,动态:21741,动态:17337,动态:20440,动态:21857,动态:21756,动态:22512,动态:21972,动态:21757,动态:21436,动态:22698,动态:7746,动态:22702,动态:20720,动态:21753,动态:4036,动态:21727,动态:20364,动态:22696,动态:21740,动态:21737</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>动态:22684,动态:22685,动态:7746,动态:22697,动态:22146,动态:22710,动态:21556,动态:21727,动态:20364,动态:21763,动态:21745,动态:22323,动态:22696,动态:20720,动态:22699,动态:22512,动态:21780,动态:21972,动态:21741,动态:17337,动态:22667,动态:20439,动态:20440,动态:22688,动态:22706,动态:4036,动态:21753,动态:21776,动态:21737,动态:22698,动态:21436,动态:21857,动态:20399,动态:22507,动态:22019,动态:22680,动态:21757,动态:22692,动态:22659,动态:21740,动态:21975,动态:22702,动态:21756</t>
+          <t>动态:21756,动态:21556,动态:20440,动态:21975,动态:22710,动态:22680,动态:21745,动态:22702,动态:21757,动态:20399,动态:20720,动态:22323,动态:22692,动态:21436,动态:21776,动态:21727,动态:17337,动态:21857,动态:22512,动态:22146,动态:21753,动态:21780,动态:20439,动态:22684,动态:22685,动态:22706,动态:21741,动态:22699,动态:22697,动态:22507,动态:22019,动态:22667,动态:22688,动态:7746,动态:21763,动态:22696,动态:22698,动态:21972,动态:22659,动态:4036,动态:21740,动态:20364,动态:21737</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>动态:21745,动态:21727,动态:22667,动态:22323,动态:21740,动态:20399,动态:22659,动态:22688,动态:22697,动态:22680,动态:22702,动态:21756,动态:17337,动态:21776,动态:20364,动态:21753,动态:21741,动态:22696,动态:22019,动态:22710,动态:21763,动态:21972,动态:22692,动态:22698,动态:7746,动态:21975,动态:22507,动态:22146,动态:20439,动态:21780,动态:20720,动态:21757,动态:21857,动态:22699,动态:21436,动态:20440,动态:22685,动态:22684,动态:21737,动态:21556,动态:4036,动态:22512,动态:22706</t>
+          <t>动态:17337,动态:20399,动态:22698,动态:20720,动态:22667,动态:21756,动态:22692,动态:21740,动态:22659,动态:20440,动态:22702,动态:4036,动态:21776,动态:21753,动态:22688,动态:21436,动态:20439,动态:22697,动态:21757,动态:21857,动态:22146,动态:22019,动态:22696,动态:22699,动态:22680,动态:21780,动态:7746,动态:21972,动态:21763,动态:21737,动态:22512,动态:22710,动态:21727,动态:21975,动态:22685,动态:22507,动态:21741,动态:22706,动态:22323,动态:21745,动态:22684,动态:20364,动态:21556</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>动态:22688,动态:22702,动态:21763,动态:20720,动态:22697,动态:21753,动态:22680,动态:22706,动态:21741,动态:22696,动态:21975,动态:21727,动态:22692,动态:21556,动态:22698,动态:22659,动态:21756,动态:20399,动态:21972,动态:17337,动态:20440,动态:21740,动态:21745,动态:22667,动态:20364,动态:21737,动态:21757,动态:21780,动态:22699,动态:22323,动态:22685,动态:22146,动态:22507,动态:22512,动态:20439,动态:4036,动态:21436,动态:22019,动态:21857,动态:22684,动态:22710,动态:7746,动态:21776</t>
+          <t>动态:20439,动态:22323,动态:22019,动态:22702,动态:22685,动态:21745,动态:20364,动态:17337,动态:22699,动态:22692,动态:21737,动态:21727,动态:22696,动态:22684,动态:4036,动态:21776,动态:21857,动态:22688,动态:21436,动态:7746,动态:21741,动态:22667,动态:21753,动态:21780,动态:22698,动态:22680,动态:22710,动态:21740,动态:21763,动态:20440,动态:22706,动态:21756,动态:22659,动态:21556,动态:21757,动态:21975,动态:20399,动态:22697,动态:22507,动态:22512,动态:22146,动态:20720,动态:21972</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>动态:21737,动态:21745,动态:22019,动态:22697,动态:22688,动态:20364,动态:22684,动态:22698,动态:21741,动态:22706,动态:22696,动态:21776,动态:22692,动态:21740,动态:22710,动态:20720,动态:22685,动态:21753,动态:7746,动态:22507,动态:22702,动态:22323,动态:20399,动态:21972,动态:22512,动态:21780,动态:22680,动态:20439,动态:21975,动态:20440,动态:21857,动态:21763,动态:21756,动态:4036,动态:21556,动态:22699,动态:21727,动态:21436,动态:22659,动态:22146,动态:22667,动态:21757</t>
+          <t>动态:20439,动态:22710,动态:20440,动态:21740,动态:22702,动态:21436,动态:22685,动态:21741,动态:22019,动态:22696,动态:22146,动态:21975,动态:22698,动态:22667,动态:22697,动态:22688,动态:20364,动态:22692,动态:21757,动态:21753,动态:21727,动态:21737,动态:21780,动态:21763,动态:21745,动态:22680,动态:20720,动态:20399,动态:22507,动态:22323,动态:21776,动态:21857,动态:22512,动态:21556,动态:21756,动态:22684,动态:7746,动态:22699,动态:22659,动态:22706,动态:21972,动态:4036</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>动态:21753,动态:22710,动态:20399,动态:21556,动态:22688,动态:21740,动态:22146,动态:22685,动态:22692,动态:22507,动态:21756,动态:21776,动态:21737,动态:22512,动态:20439,动态:21745,动态:22659,动态:22019,动态:22702,动态:22697,动态:7746,动态:21972,动态:21763,动态:21857,动态:21436,动态:4036,动态:22684,动态:22699,动态:20364,动态:22667,动态:20720,动态:21727,动态:22696,动态:22706,动态:22698,动态:21757,动态:17337,动态:21741,动态:21780,动态:22323,动态:21975,动态:20440,动态:22680</t>
+          <t>动态:21756,动态:22699,动态:21857,动态:21753,动态:21763,动态:20439,动态:22710,动态:22680,动态:22685,动态:21780,动态:21975,动态:22667,动态:17337,动态:22019,动态:21757,动态:22323,动态:20440,动态:22702,动态:21972,动态:21737,动态:22696,动态:22698,动态:21745,动态:22692,动态:20364,动态:21436,动态:21740,动态:21776,动态:22659,动态:22684,动态:22697,动态:21727,动态:22688,动态:22146,动态:4036,动态:22512,动态:21741,动态:20399,动态:21556,动态:22507,动态:22706,动态:20720,动态:7746</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>动态:21763,动态:21745,动态:22512,动态:21737,动态:22685,动态:22702,动态:21780,动态:20364,动态:21757,动态:22146,动态:21436,动态:21556,动态:22698,动态:22019,动态:22696,动态:22667,动态:22659,动态:21972,动态:22699,动态:21727,动态:17337,动态:22507,动态:21741,动态:22688,动态:20399,动态:21756,动态:22706,动态:21753,动态:21975,动态:22684,动态:20720,动态:21740,动态:4036,动态:22680,动态:22697,动态:21776,动态:22692,动态:22323,动态:22710,动态:21857,动态:7746</t>
+          <t>动态:21780,动态:22706,动态:20399,动态:21757,动态:22710,动态:22685,动态:22697,动态:22684,动态:22696,动态:21857,动态:22688,动态:21556,动态:7746,动态:17337,动态:22507,动态:22146,动态:22019,动态:21737,动态:20720,动态:22323,动态:21727,动态:22692,动态:21741,动态:21756,动态:22659,动态:22702,动态:21753,动态:21740,动态:22512,动态:22699,动态:21436,动态:4036,动态:21745,动态:20364,动态:21776,动态:21972,动态:22667,动态:21763,动态:22680,动态:22698,动态:21975</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>动态:21737,动态:21780,动态:21972,动态:21727,动态:21757,动态:22710,动态:22019,动态:22680,动态:21753,动态:22688,动态:22702,动态:21776,动态:21740,动态:21436,动态:20364,动态:20720,动态:22659,动态:21556,动态:20440,动态:4036,动态:21857,动态:22512,动态:22706,动态:22146,动态:22323,动态:22696,动态:22697,动态:20399,动态:22698,动态:21975,动态:22684,动态:22507,动态:21756,动态:22667,动态:22699,动态:21741,动态:7746,动态:20439,动态:17337,动态:21745,动态:22685,动态:22692,动态:21763</t>
+          <t>动态:22684,动态:22702,动态:21780,动态:21753,动态:22688,动态:22323,动态:17337,动态:22698,动态:22512,动态:20364,动态:4036,动态:21972,动态:21857,动态:22710,动态:22659,动态:22706,动态:22692,动态:21975,动态:22667,动态:22146,动态:22696,动态:22507,动态:21556,动态:22680,动态:21763,动态:21740,动态:21737,动态:21727,动态:22685,动态:22019,动态:21741,动态:21757,动态:22697,动态:7746,动态:20399,动态:21436,动态:21745,动态:21776,动态:20440,动态:22699,动态:20439,动态:21756,动态:20720</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>动态:21737,动态:21776,动态:22680,动态:22697,动态:22507,动态:22685,动态:21756,动态:22667,动态:21745,动态:22702,动态:21975,动态:21757,动态:22710,动态:21727,动态:20399,动态:22019,动态:21556,动态:21740,动态:7746,动态:21753,动态:22146,动态:4036,动态:20364,动态:22512,动态:22692,动态:22688,动态:22323,动态:20440,动态:22684,动态:17337,动态:22699,动态:21857,动态:21741,动态:20720,动态:21972,动态:22696,动态:22698,动态:21436,动态:21780,动态:22659,动态:22706,动态:21763</t>
+          <t>动态:20364,动态:21780,动态:22680,动态:22512,动态:22146,动态:21776,动态:21745,动态:22710,动态:21975,动态:22706,动态:22702,动态:22685,动态:21737,动态:22697,动态:21436,动态:21556,动态:22019,动态:22667,动态:21741,动态:21763,动态:7746,动态:17337,动态:22692,动态:22688,动态:22323,动态:4036,动态:21857,动态:20399,动态:20440,动态:21753,动态:22699,动态:21757,动态:21972,动态:21756,动态:20720,动态:22659,动态:22507,动态:21740,动态:22696,动态:22684,动态:22698,动态:21727</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>动态:21972,动态:21763,动态:21727,动态:21756,动态:21740,动态:21753,动态:21741,动态:17337,动态:22702,动态:20364,动态:21776,动态:22706,动态:22696,动态:22699,动态:22512,动态:21556,动态:22667,动态:22710,动态:22507,动态:20720,动态:22323,动态:22688,动态:21745,动态:20439,动态:22697,动态:21857,动态:22019,动态:20440,动态:21757,动态:22146,动态:22698,动态:22680,动态:21436,动态:20399,动态:7746,动态:21975,动态:21780,动态:22659,动态:4036,动态:22692,动态:22684,动态:21737,动态:22685</t>
+          <t>动态:22323,动态:20720,动态:21972,动态:20439,动态:21741,动态:22667,动态:20440,动态:22699,动态:20364,动态:21753,动态:21776,动态:22684,动态:17337,动态:22706,动态:21436,动态:22697,动态:21857,动态:21740,动态:22507,动态:21975,动态:22702,动态:22019,动态:22692,动态:21780,动态:21757,动态:22659,动态:4036,动态:7746,动态:22696,动态:22710,动态:20399,动态:21745,动态:22688,动态:22512,动态:21756,动态:22685,动态:22680,动态:21727,动态:21763,动态:21556,动态:21737,动态:22698,动态:22146</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>动态:22688,动态:22019,动态:7746,动态:22698,动态:22710,动态:22667,动态:21753,动态:21737,动态:22699,动态:21757,动态:20720,动态:21727,动态:21436,动态:21556,动态:22323,动态:21972,动态:22685,动态:20439,动态:20440,动态:4036,动态:22697,动态:22706,动态:20364,动态:21756,动态:22507,动态:22659,动态:21857,动态:22684,动态:22702,动态:21780,动态:21776,动态:21763,动态:21745,动态:22146,动态:22692,动态:21741,动态:17337,动态:20399,动态:22696,动态:22512,动态:22680,动态:21740,动态:21975</t>
+          <t>动态:22146,动态:22680,动态:21740,动态:17337,动态:22699,动态:21436,动态:20440,动态:20364,动态:20439,动态:21776,动态:21757,动态:22688,动态:22507,动态:21727,动态:21857,动态:21763,动态:22698,动态:21756,动态:22706,动态:22692,动态:21780,动态:21745,动态:22659,动态:7746,动态:21975,动态:21737,动态:22702,动态:20720,动态:22684,动态:21753,动态:22696,动态:21556,动态:21972,动态:4036,动态:22323,动态:21741,动态:22667,动态:20399,动态:22512,动态:22685,动态:22019,动态:22697,动态:22710</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>动态:22697,动态:22323,动态:21556,动态:21780,动态:22706,动态:22680,动态:20364,动态:21737,动态:21741,动态:22698,动态:21763,动态:20720,动态:21740,动态:22507,动态:20440,动态:22685,动态:20439,动态:22699,动态:21757,动态:22659,动态:22710,动态:21857,动态:4036,动态:22684,动态:22702,动态:21756,动态:22667,动态:22692,动态:21727,动态:21975,动态:21745,动态:22512,动态:22696,动态:17337,动态:21972,动态:22146,动态:21436,动态:21776,动态:20399,动态:22019,动态:22688,动态:21753,动态:7746</t>
+          <t>动态:22659,动态:22699,动态:21556,动态:21975,动态:21756,动态:20720,动态:21737,动态:22697,动态:22507,动态:21753,动态:21745,动态:22710,动态:21740,动态:22323,动态:21857,动态:22692,动态:22667,动态:22702,动态:22685,动态:21776,动态:21972,动态:4036,动态:22680,动态:22688,动态:22684,动态:21436,动态:22698,动态:20439,动态:21757,动态:17337,动态:22146,动态:22696,动态:20399,动态:22706,动态:20364,动态:7746,动态:21780,动态:22512,动态:21763,动态:21727,动态:22019,动态:21741,动态:20440</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>动态:22697,动态:20399,动态:22699,动态:21436,动态:22684,动态:21753,动态:22688,动态:21556,动态:21737,动态:22706,动态:20720,动态:22507,动态:21741,动态:22680,动态:21745,动态:21972,动态:21857,动态:22146,动态:22019,动态:21756,动态:21776,动态:22702,动态:22692,动态:22698,动态:22667,动态:22323,动态:22659,动态:7746,动态:22685,动态:21780,动态:21757,动态:20439,动态:21740,动态:4036,动态:22512,动态:21763,动态:20440,动态:21727,动态:22696,动态:22710,动态:21975,动态:20364,动态:17337</t>
+          <t>动态:20720,动态:22680,动态:22684,动态:22710,动态:20440,动态:21753,动态:22019,动态:21556,动态:22699,动态:21776,动态:22507,动态:21975,动态:4036,动态:22692,动态:22685,动态:21756,动态:22702,动态:21741,动态:20399,动态:17337,动态:21763,动态:22323,动态:22659,动态:22146,动态:22688,动态:21757,动态:22697,动态:20364,动态:21740,动态:21727,动态:21780,动态:22698,动态:21737,动态:20439,动态:7746,动态:21436,动态:22696,动态:21972,动态:22706,动态:21857,动态:22512,动态:22667,动态:21745</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>动态:21740,动态:21741,动态:22699,动态:22698,动态:21737,动态:7746,动态:21975,动态:22659,动态:22680,动态:22019,动态:4036,动态:22507,动态:21857,动态:22710,动态:21556,动态:22512,动态:22688,动态:22667,动态:22146,动态:22685,动态:22692,动态:22706,动态:22702,动态:22684,动态:21780,动态:20364,动态:21436,动态:21972,动态:21756,动态:20720,动态:21776,动态:21753,动态:22323,动态:21727,动态:20439,动态:17337,动态:21763,动态:20399,动态:22697,动态:22696,动态:20440,动态:21757,动态:21745</t>
+          <t>动态:22698,动态:22706,动态:22685,动态:17337,动态:21857,动态:21776,动态:21740,动态:21737,动态:22667,动态:21972,动态:21975,动态:4036,动态:21756,动态:21763,动态:22696,动态:21780,动态:22710,动态:7746,动态:22512,动态:22702,动态:22146,动态:22684,动态:20364,动态:22323,动态:21727,动态:21436,动态:21757,动态:22692,动态:22659,动态:22680,动态:20399,动态:22688,动态:21753,动态:22507,动态:20440,动态:22699,动态:21745,动态:20439,动态:22019,动态:20720,动态:22697,动态:21556,动态:21741</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>动态:21556,动态:21756,动态:22512,动态:22680,动态:21757,动态:21741,动态:22323,动态:21740,动态:20440,动态:21737,动态:22692,动态:22698,动态:20364,动态:20399,动态:22019,动态:22688,动态:21972,动态:21745,动态:21780,动态:20439,动态:20720,动态:22710,动态:22706,动态:21727,动态:22507,动态:4036,动态:22697,动态:7746,动态:21436,动态:22699,动态:22684,动态:21975,动态:21753,动态:22659,动态:22667,动态:22685,动态:17337,动态:22146,动态:21763,动态:22696,动态:22702,动态:21857,动态:21776</t>
+          <t>动态:22507,动态:21757,动态:4036,动态:21753,动态:22680,动态:17337,动态:22692,动态:21741,动态:21780,动态:21756,动态:21857,动态:21737,动态:22698,动态:22146,动态:22684,动态:20364,动态:21436,动态:21745,动态:22019,动态:20399,动态:21975,动态:21972,动态:22512,动态:22710,动态:22659,动态:21740,动态:21556,动态:22702,动态:22706,动态:22699,动态:22323,动态:20440,动态:22697,动态:21727,动态:22667,动态:7746,动态:21763,动态:22696,动态:20439,动态:22685,动态:21776,动态:22688,动态:20720</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>动态:17337,动态:20399,动态:21740,动态:22507,动态:21780,动态:21436,动态:21763,动态:22019,动态:20440,动态:22146,动态:22706,动态:20439,动态:22685,动态:22323,动态:21737,动态:22659,动态:21972,动态:21756,动态:21727,动态:22667,动态:22512,动态:22684,动态:22702,动态:7746,动态:21975,动态:20364,动态:21745,动态:22680,动态:21857,动态:4036,动态:21556,动态:21753,动态:21757,动态:21741,动态:22710,动态:22699,动态:22688,动态:22696,动态:22698,动态:20720,动态:22697,动态:21776,动态:22692</t>
+          <t>动态:21763,动态:22659,动态:20720,动态:22702,动态:17337,动态:22685,动态:21753,动态:21737,动态:21741,动态:21436,动态:20364,动态:22684,动态:21727,动态:20440,动态:21745,动态:21756,动态:21740,动态:22696,动态:21556,动态:21972,动态:4036,动态:22507,动态:21757,动态:21857,动态:22699,动态:22688,动态:20399,动态:21780,动态:22146,动态:22692,动态:22512,动态:7746,动态:22680,动态:22019,动态:22706,动态:22323,动态:22697,动态:22698,动态:22667,动态:21975,动态:20439,动态:22710,动态:21776</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>动态:21737,动态:22667,动态:22685,动态:22019,动态:21740,动态:21556,动态:22512,动态:4036,动态:22507,动态:21741,动态:21972,动态:22710,动态:21757,动态:20364,动态:21436,动态:21753,动态:22702,动态:22696,动态:22688,动态:22659,动态:7746,动态:22146,动态:21745,动态:22680,动态:22684,动态:21857,动态:22699,动态:20439,动态:21763,动态:22706,动态:21756,动态:20399,动态:21776,动态:21727,动态:17337,动态:20440,动态:21975,动态:22692,动态:22323,动态:21780,动态:22697,动态:20720,动态:22698</t>
+          <t>动态:20720,动态:22684,动态:22710,动态:21556,动态:21757,动态:22680,动态:22019,动态:21857,动态:22323,动态:22659,动态:22507,动态:21737,动态:21780,动态:20440,动态:21756,动态:21727,动态:22667,动态:21740,动态:20399,动态:21436,动态:20439,动态:22698,动态:21753,动态:22512,动态:22692,动态:21776,动态:17337,动态:22688,动态:21975,动态:22699,动态:4036,动态:21972,动态:21763,动态:22696,动态:20364,动态:22685,动态:22706,动态:21741,动态:22146,动态:22702,动态:21745,动态:7746,动态:22697</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>动态:21975,动态:20364,动态:21737,动态:21763,动态:22146,动态:21556,动态:22019,动态:22697,动态:22685,动态:22684,动态:21741,动态:21745,动态:22667,动态:21972,动态:22710,动态:22659,动态:22323,动态:22512,动态:7746,动态:21753,动态:21780,动态:4036,动态:21740,动态:17337,动态:22680,动态:20720,动态:22507,动态:22706,动态:21436,动态:22702,动态:21776,动态:22699,动态:21756,动态:21727,动态:21857,动态:20399,动态:22698,动态:22696,动态:21757,动态:22688,动态:20440,动态:22692,动态:20439</t>
+          <t>动态:22019,动态:22697,动态:20439,动态:22512,动态:7746,动态:17337,动态:21757,动态:22702,动态:22696,动态:22706,动态:21780,动态:22146,动态:21737,动态:4036,动态:21556,动态:22680,动态:21776,动态:20399,动态:21745,动态:22684,动态:22698,动态:22692,动态:21975,动态:21727,动态:20720,动态:21740,动态:22323,动态:20440,动态:22688,动态:22659,动态:22667,动态:21857,动态:21741,动态:22699,动态:21972,动态:21763,动态:21756,动态:20364,动态:22507,动态:22710,动态:21436,动态:21753,动态:22685</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>动态:22696,动态:21756,动态:20399,动态:22667,动态:22702,动态:7746,动态:21776,动态:21436,动态:21556,动态:21741,动态:22692,动态:22659,动态:22507,动态:22698,动态:20440,动态:21857,动态:22323,动态:22688,动态:20439,动态:21737,动态:21763,动态:22706,动态:22680,动态:22699,动态:21727,动态:22697,动态:21780,动态:21740,动态:17337,动态:22019,动态:20364,动态:21975,动态:21745,动态:22684,动态:21972,动态:22710,动态:4036,动态:20720,动态:22512,动态:21753,动态:21757,动态:22685,动态:22146</t>
+          <t>动态:21857,动态:21757,动态:20439,动态:20399,动态:21975,动态:7746,动态:20440,动态:22684,动态:22146,动态:21436,动态:21556,动态:20720,动态:22697,动态:21972,动态:21756,动态:22685,动态:17337,动态:22680,动态:21776,动态:22692,动态:21740,动态:22688,动态:4036,动态:22710,动态:21741,动态:21745,动态:22702,动态:20364,动态:21727,动态:22019,动态:22706,动态:21763,动态:22512,动态:22698,动态:22696,动态:22667,动态:22507,动态:22699,动态:21780,动态:21753,动态:22323,动态:21737,动态:22659</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>动态:21972,动态:20399,动态:22688,动态:22019,动态:22659,动态:22684,动态:21737,动态:22667,动态:21756,动态:20720,动态:21740,动态:17337,动态:21727,动态:22710,动态:22512,动态:22696,动态:21975,动态:22685,动态:21753,动态:22507,动态:22697,动态:22680,动态:7746,动态:21763,动态:21776,动态:21745,动态:21556,动态:21436,动态:21780,动态:21857,动态:4036,动态:22323,动态:22698,动态:22146,动态:20440,动态:22702,动态:20364,动态:21741,动态:22699,动态:22692,动态:20439,动态:21757,动态:22706</t>
+          <t>动态:22688,动态:22323,动态:21727,动态:22696,动态:21975,动态:20399,动态:21776,动态:20440,动态:21745,动态:21972,动态:22697,动态:21757,动态:21756,动态:20364,动态:22706,动态:22699,动态:21857,动态:21780,动态:22692,动态:21737,动态:22659,动态:22019,动态:22698,动态:22667,动态:7746,动态:20439,动态:20720,动态:22685,动态:22507,动态:22512,动态:21740,动态:22684,动态:21763,动态:21556,动态:22702,动态:4036,动态:17337,动态:22680,动态:21741,动态:22710,动态:21753,动态:21436,动态:22146</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>动态:22507,动态:21975,动态:22684,动态:17337,动态:22685,动态:22699,动态:20364,动态:22146,动态:22696,动态:4036,动态:20439,动态:22692,动态:22512,动态:22702,动态:21756,动态:21972,动态:22019,动态:22323,动态:21757,动态:22680,动态:20440,动态:7746,动态:21436,动态:21740,动态:20399,动态:21556,动态:22659,动态:21857,动态:21753,动态:21776,动态:21780,动态:21745,动态:22697,动态:22710,动态:20720,动态:21737,动态:22706,动态:21727,动态:22698,动态:21741,动态:22667,动态:21763,动态:22688</t>
+          <t>动态:21857,动态:21753,动态:21741,动态:21757,动态:22323,动态:22699,动态:22659,动态:21972,动态:4036,动态:21975,动态:20399,动态:20364,动态:21436,动态:22710,动态:21740,动态:22688,动态:21763,动态:20439,动态:22684,动态:20720,动态:21727,动态:22512,动态:22685,动态:22667,动态:21556,动态:7746,动态:22696,动态:22019,动态:21756,动态:22680,动态:21745,动态:21737,动态:21780,动态:20440,动态:22698,动态:22507,动态:22706,动态:17337,动态:22697,动态:22702,动态:22692,动态:22146,动态:21776</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>动态:22710,动态:20720,动态:22699,动态:22685,动态:20440,动态:21857,动态:20364,动态:21776,动态:22697,动态:17337,动态:22684,动态:21780,动态:22702,动态:21745,动态:20399,动态:21972,动态:22696,动态:22507,动态:22688,动态:21727,动态:21763,动态:22680,动态:20439,动态:22146,动态:21757,动态:21436,动态:21975,动态:22659,动态:22692,动态:21556,动态:22323,动态:21737,动态:21756,动态:4036,动态:7746,动态:22667,动态:21753,动态:22706,动态:22698,动态:22512,动态:22019,动态:21740,动态:21741</t>
+          <t>动态:21857,动态:22659,动态:22512,动态:22697,动态:21753,动态:21740,动态:22667,动态:21737,动态:20720,动态:22680,动态:20439,动态:21780,动态:21776,动态:22706,动态:22146,动态:4036,动态:22696,动态:21763,动态:22699,动态:21972,动态:22688,动态:20399,动态:22698,动态:22684,动态:21757,动态:21436,动态:17337,动态:22019,动态:21745,动态:21975,动态:21741,动态:21756,动态:21556,动态:22702,动态:7746,动态:20440,动态:22692,动态:22507,动态:22323,动态:22685,动态:21727,动态:20364,动态:22710</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>动态:22684,动态:21740,动态:22667,动态:21556,动态:21763,动态:22680,动态:21436,动态:22699,动态:22698,动态:4036,动态:20720,动态:22685,动态:22512,动态:21776,动态:21753,动态:21737,动态:22019,动态:22659,动态:22323,动态:22507,动态:22697,动态:22146,动态:7746,动态:22696,动态:22706,动态:21780,动态:20399,动态:17337,动态:21745,动态:21857,动态:22710,动态:20364,动态:22688,动态:21756,动态:21727,动态:21972,动态:20439,动态:22692,动态:20440,动态:21757,动态:22702,动态:21741,动态:21975</t>
+          <t>动态:20364,动态:21740,动态:22659,动态:22702,动态:22019,动态:22512,动态:7746,动态:22507,动态:20399,动态:22697,动态:22680,动态:22684,动态:21757,动态:21741,动态:22698,动态:21436,动态:22323,动态:22706,动态:22146,动态:20439,动态:22692,动态:20440,动态:21556,动态:22710,动态:21737,动态:21776,动态:21727,动态:22699,动态:21857,动态:21753,动态:22688,动态:22696,动态:21745,动态:22685,动态:21780,动态:20720,动态:17337,动态:21763,动态:21756,动态:21975,动态:22667,动态:4036,动态:21972</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>动态:22680,动态:21436,动态:21780,动态:22698,动态:22512,动态:21745,动态:22659,动态:20364,动态:22697,动态:21857,动态:20439,动态:22699,动态:21975,动态:21737,动态:20399,动态:22706,动态:21757,动态:22146,动态:22684,动态:20440,动态:21972,动态:22323,动态:21776,动态:22685,动态:21556,动态:21727,动态:22696,动态:22667,动态:4036,动态:21753,动态:21740,动态:22710,动态:22019,动态:22692,动态:22702,动态:21763,动态:22507,动态:22688,动态:21756,动态:20720,动态:7746,动态:17337,动态:21741</t>
+          <t>动态:22685,动态:22146,动态:21975,动态:22659,动态:22699,动态:21780,动态:21727,动态:21757,动态:21737,动态:20439,动态:22706,动态:22696,动态:17337,动态:21740,动态:22019,动态:21753,动态:22710,动态:21741,动态:22507,动态:21763,动态:21972,动态:22702,动态:22667,动态:20399,动态:20440,动态:22698,动态:21756,动态:22688,动态:4036,动态:21436,动态:21857,动态:22684,动态:21556,动态:7746,动态:21776,动态:21745,动态:20720,动态:22697,动态:20364,动态:22512,动态:22680,动态:22323,动态:22692</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>动态:4036,动态:21737,动态:21436,动态:21757,动态:17337,动态:22692,动态:22507,动态:21753,动态:22684,动态:21776,动态:21756,动态:22696,动态:22667,动态:22697,动态:21740,动态:22706,动态:22702,动态:21745,动态:7746,动态:21741,动态:20399,动态:22659,动态:22710,动态:21972,动态:21556,动态:20364,动态:22146,动态:21763,动态:21780,动态:22698,动态:20720,动态:22685,动态:21857,动态:22680,动态:21975,动态:20439,动态:21727,动态:20440,动态:22688,动态:22699,动态:22512,动态:22323,动态:22019</t>
+          <t>动态:21975,动态:22146,动态:17337,动态:21756,动态:21753,动态:22323,动态:21556,动态:21737,动态:21776,动态:4036,动态:22696,动态:22706,动态:22507,动态:22702,动态:20440,动态:22680,动态:21741,动态:22667,动态:21436,动态:22710,动态:21740,动态:20399,动态:20439,动态:22698,动态:22019,动态:22699,动态:20720,动态:21727,动态:22697,动态:22685,动态:21780,动态:22684,动态:22659,动态:22512,动态:21757,动态:21857,动态:21745,动态:7746,动态:21763,动态:21972,动态:20364,动态:22692,动态:22688</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>动态:22019,动态:7746,动态:22146,动态:22688,动态:22323,动态:21737,动态:22706,动态:21727,动态:20440,动态:20364,动态:22710,动态:22696,动态:22680,动态:21776,动态:21975,动态:21753,动态:22684,动态:22702,动态:22698,动态:22507,动态:22699,动态:20399,动态:22667,动态:21757,动态:17337,动态:22697,动态:4036,动态:21741,动态:21556,动态:22692,动态:22659,动态:21780,动态:21857,动态:20439,动态:21436,动态:22512,动态:21740,动态:21763,动态:21745,动态:21756,动态:21972,动态:22685,动态:20720</t>
+          <t>动态:21741,动态:22146,动态:20439,动态:22659,动态:22702,动态:21780,动态:22696,动态:22706,动态:21727,动态:21745,动态:20399,动态:22710,动态:21737,动态:22323,动态:22684,动态:22699,动态:22697,动态:17337,动态:21763,动态:21753,动态:21975,动态:22667,动态:22692,动态:21436,动态:22698,动态:21972,动态:20440,动态:20720,动态:21756,动态:7746,动态:22019,动态:21757,动态:22512,动态:21857,动态:22507,动态:22688,动态:22685,动态:4036,动态:21776,动态:20364,动态:22680,动态:21740,动态:21556</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>动态:22507,动态:21975,动态:22688,动态:22685,动态:21763,动态:21776,动态:21756,动态:22706,动态:22698,动态:21737,动态:21556,动态:21757,动态:22512,动态:20720,动态:21972,动态:7746,动态:22684,动态:20440,动态:22692,动态:22667,动态:21436,动态:22680,动态:22697,动态:22146,动态:22710,动态:21727,动态:21740,动态:21857,动态:20364,动态:20399,动态:22696,动态:22323,动态:4036,动态:21741,动态:22699,动态:21780,动态:20439,动态:22702,动态:17337,动态:21753,动态:22019,动态:22659,动态:21745</t>
+          <t>动态:21753,动态:21757,动态:21727,动态:4036,动态:21780,动态:22146,动态:20399,动态:22659,动态:22699,动态:22696,动态:22667,动态:22680,动态:22323,动态:21741,动态:21756,动态:22698,动态:22702,动态:7746,动态:21776,动态:22710,动态:21763,动态:22685,动态:22706,动态:22692,动态:20439,动态:17337,动态:21975,动态:20440,动态:21972,动态:22512,动态:22697,动态:21740,动态:20720,动态:21556,动态:20364,动态:21745,动态:22507,动态:22688,动态:21737,动态:22684,动态:21857,动态:22019,动态:21436</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>动态:22507,动态:21763,动态:20720,动态:21745,动态:22019,动态:22684,动态:21972,动态:21975,动态:22146,动态:22685,动态:20399,动态:21780,动态:21857,动态:22680,动态:20364,动态:22667,动态:21436,动态:22696,动态:21741,动态:21556,动态:22706,动态:22323,动态:21757,动态:21756,动态:21753,动态:22702,动态:17337,动态:20439,动态:22688,动态:21737,动态:21740,动态:22697,动态:22699,动态:22512,动态:7746,动态:21776,动态:22710,动态:22692,动态:22698,动态:20440,动态:22659,动态:21727,动态:4036</t>
+          <t>动态:22702,动态:22688,动态:21757,动态:22667,动态:22512,动态:21756,动态:21972,动态:21741,动态:22659,动态:20440,动态:22710,动态:22697,动态:21727,动态:22706,动态:21776,动态:22019,动态:22696,动态:21763,动态:21975,动态:22699,动态:22507,动态:21740,动态:21436,动态:22680,动态:21857,动态:22692,动态:22698,动态:22323,动态:21753,动态:21780,动态:20399,动态:22684,动态:20364,动态:22685,动态:17337,动态:20439,动态:20720,动态:22146,动态:21745,动态:7746,动态:21556,动态:4036,动态:21737</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>动态:22685,动态:22146,动态:4036,动态:17337,动态:21556,动态:21757,动态:22019,动态:22696,动态:21727,动态:22688,动态:21741,动态:7746,动态:22512,动态:20399,动态:22698,动态:20440,动态:21756,动态:22684,动态:22699,动态:21780,动态:20439,动态:22706,动态:22507,动态:21857,动态:22323,动态:21737,动态:21763,动态:20364,动态:22680,动态:22702,动态:21753,动态:22697,动态:22710,动态:21975,动态:21972,动态:22692,动态:22659,动态:22667,动态:20720,动态:21745,动态:21740,动态:21776,动态:21436</t>
+          <t>动态:21741,动态:21745,动态:22685,动态:21776,动态:21763,动态:20720,动态:22699,动态:22696,动态:17337,动态:21972,动态:22680,动态:22512,动态:20440,动态:22659,动态:21780,动态:21757,动态:22706,动态:21740,动态:20439,动态:20399,动态:21556,动态:22688,动态:21753,动态:7746,动态:22710,动态:22323,动态:21727,动态:21756,动态:22684,动态:22507,动态:22692,动态:22702,动态:22146,动态:22019,动态:4036,动态:22698,动态:21436,动态:22667,动态:20364,动态:22697,动态:21857,动态:21737,动态:21975</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>动态:20440,动态:22512,动态:20399,动态:22698,动态:21740,动态:21857,动态:21972,动态:22146,动态:22710,动态:20439,动态:22697,动态:7746,动态:21745,动态:22685,动态:21737,动态:21436,动态:21975,动态:20720,动态:21556,动态:22692,动态:21753,动态:22019,动态:22680,动态:22696,动态:22706,动态:22507,动态:17337,动态:4036,动态:22688,动态:22699,动态:22702,动态:22323,动态:20364,动态:22667,动态:21741,动态:21776,动态:21756,动态:22659,动态:21763,动态:21780,动态:21727</t>
+          <t>动态:22698,动态:22706,动态:4036,动态:21780,动态:21745,动态:21756,动态:22659,动态:21741,动态:7746,动态:22688,动态:21857,动态:22146,动态:21972,动态:22507,动态:21556,动态:22702,动态:22697,动态:21975,动态:21763,动态:22696,动态:21740,动态:20439,动态:20440,动态:22699,动态:22710,动态:22323,动态:21776,动态:20720,动态:22680,动态:22667,动态:22685,动态:22019,动态:20364,动态:22692,动态:22512,动态:21436,动态:21727,动态:21737,动态:17337,动态:21753,动态:20399</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>动态:21763,动态:21740,动态:22323,动态:22512,动态:21737,动态:20440,动态:21753,动态:22688,动态:22507,动态:22692,动态:22706,动态:22680,动态:7746,动态:22710,动态:21741,动态:22685,动态:21972,动态:22702,动态:21975,动态:20720,动态:22146,动态:20364,动态:21436,动态:22667,动态:21857,动态:22659,动态:21780,动态:22019,动态:22697,动态:21556,动态:22684,动态:22699,动态:21727,动态:21756,动态:20399,动态:22696,动态:17337,动态:20439,动态:4036,动态:21745,动态:21757,动态:22698</t>
+          <t>动态:21745,动态:22685,动态:21436,动态:21975,动态:20439,动态:22692,动态:20720,动态:22688,动态:21757,动态:22323,动态:22706,动态:21727,动态:22659,动态:21556,动态:21740,动态:21972,动态:17337,动态:21753,动态:20399,动态:20364,动态:22699,动态:22507,动态:7746,动态:20440,动态:22667,动态:22696,动态:21756,动态:22710,动态:22512,动态:22702,动态:22697,动态:22680,动态:4036,动态:21763,动态:22684,动态:21737,动态:21741,动态:22146,动态:22019,动态:21857,动态:22698,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>动态:20399,动态:22688,动态:22706,动态:20720,动态:21741,动态:22685,动态:20440,动态:21727,动态:21756,动态:22710,动态:17337,动态:22507,动态:21740,动态:20439,动态:22684,动态:21436,动态:21763,动态:21857,动态:21780,动态:4036,动态:22323,动态:21737,动态:21753,动态:22696,动态:22680,动态:22659,动态:21556,动态:22692,动态:22702,动态:20364,动态:22667,动态:21757,动态:22146,动态:22019,动态:22699,动态:21972,动态:21745,动态:22697,动态:22512,动态:7746,动态:21975</t>
+          <t>动态:22684,动态:20439,动态:22696,动态:22685,动态:21753,动态:21857,动态:21780,动态:22692,动态:20440,动态:4036,动态:22659,动态:22699,动态:22667,动态:22680,动态:20364,动态:21436,动态:21972,动态:22146,动态:21737,动态:22507,动态:17337,动态:22512,动态:22323,动态:21741,动态:22019,动态:21975,动态:21756,动态:20720,动态:22697,动态:22710,动态:21763,动态:21757,动态:22706,动态:21745,动态:22702,动态:21556,动态:22688,动态:20399,动态:21740,动态:7746,动态:21727</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>动态:22706,动态:22512,动态:22685,动态:22680,动态:22688,动态:20364,动态:21727,动态:22698,动态:22659,动态:7746,动态:22699,动态:20399,动态:20440,动态:17337,动态:21756,动态:22710,动态:21763,动态:22019,动态:21776,动态:20439,动态:20720,动态:22323,动态:21757,动态:21857,动态:21740,动态:22696,动态:22146,动态:22692,动态:21436,动态:22684,动态:21780,动态:22702,动态:21975,动态:21556,动态:4036,动态:22667,动态:21972,动态:21741,动态:22507,动态:22697,动态:21737</t>
+          <t>动态:22667,动态:21857,动态:21756,动态:22697,动态:20399,动态:21727,动态:22702,动态:7746,动态:22706,动态:22699,动态:21556,动态:22710,动态:22323,动态:21737,动态:22680,动态:20720,动态:17337,动态:22692,动态:22684,动态:22696,动态:20364,动态:21776,动态:22512,动态:21757,动态:22146,动态:21436,动态:22685,动态:20440,动态:21740,动态:22507,动态:22688,动态:22698,动态:21975,动态:21763,动态:4036,动态:20439,动态:21741,动态:22659,动态:21780,动态:22019,动态:21972</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>动态:22667,动态:22692,动态:22019,动态:7746,动态:4036,动态:20399,动态:22706,动态:21776,动态:22698,动态:21975,动态:17337,动态:22512,动态:21745,动态:20439,动态:21727,动态:22699,动态:21756,动态:21972,动态:20440,动态:22710,动态:21857,动态:21753,动态:21763,动态:22685,动态:21741,动态:21757,动态:22702,动态:20720,动态:22696,动态:20364,动态:21740,动态:21780,动态:22323,动态:21737,动态:22697,动态:22659,动态:22684</t>
+          <t>动态:4036,动态:21757,动态:22019,动态:21756,动态:20439,动态:21972,动态:22696,动态:20364,动态:21780,动态:22659,动态:21776,动态:21745,动态:22699,动态:21727,动态:17337,动态:21741,动态:22684,动态:21740,动态:22323,动态:7746,动态:21763,动态:22667,动态:22710,动态:22698,动态:22512,动态:20440,动态:21737,动态:20399,动态:22702,动态:22706,动态:20720,动态:22685,动态:21753,动态:21857,动态:22697,动态:21975,动态:22692</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>动态:17337,动态:21727,动态:21740,动态:21741,动态:20720,动态:22146,动态:21756,动态:22019,动态:4036,动态:22680,动态:21753,动态:22512,动态:21776,动态:20439,动态:20364,动态:7746,动态:22698,动态:22692,动态:22323,动态:22659,动态:21737,动态:22507,动态:21436,动态:22684,动态:20399,动态:21857,动态:21745,动态:22667,动态:20440,动态:22699,动态:21975,动态:21972,动态:22696,动态:22710,动态:21556,动态:21757,动态:21780,动态:22685,动态:22697,动态:22688,动态:22706</t>
+          <t>动态:22659,动态:20439,动态:22019,动态:20440,动态:22323,动态:22685,动态:21757,动态:22697,动态:22696,动态:22507,动态:22699,动态:22680,动态:22698,动态:21972,动态:21857,动态:21436,动态:20364,动态:20720,动态:21727,动态:21975,动态:21737,动态:4036,动态:22667,动态:7746,动态:22146,动态:21745,动态:22684,动态:22512,动态:17337,动态:22688,动态:21740,动态:21776,动态:22692,动态:22706,动态:21556,动态:21780,动态:21756,动态:21753,动态:21741,动态:22710,动态:20399</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>动态:22685,动态:22323,动态:22696,动态:4036,动态:17337,动态:22684,动态:21975,动态:7746,动态:21741,动态:21776,动态:21436,动态:22019,动态:22698,动态:21745,动态:22667,动态:21763,动态:21727,动态:22688,动态:20399,动态:20439,动态:21753,动态:22692,动态:22702,动态:22706,动态:20720,动态:22710,动态:20364,动态:20440,动态:22659,动态:22697,动态:21780,动态:21556,动态:21757,动态:21737,动态:22680,动态:21740,动态:22512,动态:22146,动态:21857,动态:22699,动态:22507,动态:21972</t>
+          <t>动态:22680,动态:22692,动态:22696,动态:21745,动态:22684,动态:21757,动态:21740,动态:22702,动态:21556,动态:22667,动态:21972,动态:22019,动态:22507,动态:20439,动态:22659,动态:21780,动态:7746,动态:21753,动态:21763,动态:21741,动态:21436,动态:21857,动态:17337,动态:20399,动态:22146,动态:22697,动态:22698,动态:22685,动态:21975,动态:22512,动态:22699,动态:22706,动态:22688,动态:21776,动态:20440,动态:21727,动态:4036,动态:21737,动态:22710,动态:20720,动态:22323,动态:20364</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>动态:22512,动态:4036,动态:22680,动态:20440,动态:20439,动态:20720,动态:21436,动态:21753,动态:22688,动态:21776,动态:20399,动态:21741,动态:21556,动态:22697,动态:22146,动态:22706,动态:22659,动态:22323,动态:22667,动态:7746,动态:22019,动态:21737,动态:21740,动态:20364,动态:22710,动态:22507,动态:22699,动态:21780,动态:21857,动态:21745,动态:21727,动态:22696,动态:21757,动态:21763,动态:21975,动态:22702,动态:22692,动态:21972,动态:17337,动态:22685,动态:22684</t>
+          <t>动态:22680,动态:21556,动态:21737,动态:22692,动态:22706,动态:22685,动态:22697,动态:21780,动态:22696,动态:7746,动态:21741,动态:21745,动态:22323,动态:22699,动态:22667,动态:4036,动态:20720,动态:21436,动态:20439,动态:20440,动态:21740,动态:20364,动态:22507,动态:20399,动态:21757,动态:22684,动态:21763,动态:22702,动态:21857,动态:21975,动态:21753,动态:22146,动态:21727,动态:22019,动态:22512,动态:22688,动态:17337,动态:22710,动态:22659,动态:21776,动态:21972</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>动态:22699,动态:22659,动态:22696,动态:22512,动态:21756,动态:22702,动态:22697,动态:21737,动态:17337,动态:21753,动态:21745,动态:21857,动态:22146,动态:7746,动态:21780,动态:21763,动态:21436,动态:21727,动态:22323,动态:20399,动态:21972,动态:22710,动态:21741,动态:21556,动态:22019,动态:21776,动态:22698,动态:21757,动态:21975,动态:22706,动态:20439,动态:20720,动态:20364,动态:22685,动态:21740,动态:22667,动态:22684,动态:4036,动态:20440,动态:22692,动态:22507</t>
+          <t>动态:21745,动态:22323,动态:22019,动态:21436,动态:22146,动态:22685,动态:20720,动态:21780,动态:22667,动态:21727,动态:21756,动态:21556,动态:22697,动态:22699,动态:22512,动态:22659,动态:22702,动态:22684,动态:20439,动态:22706,动态:21776,动态:21763,动态:4036,动态:21741,动态:17337,动态:21737,动态:20440,动态:21975,动态:22696,动态:7746,动态:22710,动态:22698,动态:22692,动态:21972,动态:21857,动态:20399,动态:21740,动态:21757,动态:22507,动态:20364,动态:21753</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>动态:21741,动态:22667,动态:21972,动态:17337,动态:20720,动态:20439,动态:22685,动态:22659,动态:21763,动态:21745,动态:22019,动态:7746,动态:22696,动态:4036,动态:21556,动态:22697,动态:20399,动态:22680,动态:21727,动态:22698,动态:21737,动态:22699,动态:22710,动态:21857,动态:21780,动态:21753,动态:21757,动态:22684,动态:20364,动态:22706,动态:22507,动态:20440,动态:22692,动态:21740,动态:22512,动态:21975,动态:22688,动态:22323</t>
+          <t>动态:20440,动态:21780,动态:21556,动态:22659,动态:22698,动态:22710,动态:22699,动态:22680,动态:21745,动态:22697,动态:22507,动态:22688,动态:4036,动态:21737,动态:20720,动态:17337,动态:22692,动态:21753,动态:22685,动态:22667,动态:21727,动态:21763,动态:22696,动态:7746,动态:22323,动态:21972,动态:21740,动态:22512,动态:21757,动态:22706,动态:21975,动态:22019,动态:20364,动态:22684,动态:20439,动态:21857,动态:21741,动态:20399</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>动态:22685,动态:21436,动态:20364,动态:21857,动态:21740,动态:22659,动态:22146,动态:21753,动态:21972,动态:22680,动态:21727,动态:20720,动态:21975,动态:20399,动态:22507,动态:17337,动态:22323,动态:22692,动态:22699,动态:4036,动态:21556,动态:22706,动态:22702,动态:21745,动态:22698,动态:22512,动态:22688,动态:22696,动态:21763,动态:22667,动态:7746,动态:21757,动态:20439,动态:21776,动态:21741,动态:22684,动态:22697,动态:21737,动态:22019,动态:20440</t>
+          <t>动态:21727,动态:21757,动态:21436,动态:21975,动态:21753,动态:17337,动态:21972,动态:22667,动态:22659,动态:20440,动态:22688,动态:7746,动态:22512,动态:22685,动态:22702,动态:21745,动态:21556,动态:20364,动态:22146,动态:22706,动态:22680,动态:21737,动态:22692,动态:22698,动态:20720,动态:22684,动态:21776,动态:22019,动态:22696,动态:20399,动态:22323,动态:21740,动态:22699,动态:21741,动态:22697,动态:21763,动态:22507,动态:4036,动态:21857,动态:20439</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>动态:22699,动态:21741,动态:21757,动态:21975,动态:22688,动态:22710,动态:17337,动态:20399,动态:21857,动态:22146,动态:22698,动态:20364,动态:22706,动态:21972,动态:22019,动态:20720,动态:22659,动态:4036,动态:21776,动态:21780,动态:22667,动态:22702,动态:21740,动态:22685,动态:21745,动态:21727,动态:22680,动态:21737,动态:20439,动态:22696,动态:20440,动态:7746,动态:21753,动态:22507,动态:22692,动态:22512,动态:21763,动态:21756</t>
+          <t>动态:22706,动态:21756,动态:21757,动态:22512,动态:22710,动态:20364,动态:21741,动态:22688,动态:22692,动态:21857,动态:21776,动态:22667,动态:21727,动态:21780,动态:22699,动态:22680,动态:22702,动态:22507,动态:21972,动态:21745,动态:17337,动态:7746,动态:22659,动态:20439,动态:21763,动态:22019,动态:20399,动态:22698,动态:21975,动态:21753,动态:22696,动态:20720,动态:21737,动态:22146,动态:22685,动态:4036,动态:21740,动态:20440</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>动态:22146,动态:21763,动态:21727,动态:21757,动态:22019,动态:22696,动态:20439,动态:22688,动态:22685,动态:21776,动态:22684,动态:20364,动态:21756,动态:21737,动态:22702,动态:20440,动态:21753,动态:22512,动态:22698,动态:21741,动态:22706,动态:21436,动态:22699,动态:21780,动态:22710,动态:21857,动态:21740,动态:20720,动态:4036,动态:22667,动态:21975,动态:20399,动态:21556,动态:22697,动态:21745,动态:22323,动态:22680,动态:21972,动态:22507,动态:17337,动态:22692,动态:22659,动态:7746</t>
+          <t>动态:7746,动态:21776,动态:21763,动态:21975,动态:22680,动态:21972,动态:21740,动态:21741,动态:22507,动态:21737,动态:22146,动态:22667,动态:21757,动态:22706,动态:22692,动态:22710,动态:22019,动态:22699,动态:21753,动态:21756,动态:21745,动态:17337,动态:20399,动态:22702,动态:22512,动态:20364,动态:22697,动态:22688,动态:21780,动态:21436,动态:22659,动态:21727,动态:22696,动态:22698,动态:20439,动态:22685,动态:22684,动态:4036,动态:21857,动态:20440,动态:20720,动态:21556,动态:22323</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>动态:4036,动态:22698,动态:21756,动态:22684,动态:21737,动态:22659,动态:21740,动态:21857,动态:22146,动态:22699,动态:21972,动态:20364,动态:21776,动态:22706,动态:21757,动态:22685,动态:21975,动态:21753,动态:22696,动态:17337,动态:21556,动态:21436,动态:22680,动态:20440,动态:21763,动态:22667,动态:22692,动态:21780,动态:22710,动态:22019,动态:20720,动态:22512,动态:22697,动态:20439,动态:22688,动态:21727,动态:7746,动态:20399</t>
+          <t>动态:21740,动态:22692,动态:21857,动态:20720,动态:21780,动态:22659,动态:21972,动态:21756,动态:22680,动态:20439,动态:22697,动态:22685,动态:22667,动态:21975,动态:21776,动态:21753,动态:22710,动态:22688,动态:21757,动态:22706,动态:20440,动态:20364,动态:22512,动态:17337,动态:21727,动态:22698,动态:22696,动态:22684,动态:22146,动态:20399,动态:21436,动态:21556,动态:4036,动态:7746,动态:21737,动态:21763,动态:22019,动态:22699</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>动态:22697,动态:22692,动态:21857,动态:22706,动态:20439,动态:22667,动态:22685,动态:7746,动态:22696,动态:20364,动态:21727,动态:22698,动态:17337,动态:21780,动态:21753,动态:22019,动态:21763,动态:22512,动态:22684,动态:21776,动态:21972,动态:22680,动态:22702,动态:20399,动态:4036,动态:22659,动态:20720,动态:21756,动态:22699,动态:20440,动态:21745,动态:21741,动态:21740,动态:22146,动态:21975,动态:22710,动态:21556,动态:22688,动态:22323,动态:21737</t>
+          <t>动态:21740,动态:22019,动态:7746,动态:22696,动态:22692,动态:17337,动态:22702,动态:21737,动态:21972,动态:21776,动态:22323,动态:20439,动态:22680,动态:22659,动态:21727,动态:20720,动态:20399,动态:22706,动态:22697,动态:22698,动态:20440,动态:21857,动态:21975,动态:22710,动态:22512,动态:20364,动态:21780,动态:21753,动态:21745,动态:22699,动态:21763,动态:21741,动态:4036,动态:21556,动态:22684,动态:22685,动态:21756,动态:22667,动态:22146,动态:22688</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>动态:20440,动态:22507,动态:20399,动态:21780,动态:21741,动态:22710,动态:21776,动态:22323,动态:21756,动态:22146,动态:7746,动态:22702,动态:17337,动态:21975,动态:21757,动态:22685,动态:22706,动态:22699,动态:22692,动态:22659,动态:21740,动态:22688,动态:22680,动态:21556,动态:20364,动态:21436,动态:21857,动态:20439,动态:21727,动态:22697,动态:22684,动态:22512,动态:21753,动态:4036,动态:22667,动态:21745,动态:21737,动态:21763,动态:22698,动态:21972,动态:22696,动态:22019,动态:20720</t>
+          <t>动态:21972,动态:21436,动态:22698,动态:22019,动态:22146,动态:21763,动态:21745,动态:22680,动态:22667,动态:20720,动态:22688,动态:20440,动态:7746,动态:22697,动态:22323,动态:22512,动态:22685,动态:21857,动态:21740,动态:21776,动态:22659,动态:21741,动态:21975,动态:22710,动态:20364,动态:22696,动态:21780,动态:22702,动态:22706,动态:20439,动态:21756,动态:21737,动态:22684,动态:22699,动态:22507,动态:21757,动态:21753,动态:17337,动态:21556,动态:22692,动态:21727,动态:4036,动态:20399</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>动态:22697,动态:22710,动态:21556,动态:21972,动态:21757,动态:20364,动态:22706,动态:22146,动态:21857,动态:22696,动态:22667,动态:22698,动态:22507,动态:4036,动态:7746,动态:22512,动态:22688,动态:21436,动态:20440,动态:22659,动态:21740,动态:22680,动态:22684,动态:22019,动态:21727,动态:21776,动态:21780,动态:21975,动态:22323,动态:20439,动态:22685,动态:21745,动态:22692,动态:20720,动态:21756,动态:20399,动态:22699,动态:21737,动态:21763,动态:17337,动态:22702</t>
+          <t>动态:22710,动态:4036,动态:21776,动态:22146,动态:20364,动态:7746,动态:20440,动态:20399,动态:22696,动态:21780,动态:22699,动态:21556,动态:21727,动态:20439,动态:21436,动态:22692,动态:21857,动态:22697,动态:21737,动态:21745,动态:21763,动态:21975,动态:22698,动态:22512,动态:22323,动态:17337,动态:21972,动态:22688,动态:22680,动态:22685,动态:21740,动态:21756,动态:20720,动态:21757,动态:22702,动态:22659,动态:22684,动态:22667,动态:22019,动态:22706,动态:22507</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>动态:20720,动态:7746,动态:22698,动态:21776,动态:22323,动态:21757,动态:20399,动态:22507,动态:22702,动态:22019,动态:22706,动态:22699,动态:21756,动态:21857,动态:22688,动态:22692,动态:22146,动态:4036,动态:20440,动态:21745,动态:22659,动态:21741,动态:21737,动态:21753,动态:22710,动态:22512,动态:21972,动态:20439,动态:21556,动态:22697,动态:21780,动态:22667,动态:21727,动态:17337,动态:21975,动态:21740,动态:22696,动态:22685,动态:20364,动态:21763,动态:22684</t>
+          <t>动态:22698,动态:20399,动态:22688,动态:21975,动态:22323,动态:22697,动态:22507,动态:22692,动态:22667,动态:20440,动态:20439,动态:22684,动态:17337,动态:21763,动态:20720,动态:21745,动态:22710,动态:21741,动态:22512,动态:22019,动态:21740,动态:21753,动态:21972,动态:21757,动态:4036,动态:22706,动态:22702,动态:7746,动态:22685,动态:22146,动态:21857,动态:22699,动态:21756,动态:22659,动态:21556,动态:21727,动态:22696,动态:20364,动态:21776,动态:21737,动态:21780</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>动态:21780,动态:21857,动态:22680,动态:21972,动态:21745,动态:17337,动态:22697,动态:21737,动态:22698,动态:22692,动态:20440,动态:22684,动态:21776,动态:20364,动态:21757,动态:22685,动态:22512,动态:20720,动态:21763,动态:22688,动态:21756,动态:22659,动态:21727,动态:22507,动态:21975,动态:21556,动态:7746,动态:22706,动态:22699,动态:22146,动态:20439,动态:21740,动态:22696,动态:20399,动态:4036,动态:22702,动态:22667,动态:21741,动态:21753,动态:22019</t>
+          <t>动态:21753,动态:20399,动态:21740,动态:21972,动态:21727,动态:22698,动态:21737,动态:21745,动态:20720,动态:22019,动态:22697,动态:17337,动态:22706,动态:22702,动态:22696,动态:21780,动态:22692,动态:21763,动态:21975,动态:22146,动态:22688,动态:21556,动态:7746,动态:22512,动态:21757,动态:21776,动态:22680,动态:22699,动态:21741,动态:22507,动态:20364,动态:20440,动态:22659,动态:20439,动态:22667,动态:21756,动态:4036,动态:22685,动态:21857,动态:22684</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>动态:21975,动态:22697,动态:7746,动态:21753,动态:22696,动态:4036,动态:22659,动态:22685,动态:22706,动态:22710,动态:21556,动态:22699,动态:22684,动态:21436,动态:22019,动态:21756,动态:22692,动态:17337,动态:22680,动态:20364,动态:22512,动态:21741,动态:22698,动态:21745,动态:21757,动态:22323,动态:20440,动态:21972,动态:21737,动态:22507,动态:21727,动态:20399,动态:22146,动态:22667,动态:21857,动态:20439,动态:22688,动态:20720,动态:21780,动态:21740,动态:21776</t>
+          <t>动态:21740,动态:17337,动态:21745,动态:22680,动态:22146,动态:21753,动态:21857,动态:22692,动态:22699,动态:21972,动态:21741,动态:22667,动态:22512,动态:4036,动态:21975,动态:22507,动态:22659,动态:22323,动态:21780,动态:7746,动态:21756,动态:22696,动态:20720,动态:21737,动态:22685,动态:20439,动态:22688,动态:21436,动态:21556,动态:22698,动态:20364,动态:21757,动态:22710,动态:22706,动态:21727,动态:20440,动态:20399,动态:21776,动态:22019,动态:22697,动态:22684</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>动态:20399,动态:22710,动态:7746,动态:21757,动态:22692,动态:22684,动态:21741,动态:22688,动态:20440,动态:21753,动态:22019,动态:21737,动态:21436,动态:4036,动态:22696,动态:21763,动态:21740,动态:21776,动态:22706,动态:22702,动态:22698,动态:22667,动态:22699,动态:20439,动态:22507,动态:21972,动态:21745,动态:22680,动态:21727,动态:22685,动态:22512,动态:21756,动态:22146,动态:20720,动态:21780,动态:22697,动态:21556,动态:21857,动态:22659,动态:22323,动态:17337,动态:20364</t>
+          <t>动态:22146,动态:22684,动态:21776,动态:22692,动态:21763,动态:20440,动态:17337,动态:4036,动态:22702,动态:22512,动态:22685,动态:21972,动态:22667,动态:22706,动态:21741,动态:22696,动态:21727,动态:21753,动态:21436,动态:20364,动态:22680,动态:7746,动态:21857,动态:20720,动态:22019,动态:22659,动态:22688,动态:20399,动态:21756,动态:22710,动态:22323,动态:22698,动态:22697,动态:20439,动态:21740,动态:21757,动态:22507,动态:21737,动态:21745,动态:21780,动态:21556,动态:22699</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>动态:22696,动态:21757,动态:21737,动态:22507,动态:22692,动态:22146,动态:21756,动态:20364,动态:21857,动态:4036,动态:17337,动态:22684,动态:22019,动态:22697,动态:21727,动态:20720,动态:22699,动态:22688,动态:22323,动态:20399,动态:22659,动态:20440,动态:22702,动态:22667,动态:21776,动态:22685,动态:20439,动态:21556,动态:21753,动态:21972,动态:22512,动态:21436,动态:22710,动态:21741,动态:22698,动态:22680,动态:21740,动态:21763,动态:21975,动态:21745,动态:22706,动态:7746,动态:21780</t>
+          <t>动态:21741,动态:22684,动态:22667,动态:21757,动态:21975,动态:22680,动态:22019,动态:17337,动态:22323,动态:21756,动态:22659,动态:20399,动态:21727,动态:22706,动态:22696,动态:22692,动态:22698,动态:21745,动态:21737,动态:21972,动态:21776,动态:4036,动态:22512,动态:22697,动态:22688,动态:20439,动态:21740,动态:21763,动态:21556,动态:22685,动态:7746,动态:22146,动态:20720,动态:21780,动态:20440,动态:22710,动态:22507,动态:22702,动态:20364,动态:21753,动态:21857,动态:22699,动态:21436</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>动态:20720,动态:21436,动态:22680,动态:22702,动态:22688,动态:20364,动态:22698,动态:22696,动态:21737,动态:21745,动态:21727,动态:22697,动态:21740,动态:17337,动态:22667,动态:22146,动态:22659,动态:21753,动态:21972,动态:21756,动态:21975,动态:20439,动态:22323,动态:22699,动态:22710,动态:22019,动态:21556,动态:21763,动态:22507,动态:22692,动态:4036,动态:21741,动态:21757,动态:22684,动态:20399,动态:7746,动态:22706,动态:21857,动态:20440,动态:22512,动态:21780,动态:21776,动态:22685</t>
+          <t>动态:17337,动态:22698,动态:21780,动态:22507,动态:22019,动态:22680,动态:20440,动态:22512,动态:21436,动态:21745,动态:21737,动态:21756,动态:22323,动态:22702,动态:22659,动态:21975,动态:20439,动态:22146,动态:21763,动态:20720,动态:22706,动态:22710,动态:22696,动态:21556,动态:21727,动态:21857,动态:7746,动态:20399,动态:21753,动态:22697,动态:22692,动态:22667,动态:22699,动态:22688,动态:21972,动态:21757,动态:21740,动态:4036,动态:20364,动态:22684,动态:21776,动态:21741,动态:22685</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>动态:20399,动态:22659,动态:22512,动态:21780,动态:21745,动态:22680,动态:21740,动态:22507,动态:17337,动态:22702,动态:22710,动态:20364,动态:21436,动态:21556,动态:22688,动态:21763,动态:4036,动态:22685,动态:22698,动态:20439,动态:21975,动态:21757,动态:21972,动态:21753,动态:22019,动态:21857,动态:20440,动态:7746,动态:22684,动态:22699,动态:22696,动态:22706,动态:22323,动态:20720,动态:22667,动态:21741,动态:22697,动态:22692,动态:22146,动态:21727,动态:21737</t>
+          <t>动态:21753,动态:22146,动态:21763,动态:22697,动态:22696,动态:22706,动态:22512,动态:22667,动态:22680,动态:20364,动态:7746,动态:21741,动态:21740,动态:22702,动态:20440,动态:17337,动态:21727,动态:21780,动态:22659,动态:20399,动态:21972,动态:21757,动态:22685,动态:20439,动态:22698,动态:22019,动态:22684,动态:22688,动态:4036,动态:21857,动态:21436,动态:22323,动态:21975,动态:21745,动态:21737,动态:22710,动态:22699,动态:21556,动态:22507,动态:20720,动态:22692</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>动态:21745,动态:21727,动态:21857,动态:22667,动态:22706,动态:21757,动态:22710,动态:17337,动态:21556,动态:22512,动态:22659,动态:22146,动态:20399,动态:22019,动态:21756,动态:22696,动态:22699,动态:22685,动态:21780,动态:22692,动态:20440,动态:22323,动态:21972,动态:20720,动态:20364,动态:22507,动态:22698,动态:4036,动态:21753,动态:21737,动态:21975,动态:21741,动态:21776,动态:21436,动态:22702,动态:21740,动态:22697,动态:20439,动态:21763,动态:7746,动态:22688,动态:22680</t>
+          <t>动态:21737,动态:21741,动态:22696,动态:17337,动态:4036,动态:21556,动态:21745,动态:21776,动态:21740,动态:22698,动态:21780,动态:21857,动态:22146,动态:21763,动态:7746,动态:22710,动态:22507,动态:22706,动态:22512,动态:22692,动态:22702,动态:21727,动态:20364,动态:22667,动态:20399,动态:22680,动态:22019,动态:22697,动态:22688,动态:22323,动态:20439,动态:22699,动态:21756,动态:21757,动态:21972,动态:22685,动态:20440,动态:20720,动态:21975,动态:22659,动态:21436,动态:21753</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>动态:22659,动态:22684,动态:20440,动态:22507,动态:22698,动态:21780,动态:22323,动态:21776,动态:21745,动态:22019,动态:22685,动态:21757,动态:21741,动态:22146,动态:22699,动态:22697,动态:21740,动态:20399,动态:21727,动态:21556,动态:4036,动态:21753,动态:22667,动态:21436,动态:21975,动态:17337,动态:22696,动态:22512,动态:22692,动态:22710,动态:21857,动态:22680,动态:22706,动态:20439,动态:22688,动态:20364,动态:7746,动态:21756,动态:20720</t>
+          <t>动态:7746,动态:21780,动态:22697,动态:21776,动态:22680,动态:22710,动态:22512,动态:22706,动态:22507,动态:20720,动态:17337,动态:22684,动态:21745,动态:21757,动态:4036,动态:22699,动态:21436,动态:21741,动态:22019,动态:20364,动态:21975,动态:22659,动态:21727,动态:22698,动态:22692,动态:22146,动态:21753,动态:21756,动态:20440,动态:21740,动态:22688,动态:20399,动态:21857,动态:21556,动态:22667,动态:22685,动态:22323,动态:20439,动态:22696</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>动态:20440,动态:21857,动态:21436,动态:21727,动态:21780,动态:22697,动态:20439,动态:22692,动态:22702,动态:21975,动态:4036,动态:22696,动态:20364,动态:22323,动态:22685,动态:17337,动态:21972,动态:20720,动态:21776,动态:21740,动态:22699,动态:22019,动态:22698,动态:21757,动态:22667,动态:22507,动态:22710,动态:21753,动态:22688,动态:21556,动态:21763,动态:21737,动态:22659,动态:22512,动态:7746,动态:21741,动态:22706,动态:20399,动态:21745</t>
+          <t>动态:20440,动态:21727,动态:21972,动态:22512,动态:20439,动态:22699,动态:21857,动态:21780,动态:21763,动态:21556,动态:21975,动态:22507,动态:20364,动态:22688,动态:21757,动态:21436,动态:21753,动态:22697,动态:21740,动态:22706,动态:21776,动态:20720,动态:21745,动态:22692,动态:22685,动态:22710,动态:22659,动态:4036,动态:21737,动态:22019,动态:17337,动态:20399,动态:22323,动态:22702,动态:22696,动态:7746,动态:22698,动态:22667,动态:21741</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>动态:21727,动态:21857,动态:22512,动态:22684,动态:22680,动态:21780,动态:21741,动态:20720,动态:22685,动态:21972,动态:21975,动态:22667,动态:21745,动态:22699,动态:20399,动态:4036,动态:21740,动态:22698,动态:22323,动态:21556,动态:21436,动态:21753,动态:22697,动态:22688,动态:20440,动态:22659,动态:22706,动态:22507,动态:17337,动态:21756,动态:22019,动态:7746,动态:21737,动态:20439,动态:20364,动态:21757,动态:22692</t>
+          <t>动态:20720,动态:22659,动态:21757,动态:21737,动态:21857,动态:22697,动态:21436,动态:20399,动态:22684,动态:4036,动态:21740,动态:17337,动态:21753,动态:22507,动态:21727,动态:21972,动态:21975,动态:7746,动态:21745,动态:22512,动态:20440,动态:20439,动态:22706,动态:22680,动态:22692,动态:22323,动态:20364,动态:22019,动态:22685,动态:21756,动态:22667,动态:22698,动态:22699,动态:22688,动态:21741,动态:21780,动态:21556</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>动态:22702,动态:21857,动态:21972,动态:22684,动态:22659,动态:22698,动态:21740,动态:22667,动态:20720,动态:21741,动态:21756,动态:20399,动态:21753,动态:22512,动态:21975,动态:20364,动态:21727,动态:22699,动态:22680,动态:20440,动态:20439,动态:22688,动态:21436,动态:4036,动态:7746,动态:17337,动态:22696,动态:22507,动态:22692,动态:21745,动态:22706,动态:21556,动态:21763,动态:21780,动态:22146,动态:21776,动态:22697,动态:21757,动态:22710,动态:22323,动态:22685,动态:21737,动态:22019</t>
+          <t>动态:22699,动态:21763,动态:21740,动态:7746,动态:21972,动态:4036,动态:22146,动态:20364,动态:22697,动态:22692,动态:20399,动态:22696,动态:22685,动态:22702,动态:22659,动态:21737,动态:22688,动态:21975,动态:21756,动态:22323,动态:22706,动态:21753,动态:22019,动态:22512,动态:20720,动态:22507,动态:21857,动态:22698,动态:22667,动态:21776,动态:21757,动态:20440,动态:17337,动态:21741,动态:20439,动态:21556,动态:21436,动态:22680,动态:21780,动态:22710,动态:22684,动态:21745,动态:21727</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>动态:22323,动态:22696,动态:21436,动态:22692,动态:21776,动态:20439,动态:21757,动态:22698,动态:22019,动态:21556,动态:21763,动态:22680,动态:7746,动态:22685,动态:22699,动态:20364,动态:21975,动态:21737,动态:21857,动态:21741,动态:17337,动态:21740,动态:22702,动态:20399,动态:22706,动态:22146,动态:22659,动态:22512,动态:21972,动态:22507,动态:21756,动态:22697,动态:22688,动态:22667,动态:20440,动态:22710,动态:20720,动态:4036,动态:22684,动态:21753,动态:21727,动态:21780</t>
+          <t>动态:22680,动态:22667,动态:21737,动态:21780,动态:20399,动态:21776,动态:22706,动态:22702,动态:22684,动态:22688,动态:17337,动态:22710,动态:21757,动态:21727,动态:22697,动态:21753,动态:20440,动态:22685,动态:22323,动态:21975,动态:4036,动态:21857,动态:22696,动态:22146,动态:21741,动态:22512,动态:21556,动态:22692,动态:22019,动态:21972,动态:22507,动态:21763,动态:21436,动态:22699,动态:22659,动态:20720,动态:20364,动态:21756,动态:22698,动态:21740,动态:7746,动态:20439</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>动态:22699,动态:21780,动态:22659,动态:22019,动态:22697,动态:22323,动态:21756,动态:21727,动态:22696,动态:22667,动态:20399,动态:20440,动态:20364,动态:21556,动态:22692,动态:22710,动态:21737,动态:22702,动态:21436,动态:22685,动态:17337,动态:22507,动态:22512,动态:7746,动态:20720,动态:21753,动态:22698,动态:21975,动态:20439,动态:22688,动态:22680,动态:22146,动态:22684,动态:22706,动态:4036,动态:21757,动态:21857,动态:21776,动态:21741,动态:21763,动态:21972</t>
+          <t>动态:22696,动态:22146,动态:21975,动态:22698,动态:20439,动态:22702,动态:17337,动态:22680,动态:22699,动态:21741,动态:21756,动态:21727,动态:21776,动态:20399,动态:21737,动态:21857,动态:20440,动态:21436,动态:22323,动态:4036,动态:22697,动态:22710,动态:21757,动态:22019,动态:22684,动态:22512,动态:22706,动态:20364,动态:22659,动态:20720,动态:21780,动态:21753,动态:21972,动态:21556,动态:21763,动态:7746,动态:22667,动态:22688,动态:22692,动态:22507,动态:22685</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>动态:22659,动态:22688,动态:22680,动态:22146,动态:22697,动态:20399,动态:21975,动态:21741,动态:17337,动态:22699,动态:21763,动态:20364,动态:21780,动态:22684,动态:21753,动态:21436,动态:21727,动态:22706,动态:21756,动态:22323,动态:21972,动态:21737,动态:20720,动态:22698,动态:7746,动态:22019,动态:22696,动态:21757,动态:22692,动态:20440,动态:21556,动态:22507,动态:22685,动态:20439,动态:22667,动态:21857,动态:4036,动态:21740,动态:21745,动态:21776</t>
+          <t>动态:21763,动态:21756,动态:21556,动态:21745,动态:21737,动态:22697,动态:22696,动态:22667,动态:17337,动态:20364,动态:7746,动态:20720,动态:22699,动态:22698,动态:21727,动态:21436,动态:22146,动态:21780,动态:21741,动态:22685,动态:21972,动态:21776,动态:20439,动态:22019,动态:22659,动态:20440,动态:22323,动态:21975,动态:20399,动态:22706,动态:22688,动态:22684,动态:21740,动态:22507,动态:4036,动态:22680,动态:21753,动态:22692,动态:21757,动态:21857</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>动态:17337,动态:21727,动态:22323,动态:22507,动态:21776,动态:22699,动态:22659,动态:21737,动态:22706,动态:22512,动态:20399,动态:20720,动态:21756,动态:22692,动态:7746,动态:22680,动态:20440,动态:22146,动态:22702,动态:22696,动态:21741,动态:21740,动态:21857,动态:20364,动态:21753,动态:22019,动态:22685,动态:4036,动态:22698,动态:22688,动态:21556,动态:22667,动态:21745,动态:20439,动态:21436</t>
+          <t>动态:17337,动态:21556,动态:22323,动态:20399,动态:21740,动态:20440,动态:22698,动态:21756,动态:22699,动态:21745,动态:22667,动态:21753,动态:22512,动态:21737,动态:7746,动态:22696,动态:20364,动态:22688,动态:22019,动态:22692,动态:21727,动态:20720,动态:20439,动态:21857,动态:4036,动态:22702,动态:22685,动态:22146,动态:21776,动态:21436,动态:22507,动态:22659,动态:22706,动态:21741,动态:22680</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>动态:22680,动态:21740,动态:22685,动态:21753,动态:22696,动态:22507,动态:22323,动态:7746,动态:21776,动态:20399,动态:22697,动态:20720,动态:22692,动态:22699,动态:21556,动态:22667,动态:21857,动态:22702,动态:17337,动态:22512,动态:21756,动态:22688,动态:21975,动态:22019,动态:21741,动态:21757,动态:21745,动态:21763,动态:22146,动态:21972,动态:21737,动态:22698,动态:22710,动态:22684,动态:20439,动态:21436,动态:21727,动态:21780,动态:22706,动态:22659,动态:20440,动态:20364,动态:4036</t>
+          <t>动态:21740,动态:22688,动态:17337,动态:20439,动态:7746,动态:20440,动态:20399,动态:22692,动态:22667,动态:22680,动态:4036,动态:22019,动态:21763,动态:22706,动态:21972,动态:22702,动态:22507,动态:21556,动态:22699,动态:22684,动态:21975,动态:20720,动态:22512,动态:22323,动态:21776,动态:22685,动态:20364,动态:22710,动态:21737,动态:21753,动态:22697,动态:21780,动态:21436,动态:22698,动态:21727,动态:22659,动态:21741,动态:21745,动态:21756,动态:21757,动态:21857,动态:22696,动态:22146</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>动态:21727,动态:21857,动态:22019,动态:22702,动态:22684,动态:22680,动态:21763,动态:21757,动态:21975,动态:21740,动态:20440,动态:20399,动态:22146,动态:4036,动态:22685,动态:21780,动态:22323,动态:21741,动态:22659,动态:21756,动态:22710,动态:22696,动态:21556,动态:21436,动态:22688,动态:22698,动态:22697,动态:7746,动态:22667,动态:22699,动态:17337,动态:21745,动态:22507,动态:20364,动态:22692,动态:21753,动态:21972,动态:22512,动态:22706,动态:21737,动态:21776,动态:20720,动态:20439</t>
+          <t>动态:22659,动态:17337,动态:22323,动态:22512,动态:20364,动态:21753,动态:4036,动态:22667,动态:22696,动态:22702,动态:22699,动态:22698,动态:7746,动态:20439,动态:21972,动态:22507,动态:21740,动态:22692,动态:21857,动态:22706,动态:20440,动态:21741,动态:21780,动态:22688,动态:22710,动态:21763,动态:22697,动态:21776,动态:21556,动态:21757,动态:21737,动态:21756,动态:20399,动态:22684,动态:21975,动态:21436,动态:21727,动态:22019,动态:20720,动态:21745,动态:22685,动态:22146,动态:22680</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>动态:22146,动态:20439,动态:20399,动态:22696,动态:22697,动态:4036,动态:22019,动态:21740,动态:22512,动态:22323,动态:21737,动态:21975,动态:20440,动态:22699,动态:21756,动态:21745,动态:22685,动态:21741,动态:22692,动态:22710,动态:20364,动态:22507,动态:22680,动态:22688,动态:7746,动态:22659,动态:21556,动态:22667,动态:21727,动态:20720,动态:22698,动态:21972,动态:21753,动态:22706,动态:17337,动态:21436,动态:21857,动态:21763,动态:22702,动态:21757,动态:21776,动态:22684,动态:21780</t>
+          <t>动态:4036,动态:21972,动态:22684,动态:21737,动态:21727,动态:21756,动态:22659,动态:21776,动态:22697,动态:22667,动态:21741,动态:22696,动态:22680,动态:17337,动态:22146,动态:22685,动态:21757,动态:22706,动态:21975,动态:21780,动态:22698,动态:22692,动态:22512,动态:22688,动态:21745,动态:21740,动态:22699,动态:20440,动态:21753,动态:22702,动态:7746,动态:21857,动态:20439,动态:22019,动态:21556,动态:21436,动态:20364,动态:22323,动态:22507,动态:20720,动态:21763,动态:20399,动态:22710</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>动态:22702,动态:22684,动态:21556,动态:21857,动态:22680,动态:22706,动态:21737,动态:22685,动态:21780,动态:22667,动态:22688,动态:7746,动态:17337,动态:22019,动态:22659,动态:21972,动态:22323,动态:20440,动态:21727,动态:20364,动态:21436,动态:21740,动态:21776,动态:21741,动态:21757,动态:22710,动态:22146,动态:20399,动态:21745,动态:22699,动态:22698,动态:22697,动态:21756,动态:21763,动态:21753,动态:4036,动态:22507,动态:22512,动态:21975,动态:20720,动态:20439,动态:22692,动态:22696</t>
+          <t>动态:22706,动态:22697,动态:22659,动态:22507,动态:20364,动态:20720,动态:22512,动态:21757,动态:21753,动态:21780,动态:22323,动态:22680,动态:22146,动态:4036,动态:21741,动态:20399,动态:21737,动态:22667,动态:21975,动态:22702,动态:20439,动态:22019,动态:22696,动态:21745,动态:22684,动态:21727,动态:21857,动态:22699,动态:21556,动态:22710,动态:7746,动态:22685,动态:17337,动态:21776,动态:20440,动态:22688,动态:22692,动态:22698,动态:21972,动态:21763,动态:21756,动态:21740,动态:21436</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>动态:21737,动态:22680,动态:21727,动态:22698,动态:17337,动态:22507,动态:22710,动态:21756,动态:22667,动态:7746,动态:22697,动态:22692,动态:22019,动态:21745,动态:20439,动态:21741,动态:21857,动态:21740,动态:21436,动态:4036,动态:22323,动态:21776,动态:22659,动态:22699,动态:21972,动态:22706,动态:21753,动态:21780,动态:20440,动态:20364,动态:22512,动态:22702,动态:21975,动态:22688,动态:21763,动态:21556,动态:22696,动态:21757,动态:22685,动态:22684,动态:22146,动态:20720,动态:20399</t>
+          <t>动态:22702,动态:22512,动态:22323,动态:22685,动态:22710,动态:21436,动态:21556,动态:22146,动态:22697,动态:20364,动态:21857,动态:20439,动态:21737,动态:22684,动态:22680,动态:7746,动态:22696,动态:21972,动态:21763,动态:22659,动态:21776,动态:22507,动态:22692,动态:17337,动态:21753,动态:22667,动态:22019,动态:21780,动态:22688,动态:21756,动态:20440,动态:21741,动态:21745,动态:20720,动态:22698,动态:22706,动态:21757,动态:21740,动态:21975,动态:4036,动态:22699,动态:20399,动态:21727</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>动态:22684,动态:22710,动态:22688,动态:22696,动态:22146,动态:22680,动态:4036,动态:21556,动态:22659,动态:21756,动态:21740,动态:22667,动态:22019,动态:20364,动态:20399,动态:20720,动态:22507,动态:22685,动态:21780,动态:22698,动态:20439,动态:22692,动态:21757,动态:21975,动态:22512,动态:17337,动态:21857,动态:22702,动态:7746,动态:21727,动态:21741,动态:21776,动态:21737,动态:21753,动态:20440,动态:21763,动态:22697,动态:22706,动态:21972,动态:22323,动态:21745,动态:21436,动态:22699</t>
+          <t>动态:22710,动态:21780,动态:21436,动态:22507,动态:21975,动态:4036,动态:22019,动态:20399,动态:22323,动态:22698,动态:22688,动态:21556,动态:20364,动态:22659,动态:22699,动态:22702,动态:22667,动态:20440,动态:22684,动态:22706,动态:20439,动态:21727,动态:22685,动态:21757,动态:21763,动态:21745,动态:21753,动态:17337,动态:21737,动态:22697,动态:21740,动态:22146,动态:21857,动态:22696,动态:21756,动态:22680,动态:21741,动态:22692,动态:21972,动态:20720,动态:21776,动态:7746,动态:22512</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>动态:21741,动态:22680,动态:22507,动态:22692,动态:21763,动态:21753,动态:22685,动态:20399,动态:17337,动态:22710,动态:22697,动态:21740,动态:21757,动态:21556,动态:22146,动态:22512,动态:21727,动态:22699,动态:21776,动态:22019,动态:22323,动态:21436,动态:22659,动态:21975,动态:22696,动态:4036,动态:21756,动态:21857,动态:21737,动态:20720,动态:20440,动态:7746,动态:20364,动态:22688,动态:20439,动态:22684,动态:22698,动态:22706,动态:22667,动态:21780,动态:21972</t>
+          <t>动态:17337,动态:21753,动态:22684,动态:21776,动态:21975,动态:22699,动态:21757,动态:21741,动态:22692,动态:20399,动态:21737,动态:22698,动态:22697,动态:21857,动态:4036,动态:22507,动态:21763,动态:22710,动态:20364,动态:22680,动态:21972,动态:21436,动态:20720,动态:21727,动态:22323,动态:21780,动态:22685,动态:7746,动态:22659,动态:21740,动态:22696,动态:22706,动态:22019,动态:20439,动态:22146,动态:22688,动态:20440,动态:21756,动态:21556,动态:22667,动态:22512</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>动态:21763,动态:22659,动态:21776,动态:22698,动态:21745,动态:21975,动态:21436,动态:20364,动态:7746,动态:4036,动态:20439,动态:22680,动态:22512,动态:21857,动态:22323,动态:21753,动态:20720,动态:22667,动态:22146,动态:22697,动态:21727,动态:22696,动态:20399,动态:22702,动态:22019,动态:21741,动态:20440,动态:22685,动态:21740,动态:17337,动态:22688,动态:21780,动态:22706,动态:21972,动态:21757,动态:22692,动态:21737,动态:22699,动态:22710,动态:22684</t>
+          <t>动态:22680,动态:22019,动态:22323,动态:21745,动态:17337,动态:7746,动态:20720,动态:22710,动态:21757,动态:21740,动态:22688,动态:20439,动态:21763,动态:21776,动态:21436,动态:21741,动态:21727,动态:22146,动态:22512,动态:22702,动态:20440,动态:22697,动态:22685,动态:21780,动态:21737,动态:20399,动态:21753,动态:22667,动态:21857,动态:22684,动态:22696,动态:22692,动态:22699,动态:21975,动态:22706,动态:4036,动态:22698,动态:20364,动态:21972,动态:22659</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>动态:22507,动态:21763,动态:21975,动态:22685,动态:22698,动态:21776,动态:22659,动态:21741,动态:22696,动态:22019,动态:21727,动态:22146,动态:22692,动态:21740,动态:22688,动态:20399,动态:22699,动态:21745,动态:20720,动态:17337,动态:7746,动态:21556,动态:21753,动态:22706,动态:22710,动态:21757,动态:22684,动态:22697,动态:4036,动态:21436,动态:21857,动态:22512,动态:22667,动态:20440,动态:22702,动态:22680,动态:21737,动态:20439,动态:21780,动态:20364</t>
+          <t>动态:21737,动态:20399,动态:22667,动态:22146,动态:22688,动态:20439,动态:22706,动态:21436,动态:22692,动态:20440,动态:22697,动态:22685,动态:21745,动态:20364,动态:22710,动态:21753,动态:22512,动态:22684,动态:22659,动态:21763,动态:17337,动态:21740,动态:21556,动态:22696,动态:21727,动态:22680,动态:21741,动态:21757,动态:22702,动态:22698,动态:20720,动态:21780,动态:22699,动态:21776,动态:21975,动态:21857,动态:7746,动态:22019,动态:4036,动态:22507</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>动态:17337,动态:20364,动态:22706,动态:22659,动态:22697,动态:4036,动态:22684,动态:21740,动态:22696,动态:21753,动态:20440,动态:21972,动态:20399,动态:22680,动态:21745,动态:20720,动态:22512,动态:22692,动态:21737,动态:22685,动态:7746,动态:21763,动态:22323,动态:21857,动态:20439,动态:22667,动态:21780,动态:22688,动态:22507,动态:21436,动态:21741,动态:21776,动态:22702,动态:21727,动态:21757,动态:22698,动态:22710,动态:21975,动态:22699</t>
+          <t>动态:21776,动态:21780,动态:17337,动态:21727,动态:21741,动态:22507,动态:22685,动态:21857,动态:4036,动态:7746,动态:21763,动态:22692,动态:22512,动态:22696,动态:21972,动态:22702,动态:22699,动态:22688,动态:22710,动态:21757,动态:20440,动态:22659,动态:22698,动态:22684,动态:21737,动态:20364,动态:20399,动态:22706,动态:22680,动态:20439,动态:22697,动态:21975,动态:22667,动态:21740,动态:22323,动态:20720,动态:21745,动态:21753,动态:21436</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>动态:21776,动态:22512,动态:17337,动态:22684,动态:20440,动态:21975,动态:20364,动态:21756,动态:22692,动态:20439,动态:21763,动态:22697,动态:22698,动态:22019,动态:22680,动态:21436,动态:22696,动态:22699,动态:21745,动态:4036,动态:21780,动态:21740,动态:22659,动态:21757,动态:22710,动态:22702,动态:22688,动态:7746,动态:21741,动态:22706,动态:20720,动态:22507,动态:22685,动态:21972,动态:20399,动态:21857,动态:21753,动态:22146,动态:21727</t>
+          <t>动态:22699,动态:22692,动态:21757,动态:21436,动态:22688,动态:22512,动态:21745,动态:17337,动态:21763,动态:22507,动态:21776,动态:21756,动态:20364,动态:22698,动态:22659,动态:21780,动态:22146,动态:22710,动态:22697,动态:21857,动态:22685,动态:21740,动态:21975,动态:22706,动态:20720,动态:20440,动态:22019,动态:21753,动态:22696,动态:20439,动态:22684,动态:22702,动态:7746,动态:4036,动态:21972,动态:22680,动态:21727,动态:20399,动态:21741</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>动态:21740,动态:22698,动态:20720,动态:22696,动态:22512,动态:7746,动态:21757,动态:22507,动态:22697,动态:21745,动态:21972,动态:21753,动态:22699,动态:22710,动态:21776,动态:22706,动态:20364,动态:22323,动态:4036,动态:22685,动态:22688,动态:20440,动态:21727,动态:22019,动态:20399,动态:21857,动态:22702,动态:22667,动态:22684,动态:20439,动态:21975,动态:22680,动态:22659,动态:22692,动态:17337,动态:21780,动态:21737,动态:22146,动态:21436,动态:21741</t>
+          <t>动态:22706,动态:22696,动态:20439,动态:21740,动态:22667,动态:22698,动态:22512,动态:21745,动态:22019,动态:22659,动态:22507,动态:20720,动态:22697,动态:4036,动态:22702,动态:22323,动态:22146,动态:22680,动态:21436,动态:21780,动态:21753,动态:21741,动态:22685,动态:17337,动态:21776,动态:22699,动态:21737,动态:21757,动态:21727,动态:20440,动态:22688,动态:22684,动态:22692,动态:21972,动态:22710,动态:20399,动态:21857,动态:7746,动态:20364,动态:21975</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>动态:22684,动态:20720,动态:17337,动态:22702,动态:21857,动态:22685,动态:21780,动态:4036,动态:22696,动态:22706,动态:21556,动态:22323,动态:20439,动态:21776,动态:21972,动态:7746,动态:22692,动态:21740,动态:21757,动态:20440,动态:22019,动态:21763,动态:22699,动态:22698,动态:21745,动态:22688,动态:21436,动态:22512,动态:20399,动态:21737,动态:22659,动态:22507,动态:22146,动态:22680,动态:21741,动态:21727,动态:22710,动态:22667,动态:20364,动态:21975,动态:22697</t>
+          <t>动态:22507,动态:4036,动态:22323,动态:22706,动态:21975,动态:22698,动态:21727,动态:20720,动态:21776,动态:22146,动态:21556,动态:21436,动态:22685,动态:21972,动态:22710,动态:22697,动态:20399,动态:21763,动态:21857,动态:22512,动态:22692,动态:22684,动态:20364,动态:21737,动态:21780,动态:17337,动态:20440,动态:7746,动态:22688,动态:21745,动态:22696,动态:22680,动态:22019,动态:22699,动态:22667,动态:22659,动态:21741,动态:20439,动态:22702,动态:21740,动态:21757</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>动态:22699,动态:21753,动态:22019,动态:17337,动态:22688,动态:22667,动态:22323,动态:22692,动态:22696,动态:22659,动态:21757,动态:21756,动态:22512,动态:21745,动态:22710,动态:22685,动态:21776,动态:21556,动态:22702,动态:4036,动态:21857,动态:21737,动态:20440,动态:22507,动态:21727,动态:22680,动态:20720,动态:20399,动态:21975,动态:7746,动态:21763,动态:22698,动态:21972,动态:20364,动态:22684,动态:22706,动态:22146,动态:22697,动态:21780,动态:21436,动态:21740,动态:20439</t>
+          <t>动态:22710,动态:22684,动态:7746,动态:22512,动态:22146,动态:21756,动态:21727,动态:20720,动态:21737,动态:22507,动态:22685,动态:21757,动态:21753,动态:22692,动态:22696,动态:22323,动态:21780,动态:22706,动态:21763,动态:22659,动态:20364,动态:21556,动态:21975,动态:22699,动态:17337,动态:21857,动态:4036,动态:21740,动态:20440,动态:22019,动态:22698,动态:22702,动态:22667,动态:21776,动态:22680,动态:20399,动态:21745,动态:20439,动态:21972,动态:21436,动态:22697,动态:22688</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>动态:22696,动态:22698,动态:22512,动态:22019,动态:20720,动态:20440,动态:22680,动态:22507,动态:21972,动态:22699,动态:4036,动态:22685,动态:21753,动态:21741,动态:21727,动态:21757,动态:20364,动态:21776,动态:20399,动态:20439,动态:22667,动态:22697,动态:21745,动态:21780,动态:22692,动态:21436,动态:21857,动态:17337,动态:22684,动态:22688,动态:21737,动态:22706,动态:7746,动态:21556,动态:21740</t>
+          <t>动态:4036,动态:21857,动态:22512,动态:22684,动态:20439,动态:21556,动态:22699,动态:20720,动态:21780,动态:21741,动态:21753,动态:21972,动态:20364,动态:22692,动态:20440,动态:22706,动态:22667,动态:21740,动态:22688,动态:22696,动态:21737,动态:7746,动态:21745,动态:21436,动态:17337,动态:22697,动态:22507,动态:22698,动态:21727,动态:22680,动态:20399,动态:22685,动态:21757,动态:22019,动态:21776</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>动态:20364,动态:22688,动态:21727,动态:22698,动态:22699,动态:4036,动态:22697,动态:20439,动态:22685,动态:21740,动态:21741,动态:21857,动态:22702,动态:22706,动态:21975,动态:21763,动态:22146,动态:7746,动态:22692,动态:22323,动态:21436,动态:21780,动态:21757,动态:22512,动态:20720,动态:22659,动态:22667,动态:22710,动态:22019,动态:20399,动态:21972,动态:22680,动态:22696,动态:21776,动态:20440,动态:21753,动态:17337,动态:21745,动态:21737,动态:22507</t>
+          <t>动态:22323,动态:22698,动态:22659,动态:21776,动态:21972,动态:22688,动态:22667,动态:22697,动态:21737,动态:20440,动态:22702,动态:20439,动态:20720,动态:22692,动态:22710,动态:21763,动态:21757,动态:21745,动态:22685,动态:7746,动态:22696,动态:22019,动态:20364,动态:17337,动态:22699,动态:21753,动态:20399,动态:22680,动态:21975,动态:21436,动态:22706,动态:21740,动态:21857,动态:22512,动态:21727,动态:4036,动态:22146,动态:21741,动态:21780,动态:22507</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>动态:7746,动态:22685,动态:21737,动态:20720,动态:20439,动态:22710,动态:17337,动态:21780,动态:21776,动态:22323,动态:21727,动态:22019,动态:22697,动态:21972,动态:21857,动态:22684,动态:21745,动态:22706,动态:21757,动态:22692,动态:22696,动态:21763,动态:20399,动态:20440,动态:22507,动态:22146,动态:21740,动态:20364,动态:22659,动态:21975,动态:22688,动态:22667,动态:22680,动态:22698,动态:22512,动态:4036,动态:21753,动态:21436,动态:22699,动态:22702,动态:21741,动态:21556</t>
+          <t>动态:22667,动态:21753,动态:22692,动态:22659,动态:22685,动态:21857,动态:22684,动态:20439,动态:22019,动态:20399,动态:21780,动态:21727,动态:7746,动态:20440,动态:22710,动态:21975,动态:22146,动态:21972,动态:21757,动态:21556,动态:20364,动态:20720,动态:22706,动态:21763,动态:17337,动态:4036,动态:22697,动态:21776,动态:21745,动态:22698,动态:22696,动态:22507,动态:22688,动态:21741,动态:22702,动态:21436,动态:21740,动态:22512,动态:22680,动态:22699,动态:21737,动态:22323</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>动态:22684,动态:21975,动态:22702,动态:22688,动态:22680,动态:21740,动态:4036,动态:20399,动态:21780,动态:22696,动态:22706,动态:20720,动态:21436,动态:21556,动态:22146,动态:22323,动态:21727,动态:22659,动态:7746,动态:21737,动态:20439,动态:17337,动态:22507,动态:22692,动态:21753,动态:21776,动态:22699,动态:22685,动态:21972,动态:22710,动态:22697,动态:20364,动态:21857,动态:22512,动态:21763,动态:21745,动态:21741,动态:20440,动态:22698,动态:22667,动态:21757</t>
+          <t>动态:17337,动态:20720,动态:22702,动态:22692,动态:22699,动态:21727,动态:22685,动态:20399,动态:22697,动态:22706,动态:7746,动态:21776,动态:21753,动态:21857,动态:21745,动态:20440,动态:21763,动态:21556,动态:21780,动态:22146,动态:22698,动态:21737,动态:22710,动态:21972,动态:4036,动态:22680,动态:20364,动态:22323,动态:22667,动态:22684,动态:22659,动态:22696,动态:21740,动态:21436,动态:22688,动态:21975,动态:20439,动态:22507,动态:22512,动态:21757,动态:21741</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>动态:21737,动态:21776,动态:21857,动态:21556,动态:20440,动态:20399,动态:22697,动态:22698,动态:7746,动态:21740,动态:22512,动态:22146,动态:22696,动态:22659,动态:22692,动态:20720,动态:17337,动态:22688,动态:21972,动态:22507,动态:21780,动态:20364,动态:21745,动态:21757,动态:22680,动态:20439,动态:22699,动态:22019,动态:22706,动态:21975,动态:4036,动态:22702,动态:22685,动态:21741,动态:22323,动态:22667,动态:21763,动态:22710,动态:21753,动态:21727,动态:21436,动态:22684</t>
+          <t>动态:22684,动态:21763,动态:21740,动态:22659,动态:21556,动态:22698,动态:22507,动态:21737,动态:22710,动态:21857,动态:17337,动态:22702,动态:22706,动态:7746,动态:20399,动态:22688,动态:21741,动态:21727,动态:22696,动态:22692,动态:4036,动态:20439,动态:20720,动态:22512,动态:20440,动态:21745,动态:21972,动态:21436,动态:22146,动态:21975,动态:21776,动态:21780,动态:22699,动态:22680,动态:22667,动态:21753,动态:22019,动态:22697,动态:22323,动态:21757,动态:22685,动态:20364</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>动态:22696,动态:22659,动态:21776,动态:22702,动态:21436,动态:22688,动态:22680,动态:22684,动态:7746,动态:22019,动态:20439,动态:21757,动态:21745,动态:20399,动态:21972,动态:21556,动态:22692,动态:22323,动态:21975,动态:22512,动态:22146,动态:20364,动态:17337,动态:21740,动态:20440,动态:22706,动态:22710,动态:4036,动态:21763,动态:21741,动态:22697,动态:21737,动态:22685,动态:22698,动态:21756,动态:20720,动态:22667,动态:21753,动态:22507,动态:21857,动态:21727</t>
+          <t>动态:21727,动态:22696,动态:21776,动态:22019,动态:22697,动态:20440,动态:21556,动态:22710,动态:20399,动态:21975,动态:21753,动态:21740,动态:22146,动态:22323,动态:22692,动态:22507,动态:21741,动态:22680,动态:21745,动态:21436,动态:22659,动态:22685,动态:21756,动态:22702,动态:22667,动态:22688,动态:22684,动态:22698,动态:22512,动态:17337,动态:21737,动态:4036,动态:21972,动态:7746,动态:20720,动态:21757,动态:21763,动态:21857,动态:20364,动态:20439,动态:22706</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>动态:22697,动态:22323,动态:22667,动态:22146,动态:22685,动态:17337,动态:21741,动态:7746,动态:22698,动态:22692,动态:20439,动态:22702,动态:21740,动态:21745,动态:20399,动态:21753,动态:20440,动态:22706,动态:22680,动态:21756,动态:21857,动态:22507,动态:22688,动态:21436,动态:4036,动态:20720,动态:22659,动态:21972,动态:22699,动态:20364,动态:21556,动态:22684,动态:22019,动态:21727,动态:22512,动态:21780</t>
+          <t>动态:21756,动态:22146,动态:22684,动态:22512,动态:22702,动态:22507,动态:21727,动态:20440,动态:21780,动态:4036,动态:22323,动态:20439,动态:22680,动态:22698,动态:22697,动态:21972,动态:22706,动态:21741,动态:22667,动态:21740,动态:22692,动态:7746,动态:21745,动态:21436,动态:21556,动态:22659,动态:22685,动态:20399,动态:17337,动态:20364,动态:22688,动态:20720,动态:21753,动态:21857,动态:22019,动态:22699</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>动态:22507,动态:22692,动态:22685,动态:22688,动态:22684,动态:22019,动态:22698,动态:4036,动态:21556,动态:22696,动态:21975,动态:21757,动态:21741,动态:22706,动态:22702,动态:21727,动态:22697,动态:21436,动态:17337,动态:20720,动态:22146,动态:21753,动态:21972,动态:22667,动态:21763,动态:21780,动态:21740,动态:22699,动态:21745,动态:22710,动态:20440,动态:7746,动态:22323,动态:20439,动态:22659,动态:22680,动态:21857,动态:20364,动态:21776,动态:20399</t>
+          <t>动态:21740,动态:7746,动态:21753,动态:20720,动态:21972,动态:22688,动态:22699,动态:22696,动态:22667,动态:22702,动态:22710,动态:22684,动态:22507,动态:22706,动态:21857,动态:20440,动态:22697,动态:21757,动态:17337,动态:21745,动态:21763,动态:21780,动态:21556,动态:4036,动态:21975,动态:21436,动态:20364,动态:21727,动态:22692,动态:22323,动态:20399,动态:22659,动态:22685,动态:22019,动态:21776,动态:22680,动态:21741,动态:22146,动态:22698,动态:20439</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>动态:22680,动态:22696,动态:20439,动态:21745,动态:21756,动态:20399,动态:21857,动态:22688,动态:21741,动态:22019,动态:20720,动态:21737,动态:21556,动态:22146,动态:20440,动态:22512,动态:22659,动态:21975,动态:22710,动态:22684,动态:22698,动态:20364,动态:4036,动态:21740,动态:21436,动态:22692,动态:22706,动态:21972,动态:22699,动态:22507,动态:21776,动态:22667,动态:21727,动态:21780,动态:17337,动态:22685,动态:21753,动态:21757,动态:21763,动态:22697,动态:7746</t>
+          <t>动态:22680,动态:22685,动态:7746,动态:22710,动态:22507,动态:21556,动态:22698,动态:22659,动态:17337,动态:21972,动态:22706,动态:20364,动态:21757,动态:20439,动态:22692,动态:21727,动态:22667,动态:21740,动态:21975,动态:22146,动态:20440,动态:4036,动态:21857,动态:22697,动态:21753,动态:21741,动态:21436,动态:22699,动态:21776,动态:22019,动态:21780,动态:20720,动态:22684,动态:20399,动态:22512,动态:21756,动态:21737,动态:22696,动态:22688,动态:21745,动态:21763</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>动态:22323,动态:22698,动态:22697,动态:21740,动态:20439,动态:17337,动态:21727,动态:22512,动态:21756,动态:22706,动态:21436,动态:20364,动态:22659,动态:21780,动态:21757,动态:7746,动态:22684,动态:21753,动态:4036,动态:21972,动态:22680,动态:22710,动态:21556,动态:20720,动态:21776,动态:21975,动态:22702,动态:22696,动态:21745,动态:22667,动态:22688,动态:21741,动态:21857,动态:22019,动态:22507,动态:21763,动态:20440,动态:22699,动态:20399,动态:22692</t>
+          <t>动态:21757,动态:22688,动态:21763,动态:22019,动态:21857,动态:21753,动态:20399,动态:22698,动态:20364,动态:21740,动态:20440,动态:21556,动态:22684,动态:22706,动态:21741,动态:22667,动态:22323,动态:20720,动态:21780,动态:21727,动态:17337,动态:4036,动态:22702,动态:21776,动态:22692,动态:22680,动态:22512,动态:22697,动态:22699,动态:21756,动态:21745,动态:21975,动态:22696,动态:22710,动态:7746,动态:21436,动态:21972,动态:20439,动态:22507,动态:22659</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>动态:22698,动态:22710,动态:21776,动态:21741,动态:7746,动态:22680,动态:22688,动态:21972,动态:21780,动态:21857,动态:21757,动态:22684,动态:20364,动态:21556,动态:21727,动态:22146,动态:22706,动态:22702,动态:22019,动态:22696,动态:20399,动态:21740,动态:21753,动态:22507,动态:22659,动态:21737,动态:20439,动态:4036,动态:22699,动态:22512,动态:21436,动态:21756,动态:17337,动态:20440,动态:21975,动态:22685,动态:21763,动态:22667,动态:22323,动态:22692,动态:20720,动态:22697</t>
+          <t>动态:22323,动态:22685,动态:21975,动态:20364,动态:21763,动态:21740,动态:22699,动态:22684,动态:21857,动态:21436,动态:17337,动态:21780,动态:22019,动态:20399,动态:22698,动态:22706,动态:22702,动态:22680,动态:20720,动态:22692,动态:22146,动态:20440,动态:22710,动态:21556,动态:22696,动态:21741,动态:4036,动态:22507,动态:20439,动态:22688,动态:21756,动态:22659,动态:21972,动态:21727,动态:22697,动态:7746,动态:22512,动态:21753,动态:21776,动态:21757,动态:22667,动态:21737</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>动态:22697,动态:21745,动态:20720,动态:21753,动态:22512,动态:22507,动态:21741,动态:21780,动态:4036,动态:22692,动态:7746,动态:22019,动态:22146,动态:22685,动态:21776,动态:21757,动态:22706,动态:21975,动态:22688,动态:21737,动态:21740,动态:20364,动态:22680,动态:21972,动态:22659,动态:22667,动态:21727,动态:17337,动态:20399,动态:22699,动态:21436,动态:22702,动态:21556,动态:22684,动态:22710,动态:21756,动态:22698,动态:20440,动态:21763,动态:21857,动态:20439,动态:22323,动态:22696</t>
+          <t>动态:21776,动态:22696,动态:21780,动态:21756,动态:22710,动态:22512,动态:22697,动态:22692,动态:20364,动态:21741,动态:22702,动态:21972,动态:22323,动态:21763,动态:22680,动态:22659,动态:21757,动态:21975,动态:22019,动态:20440,动态:4036,动态:21436,动态:20439,动态:22507,动态:21740,动态:22706,动态:21556,动态:22688,动态:17337,动态:20720,动态:21745,动态:7746,动态:22684,动态:21737,动态:22685,动态:21753,动态:20399,动态:21727,动态:22699,动态:22698,动态:22667,动态:22146,动态:21857</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>动态:7746,动态:21556,动态:22507,动态:22019,动态:21436,动态:22667,动态:21753,动态:21780,动态:21857,动态:21727,动态:22684,动态:21737,动态:22146,动态:22697,动态:21975,动态:22696,动态:21740,动态:22512,动态:21776,动态:17337,动态:21741,动态:22699,动态:20439,动态:22710,动态:22688,动态:20399,动态:22698,动态:22692,动态:21756,动态:22323,动态:22706,动态:21757,动态:4036,动态:22680,动态:20440,动态:21745,动态:21972,动态:22702,动态:21763,动态:22685,动态:20364,动态:20720,动态:22659</t>
+          <t>动态:4036,动态:22019,动态:21753,动态:22699,动态:17337,动态:21556,动态:22323,动态:21857,动态:22692,动态:22685,动态:22698,动态:22684,动态:21756,动态:21975,动态:21776,动态:22659,动态:22507,动态:21757,动态:22667,动态:22706,动态:21745,动态:20364,动态:22697,动态:21972,动态:20439,动态:21740,动态:21436,动态:7746,动态:21741,动态:21737,动态:22696,动态:21727,动态:20440,动态:22146,动态:22680,动态:22702,动态:22710,动态:21763,动态:22512,动态:20399,动态:21780,动态:22688,动态:20720</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>动态:7746,动态:21753,动态:21972,动态:21763,动态:22684,动态:17337,动态:22698,动态:22692,动态:21745,动态:22685,动态:22710,动态:22696,动态:21727,动态:22697,动态:4036,动态:20440,动态:22688,动态:22323,动态:22680,动态:21756,动态:22507,动态:22512,动态:21737,动态:21975,动态:22146,动态:20439,动态:22667,动态:22699,动态:21857,动态:22019,动态:21757,动态:21741,动态:21780,动态:20399,动态:22659,动态:21436,动态:22706,动态:20720,动态:21740,动态:20364,动态:21556</t>
+          <t>动态:22507,动态:22688,动态:22685,动态:21753,动态:21436,动态:21556,动态:21737,动态:21975,动态:22696,动态:22680,动态:7746,动态:20720,动态:22667,动态:22706,动态:21745,动态:21741,动态:22684,动态:22323,动态:21756,动态:22692,动态:20440,动态:21763,动态:21972,动态:22699,动态:22146,动态:22512,动态:4036,动态:22659,动态:22698,动态:22019,动态:20439,动态:20364,动态:21857,动态:21757,动态:17337,动态:20399,动态:22710,动态:21780,动态:21740,动态:22697,动态:21727</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>动态:21436,动态:22685,动态:21975,动态:20399,动态:22680,动态:17337,动态:22512,动态:22323,动态:22692,动态:21741,动态:21757,动态:4036,动态:22706,动态:21740,动态:22684,动态:22659,动态:21763,动态:21727,动态:21737,动态:21756,动态:22146,动态:22702,动态:7746,动态:21857,动态:22019,动态:21780,动态:22667,动态:22696,动态:22698,动态:22699,动态:20439,动态:22507,动态:21745,动态:22710,动态:20364,动态:20440,动态:21556,动态:22697,动态:21753,动态:20720</t>
+          <t>动态:20720,动态:21727,动态:20364,动态:21753,动态:21780,动态:4036,动态:22698,动态:20439,动态:22697,动态:22512,动态:22684,动态:22702,动态:22710,动态:21756,动态:21737,动态:22507,动态:22696,动态:21741,动态:22667,动态:21556,动态:22323,动态:21740,动态:20440,动态:20399,动态:22699,动态:17337,动态:22685,动态:21763,动态:22146,动态:22692,动态:21857,动态:7746,动态:22659,动态:22019,动态:22680,动态:22706,动态:21745,动态:21975,动态:21757,动态:21436</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>动态:22680,动态:20439,动态:4036,动态:22512,动态:21857,动态:22688,动态:20364,动态:22507,动态:21780,动态:22702,动态:21763,动态:21436,动态:21756,动态:21975,动态:21737,动态:22692,动态:22019,动态:22699,动态:22696,动态:22667,动态:21745,动态:21776,动态:22697,动态:21556,动态:21757,动态:22684,动态:21972,动态:22706,动态:21741,动态:20720,动态:7746,动态:17337,动态:22146,动态:22323,动态:21727,动态:22659,动态:22685,动态:22698,动态:22710,动态:20440,动态:21753,动态:20399</t>
+          <t>动态:22512,动态:21556,动态:20439,动态:22702,动态:17337,动态:22706,动态:21727,动态:21776,动态:21975,动态:21436,动态:7746,动态:22146,动态:22667,动态:21972,动态:20720,动态:22680,动态:21780,动态:21753,动态:4036,动态:20364,动态:22688,动态:22698,动态:22684,动态:21763,动态:22659,动态:22685,动态:21741,动态:22323,动态:20440,动态:22697,动态:22692,动态:21857,动态:21756,动态:22507,动态:22019,动态:20399,动态:22699,动态:21737,动态:22696,动态:21745,动态:21757,动态:22710</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>动态:22667,动态:21857,动态:22699,动态:21972,动态:21975,动态:22659,动态:22323,动态:22692,动态:21757,动态:21780,动态:22019,动态:20440,动态:22680,动态:21756,动态:22698,动态:22146,动态:22688,动态:22710,动态:21556,动态:17337,动态:21436,动态:21763,动态:21753,动态:22512,动态:21776,动态:22685,动态:20720,动态:22702,动态:22684,动态:20399,动态:21741,动态:21737,动态:21727,动态:20364,动态:21740,动态:4036,动态:20439,动态:21745,动态:22706,动态:22507,动态:7746,动态:22696</t>
+          <t>动态:21757,动态:21727,动态:22699,动态:21556,动态:22688,动态:20399,动态:22323,动态:22680,动态:21972,动态:22019,动态:22696,动态:22684,动态:21756,动态:21763,动态:21857,动态:22692,动态:21737,动态:22706,动态:20440,动态:21745,动态:22698,动态:17337,动态:21776,动态:22512,动态:22667,动态:22685,动态:22507,动态:21975,动态:21780,动态:22702,动态:22146,动态:22659,动态:22710,动态:21740,动态:20439,动态:21753,动态:20720,动态:4036,动态:21436,动态:21741,动态:20364,动态:7746</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>动态:21737,动态:22667,动态:22323,动态:22706,动态:22684,动态:20399,动态:21727,动态:21780,动态:21857,动态:22146,动态:21975,动态:20720,动态:21556,动态:22688,动态:21763,动态:22696,动态:22702,动态:20439,动态:21436,动态:21756,动态:20364,动态:22659,动态:21972,动态:22680,动态:21776,动态:21745,动态:21740,动态:22710,动态:17337,动态:22019,动态:22507,动态:21757,动态:22697,动态:20440,动态:21741,动态:22685,动态:22512,动态:4036,动态:22699,动态:21753,动态:7746,动态:22698,动态:22692</t>
+          <t>动态:21756,动态:21763,动态:21737,动态:21753,动态:21857,动态:22692,动态:20399,动态:21740,动态:22146,动态:22512,动态:22507,动态:22684,动态:20440,动态:22696,动态:22699,动态:21757,动态:21727,动态:17337,动态:22706,动态:22702,动态:22710,动态:7746,动态:21556,动态:21741,动态:22688,动态:20364,动态:21776,动态:22698,动态:22697,动态:22019,动态:22685,动态:21436,动态:22667,动态:4036,动态:22659,动态:21745,动态:20439,动态:20720,动态:22323,动态:22680,动态:21780,动态:21975,动态:21972</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>动态:4036,动态:20399,动态:22692,动态:22710,动态:20440,动态:21975,动态:21737,动态:22667,动态:21727,动态:21857,动态:22659,动态:20439,动态:22699,动态:7746,动态:21776,动态:22146,动态:22512,动态:22697,动态:21741,动态:22323,动态:22685,动态:22698,动态:21757,动态:22688,动态:21556,动态:22696,动态:22680,动态:21436,动态:22684,动态:21753,动态:17337,动态:21780,动态:20364,动态:22507,动态:20720,动态:21763,动态:21972,动态:21756,动态:22019,动态:22702,动态:22706</t>
+          <t>动态:22323,动态:22684,动态:22685,动态:21556,动态:22146,动态:22699,动态:7746,动态:21763,动态:22688,动态:21975,动态:22698,动态:22697,动态:21741,动态:21780,动态:22702,动态:22019,动态:20440,动态:22667,动态:21737,动态:21972,动态:21753,动态:21727,动态:22710,动态:21857,动态:22659,动态:22507,动态:22680,动态:20720,动态:22512,动态:22696,动态:20364,动态:22692,动态:21756,动态:20439,动态:17337,动态:22706,动态:21757,动态:4036,动态:20399,动态:21776,动态:21436</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>动态:21436,动态:21741,动态:21737,动态:22699,动态:20399,动态:21975,动态:21857,动态:22507,动态:20364,动态:4036,动态:22702,动态:20440,动态:17337,动态:21740,动态:20720,动态:21972,动态:22680,动态:21757,动态:22146,动态:22659,动态:22696,动态:21763,动态:21727,动态:22710,动态:22684,动态:22019,动态:21745,动态:22692,动态:21756,动态:20439,动态:22685,动态:22697,动态:22706,动态:22698,动态:22323,动态:21780,动态:21776,动态:22512,动态:21753,动态:22688,动态:7746,动态:21556,动态:22667</t>
+          <t>动态:20440,动态:22696,动态:20364,动态:20399,动态:21780,动态:21753,动态:22667,动态:22688,动态:21436,动态:7746,动态:21975,动态:21745,动态:22685,动态:21757,动态:22699,动态:22512,动态:22019,动态:22680,动态:22684,动态:20439,动态:21727,动态:22697,动态:22702,动态:22323,动态:21741,动态:21556,动态:20720,动态:17337,动态:22710,动态:4036,动态:22692,动态:22507,动态:21857,动态:21776,动态:22706,动态:21763,动态:21972,动态:22659,动态:22146,动态:21756,动态:21740,动态:22698,动态:21737</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>动态:21556,动态:22702,动态:21727,动态:17337,动态:21776,动态:20720,动态:22699,动态:21780,动态:22507,动态:22684,动态:21972,动态:4036,动态:20399,动态:22146,动态:22019,动态:22698,动态:21740,动态:22685,动态:22512,动态:21753,动态:22680,动态:21763,动态:20439,动态:21756,动态:21436,动态:21745,动态:21857,动态:22688,动态:22696,动态:22692,动态:7746,动态:20440,动态:21741,动态:20364,动态:21975,动态:22697,动态:22659,动态:22667,动态:21757</t>
+          <t>动态:22688,动态:21972,动态:4036,动态:21857,动态:22667,动态:22684,动态:21436,动态:17337,动态:22019,动态:21727,动态:22697,动态:22685,动态:21740,动态:21776,动态:22512,动态:20439,动态:20720,动态:21753,动态:22698,动态:21763,动态:22696,动态:20440,动态:20364,动态:21757,动态:20399,动态:22507,动态:21975,动态:21780,动态:21756,动态:7746,动态:22680,动态:22146,动态:21745,动态:22702,动态:21556,动态:22659,动态:22699,动态:21741,动态:22692</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>动态:21556,动态:21436,动态:20720,动态:21737,动态:21763,动态:22697,动态:22688,动态:21757,动态:17337,动态:22659,动态:21780,动态:22507,动态:20440,动态:22684,动态:21740,动态:20439,动态:22706,动态:22710,动态:20399,动态:22696,动态:22698,动态:22685,动态:22146,动态:21745,动态:22699,动态:22019,动态:21975,动态:20364,动态:22667,动态:21727,动态:21857,动态:22512,动态:4036,动态:21741,动态:21756,动态:21753,动态:21776,动态:22680,动态:7746,动态:22692,动态:21972,动态:22323</t>
+          <t>动态:20399,动态:22685,动态:20720,动态:22659,动态:21737,动态:21740,动态:21556,动态:21727,动态:21753,动态:22710,动态:22699,动态:22680,动态:22688,动态:21757,动态:21776,动态:22146,动态:4036,动态:21436,动态:21741,动态:22507,动态:22512,动态:21745,动态:22697,动态:21975,动态:21756,动态:21763,动态:22667,动态:20439,动态:22698,动态:20364,动态:17337,动态:22323,动态:21972,动态:22692,动态:21780,动态:22706,动态:22019,动态:22696,动态:20440,动态:21857,动态:7746,动态:22684</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>动态:22146,动态:7746,动态:21780,动态:21556,动态:22507,动态:20364,动态:22512,动态:22659,动态:21857,动态:20440,动态:20439,动态:22688,动态:22684,动态:21737,动态:21741,动态:22323,动态:21756,动态:22680,动态:21436,动态:22019,动态:17337,动态:22699,动态:21740,动态:21763,动态:22685,动态:4036,动态:20399,动态:21745,动态:22698,动态:22710,动态:22696,动态:22667,动态:21753,动态:20720,动态:22692,动态:21727,动态:22706,动态:21975,动态:22697,动态:21757,动态:21776</t>
+          <t>动态:22667,动态:21740,动态:22685,动态:17337,动态:21436,动态:22146,动态:21857,动态:22512,动态:20364,动态:21975,动态:22696,动态:21776,动态:22019,动态:21556,动态:22710,动态:22688,动态:22323,动态:22699,动态:4036,动态:22684,动态:22697,动态:20399,动态:21741,动态:21727,动态:21756,动态:21757,动态:20439,动态:22659,动态:22507,动态:22698,动态:21780,动态:20720,动态:21763,动态:22692,动态:20440,动态:21753,动态:7746,动态:22680,动态:21745,动态:22706,动态:21737</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>动态:22688,动态:22706,动态:21975,动态:21776,动态:22680,动态:21753,动态:22699,动态:21740,动态:22684,动态:21745,动态:21727,动态:22710,动态:22697,动态:21737,动态:17337,动态:20399,动态:20440,动态:20364,动态:21857,动态:21556,动态:21972,动态:22146,动态:22019,动态:4036,动态:22512,动态:22507,动态:21757,动态:22659,动态:7746,动态:22685,动态:22692,动态:22702,动态:20439,动态:21741,动态:22696,动态:21780,动态:21763,动态:22667,动态:20720,动态:22323,动态:21436,动态:22698</t>
+          <t>动态:22512,动态:20439,动态:22019,动态:22688,动态:22685,动态:21780,动态:22696,动态:20399,动态:4036,动态:21857,动态:21745,动态:20440,动态:22710,动态:21740,动态:21763,动态:22698,动态:22706,动态:22146,动态:21737,动态:21972,动态:22507,动态:22323,动态:22684,动态:21753,动态:17337,动态:22697,动态:21436,动态:22702,动态:20720,动态:21741,动态:20364,动态:22667,动态:22699,动态:21776,动态:21727,动态:21556,动态:22680,动态:21975,动态:22659,动态:7746,动态:21757,动态:22692</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>动态:22019,动态:22507,动态:22692,动态:21745,动态:22146,动态:20440,动态:21436,动态:21857,动态:20720,动态:22706,动态:22680,动态:21776,动态:22702,动态:21740,动态:21756,动态:21763,动态:22697,动态:21780,动态:20399,动态:22659,动态:21556,动态:22667,动态:22323,动态:22684,动态:22698,动态:17337,动态:21757,动态:21727,动态:7746,动态:21753,动态:21741,动态:21975,动态:22512,动态:22699,动态:22710,动态:22685,动态:22688,动态:22696,动态:4036,动态:20439,动态:20364,动态:21972,动态:21737</t>
+          <t>动态:21740,动态:21780,动态:21857,动态:21436,动态:22507,动态:21727,动态:21972,动态:22697,动态:22323,动态:22512,动态:22680,动态:21776,动态:22688,动态:17337,动态:22146,动态:21756,动态:22698,动态:22699,动态:22019,动态:21763,动态:20440,动态:4036,动态:22685,动态:21741,动态:22710,动态:22692,动态:21737,动态:21745,动态:22696,动态:22702,动态:22667,动态:20439,动态:21975,动态:22659,动态:22706,动态:20720,动态:21556,动态:20399,动态:20364,动态:22684,动态:7746,动态:21753,动态:21757</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>动态:22688,动态:21972,动态:21756,动态:21857,动态:22659,动态:22507,动态:21727,动态:22685,动态:7746,动态:22697,动态:17337,动态:22692,动态:4036,动态:22696,动态:20440,动态:21556,动态:20399,动态:22680,动态:21780,动态:22706,动态:22146,动态:22698,动态:22710,动态:21737,动态:22684,动态:21975,动态:22699,动态:21436,动态:22323,动态:20364,动态:22702,动态:21753,动态:22512,动态:20720,动态:21776,动态:22019,动态:20439,动态:22667,动态:21763</t>
+          <t>动态:21727,动态:22710,动态:20720,动态:22698,动态:21857,动态:22667,动态:22692,动态:20364,动态:22512,动态:21780,动态:22706,动态:21975,动态:20399,动态:22507,动态:21776,动态:7746,动态:22699,动态:21756,动态:22019,动态:22323,动态:17337,动态:21436,动态:22146,动态:22680,动态:21972,动态:21556,动态:22688,动态:4036,动态:21753,动态:22659,动态:21763,动态:21737,动态:22697,动态:20440,动态:22696,动态:22684,动态:22685,动态:20439,动态:22702</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>动态:21972,动态:22512,动态:17337,动态:22697,动态:22710,动态:20440,动态:21737,动态:22680,动态:21975,动态:22702,动态:22692,动态:21857,动态:22507,动态:22699,动态:22323,动态:20720,动态:21780,动态:22146,动态:21763,动态:22019,动态:21757,动态:22667,动态:20439,动态:22684,动态:22696,动态:21756,动态:7746,动态:21740,动态:22688,动态:22659,动态:4036,动态:20399,动态:21727,动态:20364,动态:21745,动态:21556,动态:22698,动态:21741,动态:22685,动态:21776,动态:21436,动态:21753,动态:22706</t>
+          <t>动态:22507,动态:21436,动态:22685,动态:21737,动态:7746,动态:22684,动态:22659,动态:22710,动态:21741,动态:4036,动态:21745,动态:21757,动态:21740,动态:20720,动态:22019,动态:21857,动态:22146,动态:21756,动态:21763,动态:21727,动态:22706,动态:22680,动态:21556,动态:22697,动态:20439,动态:22667,动态:22512,动态:22696,动态:20399,动态:21753,动态:21776,动态:22323,动态:22699,动态:21972,动态:17337,动态:20364,动态:22698,动态:21975,动态:22692,动态:20440,动态:22688,动态:21780,动态:22702</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>动态:22702,动态:20399,动态:4036,动态:22507,动态:22692,动态:21776,动态:22146,动态:22512,动态:22685,动态:20440,动态:22667,动态:22323,动态:22698,动态:21763,动态:21753,动态:17337,动态:22019,动态:22688,动态:20720,动态:21727,动态:21740,动态:21972,动态:20439,动态:21556,动态:21745,动态:21757,动态:22710,动态:22699,动态:22680,动态:22696,动态:22697,动态:21857,动态:22706,动态:21741,动态:21756,动态:21975,动态:22659,动态:7746,动态:21436,动态:21737,动态:21780,动态:20364</t>
+          <t>动态:22697,动态:22685,动态:22692,动态:21741,动态:21740,动态:21972,动态:20720,动态:21737,动态:21436,动态:21727,动态:21757,动态:20364,动态:20439,动态:21780,动态:22323,动态:22512,动态:22019,动态:7746,动态:4036,动态:22696,动态:21975,动态:22507,动态:22688,动态:20399,动态:22146,动态:22710,动态:22698,动态:21753,动态:21756,动态:22680,动态:17337,动态:21556,动态:21745,动态:22702,动态:21776,动态:22659,动态:22706,动态:22699,动态:21763,动态:21857,动态:22667,动态:20440</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>动态:21556,动态:20364,动态:22685,动态:21780,动态:21975,动态:22323,动态:21741,动态:22507,动态:22146,动态:22706,动态:22697,动态:17337,动态:22659,动态:20720,动态:20439,动态:21737,动态:21727,动态:21776,动态:21857,动态:22692,动态:21757,动态:21436,动态:4036,动态:21745,动态:22698,动态:21753,动态:22684,动态:22702,动态:20399,动态:21763,动态:20440,动态:22696,动态:22512,动态:21740,动态:7746,动态:22680,动态:22710,动态:22688,动态:22699,动态:22667,动态:22019</t>
+          <t>动态:22323,动态:22680,动态:17337,动态:22702,动态:21975,动态:22692,动态:22019,动态:21727,动态:22710,动态:20720,动态:22706,动态:21436,动态:22507,动态:21740,动态:20439,动态:21753,动态:21737,动态:22146,动态:21776,动态:20364,动态:20440,动态:22688,动态:21857,动态:22512,动态:4036,动态:22684,动态:22699,动态:22697,动态:21780,动态:20399,动态:22667,动态:22659,动态:22685,动态:21757,动态:21741,动态:22698,动态:21763,动态:21745,动态:7746,动态:22696,动态:21556</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>动态:22685,动态:22698,动态:22146,动态:22688,动态:21857,动态:20364,动态:22706,动态:22507,动态:22692,动态:22667,动态:22697,动态:22699,动态:20399,动态:21436,动态:21776,动态:21763,动态:21727,动态:21780,动态:7746,动态:22710,动态:21975,动态:20439,动态:22680,动态:21741,动态:21972,动态:20440,动态:21556,动态:22512,动态:21740,动态:4036,动态:22696,动态:22659,动态:21756,动态:21745,动态:22702,动态:22019,动态:22684,动态:17337,动态:21757,动态:21753,动态:20720</t>
+          <t>动态:4036,动态:22512,动态:22685,动态:22659,动态:21745,动态:21741,动态:21857,动态:21780,动态:22706,动态:22692,动态:22699,动态:17337,动态:21753,动态:21727,动态:20399,动态:22688,动态:20364,动态:20440,动态:20439,动态:7746,动态:22680,动态:22146,动态:22698,动态:22667,动态:22710,动态:22696,动态:21756,动态:21972,动态:21436,动态:21757,动态:21556,动态:22702,动态:21975,动态:21776,动态:22697,动态:22019,动态:21763,动态:20720,动态:22507,动态:21740,动态:22684</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>动态:21741,动态:22684,动态:21436,动态:21556,动态:17337,动态:21757,动态:22512,动态:20720,动态:22146,动态:22692,动态:7746,动态:20399,动态:21737,动态:22659,动态:21753,动态:21857,动态:21763,动态:22696,动态:22680,动态:22019,动态:4036,动态:21776,动态:22699,动态:20364,动态:22688,动态:22507,动态:22697,动态:20439,动态:21780,动态:21975,动态:21972,动态:22323,动态:22702,动态:21740,动态:21727,动态:22706,动态:22667,动态:22698,动态:22710,动态:22685,动态:20440,动态:21745</t>
+          <t>动态:21763,动态:21727,动态:22323,动态:7746,动态:22146,动态:22710,动态:21757,动态:21436,动态:20399,动态:20439,动态:20440,动态:21972,动态:21745,动态:22684,动态:22680,动态:22698,动态:22702,动态:21857,动态:22706,动态:4036,动态:22692,动态:22699,动态:22659,动态:21776,动态:21556,动态:22696,动态:17337,动态:22667,动态:21740,动态:20720,动态:22685,动态:22697,动态:21741,动态:20364,动态:22507,动态:22019,动态:21737,动态:22688,动态:21780,动态:21975,动态:21753,动态:22512</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>动态:20439,动态:21857,动态:22699,动态:22710,动态:20364,动态:22688,动态:21757,动态:22696,动态:20440,动态:17337,动态:22019,动态:21972,动态:22512,动态:4036,动态:21745,动态:21737,动态:21436,动态:22698,动态:21556,动态:22667,动态:21753,动态:21727,动态:22680,动态:21740,动态:21780,动态:22702,动态:21756,动态:20720,动态:22706,动态:22323,动态:21763,动态:7746,动态:22697,动态:20399,动态:21975,动态:22146,动态:22684,动态:21741,动态:22692,动态:22685</t>
+          <t>动态:21737,动态:21741,动态:21745,动态:22688,动态:22706,动态:22696,动态:20720,动态:17337,动态:20439,动态:21857,动态:22710,动态:21780,动态:22512,动态:21757,动态:21763,动态:22692,动态:21972,动态:21556,动态:22019,动态:22146,动态:22697,动态:21756,动态:21753,动态:20399,动态:21436,动态:7746,动态:21975,动态:4036,动态:22680,动态:22698,动态:22685,动态:21727,动态:22667,动态:22684,动态:20364,动态:22699,动态:21740,动态:22702,动态:20440,动态:22323</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>动态:21556,动态:22680,动态:17337,动态:20720,动态:20364,动态:21857,动态:4036,动态:20440,动态:21737,动态:7746,动态:22710,动态:22507,动态:22512,动态:22699,动态:21757,动态:21745,动态:21436,动态:22667,动态:21756,动态:20439,动态:22696,动态:22323,动态:21763,动态:22688,动态:21776,动态:21727,动态:21972,动态:21975,动态:22698,动态:22706,动态:21741,动态:22697,动态:22019,动态:22692,动态:20399,动态:22685,动态:21753,动态:22659,动态:22702,动态:22146,动态:21780,动态:22684,动态:21740</t>
+          <t>动态:21757,动态:21737,动态:21763,动态:21745,动态:21756,动态:22019,动态:20439,动态:4036,动态:21727,动态:22667,动态:22323,动态:22685,动态:22659,动态:20364,动态:21975,动态:22696,动态:22684,动态:22697,动态:21972,动态:21740,动态:22702,动态:22512,动态:22698,动态:22680,动态:21556,动态:21780,动态:20720,动态:21741,动态:22699,动态:21857,动态:7746,动态:21436,动态:20440,动态:20399,动态:22710,动态:21753,动态:22706,动态:22692,动态:21776,动态:17337,动态:22507,动态:22688,动态:22146</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>动态:21757,动态:22323,动态:21972,动态:21780,动态:22710,动态:22696,动态:22680,动态:22659,动态:21436,动态:21740,动态:22692,动态:22699,动态:21753,动态:20439,动态:21756,动态:17337,动态:4036,动态:20399,动态:22507,动态:22702,动态:21741,动态:22512,动态:20364,动态:21556,动态:21737,动态:20720,动态:20440,动态:22019,动态:22706,动态:7746,动态:22698,动态:22697,动态:22685,动态:21745,动态:22667,动态:21727,动态:21776,动态:21975,动态:21763,动态:21857</t>
+          <t>动态:21975,动态:22699,动态:21727,动态:21753,动态:17337,动态:22667,动态:20364,动态:21737,动态:22698,动态:22696,动态:22659,动态:21780,动态:22512,动态:4036,动态:22685,动态:22507,动态:21740,动态:7746,动态:22702,动态:21745,动态:21757,动态:21756,动态:21556,动态:22697,动态:21776,动态:21972,动态:20399,动态:22692,动态:21436,动态:22680,动态:21857,动态:20440,动态:22710,动态:20439,动态:21741,动态:21763,动态:22323,动态:22019,动态:22706,动态:20720</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>动态:21556,动态:22702,动态:20720,动态:22667,动态:22507,动态:4036,动态:22699,动态:22684,动态:22019,动态:22512,动态:22706,动态:22692,动态:21727,动态:22680,动态:22688,动态:22710,动态:21745,动态:22659,动态:22323,动态:7746,动态:22697,动态:20364,动态:22698,动态:21776,动态:21780,动态:21857,动态:21763,动态:20439,动态:21740,动态:20440,动态:21757,动态:21975,动态:20399,动态:22685,动态:21972,动态:22696,动态:22146,动态:21436,动态:17337,动态:21741,动态:21737,动态:21753,动态:21756</t>
+          <t>动态:22692,动态:21753,动态:22688,动态:20364,动态:22706,动态:21857,动态:22699,动态:22684,动态:21757,动态:21763,动态:22019,动态:22697,动态:21756,动态:7746,动态:22659,动态:22702,动态:21741,动态:21556,动态:22680,动态:22146,动态:22507,动态:21727,动态:22698,动态:20439,动态:22696,动态:4036,动态:21737,动态:20399,动态:21776,动态:22667,动态:22323,动态:22710,动态:21972,动态:20440,动态:21740,动态:20720,动态:21745,动态:22685,动态:21436,动态:22512,动态:17337,动态:21975,动态:21780</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>动态:22698,动态:4036,动态:21757,动态:21745,动态:20364,动态:21756,动态:22697,动态:20439,动态:22699,动态:22019,动态:20399,动态:22710,动态:21780,动态:21556,动态:21436,动态:22706,动态:17337,动态:22688,动态:22323,动态:21776,动态:22507,动态:21737,动态:20440,动态:21753,动态:22667,动态:22684,动态:21763,动态:7746,动态:21975,动态:21741,动态:21740,动态:22146,动态:22680,动态:22696,动态:22512,动态:21857,动态:21972,动态:21727,动态:20720,动态:22659,动态:22692,动态:22685</t>
+          <t>动态:20439,动态:21436,动态:20440,动态:4036,动态:21737,动态:22697,动态:22019,动态:22692,动态:22680,动态:21727,动态:22146,动态:21556,动态:21756,动态:21753,动态:22685,动态:21740,动态:17337,动态:21741,动态:21763,动态:21757,动态:21745,动态:22512,动态:22698,动态:22323,动态:22710,动态:22684,动态:22706,动态:22688,动态:21972,动态:20364,动态:22696,动态:22659,动态:20399,动态:22667,动态:21776,动态:21857,动态:22699,动态:22507,动态:7746,动态:21780,动态:20720,动态:21975</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>动态:7746,动态:22512,动态:22685,动态:21737,动态:22146,动态:22507,动态:22699,动态:21763,动态:22680,动态:21776,动态:22698,动态:21780,动态:21753,动态:21757,动态:4036,动态:21727,动态:21756,动态:22696,动态:20399,动态:22684,动态:21857,动态:21556,动态:17337,动态:22659,动态:22702,动态:22692,动态:20364,动态:21972,动态:21741,动态:20720,动态:22323,动态:21975,动态:20439,动态:21436,动态:22706,动态:22667,动态:22697,动态:22710,动态:21745,动态:22019,动态:22688,动态:21740,动态:20440</t>
+          <t>动态:21857,动态:20439,动态:22659,动态:22702,动态:21741,动态:22323,动态:20720,动态:7746,动态:21757,动态:22685,动态:22688,动态:21740,动态:22706,动态:21753,动态:20440,动态:21745,动态:21727,动态:21972,动态:22698,动态:21975,动态:22667,动态:4036,动态:21776,动态:22692,动态:17337,动态:21763,动态:21780,动态:21556,动态:21756,动态:22699,动态:22512,动态:21436,动态:21737,动态:22146,动态:22680,动态:22697,动态:22696,动态:22710,动态:22684,动态:22019,动态:20364,动态:20399,动态:22507</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>动态:21780,动态:22702,动态:4036,动态:21776,动态:22512,动态:22685,动态:22710,动态:20440,动态:22692,动态:21737,动态:22697,动态:20364,动态:21740,动态:21753,动态:21763,动态:7746,动态:21857,动态:22667,动态:22699,动态:22696,动态:22698,动态:22659,动态:17337,动态:20439,动态:21756,动态:21556,动态:22323,动态:21757,动态:21436,动态:22146,动态:22706,动态:21745,动态:21975,动态:22507,动态:20399,动态:21972,动态:21727,动态:20720,动态:22688,动态:21741,动态:22684</t>
+          <t>动态:21727,动态:22146,动态:17337,动态:21745,动态:21737,动态:22667,动态:22659,动态:20364,动态:22699,动态:22685,动态:22697,动态:21780,动态:22710,动态:22688,动态:21776,动态:21975,动态:22684,动态:21763,动态:22702,动态:20440,动态:22512,动态:21741,动态:21972,动态:20399,动态:22696,动态:20439,动态:7746,动态:22692,动态:20720,动态:21753,动态:22507,动态:22698,动态:21556,动态:21740,动态:4036,动态:21857,动态:21757,动态:21436,动态:22706,动态:21756,动态:22323</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>动态:22706,动态:21753,动态:20399,动态:21756,动态:21975,动态:7746,动态:21780,动态:22696,动态:21740,动态:4036,动态:22019,动态:22688,动态:22507,动态:20439,动态:21436,动态:22699,动态:21857,动态:22667,动态:20440,动态:22323,动态:22692,动态:20364,动态:17337,动态:22680,动态:22659,动态:22512,动态:21757,动态:22697,动态:22684,动态:21972,动态:21763,动态:22146,动态:22698,动态:22710,动态:21745,动态:21727,动态:21737,动态:21776,动态:21556,动态:22685,动态:22702,动态:21741,动态:20720</t>
+          <t>动态:21857,动态:20720,动态:21776,动态:22696,动态:21972,动态:22507,动态:22702,动态:20364,动态:22323,动态:21740,动态:22698,动态:21753,动态:17337,动态:22685,动态:22667,动态:21780,动态:21745,动态:21737,动态:20399,动态:22146,动态:7746,动态:22699,动态:4036,动态:22688,动态:20440,动态:22692,动态:21757,动态:22680,动态:21975,动态:21436,动态:22710,动态:21763,动态:21741,动态:21756,动态:21727,动态:22684,动态:22512,动态:22697,动态:21556,动态:22706,动态:22659,动态:22019,动态:20439</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>动态:21840,动态:22650,动态:22633,动态:22622,动态:22294,动态:22296,动态:21661,动态:21675,动态:21763,动态:22692,动态:22699,动态:22659,动态:7746,动态:21737,动态:22710,动态:22684,动态:22323,动态:21740,动态:21727,动态:21757,动态:21436,动态:4036,动态:17337,动态:20720,动态:21776,动态:22512,动态:22702,动态:21857,动态:22706,动态:22680,动态:22019,动态:21972,动态:20440,动态:21975,动态:22667,动态:21756,动态:22507,动态:20399,动态:22146,动态:21556,动态:21780,动态:22698,动态:20364,动态:21753,动态:22697,动态:21745,动态:22688,动态:21741,动态:22685,动态:20439</t>
+          <t>动态:21840,动态:22650,动态:22633,动态:22622,动态:22294,动态:22296,动态:21661,动态:21675,动态:21740,动态:21727,动态:22710,动态:22692,动态:22323,动态:21745,动态:22706,动态:21753,动态:22146,动态:21763,动态:4036,动态:21975,动态:20399,动态:22696,动态:20720,动态:21741,动态:21780,动态:21757,动态:21737,动态:22698,动态:22680,动态:21556,动态:17337,动态:7746,动态:21776,动态:20439,动态:20440,动态:21756,动态:20364,动态:22688,动态:21436,动态:22659,动态:22699,动态:22697,动态:21972,动态:21857,动态:22667,动态:22507,动态:22019,动态:22684,动态:22512,动态:22702</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>动态:21757,动态:21763,动态:22698,动态:21737,动态:20720,动态:21780,动态:22512,动态:22507,动态:22146,动态:22659,动态:22697,动态:21753,动态:21741,动态:22692,动态:22702,动态:22685,动态:20364,动态:22699,动态:22706,动态:21727,动态:21745,动态:21436,动态:21972,动态:17337,动态:22019,动态:21857,动态:21776,动态:22696,动态:7746,动态:22684,动态:20439,动态:4036,动态:21740,动态:21975,动态:22680,动态:22688,动态:20440,动态:21556,动态:22667,动态:21756,动态:22323,动态:20399,动态:22710</t>
+          <t>动态:20440,动态:22667,动态:22659,动态:22685,动态:20720,动态:21763,动态:21740,动态:22697,动态:22019,动态:22323,动态:22688,动态:21436,动态:21757,动态:21776,动态:22702,动态:22706,动态:21727,动态:22512,动态:22684,动态:21975,动态:22699,动态:4036,动态:20399,动态:20439,动态:22696,动态:22710,动态:22680,动态:21780,动态:21753,动态:22146,动态:17337,动态:21737,动态:22698,动态:7746,动态:22692,动态:21741,动态:21556,动态:22507,动态:21972,动态:21756,动态:21745,动态:21857,动态:20364</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>动态:22507,动态:21741,动态:22019,动态:21857,动态:22685,动态:21436,动态:17337,动态:21757,动态:20439,动态:22697,动态:21780,动态:22323,动态:22692,动态:22659,动态:20440,动态:22710,动态:21727,动态:7746,动态:22667,动态:21972,动态:22698,动态:22699,动态:21753,动态:22512,动态:22684,动态:4036,动态:22680,动态:21556,动态:21776,动态:20364,动态:20399,动态:22706,动态:21737,动态:21756,动态:21745,动态:22696,动态:21763,动态:21740,动态:20720,动态:21975</t>
+          <t>动态:21740,动态:22697,动态:21975,动态:17337,动态:22680,动态:21776,动态:20440,动态:21556,动态:21756,动态:22706,动态:22684,动态:21757,动态:22019,动态:21972,动态:22692,动态:22512,动态:20439,动态:20399,动态:22699,动态:22507,动态:22685,动态:21763,动态:22710,动态:22696,动态:21436,动态:21753,动态:22698,动态:20720,动态:21780,动态:21745,动态:22659,动态:20364,动态:22323,动态:21857,动态:21727,动态:21741,动态:22667,动态:7746,动态:4036,动态:21737</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>动态:20720,动态:22659,动态:22696,动态:22507,动态:21857,动态:20399,动态:20440,动态:21776,动态:22019,动态:22146,动态:20364,动态:22698,动态:22684,动态:22323,动态:22680,动态:17337,动态:7746,动态:21737,动态:21780,动态:20439,动态:21436,动态:21556,动态:21741,动态:21745,动态:21757,动态:22697,动态:4036,动态:22688,动态:21740,动态:21756,动态:21975,动态:21763,动态:21727,动态:22699,动态:22692,动态:22685,动态:22512,动态:21753,动态:22706,动态:22702,动态:22710,动态:21972,动态:22667</t>
+          <t>动态:20399,动态:21727,动态:21556,动态:22323,动态:21753,动态:22698,动态:22659,动态:21780,动态:22692,动态:20440,动态:7746,动态:20720,动态:22680,动态:21741,动态:22146,动态:21745,动态:21857,动态:22019,动态:21975,动态:21763,动态:22706,动态:22696,动态:21757,动态:21972,动态:22684,动态:22702,动态:22507,动态:4036,动态:22685,动态:21756,动态:22710,动态:20364,动态:21776,动态:22667,动态:22699,动态:22688,动态:22512,动态:21737,动态:21436,动态:17337,动态:22697,动态:20439,动态:21740</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>动态:22323,动态:21753,动态:22512,动态:22507,动态:20364,动态:20440,动态:20439,动态:22696,动态:22702,动态:21737,动态:22699,动态:21727,动态:22019,动态:17337,动态:22692,动态:22680,动态:22659,动态:4036,动态:21972,动态:21745,动态:7746,动态:22685,动态:21741,动态:21756,动态:20720,动态:21857,动态:20399,动态:21780,动态:21763,动态:21556,动态:22710,动态:21776,动态:22688,动态:21740,动态:22146,动态:22698,动态:21757,动态:22697,动态:22684,动态:21436,动态:21975,动态:22667</t>
+          <t>动态:22667,动态:21740,动态:22688,动态:21776,动态:22659,动态:22146,动态:21745,动态:22684,动态:21975,动态:22680,动态:20720,动态:22698,动态:21763,动态:22696,动态:22699,动态:22507,动态:21727,动态:21741,动态:20439,动态:22692,动态:22702,动态:20364,动态:4036,动态:21756,动态:7746,动态:22323,动态:22019,动态:21972,动态:21556,动态:21436,动态:21753,动态:21737,动态:22685,动态:21757,动态:21780,动态:22512,动态:22697,动态:17337,动态:20440,动态:22710,动态:20399,动态:21857</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>动态:22323,动态:22019,动态:20399,动态:22706,动态:21745,动态:22688,动态:21556,动态:22697,动态:22507,动态:21857,动态:22698,动态:21776,动态:4036,动态:21972,动态:20440,动态:22710,动态:21737,动态:20720,动态:22699,动态:22696,动态:22702,动态:22146,动态:21780,动态:20439,动态:21727,动态:21741,动态:21763,动态:21975,动态:21757,动态:22692,动态:22685,动态:20364,动态:7746,动态:21740,动态:22684,动态:17337,动态:21756,动态:22680,动态:21753,动态:21436</t>
+          <t>动态:22684,动态:21436,动态:20399,动态:21763,动态:22696,动态:22710,动态:22697,动态:20364,动态:22685,动态:21857,动态:21757,动态:21740,动态:22698,动态:21741,动态:22702,动态:21975,动态:22019,动态:21780,动态:20720,动态:22688,动态:22323,动态:22706,动态:21737,动态:22507,动态:21756,动态:20440,动态:22146,动态:21972,动态:4036,动态:22692,动态:21745,动态:7746,动态:17337,动态:22699,动态:21753,动态:21727,动态:20439,动态:21556,动态:22680,动态:21776</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>动态:22512,动态:21745,动态:21763,动态:21556,动态:22697,动态:22019,动态:20439,动态:20720,动态:22685,动态:21727,动态:22507,动态:22710,动态:22692,动态:21776,动态:17337,动态:20440,动态:20364,动态:21756,动态:21737,动态:21753,动态:22699,动态:22696,动态:22323,动态:21857,动态:22659,动态:22706,动态:22698,动态:21780,动态:20399,动态:4036,动态:7746,动态:22146,动态:21972,动态:21757,动态:21741,动态:21436,动态:22702,动态:21740,动态:22680</t>
+          <t>动态:17337,动态:20440,动态:21756,动态:21757,动态:20399,动态:22697,动态:21776,动态:4036,动态:21740,动态:21737,动态:21556,动态:22680,动态:22698,动态:20720,动态:22710,动态:22692,动态:20364,动态:21727,动态:21741,动态:22696,动态:22512,动态:7746,动态:22706,动态:22702,动态:21753,动态:20439,动态:22685,动态:21745,动态:22019,动态:21780,动态:21972,动态:21436,动态:22323,动态:22507,动态:21857,动态:22659,动态:21763,动态:22146,动态:22699</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>动态:22323,动态:17337,动态:21975,动态:22680,动态:4036,动态:22688,动态:22697,动态:21756,动态:21763,动态:21776,动态:21780,动态:21753,动态:21745,动态:21972,动态:21857,动态:21556,动态:22710,动态:22684,动态:20720,动态:22667,动态:21757,动态:20399,动态:21727,动态:21436,动态:22146,动态:20440,动态:20439,动态:22698,动态:21741,动态:22706,动态:21740,动态:22702,动态:22696,动态:22507,动态:21737,动态:22512,动态:7746,动态:22019,动态:22685,动态:22699,动态:22692,动态:20364,动态:22659</t>
+          <t>动态:22019,动态:22667,动态:22659,动态:22146,动态:21972,动态:22696,动态:4036,动态:22507,动态:21741,动态:21756,动态:22684,动态:22698,动态:22680,动态:21740,动态:17337,动态:22710,动态:22685,动态:21745,动态:21757,动态:21776,动态:21753,动态:22702,动态:7746,动态:22692,动态:21737,动态:20439,动态:22688,动态:21975,动态:22323,动态:20720,动态:21780,动态:22512,动态:21727,动态:20440,动态:22706,动态:22699,动态:22697,动态:21436,动态:21556,动态:21857,动态:20364,动态:20399,动态:21763</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>动态:21436,动态:22692,动态:21741,动态:21756,动态:22512,动态:21745,动态:21740,动态:22710,动态:22019,动态:22696,动态:20440,动态:20439,动态:21780,动态:22507,动态:21776,动态:21753,动态:20720,动态:21857,动态:21975,动态:21727,动态:22685,动态:21757,动态:21737,动态:21972,动态:22706,动态:21763,动态:22699,动态:4036,动态:22680,动态:17337,动态:22659,动态:20364,动态:22146,动态:22698,动态:22688,动态:22667,动态:7746,动态:22323,动态:20399,动态:21556,动态:22697</t>
+          <t>动态:22512,动态:22019,动态:20364,动态:22696,动态:22685,动态:21436,动态:20720,动态:7746,动态:22323,动态:22710,动态:22659,动态:21780,动态:17337,动态:21727,动态:22692,动态:21756,动态:22697,动态:21975,动态:20439,动态:21857,动态:20399,动态:21745,动态:21757,动态:22507,动态:21972,动态:22699,动态:22698,动态:4036,动态:22146,动态:21741,动态:22688,动态:22667,动态:21776,动态:21763,动态:21740,动态:22680,动态:21556,动态:20440,动态:21737,动态:21753,动态:22706</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>动态:22710,动态:22667,动态:21757,动态:21972,动态:22698,动态:21436,动态:20440,动态:20720,动态:22512,动态:4036,动态:22688,动态:22680,动态:21975,动态:21741,动态:22507,动态:21740,动态:17337,动态:22685,动态:20399,动态:20364,动态:22146,动态:21737,动态:21556,动态:22699,动态:7746,动态:22692,动态:21753,动态:21776,动态:20439,动态:21763,动态:21727,动态:21756,动态:22696,动态:21745,动态:22323,动态:21780,动态:22659,动态:22706,动态:21857,动态:22019,动态:22697,动态:22702,动态:22684</t>
+          <t>动态:22688,动态:21753,动态:21757,动态:20439,动态:22680,动态:22684,动态:22706,动态:21780,动态:21756,动态:22659,动态:21741,动态:22146,动态:21737,动态:21745,动态:22692,动态:21727,动态:22512,动态:21556,动态:22323,动态:22699,动态:22685,动态:20399,动态:22697,动态:21740,动态:21776,动态:22507,动态:20364,动态:20720,动态:21436,动态:22710,动态:21975,动态:22698,动态:7746,动态:22696,动态:22019,动态:4036,动态:21972,动态:22667,动态:17337,动态:22702,动态:21857,动态:20440,动态:21763</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>动态:20364,动态:22680,动态:21972,动态:21556,动态:21975,动态:20439,动态:22323,动态:4036,动态:21740,动态:21780,动态:21756,动态:20720,动态:22696,动态:22507,动态:21745,动态:17337,动态:20399,动态:21776,动态:22685,动态:22659,动态:21753,动态:21763,动态:7746,动态:22706,动态:21741,动态:21857,动态:22692,动态:20440,动态:22698,动态:21757,动态:21727,动态:21737,动态:21436,动态:22697,动态:22667,动态:22019,动态:22684,动态:22699,动态:22702</t>
+          <t>动态:22697,动态:21776,动态:21745,动态:22696,动态:22698,动态:22699,动态:20440,动态:17337,动态:21756,动态:22507,动态:21972,动态:22659,动态:4036,动态:21975,动态:22706,动态:21737,动态:21763,动态:20720,动态:7746,动态:20399,动态:21753,动态:21757,动态:22019,动态:20439,动态:22685,动态:21780,动态:22323,动态:22702,动态:22684,动态:21556,动态:20364,动态:22692,动态:22680,动态:21436,动态:21857,动态:21727,动态:21740,动态:22667,动态:21741</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>动态:21763,动态:21556,动态:22019,动态:22696,动态:21741,动态:20720,动态:21975,动态:21436,动态:22699,动态:21745,动态:22706,动态:4036,动态:20364,动态:22688,动态:22685,动态:22659,动态:22667,动态:22680,动态:21737,动态:21740,动态:17337,动态:7746,动态:21756,动态:22507,动态:22697,动态:21776,动态:20399,动态:20440,动态:21972,动态:22692,动态:21727,动态:22146,动态:22710,动态:22684,动态:21780,动态:20439,动态:21857,动态:21753,动态:21757</t>
+          <t>动态:22659,动态:21756,动态:20439,动态:4036,动态:21753,动态:22507,动态:22699,动态:20399,动态:21975,动态:17337,动态:22667,动态:21780,动态:20720,动态:21763,动态:21436,动态:21727,动态:22710,动态:7746,动态:21556,动态:22688,动态:21737,动态:22146,动态:21857,动态:21740,动态:21741,动态:22685,动态:21757,动态:20440,动态:22019,动态:22692,动态:21745,动态:22684,动态:20364,动态:22696,动态:21776,动态:22680,动态:22697,动态:22706,动态:21972</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>动态:22702,动态:22512,动态:21556,动态:21776,动态:22692,动态:22667,动态:22146,动态:22507,动态:21727,动态:22019,动态:20439,动态:21757,动态:4036,动态:20440,动态:22699,动态:17337,动态:21741,动态:22710,动态:21756,动态:20399,动态:22685,动态:21753,动态:21436,动态:7746,动态:21740,动态:22659,动态:21780,动态:21975,动态:21763,动态:22698,动态:21857,动态:21737,动态:22706,动态:20720,动态:21745,动态:22680,动态:22696,动态:22697,动态:20364,动态:22688,动态:22323,动态:21972</t>
+          <t>动态:22706,动态:22685,动态:21436,动态:20439,动态:21757,动态:7746,动态:21763,动态:21556,动态:20364,动态:22692,动态:22659,动态:21737,动态:22696,动态:22507,动态:22146,动态:21972,动态:22688,动态:22710,动态:21780,动态:4036,动态:21727,动态:22323,动态:21745,动态:21857,动态:22019,动态:22667,动态:22702,动态:22699,动态:20440,动态:22512,动态:21753,动态:17337,动态:20399,动态:21975,动态:22680,动态:21776,动态:21741,动态:21740,动态:22698,动态:21756,动态:22697,动态:20720</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>动态:20720,动态:22696,动态:22698,动态:22512,动态:20399,动态:22323,动态:21740,动态:7746,动态:22706,动态:21753,动态:21857,动态:22019,动态:22667,动态:22710,动态:22702,动态:21756,动态:21776,动态:22684,动态:17337,动态:21436,动态:22680,动态:22685,动态:22697,动态:22659,动态:20364,动态:20440,动态:21745,动态:20439,动态:21737,动态:21727,动态:22699,动态:21757,动态:4036,动态:21975,动态:21780,动态:21741,动态:21763,动态:21556,动态:22688,动态:22692,动态:21972,动态:22507</t>
+          <t>动态:21780,动态:22699,动态:21741,动态:22697,动态:22512,动态:17337,动态:22696,动态:22706,动态:21737,动态:20720,动态:22685,动态:22507,动态:21975,动态:20364,动态:20399,动态:21727,动态:22659,动态:21757,动态:21740,动态:22702,动态:22692,动态:22688,动态:22680,动态:22667,动态:21763,动态:21756,动态:21776,动态:4036,动态:21436,动态:21972,动态:21857,动态:22019,动态:7746,动态:20440,动态:22684,动态:21556,动态:22698,动态:22323,动态:21745,动态:20439,动态:21753,动态:22710</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>动态:7746,动态:20720,动态:22323,动态:22698,动态:22667,动态:21757,动态:22685,动态:22697,动态:22019,动态:22659,动态:21741,动态:21763,动态:22702,动态:22684,动态:22507,动态:22146,动态:21556,动态:21780,动态:21753,动态:21740,动态:21972,动态:21745,动态:22680,动态:20399,动态:22692,动态:21436,动态:21737,动态:21727,动态:22688,动态:17337,动态:21857,动态:4036,动态:22699,动态:21756,动态:21975,动态:22696,动态:22706,动态:20440,动态:22710,动态:21776,动态:22512,动态:20364,动态:20439</t>
+          <t>动态:22507,动态:20440,动态:22702,动态:22696,动态:20399,动态:21753,动态:22710,动态:22659,动态:21740,动态:21436,动态:22699,动态:22688,动态:20364,动态:21737,动态:21780,动态:22019,动态:22512,动态:21975,动态:21556,动态:22323,动态:17337,动态:22692,动态:4036,动态:21857,动态:21972,动态:20439,动态:22680,动态:20720,动态:7746,动态:22684,动态:21756,动态:22146,动态:21763,动态:21757,动态:22667,动态:21741,动态:21745,动态:21776,动态:22697,动态:22706,动态:22698,动态:21727,动态:22685</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>动态:22698,动态:21556,动态:22685,动态:22699,动态:20720,动态:20399,动态:22688,动态:21757,动态:21763,动态:21776,动态:21737,动态:20440,动态:21857,动态:21741,动态:22706,动态:21975,动态:22667,动态:22702,动态:21753,动态:21972,动态:21745,动态:22323,动态:20364,动态:22659,动态:21756,动态:22684,动态:22697,动态:21727,动态:22710,动态:22019,动态:22512,动态:22146,动态:7746,动态:21740,动态:4036,动态:22696,动态:21436,动态:22507,动态:22680,动态:21780,动态:22692,动态:17337,动态:20439</t>
+          <t>动态:22696,动态:7746,动态:22702,动态:21556,动态:22680,动态:21727,动态:22688,动态:21972,动态:22692,动态:21763,动态:17337,动态:21857,动态:20439,动态:21780,动态:20364,动态:21436,动态:20440,动态:4036,动态:22659,动态:22512,动态:21776,动态:22667,动态:21740,动态:21753,动态:22697,动态:22685,动态:22699,动态:22507,动态:22146,动态:22698,动态:22710,动态:22684,动态:21757,动态:21741,动态:22019,动态:21756,动态:22706,动态:21745,动态:22323,动态:21737,动态:21975,动态:20720,动态:20399</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>动态:22699,动态:22702,动态:22698,动态:20720,动态:21753,动态:22680,动态:22507,动态:20364,动态:22697,动态:22019,动态:21757,动态:21780,动态:21737,动态:17337,动态:22146,动态:21745,动态:22696,动态:22512,动态:20440,动态:22323,动态:21857,动态:22706,动态:21556,动态:20399,动态:21756,动态:22659,动态:21972,动态:7746,动态:21975,动态:22692,动态:22684,动态:21436,动态:22688,动态:22667,动态:21776,动态:22710,动态:21741,动态:21740,动态:4036,动态:21763,动态:20439,动态:21727</t>
+          <t>动态:21741,动态:21763,动态:21737,动态:22699,动态:22680,动态:21740,动态:22697,动态:17337,动态:22323,动态:21556,动态:22507,动态:22019,动态:22667,动态:21776,动态:22146,动态:21857,动态:21757,动态:21756,动态:22512,动态:22688,动态:4036,动态:22706,动态:22692,动态:22659,动态:21745,动态:21975,动态:22684,动态:21780,动态:22702,动态:20439,动态:20440,动态:21727,动态:22696,动态:20364,动态:22698,动态:20720,动态:22710,动态:20399,动态:21753,动态:21436,动态:7746,动态:21972</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>动态:22685,动态:22696,动态:22684,动态:22019,动态:21740,动态:22680,动态:21556,动态:21741,动态:21436,动态:22507,动态:7746,动态:22699,动态:21975,动态:20399,动态:22698,动态:22146,动态:21753,动态:21757,动态:21727,动态:22710,动态:22706,动态:21776,动态:22702,动态:22667,动态:21745,动态:17337,动态:4036,动态:21972,动态:20439,动态:21780,动态:22323,动态:22688,动态:20364,动态:22512,动态:20720,动态:21857,动态:21737,动态:20440,动态:22697,动态:22692,动态:21763,动态:21756</t>
+          <t>动态:22019,动态:4036,动态:21780,动态:22692,动态:7746,动态:21972,动态:21776,动态:22702,动态:22507,动态:22685,动态:22667,动态:22512,动态:22323,动态:21740,动态:20399,动态:21763,动态:21741,动态:21556,动态:22706,动态:22680,动态:20364,动态:21756,动态:22710,动态:22697,动态:21975,动态:22684,动态:21727,动态:21436,动态:21737,动态:21857,动态:22698,动态:20439,动态:22688,动态:21745,动态:21757,动态:20440,动态:22696,动态:20720,动态:22699,动态:22146,动态:17337,动态:21753</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>动态:22702,动态:21741,动态:20440,动态:21727,动态:21745,动态:22685,动态:4036,动态:21975,动态:22146,动态:21857,动态:21556,动态:22688,动态:21737,动态:22667,动态:21776,动态:21763,动态:21753,动态:22697,动态:21972,动态:21436,动态:20720,动态:17337,动态:22706,动态:22659,动态:21757,动态:22692,动态:22019,动态:22512,动态:20439,动态:7746,动态:22680,动态:21756,动态:22699,动态:20399,动态:20364,动态:22507,动态:22698,动态:22323,动态:21740,动态:21780,动态:22684</t>
+          <t>动态:21741,动态:21753,动态:21972,动态:22697,动态:21776,动态:22019,动态:22706,动态:22699,动态:22146,动态:22684,动态:22667,动态:22688,动态:20720,动态:21763,动态:21556,动态:22507,动态:20440,动态:22323,动态:22659,动态:22512,动态:22692,动态:21745,动态:20364,动态:21727,动态:21756,动态:4036,动态:21857,动态:21737,动态:7746,动态:22685,动态:21740,动态:22680,动态:22698,动态:21780,动态:17337,动态:22702,动态:21975,动态:20439,动态:21757,动态:21436,动态:20399</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>动态:22019,动态:22146,动态:22512,动态:22685,动态:22692,动态:21737,动态:21741,动态:21745,动态:22706,动态:22710,动态:22696,动态:22698,动态:21740,动态:20440,动态:21753,动态:22667,动态:20364,动态:22659,动态:21756,动态:22702,动态:4036,动态:22507,动态:21556,动态:21975,动态:20399,动态:21776,动态:22699,动态:21757,动态:21857,动态:22323,动态:7746,动态:22697,动态:21763,动态:21972,动态:20720,动态:17337,动态:22684,动态:22680,动态:21780,动态:21436,动态:22688,动态:20439,动态:21727</t>
+          <t>动态:20440,动态:20720,动态:21737,动态:20439,动态:21776,动态:22667,动态:21753,动态:21556,动态:21975,动态:22512,动态:22688,动态:22692,动态:21745,动态:22685,动态:21741,动态:21763,动态:22706,动态:21757,动态:22699,动态:7746,动态:21740,动态:22710,动态:22146,动态:4036,动态:20364,动态:22684,动态:22659,动态:21727,动态:22019,动态:21780,动态:22323,动态:17337,动态:20399,动态:21756,动态:22696,动态:21436,动态:21857,动态:21972,动态:22697,动态:22698,动态:22702,动态:22507,动态:22680</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>动态:21436,动态:20364,动态:20440,动态:21740,动态:22684,动态:7746,动态:21857,动态:21763,动态:21737,动态:21727,动态:22019,动态:21975,动态:22685,动态:20439,动态:21780,动态:22667,动态:22706,动态:22680,动态:4036,动态:22698,动态:21756,动态:21972,动态:22702,动态:22696,动态:20720,动态:22699,动态:21745,动态:21753,动态:21757,动态:20399,动态:22659,动态:22146,动态:22710,动态:22688,动态:22697,动态:22507,动态:17337,动态:22692,动态:22323,动态:22512,动态:21776,动态:21741,动态:21556</t>
+          <t>动态:22507,动态:22512,动态:22323,动态:22702,动态:22699,动态:7746,动态:21776,动态:21556,动态:21757,动态:21763,动态:20439,动态:21745,动态:20399,动态:22697,动态:21436,动态:22698,动态:22146,动态:22710,动态:21727,动态:22692,动态:22680,动态:22706,动态:17337,动态:21741,动态:22685,动态:22659,动态:21737,动态:22696,动态:4036,动态:21753,动态:21756,动态:20440,动态:20720,动态:22019,动态:22667,动态:21972,动态:21780,动态:22684,动态:20364,动态:21975,动态:21740,动态:22688,动态:21857</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>动态:22692,动态:21741,动态:22323,动态:22512,动态:21776,动态:22680,动态:22019,动态:22696,动态:21972,动态:22699,动态:21745,动态:22702,动态:21436,动态:22697,动态:21737,动态:7746,动态:20439,动态:21780,动态:22146,动态:20399,动态:20364,动态:20440,动态:22688,动态:21740,动态:21556,动态:22710,动态:22684,动态:21727,动态:22659,动态:21975,动态:22667,动态:21753,动态:22706,动态:22507,动态:21857,动态:22698,动态:4036,动态:17337,动态:20720,动态:22685,动态:21756,动态:21757,动态:21763</t>
+          <t>动态:22507,动态:20364,动态:21780,动态:22667,动态:22698,动态:22659,动态:21737,动态:22512,动态:21727,动态:7746,动态:22699,动态:22697,动态:17337,动态:21436,动态:22680,动态:21857,动态:21763,动态:21972,动态:22706,动态:22323,动态:21757,动态:20720,动态:22684,动态:22019,动态:21975,动态:21556,动态:21745,动态:22702,动态:22692,动态:21740,动态:20440,动态:21741,动态:22696,动态:21753,动态:20399,动态:20439,动态:22146,动态:21756,动态:22710,动态:4036,动态:21776,动态:22688,动态:22685</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>动态:22688,动态:21972,动态:20364,动态:22710,动态:22146,动态:22699,动态:20399,动态:21975,动态:20720,动态:21780,动态:22685,动态:22706,动态:22702,动态:22692,动态:21756,动态:22696,动态:21776,动态:21556,动态:21737,动态:22697,动态:21741,动态:21757,动态:7746,动态:21745,动态:4036,动态:22323,动态:22698,动态:17337,动态:21727,动态:21753,动态:21857,动态:22019,动态:20439,动态:22507,动态:22680,动态:22512,动态:21740,动态:22667,动态:21436,动态:21763,动态:22659,动态:22684,动态:20440</t>
+          <t>动态:21737,动态:20399,动态:22698,动态:21763,动态:21753,动态:21436,动态:4036,动态:22019,动态:22702,动态:22697,动态:22507,动态:22710,动态:22512,动态:20364,动态:21780,动态:20439,动态:21556,动态:22146,动态:22659,动态:22706,动态:21741,动态:21740,动态:20720,动态:21757,动态:17337,动态:22667,动态:21857,动态:21972,动态:7746,动态:21776,动态:21975,动态:22699,动态:21756,动态:21727,动态:22323,动态:21745,动态:22688,动态:22685,动态:22680,动态:22696,动态:22684,动态:22692,动态:20440</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>动态:22667,动态:20364,动态:20439,动态:21556,动态:21776,动态:21757,动态:22512,动态:21975,动态:22019,动态:22146,动态:22697,动态:21780,动态:21972,动态:21737,动态:22692,动态:21753,动态:21727,动态:22507,动态:20440,动态:22698,动态:21741,动态:17337,动态:22696,动态:7746,动态:21745,动态:22680,动态:20399,动态:22659,动态:21436,动态:20720,动态:22710,动态:22706,动态:22684,动态:21763,动态:22702,动态:4036,动态:21740,动态:21857,动态:21756,动态:22699,动态:22685,动态:22688</t>
+          <t>动态:22702,动态:7746,动态:21740,动态:22698,动态:22685,动态:22680,动态:22667,动态:20440,动态:21756,动态:21857,动态:22697,动态:21745,动态:21753,动态:20399,动态:20364,动态:21727,动态:17337,动态:21741,动态:22706,动态:21436,动态:21776,动态:20720,动态:21763,动态:20439,动态:22019,动态:22699,动态:22696,动态:21757,动态:22684,动态:21556,动态:4036,动态:21975,动态:22507,动态:22512,动态:21780,动态:22692,动态:22710,动态:22659,动态:21972,动态:21737,动态:22688,动态:22146</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>动态:22685,动态:21857,动态:22706,动态:20440,动态:21556,动态:22688,动态:21740,动态:22019,动态:21753,动态:22710,动态:21745,动态:22699,动态:22667,动态:22702,动态:22696,动态:20364,动态:21727,动态:21776,动态:22680,动态:22684,动态:22146,动态:22659,动态:20720,动态:21972,动态:17337,动态:22697,动态:21975,动态:7746,动态:22692,动态:21756,动态:21737,动态:20439,动态:21436,动态:4036,动态:20399,动态:22323,动态:21780,动态:21757,动态:21763,动态:21741,动态:22507</t>
+          <t>动态:22706,动态:22507,动态:21972,动态:21756,动态:22323,动态:22019,动态:17337,动态:20720,动态:21740,动态:22696,动态:21757,动态:22684,动态:22710,动态:20439,动态:4036,动态:20399,动态:21556,动态:22699,动态:22702,动态:22667,动态:22146,动态:21975,动态:22659,动态:22680,动态:21753,动态:22692,动态:21776,动态:22688,动态:21857,动态:20364,动态:21737,动态:21763,动态:21436,动态:21727,动态:22685,动态:7746,动态:21780,动态:20440,动态:21741,动态:22697,动态:21745</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>动态:21737,动态:20364,动态:22702,动态:22710,动态:21436,动态:22667,动态:22684,动态:22697,动态:17337,动态:22706,动态:21975,动态:22323,动态:21741,动态:21740,动态:21780,动态:21753,动态:21556,动态:22685,动态:21857,动态:22680,动态:21776,动态:22696,动态:22699,动态:20399,动态:7746,动态:22019,动态:21763,动态:22512,动态:22507,动态:21757,动态:22659,动态:21972,动态:22688,动态:20720,动态:22692,动态:22146,动态:21727,动态:21756,动态:22698,动态:21745,动态:20440,动态:20439,动态:4036</t>
+          <t>动态:22696,动态:22512,动态:7746,动态:21757,动态:20440,动态:20364,动态:22710,动态:21972,动态:21763,动态:22680,动态:22019,动态:22659,动态:22507,动态:21780,动态:22702,动态:21436,动态:21857,动态:21776,动态:21756,动态:20720,动态:22146,动态:22667,动态:22699,动态:4036,动态:22692,动态:20399,动态:22688,动态:21975,动态:21737,动态:22685,动态:21741,动态:22698,动态:22706,动态:22684,动态:21740,动态:21556,动态:17337,动态:21745,动态:21753,动态:22697,动态:22323,动态:20439,动态:21727</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>动态:22684,动态:21857,动态:21763,动态:22019,动态:22146,动态:4036,动态:21780,动态:22692,动态:22699,动态:22659,动态:22667,动态:21745,动态:22702,动态:21756,动态:21972,动态:22698,动态:21737,动态:22710,动态:21436,动态:20364,动态:20399,动态:21556,动态:7746,动态:21740,动态:20440,动态:22697,动态:21753,动态:22688,动态:21757,动态:20439,动态:22696,动态:22685,动态:22512,动态:20720,动态:21975,动态:22680,动态:17337,动态:21727,动态:22323,动态:21776,动态:21741,动态:22706</t>
+          <t>动态:22699,动态:20720,动态:21757,动态:21763,动态:21857,动态:21727,动态:22019,动态:22323,动态:22692,动态:21737,动态:21975,动态:20440,动态:22710,动态:21753,动态:22688,动态:21745,动态:22702,动态:20364,动态:7746,动态:22659,动态:22697,动态:20439,动态:20399,动态:22667,动态:22698,动态:21436,动态:21741,动态:21776,动态:22685,动态:21556,动态:17337,动态:22146,动态:22512,动态:4036,动态:21780,动态:21972,动态:21756,动态:22706,动态:22680,动态:21740,动态:22684,动态:22696</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>动态:21972,动态:21757,动态:22696,动态:21745,动态:21727,动态:22684,动态:20439,动态:22697,动态:22667,动态:20720,动态:22710,动态:22507,动态:20364,动态:22659,动态:22699,动态:22698,动态:21556,动态:21857,动态:7746,动态:21436,动态:22512,动态:22688,动态:22685,动态:21975,动态:21780,动态:22019,动态:22323,动态:22702,动态:21756,动态:22146,动态:22706,动态:21737,动态:22680,动态:21776,动态:20399,动态:17337,动态:21741,动态:22692,动态:21753,动态:21740,动态:21763,动态:4036,动态:20440</t>
+          <t>动态:21757,动态:21776,动态:22710,动态:22692,动态:22688,动态:21727,动态:21780,动态:22699,动态:20720,动态:22702,动态:21737,动态:21741,动态:22019,动态:22680,动态:22507,动态:22684,动态:7746,动态:20364,动态:22696,动态:22146,动态:22706,动态:21756,动态:22685,动态:22697,动态:20440,动态:17337,动态:21753,动态:21745,动态:22698,动态:20439,动态:20399,动态:21763,动态:22323,动态:22659,动态:22667,动态:22512,动态:4036,动态:21857,动态:21740,动态:21556,动态:21975,动态:21436,动态:21972</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>动态:21975,动态:21757,动态:21857,动态:4036,动态:20364,动态:21763,动态:17337,动态:22685,动态:22706,动态:21745,动态:21756,动态:22696,动态:21727,动态:21436,动态:20399,动态:21972,动态:22710,动态:21780,动态:22512,动态:20440,动态:22698,动态:22699,动态:22323,动态:21741,动态:22667,动态:22019,动态:21737,动态:22688,动态:20720,动态:22702,动态:22692,动态:7746,动态:21753,动态:21776,动态:20439,动态:22146,动态:21740,动态:22507,动态:22697,动态:22684,动态:22659,动态:21556,动态:22680</t>
+          <t>动态:21780,动态:21756,动态:22019,动态:20439,动态:22659,动态:21763,动态:20399,动态:22706,动态:22697,动态:20720,动态:21972,动态:22684,动态:22507,动态:22699,动态:22685,动态:22146,动态:22710,动态:21740,动态:21737,动态:20440,动态:21975,动态:22680,动态:22688,动态:22696,动态:4036,动态:21727,动态:21556,动态:21436,动态:21857,动态:22512,动态:7746,动态:21776,动态:21741,动态:20364,动态:21753,动态:17337,动态:22667,动态:22698,动态:22702,动态:21757,动态:22323,动态:22692,动态:21745</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>动态:21763,动态:21741,动态:20439,动态:21556,动态:22699,动态:20720,动态:4036,动态:22696,动态:20440,动态:21740,动态:21780,动态:22702,动态:22697,动态:22680,动态:20364,动态:21757,动态:22512,动态:22323,动态:21727,动态:22659,动态:21776,动态:21737,动态:22019,动态:21975,动态:22688,动态:22692,动态:21436,动态:22507,动态:22698,动态:21745,动态:7746,动态:22706,动态:21753,动态:17337,动态:20399,动态:21972,动态:22146,动态:21857,动态:22667,动态:22710,动态:22684,动态:21756,动态:22685</t>
+          <t>动态:7746,动态:22697,动态:21737,动态:21972,动态:20364,动态:20440,动态:21740,动态:22684,动态:21727,动态:22699,动态:22507,动态:21556,动态:21753,动态:22323,动态:21745,动态:22710,动态:22659,动态:21757,动态:22019,动态:22706,动态:21780,动态:20439,动态:22688,动态:21436,动态:22667,动态:22680,动态:4036,动态:21763,动态:17337,动态:22146,动态:22698,动态:20720,动态:20399,动态:22702,动态:21975,动态:21741,动态:21756,动态:22692,动态:21857,动态:22512,动态:22685,动态:21776,动态:22696</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>动态:22146,动态:22706,动态:20440,动态:22710,动态:21780,动态:22685,动态:21436,动态:22699,动态:4036,动态:22019,动态:20439,动态:22696,动态:22697,动态:21753,动态:21737,动态:20364,动态:22684,动态:20720,动态:22659,动态:22688,动态:21763,动态:22698,动态:22680,动态:21741,动态:22692,动态:21740,动态:21756,动态:21776,动态:20399,动态:22323,动态:21745,动态:7746,动态:22507,动态:21727,动态:17337,动态:22512,动态:21556,动态:21975,动态:21857,动态:21972,动态:21757,动态:22667</t>
+          <t>动态:21436,动态:21556,动态:22019,动态:22507,动态:22706,动态:22697,动态:22710,动态:21745,动态:21727,动态:20440,动态:21756,动态:22323,动态:20399,动态:21757,动态:21780,动态:22684,动态:21741,动态:22692,动态:21763,动态:22685,动态:21857,动态:20439,动态:21975,动态:20364,动态:22512,动态:7746,动态:17337,动态:21753,动态:21776,动态:22667,动态:4036,动态:22696,动态:22146,动态:21737,动态:21740,动态:22680,动态:22659,动态:22688,动态:22698,动态:22699,动态:21972,动态:20720</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>动态:17337,动态:22667,动态:21753,动态:22659,动态:4036,动态:20439,动态:21780,动态:22692,动态:20440,动态:20399,动态:22697,动态:21757,动态:21975,动态:21857,动态:21741,动态:21737,动态:22684,动态:22323,动态:21776,动态:20364,动态:22688,动态:22507,动态:22680,动态:21756,动态:21763,动态:22685,动态:22512,动态:7746,动态:22019,动态:22146,动态:21727,动态:22706,动态:20720,动态:22710,动态:22698,动态:21745,动态:21556,动态:21972,动态:22696,动态:21740,动态:21436</t>
+          <t>动态:22696,动态:22710,动态:22019,动态:22698,动态:22667,动态:22697,动态:20439,动态:22507,动态:20720,动态:21780,动态:21436,动态:21763,动态:21776,动态:22146,动态:22659,动态:22680,动态:20399,动态:22685,动态:21753,动态:22323,动态:22706,动态:22512,动态:21857,动态:7746,动态:21741,动态:22684,动态:21972,动态:21727,动态:21975,动态:21745,动态:21556,动态:22692,动态:20440,动态:17337,动态:4036,动态:21756,动态:21757,动态:22688,动态:20364,动态:21737,动态:21740</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>动态:22680,动态:21972,动态:21780,动态:22698,动态:22710,动态:20439,动态:21975,动态:21757,动态:22667,动态:4036,动态:22696,动态:20399,动态:7746,动态:20720,动态:22685,动态:22702,动态:21753,动态:22512,动态:21737,动态:21556,动态:21727,动态:22697,动态:22146,动态:20440,动态:21436,动态:22692,动态:22019,动态:22688,动态:21776,动态:21741,动态:21763,动态:21756,动态:20364,动态:21740,动态:21857,动态:22659,动态:22507,动态:21745,动态:22684,动态:17337,动态:22323</t>
+          <t>动态:22692,动态:22512,动态:21776,动态:21975,动态:20720,动态:21741,动态:22659,动态:22688,动态:21780,动态:22680,动态:21727,动态:22019,动态:21436,动态:22710,动态:22507,动态:21763,动态:20440,动态:22684,动态:22696,动态:21857,动态:20364,动态:21556,动态:7746,动态:22146,动态:22685,动态:21756,动态:20399,动态:4036,动态:22667,动态:22702,动态:21737,动态:17337,动态:22698,动态:21745,动态:21740,动态:21972,动态:20439,动态:22323,动态:21757,动态:22697,动态:21753</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>动态:7746,动态:22692,动态:20440,动态:22706,动态:20399,动态:22512,动态:21757,动态:22696,动态:22710,动态:21780,动态:21740,动态:22146,动态:22323,动态:21776,动态:22680,动态:20364,动态:21727,动态:21857,动态:21737,动态:21763,动态:22019,动态:22697,动态:22685,动态:17337,动态:22684,动态:21975,动态:21753,动态:20720,动态:21436,动态:21745,动态:22688,动态:21972,动态:22699,动态:22507,动态:22667,动态:20439,动态:21756,动态:21741,动态:4036,动态:21556,动态:22659,动态:22698</t>
+          <t>动态:22697,动态:21857,动态:22680,动态:21972,动态:22684,动态:20399,动态:21740,动态:22698,动态:21757,动态:21753,动态:21741,动态:22512,动态:22706,动态:7746,动态:21776,动态:22323,动态:21745,动态:22685,动态:20720,动态:22696,动态:21737,动态:17337,动态:20439,动态:22507,动态:4036,动态:21556,动态:21436,动态:22019,动态:22667,动态:21780,动态:20364,动态:21763,动态:22146,动态:22688,动态:22692,动态:21756,动态:22659,动态:21975,动态:22710,动态:22699,动态:21727,动态:20440</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>动态:22512,动态:22696,动态:21741,动态:21757,动态:7746,动态:22710,动态:20399,动态:20440,动态:20720,动态:22680,动态:4036,动态:21753,动态:22146,动态:21727,动态:22688,动态:22706,动态:22697,动态:22323,动态:21975,动态:20364,动态:21763,动态:17337,动态:21972,动态:21737,动态:22667,动态:20439,动态:22507,动态:22698,动态:22685,动态:21740,动态:21776,动态:21436,动态:21556,动态:22692,动态:21745,动态:21857,动态:21780,动态:21756,动态:22659,动态:22019,动态:22684</t>
+          <t>动态:22684,动态:17337,动态:20439,动态:21756,动态:21737,动态:22685,动态:21975,动态:20399,动态:21741,动态:21776,动态:7746,动态:21745,动态:22710,动态:22698,动态:22680,动态:22507,动态:22019,动态:22512,动态:21727,动态:20440,动态:22146,动态:21857,动态:22697,动态:21763,动态:21780,动态:21972,动态:22667,动态:21757,动态:20720,动态:4036,动态:21740,动态:21556,动态:22696,动态:21436,动态:22659,动态:22688,动态:20364,动态:22692,动态:21753,动态:22706,动态:22323</t>
         </is>
       </c>
     </row>

--- a/20220426_algo_v2_10/algo_results/rec_result/item_cf_recommendation_map.xlsx
+++ b/20220426_algo_v2_10/algo_results/rec_result/item_cf_recommendation_map.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>动态:22706,动态:20440,动态:22323,动态:21857,动态:22692,动态:21756,动态:22146,动态:20720,动态:22699,动态:21556,动态:22697,动态:22512,动态:22507,动态:20399,动态:22688,动态:21737,动态:22702,动态:4036,动态:20364,动态:20439,动态:22696,动态:21776,动态:21972,动态:21757,动态:21745,动态:22710,动态:21763,动态:21741,动态:22680,动态:22698,动态:21436,动态:21780,动态:21740,动态:22684,动态:22019,动态:22685,动态:21975,动态:22659,动态:21753,动态:7746,动态:17337,动态:21727,动态:22667</t>
+          <t>动态:17337,动态:22684,动态:22702,动态:21757,动态:22680,动态:21857,动态:20399,动态:20440,动态:22685,动态:21972,动态:22697,动态:22146,动态:22667,动态:21753,动态:22710,动态:7746,动态:20439,动态:4036,动态:20720,动态:21975,动态:22698,动态:21740,动态:21737,动态:21727,动态:22019,动态:21776,动态:21756,动态:22706,动态:22512,动态:22696,动态:20364,动态:21745,动态:22692,动态:22507,动态:22688,动态:22323,动态:21741,动态:21436,动态:22699,动态:21763,动态:21780,动态:22659,动态:21556</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>动态:17460,动态:7388,动态:7386,动态:8259,动态:6893,动态:11441,动态:11044,动态:19723,动态:13782,动态:14192,动态:13495,动态:13751,动态:16152,动态:16074,动态:9769,动态:20017,动态:22685,动态:21975,动态:22659,动态:22702,动态:22512,动态:21972,动态:21757,动态:7746,动态:21727,动态:22688,动态:22146,动态:21780,动态:20720,动态:22323,动态:22019,动态:21756,动态:22696,动态:21857,动态:20439,动态:22710,动态:17337,动态:21436,动态:20440,动态:22667,动态:22680,动态:21753,动态:22698,动态:22684,动态:21745,动态:4036,动态:22692,动态:21741,动态:20364,动态:21740</t>
+          <t>动态:17460,动态:7388,动态:7386,动态:8259,动态:6893,动态:11441,动态:11044,动态:19723,动态:13782,动态:14192,动态:13495,动态:13751,动态:16152,动态:16074,动态:9769,动态:20017,动态:21857,动态:22323,动态:21753,动态:21556,动态:22667,动态:21741,动态:22702,动态:21756,动态:22688,动态:4036,动态:22507,动态:21727,动态:22659,动态:21776,动态:22692,动态:20720,动态:21745,动态:20439,动态:22696,动态:21740,动态:21975,动态:21972,动态:22685,动态:22680,动态:22710,动态:20364,动态:22684,动态:22706,动态:21763,动态:22512,动态:21757,动态:20440,动态:22698,动态:21737</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>动态:22698,动态:22146,动态:21857,动态:21780,动态:22688,动态:22659,动态:22697,动态:21436,动态:21972,动态:22702,动态:20440,动态:22696,动态:20439,动态:22019,动态:21556,动态:22323,动态:22512,动态:21740,动态:21763,动态:20364,动态:20720,动态:21741,动态:21727,动态:21753,动态:21776,动态:22685,动态:21975,动态:22507,动态:7746,动态:22706,动态:17337,动态:22684,动态:20399,动态:22699,动态:21737,动态:22680,动态:21757,动态:21745,动态:22710,动态:22667,动态:21756,动态:22692</t>
+          <t>动态:21556,动态:22699,动态:21780,动态:22702,动态:22698,动态:21763,动态:21436,动态:21972,动态:22685,动态:21740,动态:21857,动态:22696,动态:21741,动态:20720,动态:21757,动态:22680,动态:22019,动态:22710,动态:22507,动态:20440,动态:22323,动态:22512,动态:22692,动态:17337,动态:20439,动态:21756,动态:21975,动态:22688,动态:21753,动态:22146,动态:22667,动态:21737,动态:7746,动态:22659,动态:22684,动态:20399,动态:20364,动态:22697,动态:21745,动态:22706,动态:21776,动态:21727</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>动态:21975,动态:20364,动态:20440,动态:17337,动态:22706,动态:21740,动态:22698,动态:22323,动态:22699,动态:7746,动态:21741,动态:22702,动态:22507,动态:22146,动态:22659,动态:21556,动态:21763,动态:4036,动态:21737,动态:22696,动态:22692,动态:22685,动态:20720,动态:21972,动态:22697,动态:20439,动态:21757,动态:22680,动态:22684,动态:21780,动态:22019,动态:22667,动态:22512,动态:21436,动态:20399,动态:21776,动态:21753,动态:22710,动态:21745,动态:21857,动态:22688,动态:21756,动态:21727</t>
+          <t>动态:21753,动态:20440,动态:21857,动态:20364,动态:22684,动态:22512,动态:21972,动态:20439,动态:22710,动态:22702,动态:20399,动态:22507,动态:4036,动态:21776,动态:21975,动态:21763,动态:21740,动态:22323,动态:22699,动态:22659,动态:22019,动态:22692,动态:21745,动态:22680,动态:22146,动态:21727,动态:22667,动态:21756,动态:21556,动态:7746,动态:22698,动态:22696,动态:21757,动态:17337,动态:22685,动态:22706,动态:21780,动态:21741,动态:21737,动态:22688,动态:21436,动态:20720,动态:22697</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>动态:22699,动态:21763,动态:7746,动态:20439,动态:21436,动态:20720,动态:21975,动态:22710,动态:22512,动态:21737,动态:22667,动态:22702,动态:22323,动态:21757,动态:21972,动态:22684,动态:21745,动态:22697,动态:21857,动态:21740,动态:21556,动态:21727,动态:21776,动态:20364,动态:17337,动态:21753,动态:22680,动态:20399,动态:22698,动态:21780,动态:21756,动态:22019,动态:22706,动态:22685,动态:20440,动态:22696,动态:22692,动态:22659,动态:22688,动态:21741,动态:22507,动态:22146</t>
+          <t>动态:22507,动态:21436,动态:22692,动态:22698,动态:20399,动态:22019,动态:22146,动态:22706,动态:21741,动态:21975,动态:22323,动态:21972,动态:21780,动态:21776,动态:21727,动态:20440,动态:22696,动态:21556,动态:21857,动态:21745,动态:22680,动态:22710,动态:22512,动态:22688,动态:20364,动态:21763,动态:21737,动态:21753,动态:21757,动态:22659,动态:22697,动态:22667,动态:20720,动态:22685,动态:7746,动态:21740,动态:22702,动态:17337,动态:20439,动态:21756,动态:22684,动态:22699</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>动态:20439,动态:11525,动态:16582,动态:7045,动态:7059,动态:15151,动态:15142,动态:15150,动态:15147,动态:21745,动态:22706,动态:21741,动态:22667,动态:20364,动态:21757,动态:21776,动态:22507,动态:21740,动态:21972,动态:21756,动态:21780,动态:21857,动态:22698,动态:21763,动态:21975,动态:22688,动态:22512,动态:4036,动态:21436,动态:21556,动态:22146,动态:22684,动态:22323,动态:7746,动态:22697,动态:22659,动态:22685,动态:21753,动态:22699,动态:22019,动态:22702,动态:22692,动态:21737,动态:22680,动态:21727,动态:22710,动态:20399,动态:20440,动态:22696</t>
+          <t>动态:20439,动态:11525,动态:16582,动态:7045,动态:7059,动态:15151,动态:15142,动态:15150,动态:15147,动态:22323,动态:22697,动态:21745,动态:22685,动态:21972,动态:22512,动态:22684,动态:21975,动态:20720,动态:4036,动态:7746,动态:21741,动态:21776,动态:22659,动态:21556,动态:22680,动态:17337,动态:22688,动态:22146,动态:21753,动态:22507,动态:22692,动态:22710,动态:22699,动态:22667,动态:22706,动态:20399,动态:22702,动态:21757,动态:21857,动态:20364,动态:21780,动态:22696,动态:21756,动态:22019,动态:20440,动态:21436,动态:21740,动态:21763,动态:21737</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>动态:22146,动态:21740,动态:21857,动态:21556,动态:22702,动态:22710,动态:22698,动态:21745,动态:22706,动态:22684,动态:20440,动态:7746,动态:22696,动态:22667,动态:21756,动态:21741,动态:22680,动态:22692,动态:21780,动态:22323,动态:20439,动态:21727,动态:21975,动态:21753,动态:21776,动态:22512,动态:21763,动态:21757,动态:22019,动态:22688,动态:20720,动态:20399,动态:22507,动态:21972,动态:22659,动态:21436,动态:22685,动态:20364,动态:4036,动态:17337,动态:22699,动态:22697,动态:21737</t>
+          <t>动态:22323,动态:21763,动态:21780,动态:22688,动态:21727,动态:21737,动态:22698,动态:22667,动态:20440,动态:22684,动态:22685,动态:21753,动态:22146,动态:21757,动态:22507,动态:17337,动态:21756,动态:20720,动态:21857,动态:21776,动态:22710,动态:7746,动态:21556,动态:22702,动态:20399,动态:21436,动态:20364,动态:20439,动态:21972,动态:22692,动态:4036,动态:22019,动态:22659,动态:22699,动态:22706,动态:21740,动态:21745,动态:21741,动态:22680,动态:22697,动态:22696,动态:21975,动态:22512</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>动态:22684,动态:4036,动态:21780,动态:20439,动态:22697,动态:17337,动态:22512,动态:22706,动态:20720,动态:21972,动态:22680,动态:22710,动态:21753,动态:7746,动态:21756,动态:20364,动态:21741,动态:22696,动态:22667,动态:22659,动态:22698,动态:21857,动态:21436,动态:22507,动态:20440,动态:22146,动态:22685,动态:21745,动态:22019,动态:22688,动态:21556,动态:20399,动态:21737,动态:22692,动态:21776,动态:21975,动态:21727,动态:21757,动态:22699,动态:21740,动态:22323,动态:21763,动态:22702</t>
+          <t>动态:22699,动态:21857,动态:20440,动态:20364,动态:22698,动态:22685,动态:22696,动态:22710,动态:22702,动态:22697,动态:21757,动态:21780,动态:17337,动态:21745,动态:22323,动态:21763,动态:7746,动态:22512,动态:21776,动态:22692,动态:22688,动态:22659,动态:22019,动态:21436,动态:22706,动态:21975,动态:20439,动态:20720,动态:21727,动态:22684,动态:21740,动态:21753,动态:22146,动态:22680,动态:22667,动态:21737,动态:21741,动态:4036,动态:21972,动态:21556,动态:21756,动态:20399,动态:22507</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>动态:22507,动态:21753,动态:21436,动态:7746,动态:22146,动态:20439,动态:21741,动态:20440,动态:21780,动态:20364,动态:21975,动态:22659,动态:22680,动态:21556,动态:4036,动态:21757,动态:22667,动态:22696,动态:21857,动态:22019,动态:21745,动态:22699,动态:21756,动态:22692,动态:21763,动态:22684,动态:22685,动态:21776,动态:17337,动态:22698,动态:22688,动态:21727,动态:22706,动态:21737,动态:22512,动态:22710,动态:20399,动态:20720,动态:22697,动态:22702,动态:21972,动态:22323,动态:21740</t>
+          <t>动态:21972,动态:22706,动态:20720,动态:21776,动态:21737,动态:4036,动态:22146,动态:22659,动态:22702,动态:7746,动态:21753,动态:22698,动态:21436,动态:21741,动态:21780,动态:22512,动态:21757,动态:22688,动态:22667,动态:21975,动态:22684,动态:20399,动态:22685,动态:22507,动态:22699,动态:22710,动态:20439,动态:21740,动态:22692,动态:21745,动态:22019,动态:22696,动态:21556,动态:21756,动态:20440,动态:22323,动态:22680,动态:21763,动态:17337,动态:20364,动态:21857,动态:22697,动态:21727</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>动态:21763,动态:22512,动态:22688,动态:22696,动态:22659,动态:17337,动态:21436,动态:22019,动态:22685,动态:22702,动态:22692,动态:22710,动态:20439,动态:22323,动态:22706,动态:21737,动态:21776,动态:7746,动态:20440,动态:22680,动态:21780,动态:22697,动态:22699,动态:21972,动态:22698,动态:22684,动态:21745,动态:21975,动态:20399,动态:21757,动态:22507,动态:22146,动态:21727,动态:20720,动态:22667,动态:21556,动态:4036,动态:21756,动态:21741,动态:21740,动态:20364,动态:21753,动态:21857</t>
+          <t>动态:22146,动态:21740,动态:22699,动态:20364,动态:17337,动态:21857,动态:21975,动态:22710,动态:22696,动态:21556,动态:20720,动态:22323,动态:22698,动态:21737,动态:20399,动态:22019,动态:4036,动态:21741,动态:21756,动态:22667,动态:21763,动态:22684,动态:22659,动态:22680,动态:22507,动态:22512,动态:21972,动态:21745,动态:22706,动态:21776,动态:22688,动态:21727,动态:22697,动态:7746,动态:20440,动态:22702,动态:22692,动态:21436,动态:21757,动态:20439,动态:22685,动态:21780,动态:21753</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>动态:21556,动态:22659,动态:7746,动态:21857,动态:21757,动态:20439,动态:22692,动态:22507,动态:21727,动态:21740,动态:22680,动态:21776,动态:22667,动态:21975,动态:17337,动态:20720,动态:22706,动态:22697,动态:20399,动态:22710,动态:21756,动态:22146,动态:22512,动态:21780,动态:21745,动态:22019,动态:22323,动态:21753,动态:22698,动态:21737,动态:4036,动态:21972,动态:20440,动态:22688,动态:22684,动态:22702,动态:22699,动态:21436,动态:21741,动态:21763,动态:22685,动态:22696,动态:20364</t>
+          <t>动态:21741,动态:20364,动态:20399,动态:21727,动态:21776,动态:22685,动态:21737,动态:22667,动态:22512,动态:22680,动态:22698,动态:22684,动态:22659,动态:21556,动态:20439,动态:21745,动态:22710,动态:22699,动态:21780,动态:21757,动态:22696,动态:22507,动态:20720,动态:21763,动态:22146,动态:21972,动态:7746,动态:21857,动态:21753,动态:20440,动态:22688,动态:21756,动态:22697,动态:22323,动态:21436,动态:22019,动态:17337,动态:4036,动态:22706,动态:22692,动态:21740,动态:21975,动态:22702</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>动态:8002,动态:6767,动态:6779,动态:6773,动态:6777,动态:6762,动态:6761,动态:6755,动态:6752,动态:6692,动态:6790,动态:6666,动态:6845,动态:6652,动态:6848,动态:21737,动态:22684,动态:21753,动态:22512,动态:21436,动态:20720,动态:7746,动态:21745,动态:22507,动态:21857,动态:21756,动态:21740,动态:21975,动态:22696,动态:22706,动态:4036,动态:21741,动态:22688,动态:22699,动态:22698,动态:22659,动态:21776,动态:21556,动态:22146,动态:22702,动态:21727,动态:22323,动态:22019,动态:21780,动态:22710,动态:22697,动态:21972,动态:20440,动态:22667,动态:20439</t>
+          <t>动态:8002,动态:6767,动态:6779,动态:6773,动态:6777,动态:6762,动态:6761,动态:6755,动态:6752,动态:6692,动态:6790,动态:6666,动态:6845,动态:6652,动态:6848,动态:20440,动态:22702,动态:22019,动态:21741,动态:21740,动态:21436,动态:20364,动态:22680,动态:22692,动态:20720,动态:22512,动态:22684,动态:17337,动态:21737,动态:21756,动态:22706,动态:22667,动态:22699,动态:21763,动态:22146,动态:22323,动态:4036,动态:7746,动态:21857,动态:22698,动态:21753,动态:22685,动态:20399,动态:21745,动态:20439,动态:21776,动态:21975,动态:21757,动态:22688,动态:21780</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>动态:22146,动态:4036,动态:22688,动态:22706,动态:22697,动态:22659,动态:20440,动态:21776,动态:22019,动态:20399,动态:22512,动态:22696,动态:21780,动态:22667,动态:21757,动态:22710,动态:21972,动态:20439,动态:22323,动态:17337,动态:22680,动态:21975,动态:21737,动态:22507,动态:22698,动态:21741,动态:21756,动态:21753,动态:21740,动态:21745,动态:21857,动态:22684,动态:21436,动态:21763,动态:22685,动态:21727,动态:22699,动态:7746,动态:20720,动态:21556,动态:20364,动态:22702,动态:22692</t>
+          <t>动态:22702,动态:22698,动态:21780,动态:21556,动态:22680,动态:21757,动态:21972,动态:22684,动态:21857,动态:21776,动态:21727,动态:21756,动态:22507,动态:22706,动态:7746,动态:22697,动态:20399,动态:22710,动态:22696,动态:20720,动态:22688,动态:21737,动态:21763,动态:4036,动态:22323,动态:22146,动态:21740,动态:21975,动态:22512,动态:21753,动态:22667,动态:17337,动态:22692,动态:22019,动态:22659,动态:20364,动态:21741,动态:21436,动态:22685,动态:21745,动态:20440,动态:22699,动态:20439</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>动态:22680,动态:7746,动态:20439,动态:21757,动态:21763,动态:22697,动态:4036,动态:20399,动态:21436,动态:21776,动态:22706,动态:22146,动态:21741,动态:21780,动态:22019,动态:22659,动态:21857,动态:21740,动态:21556,动态:20720,动态:22667,动态:21975,动态:21756,动态:22685,动态:17337,动态:22507,动态:22512,动态:22702,动态:22710,动态:21972,动态:20364,动态:22684,动态:22696,动态:20440,动态:21737,动态:21753,动态:22698,动态:22699,动态:21727,动态:22688,动态:22692,动态:21745,动态:22323</t>
+          <t>动态:21763,动态:21436,动态:22702,动态:21857,动态:22706,动态:21975,动态:20720,动态:20440,动态:21972,动态:22692,动态:22696,动态:22685,动态:21741,动态:4036,动态:22699,动态:20439,动态:22019,动态:21780,动态:21737,动态:17337,动态:20364,动态:22323,动态:7746,动态:22507,动态:22680,动态:22684,动态:22667,动态:21740,动态:21727,动态:22697,动态:21776,动态:21556,动态:21745,动态:22512,动态:22146,动态:22710,动态:22698,动态:21753,动态:21756,动态:20399,动态:22688,动态:21757,动态:22659</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>动态:17337,动态:22706,动态:21975,动态:21727,动态:22667,动态:20440,动态:4036,动态:20364,动态:21763,动态:22692,动态:21780,动态:22146,动态:21741,动态:20399,动态:22710,动态:7746,动态:22507,动态:21972,动态:21737,动态:20720,动态:22697,动态:22696,动态:22685,动态:21757,动态:22323,动态:21740,动态:20439,动态:21556,动态:21756,动态:22688,动态:22019,动态:22512,动态:21857,动态:22702,动态:21776,动态:22698,动态:21745,动态:21753,动态:22680,动态:22684,动态:22659,动态:21436,动态:22699</t>
+          <t>动态:20440,动态:22667,动态:21436,动态:20399,动态:22019,动态:21780,动态:21740,动态:21753,动态:22710,动态:4036,动态:21975,动态:20439,动态:21727,动态:21741,动态:22698,动态:21737,动态:21556,动态:22685,动态:22684,动态:22323,动态:21756,动态:22512,动态:21745,动态:21776,动态:22706,动态:21763,动态:22702,动态:17337,动态:21857,动态:22507,动态:22688,动态:22659,动态:7746,动态:22692,动态:22699,动态:21757,动态:20364,动态:22697,动态:22146,动态:22696,动态:21972,动态:20720,动态:22680</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>动态:21756,动态:22323,动态:22692,动态:22667,动态:21740,动态:22698,动态:21757,动态:22710,动态:20364,动态:21741,动态:21975,动态:22684,动态:21556,动态:22512,动态:17337,动态:20440,动态:20399,动态:22507,动态:22696,动态:21737,动态:20439,动态:21780,动态:22685,动态:4036,动态:21776,动态:22659,动态:21763,动态:21857,动态:22699,动态:22702,动态:21972,动态:22688,动态:21745,动态:7746,动态:20720,动态:21727,动态:22706,动态:21753,动态:22019,动态:21436,动态:22697,动态:22680,动态:22146</t>
+          <t>动态:21780,动态:22507,动态:22680,动态:22698,动态:21975,动态:20720,动态:20440,动态:22019,动态:22697,动态:22710,动态:22659,动态:22146,动态:21741,动态:21740,动态:20399,动态:22512,动态:21737,动态:21763,动态:20439,动态:21757,动态:21436,动态:21753,动态:22706,动态:22692,动态:22685,动态:21556,动态:22684,动态:17337,动态:7746,动态:21776,动态:21972,动态:22699,动态:22702,动态:21727,动态:22688,动态:21857,动态:4036,动态:20364,动态:22696,动态:21745,动态:22667,动态:22323,动态:21756</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>动态:21556,动态:21763,动态:21727,动态:21737,动态:22697,动态:21436,动态:20399,动态:21753,动态:22702,动态:22688,动态:22667,动态:21972,动态:21757,动态:22512,动态:22696,动态:22684,动态:22706,动态:22507,动态:22659,动态:21745,动态:21741,动态:20439,动态:21780,动态:22146,动态:20440,动态:21857,动态:4036,动态:22692,动态:22323,动态:22699,动态:17337,动态:21776,动态:22698,动态:22685,动态:20720,动态:21740,动态:21756,动态:20364,动态:21975,动态:7746,动态:22710,动态:22019,动态:22680</t>
+          <t>动态:21757,动态:21972,动态:22512,动态:22688,动态:21436,动态:22684,动态:22698,动态:20440,动态:21745,动态:22667,动态:22706,动态:21763,动态:20399,动态:21741,动态:21727,动态:22699,动态:20439,动态:21756,动态:21753,动态:22696,动态:22019,动态:21737,动态:20364,动态:22680,动态:22323,动态:22710,动态:22692,动态:22507,动态:17337,动态:21776,动态:4036,动态:22702,动态:21857,动态:21975,动态:22697,动态:21740,动态:22659,动态:22146,动态:21556,动态:7746,动态:21780,动态:22685,动态:20720</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>动态:22323,动态:21756,动态:22697,动态:22696,动态:20440,动态:21975,动态:22685,动态:22659,动态:21727,动态:22706,动态:22146,动态:22512,动态:20720,动态:21763,动态:21741,动态:22667,动态:22688,动态:21757,动态:21737,动态:21753,动态:21776,动态:22699,动态:22698,动态:21436,动态:17337,动态:22680,动态:21857,动态:20364,动态:21556,动态:21780,动态:21972,动态:21740,动态:20439,动态:22692,动态:7746,动态:22710,动态:22019,动态:22702,动态:4036,动态:22684,动态:21745,动态:20399,动态:22507</t>
+          <t>动态:21556,动态:22659,动态:21763,动态:21780,动态:20720,动态:22019,动态:4036,动态:22699,动态:22507,动态:21741,动态:22692,动态:22146,动态:22680,动态:22697,动态:22696,动态:20399,动态:17337,动态:21745,动态:20440,动态:21727,动态:22706,动态:22698,动态:22685,动态:21776,动态:22710,动态:22667,动态:21975,动态:21857,动态:22512,动态:22323,动态:21740,动态:21972,动态:20364,动态:21756,动态:22688,动态:21737,动态:21757,动态:21753,动态:20439,动态:21436,动态:22702,动态:22684,动态:7746</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>动态:22667,动态:22680,动态:22146,动态:22698,动态:22692,动态:4036,动态:21757,动态:7746,动态:20399,动态:21975,动态:20720,动态:22659,动态:22710,动态:22702,动态:22512,动态:21776,动态:20439,动态:21436,动态:22696,动态:21780,动态:22019,动态:20364,动态:21753,动态:22699,动态:21741,动态:22688,动态:21756,动态:22684,动态:22697,动态:21737,动态:17337,动态:21745,动态:22685,动态:21740,动态:22706,动态:20440,动态:21556,动态:21972,动态:22323,动态:21763,动态:21727,动态:21857,动态:22507</t>
+          <t>动态:21745,动态:21556,动态:21741,动态:22698,动态:20720,动态:22512,动态:22146,动态:22688,动态:22710,动态:7746,动态:20439,动态:20364,动态:4036,动态:22684,动态:22659,动态:21780,动态:22702,动态:21756,动态:21975,动态:22667,动态:22696,动态:21757,动态:21727,动态:21972,动态:22699,动态:22680,动态:17337,动态:22323,动态:21857,动态:20440,动态:21737,动态:22685,动态:21436,动态:21763,动态:22697,动态:21740,动态:22692,动态:22019,动态:22507,动态:20399,动态:21776,动态:21753,动态:22706</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>动态:22698,动态:22323,动态:21741,动态:22692,动态:21753,动态:20440,动态:22696,动态:22019,动态:21972,动态:21756,动态:21737,动态:21763,动态:22697,动态:22667,动态:22507,动态:21740,动态:22706,动态:21436,动态:22699,动态:21757,动态:21745,动态:20364,动态:21556,动态:20439,动态:22512,动态:22684,动态:22688,动态:22146,动态:22659,动态:4036,动态:21776,动态:21780,动态:20399,动态:21857,动态:22702,动态:20720,动态:7746,动态:22685,动态:22680,动态:17337,动态:21727,动态:21975,动态:22710</t>
+          <t>动态:21436,动态:20399,动态:21727,动态:21556,动态:21741,动态:22512,动态:22688,动态:22698,动态:22507,动态:22659,动态:22692,动态:22706,动态:22710,动态:21975,动态:22684,动态:20440,动态:21763,动态:22019,动态:22696,动态:17337,动态:21737,动态:20720,动态:21745,动态:7746,动态:22685,动态:22699,动态:21780,动态:21740,动态:22146,动态:22323,动态:21756,动态:20439,动态:22680,动态:22702,动态:21972,动态:22697,动态:21857,动态:22667,动态:20364,动态:21757,动态:21753,动态:4036,动态:21776</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>动态:20440,动态:22667,动态:21737,动态:22019,动态:22507,动态:22146,动态:20399,动态:21857,动态:22710,动态:22692,动态:22680,动态:20439,动态:21745,动态:21740,动态:21753,动态:7746,动态:22697,动态:4036,动态:17337,动态:21780,动态:20364,动态:21757,动态:22698,动态:21972,动态:22696,动态:22706,动态:21741,动态:22699,动态:22685,动态:21556,动态:20720,动态:22323,动态:21727,动态:22688,动态:21763,动态:22659,动态:22684,动态:22702,动态:21436,动态:22512,动态:21975,动态:21776,动态:21756</t>
+          <t>动态:21972,动态:4036,动态:20399,动态:7746,动态:22019,动态:22667,动态:20440,动态:21727,动态:22507,动态:21741,动态:21745,动态:20364,动态:21740,动态:22710,动态:22706,动态:21753,动态:22692,动态:21436,动态:20720,动态:21763,动态:21757,动态:22512,动态:22696,动态:21857,动态:21975,动态:22680,动态:22697,动态:21756,动态:21780,动态:17337,动态:22684,动态:22702,动态:22659,动态:22323,动态:21737,动态:22146,动态:22688,动态:21776,动态:22698,动态:21556,动态:20439,动态:22685,动态:22699</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>动态:21727,动态:22706,动态:4036,动态:22146,动态:21857,动态:22688,动态:21972,动态:20720,动态:22685,动态:22684,动态:21975,动态:21756,动态:22697,动态:22512,动态:22323,动态:22710,动态:21740,动态:21780,动态:21776,动态:22507,动态:22698,动态:22667,动态:20440,动态:22699,动态:22680,动态:7746,动态:22692,动态:22019,动态:21741,动态:21753,动态:22696,动态:17337,动态:20399,动态:22659,动态:21436,动态:21556,动态:21737,动态:20439,动态:21763,动态:21757,动态:20364,动态:22702,动态:21745</t>
+          <t>动态:22659,动态:22019,动态:22507,动态:20440,动态:21753,动态:22698,动态:22699,动态:21741,动态:21975,动态:21745,动态:20364,动态:21857,动态:22696,动态:22685,动态:22702,动态:21780,动态:21763,动态:20399,动态:22680,动态:21756,动态:7746,动态:22512,动态:22710,动态:22697,动态:20439,动态:22692,动态:21556,动态:22323,动态:22146,动态:22688,动态:17337,动态:21972,动态:20720,动态:21727,动态:21740,动态:22706,动态:21757,动态:21776,动态:21737,动态:22684,动态:4036,动态:21436,动态:22667</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>动态:21780,动态:20364,动态:22685,动态:21857,动态:22659,动态:21763,动态:20399,动态:22680,动态:21741,动态:21757,动态:22146,动态:22706,动态:22710,动态:21745,动态:22019,动态:7746,动态:20440,动态:21756,动态:21737,动态:22323,动态:22699,动态:22697,动态:17337,动态:22688,动态:21972,动态:22696,动态:21436,动态:22507,动态:21753,动态:22698,动态:21776,动态:20720,动态:22667,动态:21727,动态:22702,动态:22692,动态:20439,动态:21740,动态:22684,动态:21556,动态:21975,动态:4036,动态:22512</t>
+          <t>动态:22680,动态:22323,动态:20720,动态:22688,动态:22512,动态:7746,动态:22710,动态:21740,动态:21757,动态:22698,动态:21857,动态:20364,动态:22697,动态:17337,动态:21436,动态:21745,动态:22706,动态:22659,动态:21741,动态:21756,动态:22019,动态:22685,动态:21556,动态:22696,动态:22684,动态:22699,动态:4036,动态:21727,动态:22667,动态:21776,动态:22692,动态:22702,动态:21780,动态:20440,动态:21763,动态:21737,动态:21972,动态:20439,动态:22146,动态:20399,动态:21975,动态:22507,动态:21753</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>动态:17337,动态:21737,动态:4036,动态:22688,动态:22698,动态:7746,动态:22323,动态:22710,动态:22699,动态:22512,动态:22146,动态:21975,动态:21757,动态:21763,动态:20364,动态:22507,动态:21556,动态:21776,动态:22685,动态:21745,动态:22697,动态:21753,动态:22680,动态:21436,动态:20440,动态:21857,动态:22659,动态:22019,动态:22706,动态:21972,动态:21741,动态:20439,动态:20399,动态:21740,动态:22684,动态:21780,动态:21756,动态:22702,动态:22696,动态:20720,动态:22692,动态:22667,动态:21727</t>
+          <t>动态:20720,动态:21975,动态:22684,动态:21757,动态:22697,动态:21741,动态:22507,动态:21740,动态:21436,动态:22688,动态:17337,动态:22706,动态:22696,动态:21556,动态:21737,动态:22019,动态:20364,动态:21727,动态:22680,动态:21756,动态:20440,动态:21753,动态:22659,动态:21776,动态:22146,动态:22667,动态:22685,动态:22698,动态:22702,动态:22710,动态:21972,动态:22692,动态:22323,动态:22699,动态:21780,动态:21857,动态:20399,动态:20439,动态:7746,动态:21763,动态:4036,动态:21745,动态:22512</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>动态:4036,动态:22323,动态:22507,动态:22702,动态:21737,动态:21757,动态:22685,动态:22680,动态:22512,动态:20720,动态:21756,动态:22684,动态:22667,动态:21975,动态:21763,动态:17337,动态:21780,动态:20399,动态:22698,动态:21776,动态:21741,动态:21740,动态:21857,动态:21745,动态:22688,动态:22699,动态:22146,动态:21436,动态:22710,动态:21727,动态:22697,动态:7746,动态:22696,动态:20364,动态:20440,动态:22706,动态:20439,动态:22692,动态:21753,动态:22019,动态:21556,动态:21972,动态:22659</t>
+          <t>动态:22507,动态:22019,动态:20720,动态:21756,动态:21436,动态:21737,动态:22697,动态:22698,动态:22659,动态:22146,动态:21780,动态:21763,动态:21757,动态:22699,动态:21727,动态:7746,动态:22702,动态:22684,动态:21740,动态:22710,动态:22667,动态:22685,动态:21975,动态:21972,动态:21556,动态:20364,动态:17337,动态:22512,动态:20399,动态:21745,动态:22696,动态:20439,动态:4036,动态:22323,动态:22706,动态:22692,动态:20440,动态:21741,动态:21753,动态:21776,动态:22688,动态:22680,动态:21857</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>动态:20298,动态:7059,动态:7045,动态:7603,动态:13605,动态:16754,动态:6820,动态:22244,动态:21960,动态:21661,动态:21675,动态:22294,动态:22296,动态:10136,动态:21410,动态:19606,动态:22019,动态:22659,动态:21972,动态:22706,动态:21763,动态:22680,动态:21757,动态:22697,动态:22146,动态:21780,动态:4036,动态:21740,动态:21857,动态:22699,动态:21975,动态:21436,动态:21776,动态:22710,动态:21753,动态:21745,动态:22702,动态:22692,动态:22685,动态:22684,动态:21737,动态:21741,动态:20720,动态:21556,动态:17337,动态:22698,动态:22512,动态:21756,动态:22688,动态:22323</t>
+          <t>动态:20298,动态:7059,动态:7045,动态:7603,动态:13605,动态:16754,动态:6820,动态:22244,动态:21960,动态:21661,动态:21675,动态:22294,动态:22296,动态:10136,动态:21410,动态:19606,动态:21763,动态:20720,动态:21745,动态:22512,动态:22019,动态:21757,动态:21857,动态:21780,动态:22699,动态:21741,动态:21756,动态:4036,动态:22323,动态:22706,动态:22680,动态:21753,动态:21972,动态:21556,动态:22146,动态:22685,动态:22697,动态:22659,动态:17337,动态:22698,动态:22684,动态:21436,动态:21740,动态:22702,动态:22710,动态:22688,动态:21737,动态:21975,动态:21727,动态:22692</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>动态:20419,动态:20389,动态:19896,动态:19883,动态:19822,动态:19826,动态:19882,动态:19856,动态:19835,动态:19847,动态:19836,动态:19881,动态:19838,动态:19858,动态:19859,动态:19867,动态:19886,动态:19857,动态:11044,动态:19723,动态:11441,动态:6584,动态:18024,动态:6606,动态:21776,动态:21975,动态:22685,动态:22697,动态:21745,动态:22699,动态:22696,动态:20720,动态:21972,动态:21436,动态:21780,动态:22019,动态:21740,动态:7746,动态:21756,动态:4036,动态:22507,动态:22680,动态:22710,动态:22698,动态:22692,动态:17337,动态:22667,动态:22702,动态:21556,动态:22659</t>
+          <t>动态:20419,动态:20389,动态:19896,动态:19883,动态:19822,动态:19826,动态:19882,动态:19856,动态:19835,动态:19847,动态:19836,动态:19881,动态:19838,动态:19858,动态:19859,动态:19867,动态:19886,动态:19857,动态:11044,动态:19723,动态:11441,动态:6584,动态:18024,动态:6606,动态:21763,动态:22684,动态:7746,动态:22688,动态:21975,动态:22699,动态:21756,动态:22706,动态:22702,动态:22698,动态:22680,动态:22685,动态:22323,动态:22710,动态:21780,动态:21556,动态:21753,动态:21757,动态:22146,动态:22667,动态:21740,动态:21737,动态:21436,动态:21745,动态:21857,动态:21741</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>动态:21857,动态:21556,动态:21975,动态:22667,动态:20364,动态:22680,动态:20440,动态:21780,动态:7746,动态:21753,动态:21741,动态:22507,动态:22697,动态:22692,动态:22696,动态:17337,动态:22702,动态:21737,动态:22685,动态:20439,动态:22710,动态:21776,动态:21763,动态:21756,动态:4036,动态:21727,动态:22323,动态:21757,动态:22659,动态:21745,动态:22019,动态:22698,动态:21436,动态:22146,动态:22699,动态:22688,动态:21972,动态:20720,动态:22684,动态:20399,动态:22706,动态:22512,动态:21740</t>
+          <t>动态:21741,动态:21756,动态:22323,动态:22507,动态:21780,动态:22698,动态:21975,动态:22692,动态:22706,动态:22146,动态:21727,动态:22696,动态:20399,动态:21757,动态:21763,动态:22697,动态:22684,动态:20439,动态:22685,动态:22019,动态:21745,动态:21857,动态:22702,动态:7746,动态:20440,动态:21753,动态:22699,动态:22659,动态:21776,动态:20364,动态:21972,动态:17337,动态:22680,动态:22688,动态:21436,动态:21740,动态:22512,动态:21556,动态:21737,动态:4036,动态:22710,动态:22667,动态:20720</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>动态:20364,动态:21780,动态:21727,动态:22507,动态:4036,动态:21556,动态:22702,动态:22667,动态:22684,动态:20720,动态:21740,动态:22692,动态:21763,动态:22710,动态:21737,动态:22685,动态:22146,动态:20439,动态:22323,动态:22688,动态:21776,动态:21741,动态:22699,动态:22698,动态:22019,动态:22696,动态:22512,动态:21857,动态:21975,动态:22706,动态:22680,动态:21436,动态:21753,动态:7746,动态:21757,动态:21745,动态:22659,动态:20399,动态:17337,动态:21756,动态:22697,动态:21972,动态:20440</t>
+          <t>动态:22323,动态:20399,动态:20364,动态:22698,动态:21741,动态:21756,动态:22512,动态:21763,动态:17337,动态:21753,动态:20720,动态:21975,动态:22696,动态:22688,动态:22680,动态:22507,动态:22667,动态:21727,动态:22699,动态:22706,动态:7746,动态:22659,动态:21857,动态:21776,动态:22146,动态:21757,动态:22685,动态:21780,动态:22710,动态:22697,动态:20439,动态:22684,动态:21740,动态:22019,动态:22692,动态:21972,动态:22702,动态:21737,动态:20440,动态:21556,动态:4036,动态:21745,动态:21436</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>动态:6689,动态:6686,动态:6680,动态:6683,动态:6500,动态:6729,动态:11055,动态:7049,动态:6615,动态:20230,动态:20227,动态:5896,动态:7047,动态:7129,动态:11118,动态:11116,动态:6643,动态:6462,动态:6759,动态:7604,动态:6240,动态:6733,动态:6825,动态:6852,动态:6766,动态:6898,动态:6891,动态:6186,动态:6187,动态:22696,动态:22702,动态:21436,动态:22692,动态:20439,动态:22688,动态:21780,动态:17337,动态:20364,动态:7746,动态:22507,动态:22659,动态:21556,动态:21857,动态:21763,动态:22699,动态:22698,动态:21975,动态:21745,动态:21756,动态:22512</t>
+          <t>动态:6689,动态:6686,动态:6680,动态:6683,动态:6500,动态:6729,动态:11055,动态:7049,动态:6615,动态:20230,动态:20227,动态:5896,动态:7047,动态:7129,动态:11118,动态:11116,动态:6643,动态:6462,动态:6759,动态:7604,动态:6240,动态:6733,动态:6825,动态:6852,动态:6766,动态:6898,动态:6891,动态:6186,动态:6187,动态:21857,动态:22146,动态:22692,动态:4036,动态:22507,动态:21756,动态:21753,动态:20439,动态:21763,动态:20364,动态:22685,动态:22680,动态:22688,动态:22702,动态:20399,动态:21436,动态:22699,动态:20720,动态:21780,动态:22696,动态:21975</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>动态:22698,动态:22680,动态:21737,动态:20399,动态:22696,动态:21857,动态:20720,动态:21975,动态:22688,动态:22697,动态:21972,动态:22685,动态:22019,动态:21556,动态:22667,动态:20364,动态:21780,动态:22323,动态:17337,动态:22146,动态:22710,动态:22702,动态:21436,动态:21727,动态:21753,动态:20440,动态:21756,动态:22507,动态:22512,动态:21757,动态:20439,动态:21745,动态:21763,动态:21740,动态:7746,动态:4036,动态:22699,动态:22692,动态:22659,动态:21776,动态:21741,动态:22706,动态:22684</t>
+          <t>动态:20439,动态:17337,动态:21975,动态:20720,动态:22512,动态:22698,动态:21436,动态:22680,动态:21972,动态:21763,动态:21556,动态:21745,动态:21727,动态:21737,动态:20440,动态:21757,动态:22323,动态:20399,动态:22684,动态:22146,动态:21741,动态:21756,动态:21780,动态:22697,动态:21776,动态:22699,动态:21753,动态:22702,动态:22696,动态:22019,动态:4036,动态:21740,动态:22706,动态:22507,动态:22710,动态:22659,动态:22688,动态:20364,动态:22685,动态:7746,动态:21857,动态:22667,动态:22692</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>动态:22688,动态:21776,动态:21753,动态:22667,动态:22698,动态:22697,动态:21857,动态:21740,动态:21741,动态:17337,动态:21763,动态:20439,动态:21972,动态:22019,动态:21727,动态:21737,动态:22702,动态:22696,动态:21756,动态:22699,动态:22507,动态:21436,动态:21757,动态:22685,动态:21556,动态:21780,动态:22692,动态:21975,动态:20720,动态:4036,动态:22706,动态:20440,动态:22146,动态:21745,动态:22659,动态:22512,动态:20399,动态:22323,动态:7746,动态:20364,动态:22680,动态:22710,动态:22684</t>
+          <t>动态:22019,动态:21745,动态:21756,动态:22685,动态:22146,动态:17337,动态:20439,动态:22688,动态:22698,动态:22507,动态:21740,动态:21741,动态:21857,动态:21753,动态:20364,动态:22702,动态:22697,动态:22696,动态:22706,动态:21757,动态:22667,动态:21556,动态:21972,动态:21763,动态:20399,动态:22323,动态:20440,动态:21727,动态:4036,动态:21436,动态:21975,动态:21780,动态:7746,动态:22692,动态:22680,动态:22659,动态:22684,动态:22699,动态:22710,动态:22512,动态:21737,动态:21776,动态:20720</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>动态:22075,动态:6773,动态:6845,动态:6848,动态:6762,动态:6790,动态:6666,动态:6761,动态:6652,动态:6692,动态:6779,动态:6752,动态:6777,动态:6767,动态:6755,动态:6584,动态:18024,动态:6606,动态:8002,动态:13605,动态:6820,动态:7603,动态:16754,动态:10136,动态:21740,动态:22696,动态:21436,动态:20399,动态:20364,动态:21780,动态:22692,动态:22659,动态:22698,动态:21975,动态:21556,动态:22688,动态:22702,动态:22507,动态:22146,动态:21745,动态:22699,动态:21753,动态:21763,动态:21972,动态:21727,动态:21737,动态:22697,动态:22710,动态:21741,动态:22685</t>
+          <t>动态:22075,动态:6773,动态:6845,动态:6848,动态:6762,动态:6790,动态:6666,动态:6761,动态:6652,动态:6692,动态:6779,动态:6752,动态:6777,动态:6767,动态:6755,动态:6584,动态:18024,动态:6606,动态:8002,动态:13605,动态:6820,动态:7603,动态:16754,动态:10136,动态:22688,动态:21975,动态:22710,动态:21436,动态:22699,动态:21757,动态:22323,动态:20399,动态:21776,动态:22667,动态:22507,动态:22702,动态:22696,动态:22512,动态:22697,动态:21740,动态:21737,动态:22685,动态:22659,动态:20439,动态:21763,动态:4036,动态:21753,动态:20364,动态:21857,动态:17337</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>动态:21740,动态:21780,动态:22706,动态:20399,动态:4036,动态:21745,动态:21556,动态:21975,动态:22692,动态:20720,动态:22684,动态:21857,动态:22697,动态:22507,动态:21727,动态:22146,动态:20439,动态:22710,动态:21436,动态:22680,动态:22659,动态:22512,动态:22667,动态:21763,动态:22685,动态:20440,动态:22698,动态:22702,动态:22688,动态:21776,动态:22323,动态:7746,动态:21741,动态:20364,动态:21737,动态:22696,动态:21757,动态:22019,动态:22699,动态:21756,动态:21753,动态:17337,动态:21972</t>
+          <t>动态:22146,动态:22692,动态:7746,动态:21776,动态:22019,动态:21972,动态:20399,动态:20720,动态:21757,动态:17337,动态:21756,动态:21741,动态:21727,动态:21780,动态:22699,动态:21857,动态:22702,动态:22685,动态:22659,动态:22680,动态:22710,动态:21556,动态:21436,动态:22512,动态:22706,动态:22696,动态:22323,动态:4036,动态:21745,动态:20364,动态:22688,动态:22684,动态:21975,动态:20439,动态:22507,动态:22667,动态:21753,动态:21737,动态:22697,动态:20440,动态:21740,动态:22698,动态:21763</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>动态:20364,动态:22688,动态:21972,动态:22697,动态:21745,动态:21975,动态:22323,动态:21780,动态:4036,动态:22699,动态:21740,动态:22692,动态:21436,动态:22507,动态:21556,动态:22667,动态:20439,动态:21727,动态:22684,动态:22019,动态:20440,动态:22706,动态:22696,动态:22680,动态:22698,动态:21757,动态:21763,动态:17337,动态:22710,动态:20399,动态:20720,动态:22512,动态:22702,动态:21753,动态:22685,动态:21741,动态:21737,动态:22659,动态:21776,动态:21857,动态:22146,动态:21756,动态:7746</t>
+          <t>动态:21727,动态:21780,动态:21757,动态:22659,动态:22680,动态:22688,动态:22706,动态:22696,动态:22323,动态:22692,动态:22667,动态:21737,动态:21740,动态:21436,动态:22697,动态:22507,动态:22702,动态:20720,动态:21763,动态:20399,动态:22698,动态:22146,动态:22684,动态:20364,动态:7746,动态:21857,动态:17337,动态:20440,动态:21745,动态:22512,动态:21556,动态:22710,动态:22699,动态:4036,动态:21975,动态:21753,动态:22685,动态:21972,动态:22019,动态:21756,动态:21776,动态:21741,动态:20439</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>动态:20720,动态:22699,动态:22697,动态:21741,动态:21740,动态:21972,动态:22685,动态:22692,动态:21780,动态:22696,动态:22512,动态:22702,动态:22667,动态:22323,动态:22507,动态:20439,动态:22710,动态:21763,动态:22688,动态:22684,动态:21745,动态:20399,动态:22706,动态:20364,动态:22146,动态:22680,动态:22659,动态:21727,动态:21857,动态:22019,动态:4036,动态:21737,动态:21776,动态:20440,动态:21756,动态:21556,动态:21436,动态:22698,动态:7746,动态:17337,动态:21975,动态:21757,动态:21753</t>
+          <t>动态:22659,动态:22146,动态:22706,动态:21763,动态:21436,动态:22507,动态:21972,动态:21780,动态:22692,动态:20720,动态:20364,动态:21727,动态:21741,动态:21756,动态:7746,动态:22698,动态:4036,动态:22702,动态:22685,动态:22684,动态:17337,动态:21556,动态:21975,动态:21857,动态:22699,动态:22680,动态:20399,动态:22667,动态:21757,动态:22697,动态:22323,动态:21740,动态:20440,动态:21776,动态:22710,动态:22696,动态:21737,动态:22512,动态:22688,动态:20439,动态:21745,动态:21753,动态:22019</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>动态:22696,动态:22699,动态:22323,动态:21753,动态:20440,动态:20720,动态:22512,动态:22146,动态:21745,动态:22019,动态:22684,动态:22702,动态:21975,动态:22507,动态:21763,动态:22685,动态:21780,动态:21776,动态:21436,动态:21756,动态:20439,动态:21556,动态:22692,动态:21737,动态:4036,动态:22680,动态:21757,动态:20399,动态:17337,动态:22667,动态:7746,动态:21972,动态:21727,动态:21740,动态:22688,动态:22697,动态:22659,动态:22706,动态:21741,动态:20364,动态:22698,动态:21857,动态:22710</t>
+          <t>动态:22684,动态:22702,动态:21436,动态:21740,动态:20720,动态:20364,动态:7746,动态:20440,动态:20439,动态:22512,动态:21763,动态:22696,动态:22692,动态:22699,动态:22507,动态:4036,动态:21556,动态:22667,动态:21756,动态:22323,动态:21975,动态:21741,动态:21745,动态:21757,动态:22706,动态:21753,动态:21776,动态:21737,动态:21727,动态:22698,动态:22680,动态:21780,动态:22710,动态:22685,动态:22019,动态:22659,动态:17337,动态:22146,动态:21972,动态:22688,动态:20399,动态:21857,动态:22697</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>动态:22507,动态:22019,动态:22146,动态:22697,动态:22685,动态:20440,动态:21857,动态:22699,动态:17337,动态:21741,动态:20720,动态:21756,动态:21737,动态:21745,动态:22667,动态:22696,动态:22702,动态:21556,动态:21972,动态:21727,动态:22512,动态:22680,动态:4036,动态:22688,动态:22323,动态:21757,动态:20364,动态:22659,动态:21763,动态:21975,动态:22698,动态:22684,动态:21740,动态:21753,动态:21780,动态:21776,动态:22692,动态:21436,动态:7746,动态:20399,动态:22706,动态:20439,动态:22710</t>
+          <t>动态:22702,动态:21757,动态:21753,动态:21857,动态:22684,动态:20439,动态:21763,动态:20399,动态:21975,动态:22323,动态:21740,动态:20440,动态:22699,动态:22706,动态:22146,动态:21972,动态:20720,动态:22698,动态:22512,动态:21756,动态:21556,动态:21741,动态:22696,动态:22019,动态:22667,动态:22507,动态:22688,动态:22680,动态:22710,动态:7746,动态:21776,动态:22685,动态:22659,动态:21745,动态:4036,动态:22697,动态:21780,动态:21436,动态:21727,动态:21737,动态:20364,动态:22692,动态:17337</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>动态:22702,动态:22692,动态:4036,动态:21857,动态:17337,动态:20439,动态:22685,动态:21756,动态:22706,动态:22019,动态:22699,动态:7746,动态:21556,动态:22698,动态:22507,动态:21780,动态:20720,动态:22710,动态:22659,动态:20399,动态:21972,动态:21757,动态:21741,动态:21776,动态:21763,动态:20364,动态:22696,动态:22688,动态:21753,动态:21975,动态:21727,动态:22697,动态:22323,动态:21737,动态:21745,动态:22512,动态:20440,动态:21740,动态:21436,动态:22684,动态:22146,动态:22667,动态:22680</t>
+          <t>动态:22697,动态:22696,动态:21972,动态:20364,动态:21857,动态:22323,动态:22692,动态:22684,动态:21737,动态:21745,动态:21741,动态:20439,动态:22680,动态:22706,动态:22667,动态:22019,动态:20720,动态:20440,动态:22507,动态:17337,动态:22146,动态:21776,动态:21727,动态:20399,动态:22702,动态:21740,动态:4036,动态:22659,动态:21436,动态:22512,动态:21556,动态:21757,动态:22685,动态:21753,动态:22699,动态:21975,动态:7746,动态:21763,动态:21756,动态:22698,动态:22688,动态:22710,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>动态:22019,动态:21975,动态:21972,动态:22507,动态:21776,动态:21745,动态:22696,动态:20364,动态:22698,动态:22512,动态:21740,动态:22685,动态:21857,动态:20399,动态:22697,动态:22692,动态:17337,动态:21757,动态:21753,动态:21741,动态:22323,动态:22684,动态:22680,动态:22699,动态:21737,动态:21780,动态:21763,动态:20720,动态:21556,动态:21756,动态:22706,动态:21436,动态:7746,动态:22146,动态:20440,动态:22688,动态:21727,动态:22702,动态:4036,动态:20439,动态:22710,动态:22667,动态:22659</t>
+          <t>动态:22710,动态:22146,动态:21857,动态:21740,动态:22507,动态:20440,动态:22688,动态:22698,动态:21556,动态:21737,动态:21727,动态:21763,动态:22667,动态:7746,动态:21741,动态:22702,动态:21436,动态:20364,动态:20439,动态:20399,动态:22659,动态:22512,动态:21975,动态:20720,动态:17337,动态:22696,动态:21756,动态:22692,动态:22699,动态:21757,动态:22019,动态:21972,动态:4036,动态:22697,动态:21753,动态:21780,动态:21776,动态:22685,动态:22684,动态:22680,动态:22706,动态:21745,动态:22323</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>动态:22512,动态:21776,动态:21745,动态:21727,动态:21436,动态:22323,动态:21756,动态:21857,动态:21780,动态:21972,动态:21741,动态:20399,动态:22702,动态:22507,动态:22019,动态:22699,动态:22696,动态:21737,动态:22685,动态:21975,动态:22688,动态:22710,动态:22698,动态:20720,动态:21763,动态:22684,动态:17337,动态:22146,动态:20440,动态:22692,动态:21556,动态:22659,动态:20364,动态:22706,动态:22667,动态:22697,动态:22680,动态:20439,动态:21757,动态:7746,动态:21753,动态:21740,动态:4036</t>
+          <t>动态:20439,动态:22507,动态:20440,动态:22512,动态:21975,动态:22698,动态:21737,动态:21763,动态:21776,动态:7746,动态:20364,动态:21780,动态:21556,动态:21972,动态:21741,动态:21745,动态:22019,动态:22692,动态:21757,动态:20720,动态:22667,动态:22685,动态:21753,动态:22146,动态:20399,动态:17337,动态:22323,动态:22688,动态:22684,动态:21857,动态:22697,动态:22702,动态:22699,动态:22659,动态:22710,动态:4036,动态:22680,动态:22706,动态:21756,动态:21436,动态:22696,动态:21727,动态:21740</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>动态:21556,动态:21753,动态:21727,动态:17337,动态:21780,动态:22688,动态:22710,动态:4036,动态:22323,动态:21975,动态:20364,动态:20720,动态:22699,动态:22692,动态:21745,动态:21757,动态:22680,动态:22667,动态:22698,动态:21972,动态:21756,动态:22685,动态:21436,动态:22684,动态:22019,动态:22512,动态:21741,动态:20440,动态:20399,动态:22146,动态:21763,动态:22659,动态:22706,动态:20439,动态:22696,动态:22507,动态:21740,动态:7746,动态:21776,动态:22697,动态:21737,动态:21857,动态:22702</t>
+          <t>动态:17337,动态:20364,动态:22667,动态:21753,动态:21776,动态:22512,动态:20720,动态:20399,动态:21556,动态:21756,动态:21737,动态:7746,动态:21857,动态:22146,动态:21727,动态:21757,动态:22702,动态:22323,动态:22684,动态:22696,动态:22699,动态:22697,动态:21741,动态:22692,动态:22688,动态:21740,动态:22680,动态:21975,动态:20439,动态:22685,动态:21745,动态:21972,动态:4036,动态:22659,动态:22706,动态:20440,动态:22507,动态:22710,动态:22698,动态:21763,动态:21780,动态:21436,动态:22019</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>动态:21745,动态:21737,动态:21756,动态:22697,动态:22688,动态:20440,动态:22512,动态:22710,动态:22706,动态:22699,动态:21763,动态:17337,动态:22698,动态:22019,动态:22692,动态:21780,动态:22685,动态:21556,动态:21857,动态:21753,动态:21972,动态:22702,动态:21757,动态:22684,动态:20364,动态:20439,动态:21727,动态:22667,动态:22323,动态:22659,动态:22146,动态:22507,动态:21740,动态:20399,动态:7746,动态:4036,动态:21741,动态:22680,动态:20720,动态:21436,动态:21776,动态:21975,动态:22696</t>
+          <t>动态:22696,动态:22019,动态:21753,动态:20439,动态:20440,动态:22698,动态:21780,动态:22692,动态:20364,动态:22702,动态:21972,动态:7746,动态:22684,动态:21763,动态:21776,动态:21436,动态:22146,动态:22507,动态:4036,动态:20720,动态:20399,动态:21857,动态:21757,动态:22706,动态:21556,动态:22323,动态:22685,动态:21737,动态:22699,动态:21975,动态:21756,动态:21745,动态:21727,动态:22512,动态:22710,动态:22667,动态:22688,动态:22697,动态:22659,动态:21741,动态:22680,动态:17337,动态:21740</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>动态:21737,动态:22512,动态:22667,动态:22507,动态:22688,动态:22698,动态:21972,动态:21745,动态:21975,动态:22019,动态:22323,动态:21556,动态:21753,动态:4036,动态:22706,动态:22659,动态:22699,动态:22702,动态:21776,动态:22696,动态:22697,动态:21763,动态:22692,动态:20720,动态:20399,动态:21857,动态:21756,动态:20440,动态:17337,动态:22685,动态:21741,动态:21436,动态:22680,动态:21780,动态:20439,动态:22684,动态:21757,动态:20364,动态:22710,动态:22146,动态:21727,动态:7746,动态:21740</t>
+          <t>动态:22019,动态:21741,动态:22146,动态:22699,动态:22667,动态:22680,动态:22698,动态:21753,动态:21763,动态:21776,动态:22702,动态:22507,动态:21857,动态:7746,动态:22696,动态:21780,动态:22710,动态:21756,动态:20439,动态:22659,动态:21757,动态:22688,动态:21737,动态:21436,动态:20399,动态:21975,动态:20720,动态:22692,动态:21727,动态:20364,动态:22706,动态:21745,动态:20440,动态:22697,动态:21740,动态:22323,动态:17337,动态:22685,动态:21556,动态:4036,动态:21972,动态:22512,动态:22684</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>动态:20439,动态:21763,动态:21753,动态:20399,动态:21740,动态:22685,动态:21857,动态:22019,动态:22692,动态:22710,动态:22659,动态:21780,动态:21975,动态:21757,动态:17337,动态:22698,动态:21556,动态:4036,动态:21756,动态:22702,动态:22323,动态:20440,动态:22667,动态:21737,动态:22706,动态:22684,动态:21776,动态:22507,动态:21741,动态:21727,动态:21436,动态:22512,动态:7746,动态:22146,动态:21972,动态:22680,动态:20720,动态:22697,动态:22699,动态:21745,动态:22688,动态:22696,动态:20364</t>
+          <t>动态:20399,动态:21975,动态:22710,动态:22692,动态:21780,动态:17337,动态:21740,动态:20439,动态:22512,动态:21776,动态:22680,动态:7746,动态:22323,动态:21972,动态:22667,动态:21741,动态:21727,动态:20440,动态:21757,动态:21556,动态:22699,动态:22685,动态:22697,动态:22702,动态:20720,动态:4036,动态:22696,动态:21857,动态:21436,动态:21745,动态:20364,动态:22688,动态:21763,动态:22019,动态:22507,动态:21756,动态:21753,动态:22698,动态:22659,动态:22706,动态:21737,动态:22684,动态:22146</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>动态:21848,动态:22611,动态:17691,动态:17694,动态:17693,动态:12069,动态:20759,动态:21103,动态:22097,动态:20836,动态:20840,动态:6522,动态:20672,动态:12901,动态:12898,动态:12727,动态:21417,动态:12896,动态:12719,动态:12589,动态:12592,动态:12593,动态:12595,动态:12711,动态:20673,动态:12690,动态:16395,动态:19208,动态:20274,动态:20270,动态:20256,动态:20005,动态:6775,动态:19007,动态:19783,动态:17757,动态:17769,动态:18509,动态:18781,动态:18506,动态:19935,动态:18467,动态:19995,动态:20200,动态:18871,动态:19606,动态:12557,动态:16914,动态:21757,动态:6893</t>
+          <t>动态:21848,动态:22611,动态:17691,动态:17694,动态:17693,动态:12069,动态:20759,动态:21103,动态:22097,动态:20836,动态:20840,动态:6522,动态:20672,动态:12901,动态:12898,动态:12727,动态:21417,动态:12896,动态:12719,动态:12589,动态:12592,动态:12593,动态:12595,动态:12711,动态:20673,动态:12690,动态:16395,动态:19208,动态:20274,动态:20270,动态:20256,动态:20005,动态:6775,动态:19007,动态:19783,动态:17757,动态:17769,动态:18509,动态:18781,动态:18506,动态:19935,动态:18467,动态:19995,动态:20200,动态:18871,动态:22702,动态:19821,动态:22688,动态:17625,动态:8259</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>动态:22667,动态:22696,动态:21776,动态:22699,动态:21972,动态:21757,动态:22507,动态:21756,动态:21556,动态:21741,动态:22698,动态:21745,动态:20439,动态:22706,动态:21737,动态:7746,动态:22685,动态:4036,动态:22702,动态:21975,动态:22697,动态:22692,动态:22684,动态:21763,动态:22659,动态:22688,动态:22512,动态:22680,动态:22323,动态:20364,动态:21740,动态:21727,动态:20440,动态:22019,动态:22146,动态:20720,动态:21857,动态:21753,动态:21436,动态:20399,动态:22710,动态:21780,动态:17337</t>
+          <t>动态:22680,动态:21757,动态:22706,动态:21436,动态:21740,动态:21741,动态:22688,动态:22659,动态:17337,动态:22507,动态:21745,动态:22696,动态:21975,动态:20364,动态:20439,动态:7746,动态:20440,动态:21972,动态:22697,动态:22685,动态:20399,动态:20720,动态:22019,动态:21776,动态:22692,动态:21763,动态:21756,动态:21556,动态:22684,动态:21780,动态:21857,动态:22710,动态:22667,动态:22512,动态:21753,动态:21737,动态:22698,动态:22699,动态:22323,动态:22702,动态:22146,动态:21727,动态:4036</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>动态:21737,动态:22507,动态:20720,动态:22146,动态:21972,动态:21436,动态:22697,动态:21756,动态:22512,动态:22688,动态:22323,动态:21745,动态:21727,动态:22706,动态:22685,动态:22699,动态:20440,动态:21776,动态:22680,动态:22019,动态:22692,动态:21741,动态:22659,动态:22698,动态:22702,动态:21753,动态:7746,动态:22696,动态:21763,动态:20399,动态:20364,动态:22684,动态:22667,动态:21857,动态:20439,动态:4036,动态:21757,动态:21780,动态:21556,动态:21975,动态:21740,动态:22710</t>
+          <t>动态:21740,动态:20399,动态:22706,动态:21741,动态:20720,动态:22688,动态:7746,动态:21756,动态:21763,动态:22507,动态:4036,动态:22512,动态:22685,动态:22680,动态:22697,动态:22710,动态:21737,动态:20364,动态:21757,动态:20439,动态:22702,动态:21753,动态:21436,动态:22323,动态:22696,动态:22692,动态:20440,动态:22667,动态:22146,动态:21972,动态:21780,动态:22659,动态:22699,动态:21727,动态:22698,动态:22019,动态:21745,动态:21975,动态:21776,动态:21556,动态:22684,动态:21857</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>动态:22685,动态:22702,动态:21737,动态:22699,动态:20440,动态:22512,动态:21756,动态:7746,动态:21556,动态:22698,动态:21972,动态:21857,动态:20399,动态:22692,动态:21727,动态:22706,动态:22697,动态:21757,动态:21975,动态:21741,动态:21436,动态:22323,动态:22667,动态:22680,动态:22696,动态:22684,动态:22710,动态:4036,动态:21780,动态:21763,动态:17337,动态:20439,动态:21740,动态:22507,动态:21745,动态:21753,动态:22659,动态:22019,动态:20720,动态:22146,动态:22688,动态:21776,动态:20364</t>
+          <t>动态:21757,动态:22685,动态:21727,动态:21776,动态:22710,动态:22696,动态:22702,动态:21857,动态:22684,动态:22019,动态:20364,动态:22512,动态:21756,动态:21780,动态:22146,动态:22698,动态:21741,动态:20399,动态:22680,动态:20720,动态:21745,动态:21753,动态:22667,动态:22688,动态:21737,动态:22697,动态:22323,动态:21436,动态:22507,动态:21740,动态:21972,动态:21556,动态:22692,动态:20439,动态:22706,动态:22659,动态:17337,动态:20440,动态:4036,动态:21763,动态:7746,动态:22699,动态:21975</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>动态:22692,动态:22696,动态:21436,动态:22697,动态:21780,动态:22698,动态:22710,动态:22702,动态:21776,动态:21756,动态:20399,动态:22688,动态:21753,动态:21975,动态:22667,动态:22706,动态:21757,动态:21745,动态:22684,动态:21740,动态:21763,动态:22019,动态:17337,动态:22512,动态:22323,动态:21972,动态:22680,动态:22685,动态:22699,动态:21737,动态:21741,动态:22146,动态:21857,动态:21727,动态:7746,动态:4036,动态:22507,动态:21556,动态:22659,动态:20440,动态:20720,动态:20364,动态:20439</t>
+          <t>动态:20720,动态:21757,动态:22323,动态:21857,动态:4036,动态:22667,动态:22702,动态:22512,动态:21727,动态:22019,动态:21556,动态:21737,动态:21975,动态:22692,动态:22684,动态:21756,动态:21741,动态:21753,动态:22698,动态:17337,动态:22697,动态:20440,动态:21776,动态:20364,动态:21436,动态:22659,动态:22710,动态:22706,动态:21763,动态:22688,动态:22146,动态:20439,动态:22507,动态:7746,动态:21745,动态:22680,动态:21780,动态:22696,动态:21740,动态:21972,动态:22699,动态:20399,动态:22685</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>动态:22698,动态:20440,动态:21756,动态:7746,动态:20364,动态:21975,动态:21740,动态:21753,动态:22685,动态:22512,动态:22667,动态:21972,动态:21776,动态:22710,动态:22688,动态:21857,动态:21556,动态:21763,动态:22697,动态:22696,动态:4036,动态:22680,动态:22507,动态:20439,动态:21780,动态:22659,动态:17337,动态:22692,动态:21741,动态:21727,动态:21745,动态:22684,动态:22146,动态:21436,动态:22019,动态:20399,动态:22702,动态:22699,动态:22706,动态:20720,动态:22323,动态:21757,动态:21737</t>
+          <t>动态:22692,动态:21436,动态:21745,动态:22684,动态:21763,动态:22710,动态:22699,动态:20439,动态:21975,动态:21727,动态:22680,动态:22706,动态:22323,动态:4036,动态:20399,动态:21753,动态:21780,动态:20364,动态:21776,动态:22667,动态:21556,动态:21757,动态:20440,动态:22146,动态:22688,动态:22702,动态:21756,动态:17337,动态:21857,动态:21740,动态:22512,动态:22697,动态:22698,动态:21972,动态:22685,动态:22019,动态:7746,动态:21737,动态:20720,动态:21741,动态:22507,动态:22659,动态:22696</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>动态:21741,动态:21436,动态:21556,动态:21753,动态:21975,动态:20399,动态:22698,动态:20720,动态:20440,动态:22685,动态:22146,动态:22688,动态:22680,动态:22710,动态:21756,动态:21740,动态:21757,动态:22019,动态:22684,动态:17337,动态:22692,动态:22706,动态:21972,动态:22696,动态:21780,动态:4036,动态:7746,动态:20439,动态:22507,动态:21727,动态:22323,动态:21776,动态:22702,动态:21745,动态:22512,动态:22659,动态:22667,动态:22697,动态:21857,动态:21737,动态:21763,动态:20364,动态:22699</t>
+          <t>动态:4036,动态:22697,动态:22696,动态:22699,动态:22688,动态:22323,动态:21776,动态:21737,动态:22680,动态:21753,动态:21727,动态:21780,动态:22507,动态:21857,动态:22019,动态:20720,动态:22659,动态:22710,动态:21975,动态:22512,动态:20364,动态:22692,动态:20440,动态:22706,动态:21740,动态:17337,动态:22698,动态:21436,动态:22702,动态:21757,动态:21556,动态:20399,动态:21741,动态:22685,动态:22146,动态:21763,动态:20439,动态:21972,动态:21756,动态:7746,动态:22667,动态:22684,动态:21745</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>动态:22696,动态:22146,动态:22692,动态:21741,动态:20364,动态:21745,动态:21975,动态:17337,动态:21780,动态:21556,动态:4036,动态:21737,动态:21756,动态:20399,动态:22688,动态:22019,动态:22680,动态:22659,动态:22507,动态:22667,动态:20439,动态:22512,动态:21757,动态:20720,动态:21753,动态:22684,动态:22702,动态:7746,动态:21763,动态:21972,动态:22698,动态:22699,动态:21776,动态:22685,动态:20440,动态:21740,动态:22706,动态:21727,动态:22323,动态:22710,动态:21436,动态:22697,动态:21857</t>
+          <t>动态:21780,动态:22702,动态:22685,动态:20440,动态:22507,动态:21776,动态:22667,动态:21436,动态:22684,动态:22699,动态:22512,动态:21972,动态:22019,动态:21763,动态:20364,动态:21727,动态:21757,动态:20439,动态:21756,动态:21740,动态:21975,动态:21857,动态:22688,动态:22680,动态:17337,动态:21741,动态:21737,动态:7746,动态:21753,动态:22146,动态:22706,动态:22323,动态:22692,动态:22697,动态:21745,动态:22698,动态:20399,动态:22696,动态:22710,动态:4036,动态:20720,动态:22659,动态:21556</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>动态:22685,动态:22706,动态:22507,动态:21753,动态:21780,动态:22323,动态:21975,动态:21737,动态:20364,动态:21727,动态:21972,动态:22710,动态:21745,动态:21757,动态:21763,动态:22696,动态:22659,动态:21556,动态:22698,动态:21741,动态:22697,动态:20399,动态:22667,动态:21776,动态:20439,动态:21756,动态:22019,动态:17337,动态:22688,动态:7746,动态:21436,动态:22692,动态:4036,动态:21740,动态:20720,动态:22512,动态:22702,动态:22699,动态:22146,动态:21857,动态:22680,动态:22684</t>
+          <t>动态:22706,动态:22710,动态:21756,动态:21757,动态:22696,动态:21753,动态:20399,动态:22685,动态:22699,动态:21737,动态:22019,动态:21972,动态:21780,动态:22684,动态:22697,动态:22146,动态:21740,动态:22692,动态:22659,动态:20439,动态:17337,动态:22512,动态:21776,动态:21745,动态:21436,动态:4036,动态:22688,动态:22507,动态:22702,动态:21857,动态:20364,动态:20720,动态:22323,动态:22667,动态:21556,动态:22680,动态:21975,动态:21763,动态:22698,动态:7746,动态:21727,动态:21741</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>动态:21556,动态:20399,动态:21975,动态:21757,动态:21780,动态:22710,动态:17337,动态:22680,动态:21972,动态:20364,动态:22699,动态:22146,动态:21727,动态:7746,动态:21436,动态:20439,动态:21763,动态:22323,动态:21753,动态:22019,动态:22512,动态:22702,动态:22507,动态:21741,动态:22696,动态:21857,动态:4036,动态:22684,动态:22706,动态:21740,动态:20440,动态:21776,动态:22688,动态:20720,动态:21756,动态:21745,动态:21737,动态:22698,动态:22667,动态:22685,动态:22659,动态:22697,动态:22692</t>
+          <t>动态:21436,动态:7746,动态:22684,动态:22706,动态:22507,动态:22688,动态:21857,动态:22698,动态:4036,动态:21776,动态:22659,动态:22702,动态:21740,动态:22667,动态:20440,动态:21753,动态:22146,动态:22323,动态:21556,动态:22692,动态:22697,动态:21975,动态:21763,动态:22710,动态:21757,动态:20720,动态:21741,动态:22696,动态:22512,动态:20399,动态:22680,动态:21745,动态:22019,动态:20439,动态:21780,动态:21737,动态:22685,动态:22699,动态:17337,动态:21727,动态:20364,动态:21756,动态:21972</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>动态:21776,动态:22323,动态:21753,动态:22698,动态:22702,动态:22699,动态:22692,动态:22667,动态:22507,动态:17337,动态:22680,动态:21857,动态:22685,动态:22696,动态:21737,动态:21436,动态:7746,动态:22146,动态:21745,动态:21740,动态:21975,动态:22512,动态:21756,动态:22697,动态:21556,动态:21780,动态:22659,动态:20440,动态:21763,动态:22019,动态:20439,动态:20364,动态:20399,动态:21972,动态:21741,动态:22688,动态:22706,动态:4036,动态:22710,动态:20720,动态:21727,动态:21757,动态:22684</t>
+          <t>动态:21556,动态:22659,动态:22512,动态:21436,动态:21763,动态:21857,动态:22146,动态:20364,动态:22680,动态:22685,动态:22692,动态:20720,动态:22667,动态:22507,动态:20399,动态:20440,动态:22699,动态:22706,动态:22684,动态:21753,动态:20439,动态:22323,动态:7746,动态:17337,动态:21745,动态:21756,动态:21740,动态:22688,动态:21780,动态:21776,动态:21727,动态:22697,动态:21975,动态:4036,动态:22019,动态:21757,动态:21741,动态:22702,动态:22710,动态:21737,动态:21972,动态:22698,动态:22696</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>动态:22685,动态:22684,动态:22146,动态:22692,动态:22323,动态:22507,动态:22698,动态:22659,动态:21756,动态:20364,动态:21975,动态:4036,动态:22680,动态:20440,动态:21857,动态:21741,动态:20399,动态:17337,动态:22019,动态:22688,动态:21763,动态:22512,动态:21780,动态:20439,动态:21436,动态:21740,动态:22702,动态:21737,动态:7746,动态:20720,动态:22667,动态:21757,动态:21753,动态:21556,动态:22696,动态:22699,动态:21727,动态:21972,动态:22706,动态:22697,动态:21745,动态:22710,动态:21776</t>
+          <t>动态:22685,动态:17337,动态:21753,动态:21763,动态:20399,动态:22710,动态:22323,动态:21740,动态:21972,动态:22702,动态:21975,动态:22507,动态:22512,动态:22692,动态:22697,动态:22696,动态:21857,动态:21756,动态:20720,动态:21745,动态:20440,动态:22698,动态:20364,动态:7746,动态:22019,动态:21436,动态:21727,动态:22680,动态:22667,动态:22688,动态:21741,动态:21757,动态:21556,动态:21737,动态:20439,动态:21776,动态:22684,动态:22659,动态:22699,动态:21780,动态:4036,动态:22706,动态:22146</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>动态:22667,动态:7746,动态:21737,动态:22706,动态:22659,动态:22696,动态:22146,动态:20720,动态:20399,动态:21727,动态:4036,动态:20364,动态:22512,动态:20439,动态:22507,动态:22692,动态:21745,动态:21780,动态:21741,动态:22702,动态:22710,动态:21753,动态:22684,动态:22697,动态:22698,动态:17337,动态:21436,动态:22323,动态:22680,动态:22688,动态:21763,动态:20440,动态:21556,动态:22699,动态:21740,动态:21776,动态:21757,动态:22685,动态:21857,动态:21756,动态:21975,动态:22019,动态:21972</t>
+          <t>动态:22702,动态:21436,动态:22685,动态:21745,动态:22710,动态:22323,动态:20364,动态:22507,动态:22659,动态:22692,动态:22696,动态:21740,动态:21741,动态:21556,动态:22667,动态:21857,动态:21757,动态:17337,动态:21776,动态:22512,动态:21756,动态:7746,动态:21727,动态:22684,动态:22697,动态:21780,动态:22146,动态:4036,动态:21972,动态:22698,动态:20439,动态:20440,动态:22688,动态:22699,动态:21975,动态:21753,动态:20399,动态:21763,动态:22019,动态:22680,动态:21737,动态:22706,动态:20720</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>动态:20720,动态:22323,动态:20439,动态:22659,动态:22146,动态:21975,动态:20364,动态:21757,动态:21745,动态:21753,动态:22680,动态:21556,动态:21737,动态:22507,动态:21972,动态:22702,动态:21436,动态:21756,动态:20399,动态:17337,动态:22699,动态:22710,动态:7746,动态:22696,动态:22667,动态:22692,动态:22698,动态:21763,动态:21727,动态:22688,动态:21740,动态:22684,动态:21780,动态:20440,动态:21741,动态:22697,动态:22019,动态:21857,动态:22685,动态:21776,动态:4036,动态:22512,动态:22706</t>
+          <t>动态:22680,动态:22710,动态:21975,动态:22019,动态:22684,动态:20364,动态:22692,动态:17337,动态:22699,动态:21737,动态:21727,动态:22706,动态:22688,动态:22698,动态:22507,动态:20440,动态:21763,动态:22697,动态:21753,动态:21972,动态:4036,动态:21745,动态:21756,动态:21436,动态:21780,动态:22323,动态:22659,动态:22685,动态:20399,动态:7746,动态:22146,动态:20720,动态:21857,动态:20439,动态:21556,动态:22702,动态:21757,动态:21740,动态:21741,动态:22512,动态:21776,动态:22667,动态:22696</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>动态:4036,动态:22697,动态:21857,动态:20720,动态:22512,动态:21776,动态:21780,动态:21745,动态:22685,动态:21757,动态:7746,动态:22692,动态:22688,动态:20399,动态:22323,动态:17337,动态:22507,动态:21975,动态:22696,动态:21436,动态:21763,动态:21972,动态:22684,动态:22710,动态:22699,动态:20440,动态:22019,动态:20364,动态:21740,动态:21727,动态:22659,动态:21741,动态:22680,动态:22146,动态:21556,动态:21753,动态:22706,动态:22667,动态:22698,动态:21756,动态:21737,动态:22702,动态:20439</t>
+          <t>动态:20399,动态:21740,动态:22688,动态:22706,动态:21975,动态:21737,动态:21763,动态:22710,动态:21753,动态:22685,动态:21757,动态:22702,动态:21436,动态:4036,动态:21741,动态:21776,动态:21556,动态:20439,动态:22698,动态:21745,动态:22680,动态:22697,动态:22146,动态:20440,动态:17337,动态:21727,动态:21972,动态:22512,动态:20364,动态:22659,动态:22684,动态:22667,动态:7746,动态:21756,动态:22696,动态:21780,动态:22507,动态:21857,动态:22323,动态:22692,动态:22019,动态:20720,动态:22699</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>动态:21727,动态:22667,动态:22706,动态:21737,动态:22019,动态:21780,动态:21763,动态:20399,动态:22699,动态:21776,动态:22685,动态:21857,动态:21975,动态:22688,动态:20364,动态:22710,动态:21556,动态:22696,动态:20439,动态:7746,动态:22507,动态:21972,动态:21756,动态:20720,动态:21740,动态:22512,动态:21436,动态:21753,动态:21745,动态:21757,动态:22698,动态:22680,动态:22146,动态:22684,动态:22697,动态:21741,动态:4036,动态:22323,动态:22659,动态:22692,动态:22702</t>
+          <t>动态:21756,动态:22680,动态:22688,动态:21740,动态:22684,动态:21975,动态:21436,动态:21737,动态:21972,动态:22512,动态:20399,动态:21727,动态:21745,动态:21857,动态:22698,动态:22699,动态:22019,动态:22697,动态:22507,动态:22146,动态:22692,动态:20439,动态:22667,动态:7746,动态:21757,动态:21556,动态:20364,动态:22659,动态:21776,动态:22710,动态:21763,动态:21780,动态:20720,动态:4036,动态:22323,动态:22696,动态:22685,动态:22706,动态:21741,动态:21753,动态:22702</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>动态:22667,动态:21436,动态:20399,动态:22684,动态:21972,动态:22512,动态:22710,动态:21741,动态:22692,动态:22680,动态:22688,动态:22323,动态:22702,动态:4036,动态:21737,动态:21975,动态:22507,动态:20720,动态:21756,动态:21757,动态:21753,动态:7746,动态:20440,动态:21857,动态:21740,动态:21556,动态:22685,动态:20364,动态:21780,动态:22696,动态:22699,动态:21745,动态:22146,动态:17337,动态:21763,动态:20439,动态:21727,动态:22706,动态:21776,动态:22019,动态:22659,动态:22698,动态:22697</t>
+          <t>动态:22512,动态:20399,动态:22699,动态:22685,动态:22684,动态:20439,动态:21436,动态:20440,动态:22697,动态:22507,动态:20720,动态:4036,动态:21727,动态:21975,动态:17337,动态:22680,动态:22659,动态:21756,动态:21556,动态:21737,动态:22323,动态:22688,动态:22692,动态:22710,动态:22698,动态:21972,动态:7746,动态:21763,动态:22146,动态:22702,动态:21745,动态:21776,动态:22019,动态:21780,动态:20364,动态:21757,动态:21753,动态:22696,动态:22706,动态:21740,动态:21741,动态:21857,动态:22667</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>动态:7746,动态:21757,动态:4036,动态:20720,动态:22659,动态:21737,动态:22680,动态:22692,动态:22688,动态:21556,动态:21756,动态:22684,动态:21727,动态:20440,动态:21741,动态:22019,动态:22667,动态:22697,动态:21763,动态:21776,动态:21780,动态:20439,动态:22685,动态:21753,动态:20364,动态:22696,动态:22698,动态:20399,动态:22512,动态:21745,动态:21436,动态:22146,动态:22699,动态:17337,动态:22507,动态:21857,动态:22323,动态:21972,动态:21975,动态:22706,动态:21740</t>
+          <t>动态:21975,动态:21727,动态:21556,动态:22699,动态:21740,动态:21776,动态:22512,动态:21745,动态:21763,动态:22146,动态:22685,动态:21972,动态:22659,动态:22698,动态:20440,动态:7746,动态:21741,动态:22507,动态:22684,动态:22667,动态:22688,动态:20720,动态:21737,动态:22697,动态:21753,动态:21756,动态:21757,动态:4036,动态:22680,动态:20439,动态:21857,动态:22019,动态:20364,动态:21780,动态:22692,动态:22696,动态:21436,动态:20399,动态:17337,动态:22706,动态:22323</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>动态:20440,动态:17337,动态:22659,动态:21763,动态:21727,动态:22702,动态:21857,动态:22706,动态:22323,动态:21753,动态:21737,动态:22512,动态:22680,动态:22146,动态:22507,动态:22697,动态:22696,动态:21436,动态:20399,动态:21756,动态:22019,动态:21556,动态:4036,动态:20364,动态:21740,动态:22698,动态:7746,动态:20720,动态:22684,动态:22667,动态:22710,动态:22699,动态:21780,动态:21975,动态:21745,动态:21972,动态:22685,动态:21757,动态:21776,动态:20439,动态:22688,动态:22692,动态:21741</t>
+          <t>动态:21740,动态:22698,动态:22680,动态:22702,动态:22710,动态:21972,动态:22659,动态:22667,动态:22507,动态:21776,动态:7746,动态:22146,动态:22512,动态:22684,动态:21727,动态:20440,动态:22323,动态:22697,动态:20439,动态:22699,动态:22685,动态:21436,动态:21556,动态:4036,动态:21753,动态:21975,动态:17337,动态:21857,动态:21757,动态:21741,动态:22688,动态:20399,动态:22692,动态:21763,动态:22019,动态:20720,动态:21780,动态:22696,动态:21756,动态:22706,动态:21737,动态:21745,动态:20364</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>动态:20439,动态:22019,动态:21975,动态:21857,动态:4036,动态:21740,动态:21436,动态:22684,动态:22323,动态:22696,动态:21727,动态:22146,动态:20440,动态:22659,动态:21776,动态:21763,动态:22706,动态:22697,动态:21756,动态:21556,动态:22685,动态:21780,动态:20399,动态:21757,动态:21753,动态:22667,动态:21741,动态:22507,动态:22680,动态:17337,动态:21745,动态:22698,动态:20364,动态:22688,动态:22699,动态:22692,动态:22512,动态:7746</t>
+          <t>动态:20440,动态:21753,动态:22019,动态:22684,动态:21975,动态:22680,动态:22692,动态:21857,动态:20399,动态:17337,动态:22323,动态:22659,动态:21763,动态:20439,动态:21757,动态:22507,动态:21776,动态:21727,动态:22512,动态:21745,动态:21740,动态:21756,动态:22696,动态:22667,动态:4036,动态:21741,动态:20364,动态:22698,动态:21780,动态:22706,动态:22688,动态:22699,动态:22685,动态:21556,动态:22146,动态:7746,动态:21436,动态:22697</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>动态:20720,动态:22684,动态:21745,动态:20439,动态:21727,动态:22697,动态:20440,动态:4036,动态:22667,动态:22710,动态:21737,动态:22507,动态:20399,动态:17337,动态:21972,动态:22688,动态:22685,动态:22706,动态:21780,动态:22019,动态:21975,动态:21436,动态:22146,动态:20364,动态:22323,动态:21763,动态:22692,动态:22659,动态:22680,动态:21776,动态:22698,动态:22699,动态:21740,动态:22702,动态:21753,动态:21857,动态:21741,动态:21556,动态:7746,动态:21757,动态:22696,动态:22512</t>
+          <t>动态:17337,动态:20399,动态:22699,动态:20720,动态:21740,动态:22323,动态:22684,动态:21780,动态:21737,动态:22696,动态:21763,动态:22512,动态:22692,动态:21757,动态:21753,动态:21436,动态:21745,动态:22667,动态:7746,动态:21556,动态:22659,动态:21975,动态:21741,动态:22697,动态:22688,动态:22698,动态:20440,动态:22685,动态:22706,动态:22019,动态:20364,动态:22710,动态:21776,动态:22146,动态:22680,动态:22507,动态:4036,动态:20439,动态:22702,动态:21727,动态:21972,动态:21857</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>动态:22680,动态:22512,动态:21741,动态:22692,动态:22507,动态:20440,动态:22698,动态:21727,动态:21745,动态:7746,动态:20364,动态:21753,动态:21756,动态:22688,动态:22685,动态:4036,动态:22697,动态:21972,动态:20439,动态:22706,动态:17337,动态:21975,动态:22710,动态:21763,动态:20720,动态:22659,动态:21436,动态:22146,动态:21757,动态:22323,动态:22696,动态:21556,动态:20399,动态:22699,动态:21776,动态:22019,动态:21857,动态:22667,动态:22702,动态:22684,动态:21737,动态:21740,动态:21780</t>
+          <t>动态:22692,动态:22507,动态:21756,动态:22706,动态:22659,动态:21745,动态:22019,动态:22512,动态:20440,动态:22680,动态:22667,动态:22323,动态:21780,动态:22699,动态:22697,动态:20399,动态:20439,动态:21753,动态:21740,动态:21737,动态:20364,动态:4036,动态:21776,动态:22696,动态:21857,动态:21727,动态:22684,动态:17337,动态:22146,动态:20720,动态:21436,动态:21972,动态:21763,动态:21741,动态:22698,动态:22702,动态:22688,动态:21975,动态:21556,动态:22710,动态:22685,动态:21757,动态:7746</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>动态:22698,动态:21436,动态:22684,动态:21753,动态:22702,动态:20439,动态:20399,动态:21780,动态:22323,动态:22659,动态:22697,动态:21741,动态:20440,动态:21745,动态:21737,动态:21972,动态:22696,动态:21757,动态:22512,动态:22146,动态:21857,动态:7746,动态:21756,动态:22507,动态:22685,动态:22019,动态:21776,动态:21740,动态:22667,动态:21975,动态:22680,动态:21556,动态:4036,动态:22692,动态:22710,动态:22706,动态:20364,动态:22699,动态:17337,动态:21763,动态:20720,动态:22688,动态:21727</t>
+          <t>动态:21857,动态:21741,动态:22680,动态:21753,动态:22697,动态:20720,动态:22702,动态:22699,动态:21757,动态:21737,动态:21756,动态:22706,动态:17337,动态:22512,动态:22323,动态:20399,动态:22667,动态:7746,动态:21740,动态:21745,动态:20440,动态:20364,动态:4036,动态:22507,动态:22696,动态:21727,动态:22146,动态:21556,动态:21975,动态:22692,动态:21780,动态:22698,动态:21763,动态:22688,动态:22684,动态:22659,动态:22710,动态:22685,动态:21776,动态:22019,动态:20439,动态:21972,动态:21436</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>动态:21757,动态:20399,动态:22684,动态:21737,动态:21975,动态:4036,动态:22688,动态:22685,动态:20439,动态:22667,动态:22702,动态:21780,动态:17337,动态:22699,动态:22512,动态:22697,动态:7746,动态:21776,动态:21740,动态:22146,动态:21556,动态:21756,动态:21745,动态:21857,动态:21727,动态:22692,动态:21753,动态:21436,动态:22680,动态:22706,动态:22507,动态:22710,动态:21972,动态:21763,动态:22323,动态:20364,动态:22019,动态:22698,动态:21741,动态:22696,动态:22659</t>
+          <t>动态:21436,动态:22699,动态:22710,动态:22706,动态:22684,动态:22323,动态:17337,动态:21556,动态:21756,动态:4036,动态:22146,动态:22680,动态:20439,动态:20364,动态:22692,动态:22696,动态:7746,动态:22507,动态:21740,动态:21763,动态:22697,动态:21745,动态:20399,动态:21975,动态:21780,动态:21776,动态:22659,动态:22698,动态:22019,动态:22512,动态:21737,动态:22667,动态:22702,动态:21727,动态:22688,动态:21753,动态:21741,动态:21972,动态:21757,动态:22685,动态:21857</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>动态:22659,动态:22710,动态:22702,动态:21763,动态:22323,动态:21776,动态:20720,动态:20364,动态:22688,动态:22692,动态:22019,动态:21756,动态:22507,动态:22706,动态:22667,动态:21436,动态:22698,动态:17337,动态:21975,动态:22685,动态:22684,动态:21741,动态:21857,动态:22699,动态:21727,动态:20399,动态:7746,动态:21737,动态:21745,动态:22512,动态:21972,动态:21780,动态:22146,动态:20439,动态:21556,动态:4036,动态:22680,动态:22696,动态:21753,动态:20440,动态:21757,动态:21740,动态:22697</t>
+          <t>动态:4036,动态:22507,动态:17337,动态:21776,动态:21737,动态:22688,动态:21727,动态:21780,动态:22698,动态:20440,动态:22684,动态:20399,动态:21741,动态:22706,动态:20364,动态:21745,动态:21972,动态:21753,动态:21756,动态:22710,动态:20720,动态:21975,动态:22019,动态:22697,动态:21436,动态:21857,动态:22659,动态:22699,动态:22692,动态:22696,动态:22685,动态:21740,动态:20439,动态:22702,动态:21757,动态:22512,动态:7746,动态:21763,动态:22146,动态:22323,动态:22667,动态:22680,动态:21556</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>动态:21740,动态:21776,动态:22706,动态:22019,动态:22696,动态:21763,动态:21857,动态:22710,动态:22659,动态:22688,动态:21556,动态:22512,动态:21741,动态:22692,动态:20364,动态:21757,动态:20720,动态:22698,动态:21975,动态:21745,动态:22146,动态:22697,动态:21727,动态:22699,动态:22684,动态:17337,动态:22507,动态:22680,动态:22323,动态:21972,动态:4036,动态:22702,动态:22685,动态:7746,动态:21737,动态:20399,动态:21436,动态:20439,动态:22667,动态:21780,动态:21753,动态:21756</t>
+          <t>动态:21741,动态:22659,动态:21556,动态:21756,动态:22019,动态:20720,动态:4036,动态:22685,动态:21776,动态:21857,动态:21740,动态:22710,动态:21780,动态:21975,动态:21763,动态:22512,动态:21972,动态:21745,动态:22688,动态:22697,动态:22706,动态:22146,动态:22702,动态:22696,动态:21436,动态:17337,动态:20364,动态:20439,动态:22699,动态:22507,动态:20399,动态:22692,动态:7746,动态:22323,动态:21753,动态:21737,动态:22667,动态:21727,动态:22698,动态:21757,动态:22680,动态:22684</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>动态:20720,动态:22692,动态:22323,动态:21776,动态:7746,动态:21763,动态:21753,动态:22659,动态:21727,动态:22667,动态:21972,动态:21756,动态:21556,动态:22512,动态:20364,动态:22706,动态:22019,动态:17337,动态:21780,动态:20440,动态:22688,动态:20399,动态:22696,动态:22684,动态:4036,动态:22702,动态:22685,动态:21757,动态:22680,动态:21741,动态:21436,动态:20439,动态:21740,动态:22698,动态:21857,动态:21745,动态:22697,动态:22507,动态:22699,动态:21975</t>
+          <t>动态:20440,动态:22507,动态:22692,动态:21763,动态:22680,动态:22699,动态:21745,动态:22019,动态:21753,动态:22698,动态:20439,动态:21857,动态:22512,动态:21776,动态:20399,动态:22659,动态:22688,动态:22667,动态:22697,动态:22323,动态:21780,动态:21727,动态:21757,动态:21975,动态:21972,动态:21436,动态:17337,动态:22684,动态:21756,动态:4036,动态:22696,动态:21741,动态:22702,动态:22706,动态:21740,动态:21556,动态:20720,动态:22685,动态:7746,动态:20364</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>动态:22699,动态:21975,动态:20439,动态:22692,动态:22680,动态:22512,动态:21556,动态:21745,动态:22696,动态:22667,动态:21757,动态:21740,动态:21741,动态:4036,动态:21756,动态:21780,动态:22323,动态:20399,动态:20364,动态:21776,动态:22697,动态:21727,动态:22507,动态:17337,动态:22698,动态:20440,动态:21436,动态:22685,动态:22706,动态:22684,动态:21857,动态:22659,动态:21763,动态:7746,动态:21753,动态:22019,动态:22688</t>
+          <t>动态:21975,动态:22688,动态:21756,动态:7746,动态:21741,动态:20439,动态:22667,动态:21780,动态:22699,动态:22512,动态:22698,动态:22706,动态:22680,动态:21727,动态:17337,动态:21753,动态:21745,动态:22323,动态:22507,动态:21857,动态:20364,动态:20399,动态:4036,动态:21740,动态:20440,动态:21757,动态:21776,动态:22684,动态:22659,动态:22697,动态:22696,动态:21556,动态:21436,动态:22692,动态:21763,动态:22685,动态:22019</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>动态:21972,动态:21741,动态:22680,动态:22659,动态:21745,动态:22512,动态:4036,动态:21776,动态:21757,动态:20364,动态:21727,动态:22019,动态:22696,动态:22685,动态:21857,动态:21763,动态:22684,动态:22699,动态:20439,动态:21740,动态:22688,动态:22323,动态:22667,动态:21756,动态:22507,动态:21556,动态:21780,动态:21436,动态:20399,动态:22692,动态:22697,动态:21975,动态:22698,动态:22706,动态:7746,动态:20440,动态:17337,动态:21753,动态:22702</t>
+          <t>动态:22688,动态:22507,动态:21753,动态:4036,动态:21727,动态:22323,动态:22706,动态:22667,动态:21975,动态:21745,动态:20364,动态:22684,动态:21857,动态:21740,动态:20440,动态:21436,动态:22019,动态:22692,动态:21763,动态:20439,动态:21780,动态:21972,动态:22698,动态:22702,动态:22512,动态:22699,动态:22659,动态:17337,动态:21556,动态:22696,动态:22680,动态:21756,动态:22697,动态:7746,动态:22685,动态:21776,动态:21741,动态:21757,动态:20399</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>动态:21972,动态:21436,动态:22702,动态:21745,动态:21753,动态:22697,动态:22685,动态:22710,动态:22323,动态:22146,动态:21780,动态:20399,动态:21857,动态:22706,动态:21737,动态:21776,动态:22699,动态:21740,动态:20439,动态:17337,动态:22667,动态:7746,动态:22688,动态:22512,动态:22680,动态:22696,动态:20364,动态:21741,动态:4036,动态:21727,动态:22507,动态:20720,动态:21975,动态:21763,动态:22684,动态:22659,动态:22692,动态:22019,动态:22698,动态:21756,动态:21556,动态:21757</t>
+          <t>动态:7746,动态:21745,动态:22699,动态:20399,动态:22697,动态:21436,动态:21753,动态:22692,动态:21740,动态:21763,动态:21776,动态:22684,动态:21975,动态:21556,动态:20720,动态:21972,动态:22659,动态:22706,动态:22688,动态:22512,动态:22685,动态:22667,动态:21727,动态:4036,动态:22146,动态:21757,动态:21756,动态:22507,动态:22019,动态:22698,动态:21857,动态:21737,动态:20439,动态:22702,动态:17337,动态:21780,动态:22680,动态:22323,动态:22710,动态:20364,动态:22696,动态:21741</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>动态:22696,动态:7746,动态:21857,动态:22667,动态:22512,动态:21975,动态:22698,动态:22688,动态:21757,动态:20720,动态:21740,动态:22146,动态:22706,动态:21556,动态:21753,动态:21780,动态:21756,动态:22684,动态:20439,动态:22697,动态:21776,动态:21745,动态:20399,动态:21972,动态:21727,动态:21741,动态:22323,动态:22702,动态:21763,动态:22685,动态:22019,动态:21436,动态:22680,动态:21737,动态:4036,动态:22699,动态:22659,动态:22692,动态:20364,动态:22507,动态:22710,动态:20440,动态:17337</t>
+          <t>动态:22680,动态:22659,动态:21741,动态:22699,动态:20720,动态:21756,动态:22667,动态:22512,动态:21763,动态:22688,动态:22706,动态:21745,动态:20439,动态:22507,动态:21972,动态:21737,动态:20364,动态:21753,动态:20399,动态:22710,动态:21780,动态:7746,动态:22697,动态:21556,动态:22146,动态:22685,动态:20440,动态:4036,动态:22684,动态:21436,动态:21740,动态:22696,动态:22323,动态:22702,动态:21727,动态:21975,动态:22019,动态:21857,动态:17337,动态:21776,动态:22698,动态:22692,动态:21757</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>动态:22512,动态:20720,动态:21740,动态:21741,动态:21972,动态:22697,动态:22702,动态:22019,动态:4036,动态:22507,动态:21776,动态:22692,动态:21756,动态:21975,动态:22710,动态:22680,动态:21780,动态:7746,动态:21857,动态:21436,动态:22699,动态:22146,动态:22323,动态:22659,动态:22706,动态:21727,动态:21745,动态:21556,动态:22688,动态:21763,动态:22698,动态:21753,动态:22696,动态:22684,动态:20440,动态:20399,动态:21737,动态:20439,动态:21757,动态:22685,动态:20364,动态:17337,动态:22667</t>
+          <t>动态:22692,动态:22688,动态:21436,动态:7746,动态:22512,动态:21741,动态:20440,动态:20399,动态:20364,动态:22146,动态:22323,动态:21757,动态:21556,动态:22697,动态:21776,动态:22710,动态:22698,动态:21740,动态:20439,动态:22667,动态:21727,动态:22684,动态:22680,动态:22702,动态:17337,动态:21972,动态:20720,动态:21857,动态:22659,动态:22685,动态:21753,动态:22696,动态:22706,动态:21737,动态:22019,动态:21745,动态:21756,动态:21975,动态:21780,动态:22507,动态:22699,动态:4036,动态:21763</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>动态:21975,动态:21780,动态:22685,动态:22323,动态:21436,动态:22696,动态:22659,动态:21737,动态:22667,动态:22688,动态:17337,动态:7746,动态:20720,动态:21857,动态:20440,动态:22146,动态:21757,动态:21776,动态:21972,动态:21727,动态:20399,动态:22019,动态:21741,动态:22692,动态:22699,动态:22680,动态:4036,动态:21756,动态:22706,动态:21740,动态:22702,动态:22512,动态:22684,动态:20439,动态:22697,动态:21763,动态:22507,动态:22698,动态:22710,动态:21745</t>
+          <t>动态:20720,动态:21740,动态:22697,动态:22702,动态:22507,动态:22680,动态:22323,动态:21436,动态:21756,动态:20399,动态:4036,动态:22710,动态:21972,动态:7746,动态:22696,动态:21745,动态:22019,动态:22699,动态:22706,动态:22146,动态:21727,动态:21975,动态:21737,动态:21780,动态:21741,动态:22684,动态:22667,动态:22659,动态:22698,动态:22512,动态:22692,动态:21776,动态:17337,动态:22688,动态:21757,动态:21763,动态:21857,动态:20439,动态:22685,动态:20440</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>动态:21740,动态:22706,动态:22680,动态:22699,动态:21763,动态:22685,动态:21780,动态:21776,动态:22684,动态:21756,动态:20399,动态:21745,动态:22659,动态:21753,动态:21741,动态:22698,动态:22512,动态:21556,动态:7746,动态:20364,动态:17337,动态:22667,动态:21857,动态:20440,动态:22688,动态:22692,动态:22697,动态:21975,动态:22696,动态:22507,动态:21757,动态:22019,动态:20439,动态:22323,动态:21436,动态:21727,动态:4036</t>
+          <t>动态:22680,动态:22659,动态:21763,动态:22699,动态:22667,动态:21556,动态:22706,动态:21741,动态:22512,动态:17337,动态:22684,动态:20364,动态:22696,动态:21780,动态:21727,动态:21975,动态:22507,动态:21436,动态:21756,动态:21753,动态:4036,动态:20399,动态:22323,动态:21757,动态:21857,动态:21745,动态:21740,动态:22688,动态:22692,动态:20439,动态:22697,动态:22019,动态:20440,动态:22685,动态:7746,动态:21776,动态:22698</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>动态:22323,动态:21757,动态:21556,动态:21436,动态:21780,动态:21727,动态:17337,动态:21756,动态:20720,动态:21975,动态:21776,动态:22706,动态:21763,动态:7746,动态:20364,动态:22680,动态:22699,动态:22697,动态:21740,动态:21857,动态:21741,动态:22146,动态:22710,动态:4036,动态:22685,动态:21745,动态:22698,动态:22659,动态:22667,动态:22688,动态:22507,动态:21972,动态:20439,动态:20399,动态:20440,动态:22019,动态:21753,动态:22684,动态:22696,动态:22692,动态:22512,动态:22702,动态:21737</t>
+          <t>动态:21737,动态:22688,动态:21776,动态:22323,动态:21436,动态:20364,动态:22512,动态:21745,动态:21756,动态:7746,动态:21741,动态:21753,动态:21740,动态:21972,动态:4036,动态:22659,动态:20720,动态:22696,动态:22702,动态:22692,动态:22710,动态:22698,动态:22706,动态:17337,动态:21780,动态:21727,动态:20439,动态:20399,动态:22697,动态:22667,动态:22699,动态:22019,动态:21757,动态:21763,动态:21556,动态:20440,动态:22507,动态:22146,动态:22680,动态:22684,动态:22685,动态:21857,动态:21975</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>动态:22019,动态:22680,动态:21776,动态:22706,动态:22659,动态:20720,动态:22685,动态:21780,动态:21757,动态:21857,动态:22146,动态:22667,动态:22697,动态:22692,动态:21556,动态:21756,动态:22684,动态:21740,动态:22323,动态:20440,动态:4036,动态:21745,动态:21753,动态:21737,动态:17337,动态:22696,动态:22688,动态:20399,动态:21436,动态:21975,动态:22698,动态:7746,动态:20364,动态:22512,动态:20439,动态:22699,动态:21741,动态:21972,动态:22507,动态:21727,动态:21763</t>
+          <t>动态:21763,动态:21757,动态:22680,动态:20439,动态:7746,动态:22698,动态:22699,动态:22659,动态:21975,动态:21972,动态:22146,动态:21727,动态:22706,动态:22512,动态:22019,动态:22692,动态:21436,动态:22696,动态:21753,动态:22667,动态:21741,动态:21756,动态:21857,动态:22684,动态:20440,动态:21745,动态:21740,动态:21737,动态:21776,动态:22697,动态:4036,动态:22507,动态:22685,动态:21556,动态:20364,动态:20399,动态:22323,动态:22688,动态:20720,动态:17337,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>动态:22710,动态:21741,动态:21776,动态:21972,动态:7746,动态:22698,动态:21757,动态:21753,动态:22146,动态:22684,动态:21745,动态:21737,动态:20399,动态:20720,动态:4036,动态:22697,动态:22019,动态:21857,动态:22688,动态:22706,动态:22667,动态:22692,动态:21780,动态:21975,动态:21763,动态:22685,动态:22680,动态:21756,动态:22702,动态:17337,动态:21436,动态:22696,动态:22659,动态:20364,动态:21556,动态:20439,动态:22512,动态:20440,动态:22323,动态:21740,动态:21727,动态:22507,动态:22699</t>
+          <t>动态:21780,动态:21756,动态:22697,动态:22659,动态:21857,动态:20720,动态:21727,动态:21556,动态:21737,动态:20439,动态:22684,动态:20364,动态:22710,动态:22685,动态:20440,动态:22019,动态:22667,动态:21763,动态:17337,动态:21740,动态:22507,动态:22706,动态:22680,动态:21436,动态:21741,动态:22696,动态:22692,动态:20399,动态:4036,动态:21975,动态:21757,动态:21753,动态:7746,动态:22702,动态:22699,动态:22688,动态:21745,动态:21972,动态:22512,动态:22146,动态:22698,动态:21776,动态:22323</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>动态:20364,动态:22688,动态:17337,动态:22702,动态:22710,动态:21780,动态:22146,动态:22323,动态:22684,动态:21740,动态:22507,动态:22696,动态:22680,动态:20439,动态:21757,动态:21737,动态:4036,动态:21763,动态:22667,动态:22706,动态:22512,动态:21741,动态:20399,动态:22019,动态:22697,动态:20440,动态:21436,动态:21753,动态:21745,动态:22698,动态:22692,动态:22699,动态:22659,动态:21776,动态:21727,动态:7746,动态:22685,动态:21857,动态:21756,动态:20720,动态:21972,动态:21556,动态:21975</t>
+          <t>动态:22697,动态:22659,动态:22323,动态:21780,动态:22688,动态:21756,动态:22699,动态:22146,动态:20440,动态:21745,动态:21975,动态:22692,动态:22680,动态:20720,动态:21972,动态:20439,动态:22019,动态:20399,动态:22702,动态:22667,动态:4036,动态:7746,动态:21436,动态:22706,动态:21753,动态:21757,动态:17337,动态:22710,动态:21741,动态:21727,动态:21857,动态:22507,动态:20364,动态:21763,动态:21776,动态:21556,动态:21737,动态:22698,动态:22696,动态:21740,动态:22684,动态:22685,动态:22512</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>动态:6606,动态:18024,动态:6584,动态:21491,动态:21364,动态:21482,动态:21180,动态:21239,动态:22323,动态:20440,动态:21741,动态:22684,动态:22019,动态:21780,动态:20439,动态:4036,动态:20399,动态:21763,动态:20364,动态:22659,动态:21975,动态:21776,动态:22702,动态:22706,动态:17337,动态:21737,动态:22710,动态:21556,动态:22512,动态:21757,动态:22667,动态:21857,动态:21972,动态:22692,动态:22688,动态:21745,动态:22696,动态:21727,动态:21756,动态:21740,动态:22146,动态:7746,动态:22698,动态:22699,动态:20720,动态:22685,动态:22507,动态:22680,动态:21436,动态:22697</t>
+          <t>动态:6606,动态:18024,动态:6584,动态:21491,动态:21364,动态:21482,动态:21180,动态:21239,动态:21975,动态:22684,动态:20439,动态:22706,动态:22688,动态:21756,动态:20399,动态:21776,动态:21740,动态:21436,动态:22146,动态:21727,动态:22702,动态:22323,动态:22685,动态:22697,动态:21753,动态:20720,动态:21745,动态:22692,动态:7746,动态:22512,动态:22019,动态:21763,动态:20364,动态:20440,动态:17337,动态:22710,动态:21780,动态:22680,动态:4036,动态:22667,动态:22696,动态:21556,动态:21737,动态:22659,动态:21972,动态:21757,动态:22699,动态:21857,动态:22698,动态:21741</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>动态:21740,动态:22692,动态:21780,动态:22710,动态:21756,动态:21741,动态:21975,动态:22698,动态:21436,动态:22667,动态:21753,动态:22685,动态:22684,动态:20720,动态:21727,动态:22699,动态:21745,动态:22696,动态:21757,动态:21857,动态:22019,动态:20439,动态:7746,动态:22512,动态:22697,动态:21556,动态:22659,动态:22146,动态:22680,动态:21776,动态:21737,动态:20364,动态:22706,动态:21763,动态:22702,动态:20399,动态:4036,动态:22323,动态:22507,动态:17337,动态:20440,动态:22688</t>
+          <t>动态:22680,动态:22685,动态:22019,动态:7746,动态:21780,动态:22702,动态:22507,动态:21741,动态:21556,动态:21727,动态:21975,动态:21857,动态:22684,动态:22698,动态:22710,动态:20364,动态:21757,动态:21745,动态:22512,动态:21737,动态:22659,动态:20439,动态:20720,动态:22688,动态:21436,动态:22697,动态:17337,动态:22323,动态:21763,动态:21753,动态:21776,动态:20399,动态:22146,动态:22667,动态:22699,动态:21740,动态:21756,动态:20440,动态:22706,动态:22692,动态:22696,动态:4036</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>动态:17337,动态:22692,动态:22659,动态:21737,动态:22146,动态:22710,动态:20364,动态:21745,动态:22667,动态:21780,动态:22698,动态:22702,动态:7746,动态:4036,动态:21757,动态:22680,动态:20439,动态:21727,动态:21740,动态:20399,动态:22507,动态:22697,动态:21776,动态:21763,动态:21857,动态:22512,动态:22685,动态:21556,动态:21975,动态:22323,动态:20440,动态:21756,动态:22706,动态:22696,动态:22684,动态:22688,动态:22699,动态:20720,动态:22019</t>
+          <t>动态:22667,动态:22692,动态:22507,动态:22706,动态:21737,动态:21556,动态:21757,动态:20399,动态:22146,动态:7746,动态:21776,动态:22685,动态:21975,动态:20720,动态:21756,动态:21745,动态:22323,动态:21857,动态:21740,动态:20440,动态:22659,动态:22512,动态:17337,动态:22680,动态:22697,动态:22019,动态:20439,动态:22710,动态:20364,动态:22684,动态:22699,动态:21780,动态:22698,动态:21727,动态:21763,动态:22696,动态:4036,动态:22702,动态:22688</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>动态:21753,动态:20440,动态:21972,动态:20439,动态:22692,动态:17337,动态:7746,动态:22688,动态:21737,动态:4036,动态:22659,动态:22507,动态:22512,动态:22684,动态:21757,动态:21763,动态:20364,动态:21436,动态:20720,动态:21756,动态:22710,动态:22323,动态:21745,动态:21727,动态:22702,动态:21556,动态:21740,动态:22696,动态:20399,动态:22697,动态:22698,动态:22680,动态:21857,动态:21780,动态:21975,动态:22019,动态:22706,动态:21741,动态:22667,动态:22146,动态:22699,动态:22685</t>
+          <t>动态:21857,动态:22019,动态:21556,动态:22698,动态:20439,动态:22702,动态:20399,动态:22680,动态:21975,动态:21780,动态:21436,动态:21972,动态:21757,动态:22688,动态:7746,动态:22146,动态:4036,动态:22692,动态:22323,动态:21727,动态:22697,动态:22710,动态:22696,动态:21737,动态:21753,动态:22659,动态:21756,动态:21745,动态:22667,动态:22684,动态:22685,动态:20440,动态:22706,动态:22699,动态:20364,动态:21763,动态:21740,动态:22507,动态:22512,动态:21741,动态:20720,动态:17337</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>动态:20439,动态:17337,动态:22706,动态:22680,动态:22659,动态:21741,动态:22512,动态:22688,动态:22697,动态:21975,动态:22685,动态:21745,动态:22696,动态:22684,动态:22667,动态:22702,动态:20440,动态:22692,动态:22146,动态:7746,动态:22698,动态:21756,动态:20720,动态:22019,动态:21780,动态:21740,动态:22507,动态:21737,动态:21972,动态:21727,动态:22323,动态:20364,动态:21857,动态:4036,动态:22699,动态:21776,动态:21556,动态:21753,动态:21757,动态:20399,动态:21436,动态:22710,动态:21763</t>
+          <t>动态:22710,动态:22323,动态:21737,动态:22696,动态:22146,动态:22699,动态:21975,动态:21776,动态:21740,动态:21556,动态:22692,动态:22698,动态:21972,动态:22688,动态:17337,动态:22512,动态:22680,动态:22019,动态:21780,动态:22667,动态:21756,动态:21745,动态:20439,动态:20364,动态:20440,动态:22507,动态:22702,动态:22697,动态:21857,动态:22684,动态:7746,动态:22659,动态:21741,动态:21753,动态:21436,动态:21763,动态:20399,动态:21757,动态:20720,动态:22706,动态:22685,动态:4036,动态:21727</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>动态:21780,动态:22706,动态:22692,动态:21745,动态:21740,动态:21741,动态:22702,动态:20364,动态:21972,动态:22696,动态:21756,动态:22680,动态:22667,动态:22698,动态:21776,动态:22697,动态:4036,动态:22699,动态:17337,动态:21757,动态:21436,动态:22146,动态:20399,动态:22688,动态:22659,动态:22507,动态:21753,动态:7746,动态:22019,动态:21975,动态:22684,动态:20440,动态:22323,动态:22512,动态:21763,动态:20720,动态:22685,动态:22710,动态:20439,动态:21556</t>
+          <t>动态:22512,动态:21745,动态:22699,动态:22667,动态:22146,动态:22702,动态:22323,动态:4036,动态:7746,动态:21776,动态:21753,动态:21436,动态:21763,动态:21556,动态:22710,动态:22697,动态:21972,动态:22696,动态:17337,动态:22685,动态:20364,动态:21780,动态:20720,动态:22019,动态:22698,动态:22706,动态:22692,动态:21975,动态:22680,动态:22507,动态:22688,动态:22659,动态:20439,动态:20399,动态:21756,动态:21741,动态:22684,动态:21740,动态:21757,动态:20440</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>动态:21776,动态:22659,动态:22696,动态:22512,动态:22699,动态:22688,动态:21975,动态:20364,动态:22019,动态:21745,动态:20440,动态:22692,动态:21780,动态:22706,动态:22323,动态:21740,动态:4036,动态:20720,动态:21753,动态:22697,动态:22685,动态:21972,动态:21741,动态:22684,动态:22507,动态:21763,动态:22710,动态:22680,动态:22698,动态:7746,动态:21556,动态:21756,动态:21436,动态:20399,动态:22702,动态:22667,动态:21757,动态:17337,动态:21857,动态:22146,动态:20439</t>
+          <t>动态:20720,动态:21741,动态:21857,动态:22019,动态:22146,动态:22692,动态:22699,动态:20364,动态:22702,动态:22696,动态:22323,动态:22507,动态:21975,动态:21972,动态:17337,动态:21745,动态:21763,动态:7746,动态:21756,动态:22698,动态:4036,动态:22680,动态:22684,动态:21740,动态:21757,动态:22710,动态:22685,动态:22512,动态:22706,动态:22697,动态:22659,动态:22688,动态:21556,动态:21753,动态:21436,动态:20399,动态:21780,动态:21776,动态:22667,动态:20439,动态:20440</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>动态:21556,动态:21776,动态:20399,动态:22688,动态:22323,动态:21975,动态:22697,动态:22507,动态:22680,动态:22659,动态:20364,动态:22019,动态:22146,动态:22706,动态:21741,动态:22684,动态:22667,动态:22512,动态:21740,动态:20440,动态:21780,动态:21753,动态:22699,动态:20720,动态:21436,动态:22696,动态:21757,动态:21763,动态:21972,动态:4036,动态:22685,动态:21745,动态:7746,动态:22710,动态:20439,动态:22702,动态:21756,动态:22698,动态:17337,动态:22692</t>
+          <t>动态:22507,动态:7746,动态:21436,动态:22019,动态:21741,动态:21780,动态:22697,动态:21776,动态:22696,动态:22710,动态:22146,动态:22688,动态:21757,动态:20364,动态:21740,动态:17337,动态:20399,动态:22692,动态:22323,动态:22667,动态:20439,动态:4036,动态:22698,动态:21972,动态:22659,动态:22685,动态:21756,动态:21763,动态:21753,动态:22702,动态:22684,动态:22706,动态:21975,动态:22680,动态:21556,动态:22512,动态:21745,动态:20440,动态:20720,动态:22699</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>动态:21753,动态:22512,动态:22706,动态:21780,动态:7746,动态:21740,动态:21757,动态:22684,动态:20364,动态:22699,动态:20439,动态:21975,动态:22680,动态:22688,动态:21745,动态:20399,动态:22697,动态:22696,动态:22702,动态:22685,动态:21756,动态:22323,动态:22667,动态:22692,动态:21741,动态:21763,动态:22659,动态:21972,动态:22146,动态:22698,动态:4036,动态:22019,动态:22710,动态:21556,动态:21776,动态:22507,动态:20720,动态:17337,动态:21436,动态:20440</t>
+          <t>动态:21763,动态:22702,动态:22696,动态:22698,动态:22697,动态:22699,动态:22688,动态:20399,动态:7746,动态:21556,动态:22323,动态:22667,动态:22692,动态:21756,动态:21780,动态:21975,动态:21740,动态:4036,动态:20439,动态:22684,动态:21972,动态:20364,动态:22706,动态:22659,动态:22685,动态:22680,动态:20440,动态:22512,动态:22710,动态:20720,动态:22019,动态:21753,动态:21436,动态:21745,动态:22146,动态:21776,动态:21757,动态:21741,动态:17337,动态:22507</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>动态:22512,动态:21756,动态:22697,动态:7746,动态:4036,动态:22702,动态:21436,动态:22659,动态:22684,动态:22146,动态:21857,动态:20364,动态:22667,动态:22696,动态:21975,动态:21757,动态:22680,动态:20440,动态:22688,动态:22019,动态:22507,动态:22710,动态:21737,动态:21780,动态:21753,动态:20439,动态:21776,动态:22323,动态:21745,动态:21740,动态:22706,动态:22699,动态:21741,动态:22685,动态:22698,动态:21972,动态:21763,动态:20720,动态:21727,动态:17337,动态:20399,动态:21556,动态:22692</t>
+          <t>动态:22698,动态:21741,动态:22512,动态:22146,动态:20399,动态:21857,动态:22699,动态:22706,动态:20440,动态:21780,动态:22659,动态:21756,动态:20439,动态:4036,动态:21776,动态:21763,动态:22323,动态:22702,动态:7746,动态:22697,动态:22019,动态:21740,动态:21753,动态:22692,动态:21972,动态:22685,动态:21737,动态:22684,动态:22696,动态:22680,动态:21556,动态:22507,动态:21757,动态:21727,动态:20364,动态:20720,动态:21745,动态:22667,动态:22710,动态:21436,动态:21975,动态:17337,动态:22688</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>动态:22696,动态:21756,动态:21763,动态:22697,动态:22698,动态:21753,动态:4036,动态:21975,动态:21776,动态:7746,动态:22512,动态:22323,动态:22659,动态:22710,动态:21741,动态:20439,动态:22019,动态:21740,动态:20720,动态:21727,动态:22680,动态:20364,动态:22702,动态:21780,动态:22699,动态:22146,动态:22692,动态:20399,动态:21436,动态:21737,动态:20440,动态:22507,动态:22684,动态:22706,动态:21972,动态:21556,动态:21857,动态:21757,动态:21745,动态:17337</t>
+          <t>动态:22680,动态:21737,动态:20399,动态:22706,动态:21556,动态:21857,动态:22702,动态:22512,动态:22698,动态:22684,动态:20439,动态:22507,动态:22699,动态:21740,动态:20720,动态:20364,动态:22323,动态:21727,动态:21745,动态:21436,动态:22146,动态:17337,动态:21776,动态:22692,动态:21975,动态:21972,动态:22019,动态:21763,动态:21741,动态:4036,动态:21780,动态:21757,动态:20440,动态:22697,动态:21756,动态:22696,动态:22659,动态:7746,动态:21753,动态:22710</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>动态:21737,动态:22685,动态:21745,动态:22696,动态:4036,动态:21556,动态:22659,动态:20440,动态:21741,动态:22146,动态:17337,动态:21776,动态:22507,动态:22692,动态:22699,动态:21763,动态:21857,动态:20364,动态:21756,动态:22323,动态:22698,动态:21740,动态:20399,动态:21757,动态:22684,动态:20439,动态:22512,动态:7746,动态:22706,动态:21972,动态:22667,动态:22019,动态:22697,动态:21753,动态:21436,动态:22710,动态:22688,动态:22680,动态:22702,动态:21780,动态:20720,动态:21727</t>
+          <t>动态:17337,动态:22688,动态:22698,动态:21436,动态:22659,动态:20720,动态:21741,动态:22507,动态:21972,动态:21727,动态:21556,动态:20440,动态:20399,动态:22702,动态:22685,动态:22146,动态:21740,动态:22019,动态:21756,动态:22684,动态:21737,动态:21763,动态:4036,动态:22680,动态:22710,动态:21757,动态:21780,动态:7746,动态:22696,动态:22697,动态:21776,动态:21857,动态:22699,动态:20364,动态:21745,动态:22692,动态:22512,动态:22667,动态:21753,动态:22706,动态:22323,动态:20439</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>动态:22146,动态:22697,动态:22323,动态:21727,动态:22706,动态:22692,动态:21975,动态:7746,动态:22688,动态:22702,动态:21757,动态:21740,动态:22512,动态:21763,动态:22680,动态:21753,动态:22659,动态:17337,动态:20439,动态:20440,动态:21972,动态:21776,动态:21745,动态:20399,动态:22699,动态:22684,动态:22698,动态:4036,动态:22696,动态:22019,动态:21780,动态:22685,动态:20720,动态:21737,动态:22667,动态:21756,动态:22710,动态:21741,动态:21436,动态:20364,动态:21556,动态:21857,动态:22507</t>
+          <t>动态:21975,动态:20720,动态:7746,动态:22507,动态:22692,动态:22702,动态:22688,动态:22512,动态:20440,动态:21780,动态:22684,动态:21776,动态:22698,动态:22019,动态:22699,动态:22696,动态:21556,动态:22323,动态:17337,动态:21745,动态:21436,动态:21727,动态:20439,动态:21741,动态:22146,动态:21857,动态:4036,动态:21756,动态:22685,动态:22697,动态:21972,动态:22680,动态:22659,动态:22710,动态:22667,动态:21763,动态:22706,动态:21757,动态:21737,动态:20364,动态:21753,动态:20399,动态:21740</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>动态:22685,动态:22692,动态:22710,动态:22698,动态:21436,动态:21740,动态:21975,动态:22702,动态:21857,动态:22680,动态:22684,动态:22323,动态:22699,动态:21741,动态:21780,动态:4036,动态:21756,动态:22667,动态:21737,动态:22146,动态:22697,动态:21556,动态:21763,动态:21753,动态:21745,动态:21727,动态:20399,动态:20364,动态:20720,动态:21972,动态:7746,动态:20440,动态:22512,动态:22706,动态:21776,动态:22659,动态:22696,动态:20439,动态:22688,动态:21757,动态:22019,动态:22507,动态:17337</t>
+          <t>动态:22019,动态:21737,动态:22698,动态:21556,动态:22696,动态:21857,动态:21727,动态:17337,动态:7746,动态:20439,动态:21741,动态:20440,动态:21436,动态:21753,动态:20364,动态:22685,动态:21776,动态:21756,动态:21745,动态:4036,动态:22659,动态:22699,动态:21740,动态:22684,动态:21780,动态:22512,动态:22688,动态:21757,动态:22323,动态:21975,动态:22507,动态:20720,动态:22702,动态:22692,动态:22667,动态:22146,动态:21972,动态:22706,动态:22680,动态:20399,动态:22710,动态:21763,动态:22697</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>动态:21975,动态:21556,动态:21972,动态:22146,动态:22659,动态:21753,动态:21745,动态:7746,动态:22698,动态:20439,动态:20440,动态:21727,动态:22688,动态:21780,动态:22680,动态:22019,动态:22323,动态:22512,动态:21737,动态:17337,动态:22697,动态:20399,动态:4036,动态:22696,动态:22706,动态:21763,动态:21776,动态:20364,动态:21757,动态:21740,动态:22699,动态:21756,动态:21857,动态:20720,动态:22710,动态:22702,动态:21741,动态:22684,动态:22685,动态:22692,动态:22507,动态:21436,动态:22667</t>
+          <t>动态:22688,动态:21756,动态:21757,动态:22019,动态:22507,动态:21741,动态:22684,动态:22512,动态:21737,动态:20440,动态:22659,动态:21780,动态:20364,动态:21727,动态:21745,动态:22680,动态:22146,动态:20720,动态:21975,动态:22323,动态:22698,动态:22696,动态:21740,动态:7746,动态:22697,动态:17337,动态:21972,动态:22702,动态:21436,动态:22692,动态:21857,动态:21776,动态:22685,动态:22706,动态:21556,动态:20399,动态:4036,动态:21763,动态:22699,动态:21753,动态:22710,动态:22667,动态:20439</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>动态:22146,动态:21737,动态:22659,动态:21436,动态:22512,动态:21757,动态:21975,动态:22688,动态:22692,动态:22699,动态:20399,动态:21756,动态:22706,动态:21763,动态:20364,动态:22667,动态:21776,动态:20439,动态:21753,动态:21727,动态:21972,动态:21745,动态:21741,动态:21780,动态:4036,动态:20720,动态:22697,动态:22507,动态:21556,动态:17337,动态:21857,动态:7746,动态:20440,动态:22323,动态:22696,动态:22702,动态:22710,动态:22684,动态:22680,动态:22019,动态:22685,动态:21740,动态:22698</t>
+          <t>动态:22667,动态:22710,动态:22696,动态:22146,动态:20440,动态:7746,动态:22692,动态:4036,动态:21857,动态:21727,动态:21776,动态:21556,动态:22684,动态:20364,动态:21975,动态:21757,动态:22507,动态:22706,动态:22697,动态:21737,动态:21741,动态:22680,动态:21745,动态:20720,动态:21756,动态:22323,动态:22702,动态:22698,动态:21753,动态:20439,动态:17337,动态:22699,动态:21763,动态:20399,动态:22659,动态:22019,动态:21780,动态:22688,动态:22685,动态:21972,动态:21740,动态:21436,动态:22512</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>动态:21741,动态:22019,动态:22659,动态:21972,动态:4036,动态:20439,动态:22702,动态:21753,动态:22685,动态:22698,动态:21727,动态:21436,动态:21756,动态:21556,动态:22692,动态:21757,动态:22699,动态:21740,动态:21745,动态:22696,动态:22684,动态:22697,动态:20440,动态:22680,动态:22706,动态:22146,动态:21780,动态:22512,动态:21776,动态:7746,动态:22507,动态:21975,动态:21857,动态:17337,动态:22667,动态:22323,动态:21763,动态:21737,动态:22688,动态:20399,动态:22710,动态:20720</t>
+          <t>动态:7746,动态:21975,动态:17337,动态:21756,动态:21972,动态:22706,动态:21436,动态:22685,动态:22684,动态:22697,动态:21737,动态:22696,动态:22323,动态:20399,动态:22688,动态:20440,动态:22659,动态:21857,动态:22019,动态:21741,动态:4036,动态:22680,动态:21757,动态:21556,动态:22710,动态:20720,动态:22698,动态:21727,动态:21740,动态:22146,动态:22507,动态:21763,动态:21753,动态:22692,动态:22702,动态:22699,动态:22667,动态:22512,动态:21780,动态:21745,动态:20439,动态:21776</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>动态:21857,动态:22697,动态:7746,动态:21753,动态:22692,动态:22684,动态:17337,动态:22512,动态:22659,动态:4036,动态:22702,动态:21975,动态:21737,动态:21556,动态:22696,动态:22699,动态:20440,动态:21740,动态:22688,动态:22146,动态:21780,动态:22667,动态:21436,动态:20364,动态:21727,动态:22698,动态:22507,动态:22323,动态:21745,动态:21763,动态:21756,动态:21776,动态:22680,动态:22710,动态:21741,动态:20720,动态:22685,动态:21757,动态:22019,动态:20439,动态:20399,动态:21972,动态:22706</t>
+          <t>动态:21757,动态:21753,动态:17337,动态:22659,动态:22019,动态:21780,动态:21436,动态:22684,动态:4036,动态:21740,动态:21737,动态:20364,动态:7746,动态:21857,动态:22667,动态:22680,动态:22512,动态:21776,动态:21972,动态:21741,动态:22698,动态:21556,动态:22706,动态:22323,动态:22696,动态:21727,动态:22146,动态:21756,动态:22507,动态:22685,动态:20439,动态:22702,动态:22699,动态:21745,动态:22692,动态:20720,动态:21763,动态:20440,动态:22710,动态:22688,动态:21975,动态:22697,动态:20399</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>动态:20399,动态:22684,动态:21740,动态:21753,动态:21556,动态:21975,动态:22507,动态:22710,动态:22702,动态:21972,动态:22698,动态:22659,动态:21756,动态:20364,动态:21741,动态:22699,动态:20440,动态:22696,动态:21776,动态:7746,动态:21763,动态:22692,动态:22685,动态:20720,动态:22667,动态:21780,动态:22512,动态:21745,动态:4036,动态:21727,动态:22680,动态:21857,动态:22706,动态:21436,动态:22019,动态:20439,动态:22146,动态:21757,动态:17337,动态:21737,动态:22688,动态:22323,动态:22697</t>
+          <t>动态:21740,动态:22698,动态:21756,动态:21727,动态:22507,动态:21780,动态:17337,动态:21556,动态:20364,动态:22702,动态:22685,动态:21763,动态:21857,动态:22512,动态:4036,动态:21753,动态:21972,动态:22699,动态:22692,动态:21741,动态:22684,动态:21975,动态:22696,动态:22697,动态:22688,动态:21745,动态:20439,动态:22667,动态:21776,动态:21757,动态:21436,动态:22710,动态:21737,动态:22680,动态:22323,动态:20399,动态:20720,动态:22659,动态:22706,动态:22146,动态:7746,动态:20440,动态:22019</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>动态:4036,动态:22667,动态:21780,动态:22507,动态:17337,动态:22512,动态:21757,动态:21972,动态:20399,动态:21745,动态:22019,动态:22684,动态:22706,动态:22692,动态:21436,动态:21740,动态:22696,动态:22323,动态:20364,动态:22710,动态:22699,动态:20439,动态:21727,动态:21756,动态:22685,动态:21556,动态:22659,动态:21763,动态:20440,动态:21857,动态:21737,动态:22680,动态:21975,动态:22698,动态:21753,动态:22697,动态:22688,动态:20720,动态:7746,动态:21776,动态:22146,动态:22702,动态:21741</t>
+          <t>动态:17337,动态:22684,动态:22710,动态:22019,动态:21857,动态:22688,动态:21756,动态:22697,动态:22685,动态:22146,动态:22698,动态:20440,动态:21737,动态:7746,动态:20720,动态:22680,动态:22706,动态:22692,动态:21975,动态:20399,动态:20364,动态:22659,动态:21556,动态:21972,动态:22702,动态:21745,动态:22512,动态:21753,动态:22323,动态:22696,动态:21780,动态:20439,动态:21776,动态:21757,动态:22699,动态:4036,动态:22667,动态:21741,动态:21763,动态:21436,动态:21740,动态:22507,动态:21727</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>动态:22512,动态:21741,动态:20440,动态:20399,动态:22688,动态:21740,动态:21756,动态:22696,动态:22323,动态:20720,动态:21753,动态:22507,动态:22146,动态:22659,动态:21727,动态:21757,动态:21737,动态:21857,动态:7746,动态:22692,动态:4036,动态:22699,动态:22706,动态:20439,动态:22667,动态:22684,动态:21745,动态:17337,动态:22019,动态:22697,动态:22685,动态:21780,动态:22698,动态:20364,动态:22680</t>
+          <t>动态:21745,动态:21757,动态:22685,动态:21756,动态:21727,动态:22696,动态:21737,动态:21740,动态:20399,动态:22706,动态:22146,动态:20720,动态:20439,动态:4036,动态:21741,动态:22692,动态:7746,动态:22512,动态:22659,动态:22699,动态:22019,动态:20364,动态:22684,动态:22698,动态:20440,动态:22680,动态:17337,动态:22667,动态:21780,动态:22323,动态:21857,动态:22507,动态:22697,动态:21753,动态:22688</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>动态:21745,动态:22659,动态:21780,动态:22698,动态:22146,动态:21727,动态:4036,动态:21436,动态:21975,动态:22512,动态:20399,动态:20440,动态:22323,动态:20439,动态:21753,动态:22507,动态:22667,动态:21740,动态:21737,动态:22685,动态:22710,动态:22019,动态:22706,动态:22680,动态:22692,动态:22684,动态:21741,动态:17337,动态:21756,动态:22699,动态:21972,动态:22697,动态:21757,动态:21857,动态:7746,动态:22696,动态:20720,动态:20364,动态:21556,动态:22688,动态:21776,动态:21763</t>
+          <t>动态:21741,动态:22692,动态:21975,动态:21436,动态:21727,动态:20399,动态:22697,动态:21737,动态:22706,动态:21740,动态:20439,动态:21756,动态:21776,动态:21763,动态:22323,动态:22696,动态:21972,动态:22659,动态:22698,动态:21556,动态:21780,动态:22680,动态:21753,动态:17337,动态:21757,动态:4036,动态:22688,动态:22685,动态:22699,动态:22684,动态:22710,动态:7746,动态:20720,动态:22667,动态:22507,动态:22146,动态:21857,动态:20440,动态:21745,动态:22019,动态:22512,动态:20364</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>动态:17337,动态:22146,动态:21745,动态:21727,动态:21975,动态:7746,动态:22507,动态:21857,动态:22706,动态:21763,动态:21756,动态:22688,动态:20439,动态:22692,动态:21972,动态:21776,动态:21741,动态:21780,动态:22696,动态:22685,动态:22680,动态:21757,动态:22667,动态:21556,动态:22699,动态:21753,动态:21737,动态:22698,动态:22697,动态:21436,动态:20440,动态:22512,动态:22684,动态:22019,动态:21740,动态:20399,动态:20364,动态:20720,动态:22659,动态:4036</t>
+          <t>动态:21972,动态:21740,动态:21756,动态:22706,动态:21753,动态:22667,动态:20364,动态:22659,动态:21737,动态:22146,动态:22699,动态:20720,动态:20399,动态:22019,动态:22692,动态:22685,动态:22698,动态:21757,动态:20440,动态:21780,动态:22507,动态:21436,动态:21776,动态:21857,动态:7746,动态:21745,动态:22684,动态:22697,动态:17337,动态:22696,动态:21763,动态:21741,动态:20439,动态:21556,动态:22688,动态:22680,动态:4036,动态:21727,动态:22512,动态:21975</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>动态:21776,动态:21745,动态:22696,动态:20364,动态:22688,动态:22710,动态:21740,动态:22507,动态:21436,动态:21780,动态:22512,动态:22702,动态:22685,动态:22697,动态:21975,动态:22680,动态:17337,动态:21763,动态:22659,动态:22692,动态:22699,动态:21741,动态:21737,动态:21556,动态:22667,动态:21727,动态:22698,动态:20439,动态:21972,动态:20720,动态:22706,动态:22323,动态:21756,动态:20399,动态:21753,动态:21857,动态:20440,动态:7746,动态:22019,动态:21757,动态:22684,动态:22146,动态:4036</t>
+          <t>动态:22323,动态:22685,动态:22696,动态:20720,动态:22698,动态:21972,动态:22667,动态:22710,动态:21975,动态:21436,动态:21780,动态:21763,动态:21556,动态:7746,动态:21737,动态:22680,动态:22146,动态:4036,动态:21727,动态:20440,动态:22688,动态:22659,动态:22692,动态:22507,动态:22019,动态:22684,动态:22697,动态:21741,动态:21753,动态:22702,动态:21757,动态:17337,动态:21857,动态:21776,动态:20439,动态:20364,动态:22699,动态:21745,动态:22706,动态:21756,动态:21740,动态:22512,动态:20399</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>动态:22680,动态:21436,动态:22507,动态:22512,动态:22710,动态:20364,动态:20439,动态:22667,动态:22698,动态:22684,动态:17337,动态:22146,动态:21857,动态:22019,动态:7746,动态:20399,动态:22699,动态:22697,动态:20720,动态:21757,动态:20440,动态:21741,动态:22702,动态:4036,动态:21975,动态:22692,动态:21737,动态:22696,动态:21745,动态:22688,动态:21740,动态:22323,动态:21727,动态:22659,动态:21776,动态:21972,动态:21763,动态:21756,动态:22685,动态:21556,动态:22706,动态:21753,动态:21780</t>
+          <t>动态:22688,动态:22146,动态:22697,动态:22698,动态:22692,动态:22507,动态:22710,动态:22685,动态:21741,动态:21763,动态:21556,动态:21745,动态:20399,动态:22684,动态:22512,动态:21757,动态:21436,动态:7746,动态:22323,动态:21737,动态:21753,动态:21857,动态:22706,动态:21975,动态:20439,动态:22667,动态:22696,动态:22680,动态:21776,动态:22699,动态:20720,动态:21727,动态:4036,动态:21972,动态:21756,动态:22019,动态:22659,动态:22702,动态:21780,动态:20440,动态:20364,动态:17337,动态:21740</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>动态:22680,动态:22710,动态:22684,动态:22685,动态:22019,动态:7746,动态:21741,动态:21737,动态:20399,动态:22696,动态:21436,动态:21857,动态:21753,动态:22507,动态:21745,动态:20720,动态:20440,动态:22706,动态:4036,动态:22697,动态:21556,动态:20364,动态:22512,动态:22323,动态:22702,动态:21975,动态:22699,动态:21776,动态:21763,动态:20439,动态:21972,动态:22659,动态:22688,动态:21740,动态:22698,动态:17337,动态:21757,动态:22146,动态:22667,动态:21756,动态:22692,动态:21727,动态:21780</t>
+          <t>动态:22667,动态:20720,动态:21972,动态:21780,动态:22697,动态:4036,动态:7746,动态:21753,动态:22146,动态:22659,动态:22702,动态:21756,动态:20399,动态:21556,动态:20364,动态:22685,动态:22692,动态:22699,动态:21727,动态:21436,动态:22710,动态:21741,动态:22323,动态:21740,动态:21757,动态:21975,动态:22696,动态:21857,动态:20440,动态:22019,动态:22706,动态:22512,动态:22507,动态:22688,动态:22698,动态:17337,动态:21763,动态:21737,动态:21745,动态:22684,动态:21776,动态:20439,动态:22680</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>动态:21556,动态:21776,动态:22512,动态:21436,动态:22680,动态:22667,动态:21972,动态:20364,动态:7746,动态:20440,动态:21763,动态:21753,动态:21857,动态:22699,动态:20399,动态:22697,动态:22702,动态:22698,动态:21727,动态:22323,动态:21756,动态:21780,动态:21740,动态:22507,动态:21741,动态:20439,动态:21737,动态:21745,动态:22659,动态:21975,动态:22710,动态:22692,动态:22706,动态:22696,动态:22684,动态:22146,动态:17337,动态:22019,动态:21757,动态:4036,动态:20720,动态:22685,动态:22688</t>
+          <t>动态:21436,动态:20440,动态:21776,动态:21780,动态:22685,动态:22699,动态:22684,动态:22697,动态:21740,动态:20439,动态:22688,动态:17337,动态:22692,动态:21972,动态:21745,动态:22702,动态:21975,动态:21741,动态:21857,动态:21756,动态:22680,动态:4036,动态:21556,动态:7746,动态:22698,动态:22507,动态:21753,动态:22019,动态:22659,动态:20364,动态:22512,动态:21757,动态:20720,动态:21727,动态:22667,动态:21763,动态:22323,动态:20399,动态:22696,动态:22710,动态:22146,动态:22706,动态:21737</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>动态:22706,动态:17337,动态:21763,动态:22688,动态:22146,动态:22696,动态:21757,动态:22680,动态:22659,动态:21745,动态:20440,动态:22702,动态:22019,动态:22667,动态:22692,动态:21741,动态:22699,动态:22507,动态:21975,动态:7746,动态:21436,动态:21756,动态:20439,动态:21776,动态:21727,动态:20720,动态:22698,动态:22685,动态:22710,动态:20399,动态:21556,动态:4036,动态:22512,动态:22684,动态:22697,动态:22323,动态:21972,动态:21780,动态:20364,动态:21753,动态:21857,动态:21740,动态:21737</t>
+          <t>动态:21972,动态:21763,动态:22680,动态:17337,动态:22702,动态:21436,动态:21737,动态:21556,动态:20399,动态:21857,动态:7746,动态:22323,动态:21975,动态:22684,动态:22507,动态:22692,动态:22019,动态:21741,动态:4036,动态:20440,动态:21780,动态:21776,动态:21740,动态:22685,动态:21727,动态:21756,动态:22667,动态:22698,动态:21745,动态:20439,动态:20720,动态:21753,动态:22697,动态:22696,动态:22512,动态:21757,动态:22659,动态:22706,动态:22710,动态:22699,动态:22688,动态:20364,动态:22146</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>动态:22512,动态:22702,动态:21757,动态:21975,动态:22710,动态:21753,动态:20399,动态:4036,动态:22692,动态:22680,动态:22699,动态:21763,动态:21780,动态:21737,动态:7746,动态:21745,动态:21776,动态:21556,动态:22697,动态:22146,动态:22698,动态:22659,动态:20364,动态:20439,动态:17337,动态:22684,动态:21436,动态:20720,动态:22323,动态:21740,动态:22019,动态:22685,动态:22667,动态:20440,动态:21741,动态:22706,动态:21756,动态:22688,动态:21857,动态:21727,动态:21972,动态:22507,动态:22696</t>
+          <t>动态:22706,动态:7746,动态:17337,动态:22699,动态:22684,动态:21972,动态:4036,动态:20440,动态:21757,动态:22146,动态:21857,动态:21741,动态:21756,动态:22507,动态:22698,动态:20399,动态:22667,动态:21975,动态:21753,动态:22680,动态:22697,动态:22323,动态:22659,动态:20439,动态:21737,动态:21740,动态:22692,动态:22710,动态:21745,动态:22696,动态:22512,动态:22019,动态:20720,动态:20364,动态:21727,动态:22702,动态:21776,动态:22685,动态:21780,动态:21763,动态:21436,动态:21556,动态:22688</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>动态:22323,动态:22659,动态:21753,动态:21436,动态:22696,动态:20399,动态:22692,动态:7746,动态:21776,动态:22702,动态:22684,动态:21857,动态:21780,动态:21756,动态:22710,动态:21740,动态:20364,动态:21745,动态:20439,动态:4036,动态:21757,动态:22146,动态:17337,动态:22699,动态:22507,动态:22688,动态:22680,动态:21727,动态:21975,动态:22512,动态:22698,动态:22706,动态:21556,动态:20440,动态:22697,动态:21741,动态:21737,动态:22667,动态:21763,动态:21972,动态:22685,动态:22019,动态:20720</t>
+          <t>动态:22685,动态:22692,动态:22710,动态:17337,动态:21757,动态:22146,动态:4036,动态:22507,动态:22697,动态:21776,动态:21740,动态:21972,动态:22659,动态:21556,动态:21763,动态:21741,动态:22684,动态:22323,动态:21975,动态:22706,动态:21436,动态:22680,动态:21737,动态:22019,动态:20399,动态:21780,动态:22688,动态:22512,动态:20439,动态:22699,动态:21756,动态:22698,动态:21753,动态:22702,动态:20720,动态:22667,动态:21745,动态:22696,动态:20364,动态:21857,动态:21727,动态:7746,动态:20440</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>动态:22323,动态:20440,动态:7746,动态:22684,动态:22706,动态:22685,动态:21727,动态:22680,动态:22702,动态:21753,动态:22019,动态:22692,动态:22696,动态:22710,动态:21763,动态:22512,动态:17337,动态:21741,动态:20720,动态:21556,动态:21972,动态:20439,动态:22146,动态:21757,动态:22659,动态:22698,动态:20364,动态:21737,动态:22667,动态:21436,动态:21857,动态:21745,动态:20399,动态:21740,动态:22697,动态:22699,动态:21776,动态:21780,动态:22507,动态:22688,动态:4036,动态:21756,动态:21975</t>
+          <t>动态:22710,动态:21737,动态:21756,动态:22697,动态:21727,动态:20440,动态:20399,动态:17337,动态:22688,动态:7746,动态:21972,动态:22696,动态:22659,动态:22667,动态:22684,动态:22512,动态:21776,动态:22019,动态:21556,动态:20364,动态:21436,动态:22685,动态:22692,动态:21975,动态:21757,动态:21780,动态:21763,动态:21741,动态:20720,动态:21745,动态:21740,动态:4036,动态:21857,动态:22323,动态:22699,动态:22702,动态:22507,动态:22706,动态:20439,动态:22680,动态:22698,动态:22146,动态:21753</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>动态:21753,动态:21780,动态:4036,动态:21740,动态:22688,动态:20439,动态:20364,动态:21975,动态:21756,动态:22706,动态:21737,动态:22323,动态:20399,动态:20440,动态:22146,动态:22680,动态:22667,动态:21436,动态:22512,动态:21741,动态:22692,动态:22507,动态:21757,动态:7746,动态:22699,动态:22697,动态:22702,动态:22696,动态:21727,动态:20720,动态:17337,动态:21776,动态:22684,动态:22019,动态:21972,动态:22659,动态:22685,动态:21857,动态:21556,动态:21763,动态:22710,动态:22698,动态:21745</t>
+          <t>动态:20364,动态:21556,动态:22697,动态:22684,动态:21857,动态:22706,动态:22512,动态:22685,动态:21756,动态:22019,动态:4036,动态:21975,动态:22146,动态:22680,动态:22710,动态:22696,动态:20440,动态:21737,动态:22692,动态:21757,动态:21753,动态:22688,动态:22698,动态:21740,动态:21776,动态:22507,动态:21436,动态:21745,动态:22659,动态:21763,动态:22667,动态:21972,动态:17337,动态:22323,动态:20399,动态:21727,动态:20439,动态:22699,动态:22702,动态:20720,动态:7746,动态:21780,动态:21741</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>动态:22659,动态:22697,动态:22680,动态:4036,动态:22507,动态:21972,动态:22323,动态:22696,动态:17337,动态:22667,动态:21753,动态:22692,动态:22698,动态:20440,动态:20439,动态:21745,动态:21756,动态:7746,动态:21556,动态:20720,动态:21737,动态:21436,动态:21757,动态:22684,动态:21776,动态:22512,动态:21740,动态:21780,动态:22019,动态:22706,动态:21763,动态:21975,动态:22146,动态:22685,动态:20364,动态:21727,动态:22699,动态:20399,动态:22688,动态:22702,动态:22710,动态:21857,动态:21741</t>
+          <t>动态:22512,动态:21745,动态:21972,动态:22659,动态:22699,动态:22688,动态:20720,动态:22706,动态:4036,动态:22692,动态:17337,动态:21740,动态:22698,动态:21975,动态:22667,动态:21436,动态:22323,动态:20399,动态:21753,动态:22697,动态:22146,动态:21756,动态:21757,动态:21741,动态:21780,动态:22696,动态:22680,动态:21737,动态:20440,动态:22702,动态:22685,动态:20364,动态:21763,动态:22684,动态:22710,动态:21776,动态:21727,动态:7746,动态:20439,动态:22507,动态:21857,动态:22019,动态:21556</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>动态:22512,动态:22323,动态:21740,动态:22685,动态:21756,动态:21975,动态:22696,动态:22019,动态:22507,动态:22702,动态:22699,动态:22698,动态:22667,动态:22688,动态:4036,动态:21857,动态:20439,动态:22692,动态:20720,动态:20364,动态:22680,动态:22146,动态:17337,动态:21436,动态:20399,动态:21763,动态:22659,动态:21780,动态:21776,动态:7746,动态:21972,动态:22697,动态:21753,动态:21727,动态:22684,动态:21556,动态:21745,动态:21741,动态:22710,动态:21757,动态:21737,动态:22706,动态:20440</t>
+          <t>动态:20720,动态:22696,动态:22692,动态:17337,动态:21436,动态:22507,动态:22685,动态:21727,动态:21753,动态:22698,动态:22019,动态:20439,动态:21780,动态:21763,动态:22667,动态:22699,动态:21556,动态:22710,动态:21756,动态:21745,动态:7746,动态:21741,动态:22146,动态:20364,动态:21740,动态:22688,动态:20399,动态:21737,动态:21857,动态:4036,动态:21975,动态:22697,动态:22512,动态:21757,动态:21972,动态:20440,动态:22680,动态:22684,动态:22659,动态:22323,动态:22702,动态:21776,动态:22706</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>动态:20439,动态:22019,动态:21737,动态:21763,动态:21556,动态:21741,动态:21857,动态:20720,动态:7746,动态:21753,动态:22706,动态:21756,动态:17337,动态:22512,动态:4036,动态:22702,动态:21776,动态:22692,动态:22699,动态:22696,动态:20364,动态:21740,动态:20399,动态:22323,动态:21972,动态:22667,动态:22659,动态:22710,动态:21745,动态:22685,动态:22507,动态:20440,动态:21757,动态:22698,动态:22146,动态:21727,动态:22688,动态:22680,动态:21780,动态:21975,动态:22684,动态:21436,动态:22697</t>
+          <t>动态:22323,动态:22507,动态:22698,动态:21757,动态:22684,动态:22706,动态:21776,动态:22702,动态:21556,动态:21745,动态:21727,动态:22692,动态:21740,动态:20364,动态:21763,动态:22146,动态:22697,动态:22699,动态:22659,动态:22667,动态:20439,动态:21972,动态:21741,动态:22688,动态:4036,动态:20399,动态:22696,动态:22685,动态:21737,动态:21780,动态:21436,动态:21975,动态:7746,动态:21756,动态:20720,动态:22680,动态:22019,动态:17337,动态:22710,动态:22512,动态:21857,动态:20440,动态:21753</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>动态:21756,动态:22699,动态:20720,动态:22146,动态:21776,动态:21556,动态:20364,动态:21741,动态:22323,动态:22692,动态:21763,动态:22710,动态:21740,动态:20439,动态:22688,动态:22019,动态:22667,动态:21975,动态:22706,动态:21757,动态:21972,动态:22697,动态:22659,动态:22512,动态:22702,动态:21436,动态:20399,动态:21745,动态:22698,动态:21857,动态:22507,动态:21780,动态:20440,动态:22680,动态:17337,动态:22684,动态:4036,动态:22696,动态:21727,动态:21737,动态:22685,动态:21753,动态:7746</t>
+          <t>动态:22692,动态:22697,动态:22710,动态:4036,动态:21727,动态:21436,动态:22146,动态:21975,动态:21753,动态:22706,动态:22702,动态:22680,动态:21756,动态:21780,动态:20439,动态:21757,动态:22698,动态:20720,动态:22507,动态:21857,动态:20440,动态:22019,动态:22512,动态:22323,动态:21763,动态:21741,动态:22659,动态:22684,动态:20364,动态:22667,动态:21740,动态:7746,动态:21737,动态:21745,动态:22696,动态:22699,动态:22688,动态:21972,动态:21776,动态:17337,动态:21556,动态:20399,动态:22685</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>动态:21753,动态:21727,动态:22685,动态:21763,动态:22706,动态:22512,动态:20364,动态:21757,动态:22692,动态:22659,动态:21737,动态:22507,动态:4036,动态:21741,动态:20439,动态:22699,动态:22667,动态:17337,动态:22702,动态:22688,动态:22019,动态:21857,动态:21780,动态:20440,动态:22710,动态:22323,动态:21436,动态:21776,动态:7746,动态:21745,动态:22696,动态:22698,动态:21740,动态:21975,动态:21972,动态:22680,动态:20720,动态:21556,动态:21756,动态:22697,动态:22684,动态:20399,动态:22146</t>
+          <t>动态:22019,动态:21745,动态:21757,动态:22680,动态:22710,动态:20440,动态:21741,动态:22659,动态:21972,动态:22507,动态:7746,动态:22696,动态:21756,动态:21776,动态:22146,动态:21727,动态:22692,动态:21780,动态:22685,动态:22323,动态:20439,动态:21753,动态:22667,动态:4036,动态:22684,动态:20720,动态:22697,动态:22688,动态:21763,动态:21436,动态:20364,动态:21737,动态:20399,动态:22699,动态:22702,动态:21556,动态:22698,动态:22512,动态:21740,动态:17337,动态:21975,动态:21857,动态:22706</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>动态:22512,动态:22688,动态:22696,动态:22019,动态:21556,动态:22685,动态:7746,动态:20720,动态:21776,动态:21857,动态:21741,动态:17337,动态:21436,动态:22692,动态:22710,动态:22659,动态:22323,动态:22667,动态:20439,动态:21972,动态:22699,动态:21763,动态:22698,动态:22680,动态:21740,动态:22697,动态:21745,动态:22684,动态:22706,动态:21780,动态:21757,动态:21975,动态:21753,动态:20440,动态:22702,动态:20399,动态:21756,动态:20364,动态:22146,动态:22507,动态:21737,动态:21727,动态:4036</t>
+          <t>动态:21975,动态:22692,动态:20364,动态:21857,动态:21753,动态:17337,动态:21780,动态:4036,动态:22323,动态:21436,动态:22146,动态:20439,动态:22698,动态:22019,动态:21740,动态:22702,动态:21757,动态:22680,动态:21727,动态:20440,动态:22696,动态:22699,动态:22507,动态:22512,动态:21741,动态:21556,动态:22697,动态:21763,动态:21972,动态:7746,动态:22659,动态:21776,动态:22684,动态:22706,动态:21745,动态:22710,动态:22685,动态:21737,动态:20720,动态:22667,动态:20399,动态:22688,动态:21756</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>动态:22667,动态:20440,动态:22699,动态:22688,动态:22019,动态:22697,动态:21756,动态:21763,动态:21975,动态:22685,动态:22692,动态:22146,动态:21972,动态:21740,动态:21556,动态:22512,动态:21741,动态:22659,动态:20439,动态:20720,动态:21745,动态:22710,动态:21857,动态:20364,动态:21753,动态:22680,动态:21757,动态:22698,动态:22507,动态:21727,动态:21780,动态:21776,动态:20399,动态:21737,动态:22706,动态:22702,动态:21436,动态:4036,动态:17337,动态:22323,动态:22696,动态:7746,动态:22684</t>
+          <t>动态:21857,动态:22688,动态:22507,动态:20440,动态:21740,动态:22684,动态:22702,动态:20439,动态:20399,动态:7746,动态:22685,动态:21436,动态:21745,动态:21727,动态:22659,动态:21737,动态:22512,动态:22692,动态:22698,动态:21753,动态:21780,动态:4036,动态:22699,动态:21556,动态:21975,动态:21776,动态:21763,动态:21756,动态:22696,动态:21741,动态:22710,动态:21972,动态:17337,动态:20720,动态:22680,动态:22323,动态:22697,动态:22019,动态:22146,动态:21757,动态:20364,动态:22706,动态:22667</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>动态:4036,动态:22688,动态:7746,动态:21737,动态:21975,动态:21727,动态:22697,动态:22699,动态:22146,动态:21857,动态:21776,动态:22696,动态:21756,动态:22698,动态:21972,动态:22323,动态:21741,动态:21757,动态:17337,动态:20720,动态:21763,动态:22684,动态:22667,动态:21436,动态:22680,动态:22507,动态:22685,动态:20364,动态:22512,动态:20440,动态:22019,动态:21745,动态:21780,动态:22710,动态:20399,动态:21753,动态:21556,动态:22692,动态:20439,动态:22702,动态:22706,动态:22659,动态:21740</t>
+          <t>动态:20364,动态:21745,动态:22697,动态:22323,动态:22019,动态:22684,动态:20399,动态:21776,动态:21556,动态:21756,动态:21975,动态:20439,动态:22706,动态:21763,动态:21727,动态:21436,动态:22710,动态:22699,动态:7746,动态:21757,动态:22512,动态:20720,动态:22680,动态:22667,动态:21740,动态:21780,动态:21737,动态:22702,动态:21753,动态:21741,动态:22685,动态:22146,动态:20440,动态:22692,动态:4036,动态:22659,动态:22507,动态:21972,动态:22698,动态:17337,动态:22688,动态:21857,动态:22696</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>动态:21436,动态:22684,动态:17337,动态:21780,动态:21972,动态:21727,动态:22696,动态:21776,动态:20439,动态:21756,动态:22667,动态:22659,动态:21737,动态:20720,动态:21740,动态:22680,动态:22323,动态:7746,动态:21556,动态:21763,动态:22692,动态:21975,动态:20440,动态:21757,动态:22019,动态:4036,动态:21741,动态:22685,动态:22706,动态:22512,动态:20364,动态:22697,动态:22146,动态:22710,动态:22688,动态:22702,动态:22507,动态:21857,动态:22698,动态:22699,动态:20399,动态:21753,动态:21745</t>
+          <t>动态:22684,动态:22702,动态:21780,动态:22507,动态:22699,动态:22697,动态:22696,动态:21745,动态:22146,动态:22512,动态:20399,动态:21740,动态:21727,动态:22685,动态:21753,动态:21975,动态:22688,动态:22323,动态:22667,动态:22710,动态:21776,动态:21436,动态:4036,动态:21556,动态:20720,动态:21763,动态:21857,动态:20440,动态:22680,动态:21741,动态:21756,动态:21737,动态:22706,动态:17337,动态:21972,动态:7746,动态:20439,动态:22019,动态:22692,动态:21757,动态:22698,动态:22659,动态:20364</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>动态:21780,动态:21436,动态:22146,动态:22696,动态:21857,动态:22692,动态:22698,动态:21556,动态:22702,动态:21975,动态:20439,动态:20399,动态:22710,动态:20720,动态:22688,动态:22699,动态:21972,动态:21757,动态:22507,动态:21753,动态:22019,动态:22706,动态:17337,动态:21763,动态:22697,动态:21740,动态:21745,动态:21741,动态:20440,动态:21756,动态:22680,动态:21727,动态:20364,动态:22685,动态:21737,动态:4036,动态:22512,动态:7746,动态:21776,动态:22684,动态:22323,动态:22659,动态:22667</t>
+          <t>动态:21741,动态:7746,动态:22710,动态:22323,动态:22146,动态:21975,动态:21757,动态:21753,动态:20399,动态:22698,动态:21763,动态:20439,动态:17337,动态:21857,动态:20440,动态:21737,动态:21780,动态:22659,动态:21745,动态:21776,动态:22699,动态:21727,动态:22684,动态:22697,动态:22702,动态:22512,动态:22685,动态:22507,动态:22696,动态:22019,动态:22688,动态:22667,动态:21556,动态:22680,动态:22692,动态:21436,动态:22706,动态:4036,动态:20720,动态:21756,动态:20364,动态:21972,动态:21740</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>动态:22684,动态:21763,动态:17337,动态:21753,动态:22146,动态:21745,动态:21972,动态:21975,动态:21857,动态:22697,动态:22667,动态:21436,动态:22698,动态:20364,动态:20399,动态:20720,动态:22019,动态:4036,动态:22706,动态:22659,动态:21727,动态:21556,动态:22512,动态:21757,动态:20440,动态:21740,动态:7746,动态:22702,动态:21780,动态:21741,动态:22710,动态:22685,动态:22507,动态:22688,动态:22680,动态:21737,动态:22696,动态:21756,动态:20439,动态:22323,动态:22692,动态:22699,动态:21776</t>
+          <t>动态:22692,动态:22688,动态:20399,动态:22706,动态:21763,动态:20440,动态:21972,动态:22710,动态:22512,动态:7746,动态:22699,动态:21740,动态:22019,动态:21727,动态:20439,动态:21756,动态:21780,动态:22696,动态:21556,动态:20720,动态:22659,动态:22685,动态:21857,动态:21975,动态:21753,动态:20364,动态:22507,动态:22698,动态:21436,动态:22146,动态:4036,动态:22684,动态:22680,动态:17337,动态:21776,动态:22667,动态:21745,动态:21741,动态:21737,动态:22697,动态:22323,动态:21757,动态:22702</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>动态:22323,动态:22702,动态:21972,动态:21436,动态:21727,动态:22507,动态:22667,动态:20720,动态:20364,动态:21740,动态:21745,动态:21756,动态:22706,动态:17337,动态:22688,动态:21757,动态:7746,动态:20440,动态:21776,动态:21975,动态:21737,动态:22684,动态:21556,动态:22680,动态:21741,动态:20399,动态:22019,动态:21763,动态:22710,动态:22696,动态:22692,动态:21857,动态:22699,动态:22685,动态:21780,动态:22659,动态:22697,动态:21753,动态:4036,动态:20439,动态:22146,动态:22698,动态:22512</t>
+          <t>动态:22699,动态:21857,动态:22680,动态:21757,动态:22685,动态:21753,动态:22692,动态:21780,动态:22512,动态:22688,动态:17337,动态:22698,动态:22702,动态:21763,动态:21776,动态:22323,动态:21745,动态:21727,动态:22019,动态:4036,动态:20399,动态:22659,动态:20440,动态:21556,动态:21436,动态:22696,动态:22667,动态:21975,动态:20720,动态:22146,动态:21740,动态:22507,动态:22706,动态:22710,动态:22684,动态:22697,动态:20364,动态:21737,动态:21972,动态:20439,动态:21756,动态:21741,动态:7746</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>动态:20399,动态:22692,动态:22507,动态:22146,动态:21780,动态:22710,动态:22697,动态:22019,动态:22667,动态:21745,动态:22699,动态:22706,动态:21556,动态:22680,动态:22659,动态:21776,动态:22685,动态:22688,动态:20439,动态:21763,动态:21975,动态:22684,动态:22323,动态:21741,动态:17337,动态:20440,动态:21857,动态:21756,动态:22512,动态:21972,动态:21757,动态:21436,动态:22698,动态:7746,动态:22702,动态:20720,动态:21753,动态:4036,动态:21727,动态:20364,动态:22696,动态:21740,动态:21737</t>
+          <t>动态:22697,动态:22146,动态:22692,动态:22659,动态:17337,动态:22696,动态:22684,动态:21972,动态:7746,动态:22323,动态:21763,动态:21756,动态:21741,动态:21757,动态:21857,动态:21745,动态:22667,动态:22685,动态:22699,动态:20364,动态:22512,动态:22688,动态:22706,动态:21436,动态:20439,动态:22698,动态:20720,动态:21776,动态:21975,动态:21556,动态:22702,动态:20399,动态:21737,动态:22710,动态:22680,动态:20440,动态:22019,动态:22507,动态:21780,动态:21740,动态:21727,动态:21753,动态:4036</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>动态:21756,动态:21556,动态:20440,动态:21975,动态:22710,动态:22680,动态:21745,动态:22702,动态:21757,动态:20399,动态:20720,动态:22323,动态:22692,动态:21436,动态:21776,动态:21727,动态:17337,动态:21857,动态:22512,动态:22146,动态:21753,动态:21780,动态:20439,动态:22684,动态:22685,动态:22706,动态:21741,动态:22699,动态:22697,动态:22507,动态:22019,动态:22667,动态:22688,动态:7746,动态:21763,动态:22696,动态:22698,动态:21972,动态:22659,动态:4036,动态:21740,动态:20364,动态:21737</t>
+          <t>动态:21857,动态:21780,动态:20399,动态:21740,动态:21436,动态:21556,动态:22512,动态:21727,动态:20720,动态:21745,动态:22507,动态:21757,动态:22699,动态:21972,动态:22659,动态:17337,动态:20439,动态:22697,动态:21763,动态:22710,动态:22019,动态:22702,动态:22698,动态:21756,动态:22323,动态:20364,动态:4036,动态:22692,动态:22688,动态:21975,动态:22667,动态:21776,动态:7746,动态:22696,动态:22685,动态:21737,动态:22684,动态:20440,动态:22146,动态:21741,动态:21753,动态:22706,动态:22680</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>动态:17337,动态:20399,动态:22698,动态:20720,动态:22667,动态:21756,动态:22692,动态:21740,动态:22659,动态:20440,动态:22702,动态:4036,动态:21776,动态:21753,动态:22688,动态:21436,动态:20439,动态:22697,动态:21757,动态:21857,动态:22146,动态:22019,动态:22696,动态:22699,动态:22680,动态:21780,动态:7746,动态:21972,动态:21763,动态:21737,动态:22512,动态:22710,动态:21727,动态:21975,动态:22685,动态:22507,动态:21741,动态:22706,动态:22323,动态:21745,动态:22684,动态:20364,动态:21556</t>
+          <t>动态:20720,动态:22323,动态:22697,动态:22698,动态:22696,动态:21776,动态:22692,动态:21857,动态:21756,动态:21727,动态:22680,动态:21556,动态:22706,动态:21745,动态:21737,动态:22659,动态:20399,动态:21436,动态:22146,动态:20364,动态:22019,动态:21780,动态:7746,动态:21975,动态:17337,动态:22512,动态:20440,动态:22702,动态:22685,动态:22699,动态:21763,动态:4036,动态:22710,动态:22684,动态:22507,动态:21753,动态:22667,动态:21740,动态:21741,动态:21757,动态:20439,动态:22688,动态:21972</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>动态:20439,动态:22323,动态:22019,动态:22702,动态:22685,动态:21745,动态:20364,动态:17337,动态:22699,动态:22692,动态:21737,动态:21727,动态:22696,动态:22684,动态:4036,动态:21776,动态:21857,动态:22688,动态:21436,动态:7746,动态:21741,动态:22667,动态:21753,动态:21780,动态:22698,动态:22680,动态:22710,动态:21740,动态:21763,动态:20440,动态:22706,动态:21756,动态:22659,动态:21556,动态:21757,动态:21975,动态:20399,动态:22697,动态:22507,动态:22512,动态:22146,动态:20720,动态:21972</t>
+          <t>动态:20440,动态:21753,动态:21780,动态:21857,动态:22685,动态:21727,动态:21972,动态:22684,动态:22019,动态:22146,动态:22697,动态:21757,动态:21556,动态:22698,动态:21745,动态:22680,动态:20439,动态:21741,动态:22692,动态:21436,动态:20399,动态:21756,动态:22507,动态:22688,动态:17337,动态:21737,动态:21740,动态:21763,动态:22699,动态:22667,动态:22659,动态:22710,动态:7746,动态:20364,动态:4036,动态:22512,动态:22696,动态:22323,动态:20720,动态:21776,动态:21975,动态:22706,动态:22702</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>动态:20439,动态:22710,动态:20440,动态:21740,动态:22702,动态:21436,动态:22685,动态:21741,动态:22019,动态:22696,动态:22146,动态:21975,动态:22698,动态:22667,动态:22697,动态:22688,动态:20364,动态:22692,动态:21757,动态:21753,动态:21727,动态:21737,动态:21780,动态:21763,动态:21745,动态:22680,动态:20720,动态:20399,动态:22507,动态:22323,动态:21776,动态:21857,动态:22512,动态:21556,动态:21756,动态:22684,动态:7746,动态:22699,动态:22659,动态:22706,动态:21972,动态:4036</t>
+          <t>动态:22710,动态:22659,动态:22667,动态:7746,动态:22688,动态:22696,动态:21756,动态:20364,动态:21556,动态:22699,动态:21753,动态:21745,动态:22680,动态:22697,动态:20440,动态:22323,动态:20720,动态:21727,动态:21975,动态:21972,动态:21776,动态:22692,动态:22146,动态:20439,动态:22685,动态:22507,动态:22512,动态:21740,动态:21757,动态:22702,动态:22019,动态:21741,动态:21737,动态:21780,动态:21436,动态:22698,动态:22684,动态:21857,动态:21763,动态:20399,动态:22706,动态:4036</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>动态:21756,动态:22699,动态:21857,动态:21753,动态:21763,动态:20439,动态:22710,动态:22680,动态:22685,动态:21780,动态:21975,动态:22667,动态:17337,动态:22019,动态:21757,动态:22323,动态:20440,动态:22702,动态:21972,动态:21737,动态:22696,动态:22698,动态:21745,动态:22692,动态:20364,动态:21436,动态:21740,动态:21776,动态:22659,动态:22684,动态:22697,动态:21727,动态:22688,动态:22146,动态:4036,动态:22512,动态:21741,动态:20399,动态:21556,动态:22507,动态:22706,动态:20720,动态:7746</t>
+          <t>动态:21727,动态:17337,动态:21972,动态:22685,动态:21756,动态:22323,动态:22692,动态:21763,动态:22507,动态:21745,动态:7746,动态:22146,动态:22019,动态:22688,动态:22697,动态:22659,动态:22667,动态:20364,动态:22696,动态:21776,动态:20720,动态:20399,动态:4036,动态:21753,动态:21741,动态:22512,动态:21757,动态:21740,动态:22710,动态:21737,动态:22699,动态:22698,动态:21857,动态:21780,动态:20440,动态:21436,动态:20439,动态:22706,动态:21556,动态:22684,动态:22680,动态:22702,动态:21975</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>动态:21780,动态:22706,动态:20399,动态:21757,动态:22710,动态:22685,动态:22697,动态:22684,动态:22696,动态:21857,动态:22688,动态:21556,动态:7746,动态:17337,动态:22507,动态:22146,动态:22019,动态:21737,动态:20720,动态:22323,动态:21727,动态:22692,动态:21741,动态:21756,动态:22659,动态:22702,动态:21753,动态:21740,动态:22512,动态:22699,动态:21436,动态:4036,动态:21745,动态:20364,动态:21776,动态:21972,动态:22667,动态:21763,动态:22680,动态:22698,动态:21975</t>
+          <t>动态:22702,动态:22698,动态:22697,动态:22323,动态:22706,动态:22667,动态:21741,动态:7746,动态:21737,动态:21975,动态:21972,动态:21436,动态:22684,动态:22146,动态:21727,动态:22696,动态:22688,动态:20364,动态:17337,动态:22659,动态:22692,动态:21556,动态:22507,动态:21776,动态:22019,动态:22680,动态:21780,动态:21763,动态:21753,动态:20399,动态:22710,动态:21857,动态:21756,动态:21740,动态:21745,动态:22512,动态:21757,动态:22685,动态:22699,动态:20720,动态:4036</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>动态:22684,动态:22702,动态:21780,动态:21753,动态:22688,动态:22323,动态:17337,动态:22698,动态:22512,动态:20364,动态:4036,动态:21972,动态:21857,动态:22710,动态:22659,动态:22706,动态:22692,动态:21975,动态:22667,动态:22146,动态:22696,动态:22507,动态:21556,动态:22680,动态:21763,动态:21740,动态:21737,动态:21727,动态:22685,动态:22019,动态:21741,动态:21757,动态:22697,动态:7746,动态:20399,动态:21436,动态:21745,动态:21776,动态:20440,动态:22699,动态:20439,动态:21756,动态:20720</t>
+          <t>动态:22512,动态:22685,动态:21975,动态:22146,动态:22706,动态:21776,动态:21727,动态:21436,动态:20399,动态:21740,动态:21763,动态:22688,动态:20440,动态:22692,动态:22680,动态:22710,动态:20364,动态:22699,动态:21741,动态:21972,动态:22659,动态:21780,动态:20720,动态:21753,动态:21756,动态:22702,动态:22507,动态:20439,动态:22323,动态:22697,动态:22698,动态:21745,动态:22684,动态:21556,动态:21757,动态:4036,动态:21737,动态:7746,动态:22667,动态:22696,动态:21857,动态:17337,动态:22019</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>动态:20364,动态:21780,动态:22680,动态:22512,动态:22146,动态:21776,动态:21745,动态:22710,动态:21975,动态:22706,动态:22702,动态:22685,动态:21737,动态:22697,动态:21436,动态:21556,动态:22019,动态:22667,动态:21741,动态:21763,动态:7746,动态:17337,动态:22692,动态:22688,动态:22323,动态:4036,动态:21857,动态:20399,动态:20440,动态:21753,动态:22699,动态:21757,动态:21972,动态:21756,动态:20720,动态:22659,动态:22507,动态:21740,动态:22696,动态:22684,动态:22698,动态:21727</t>
+          <t>动态:22685,动态:4036,动态:22696,动态:22659,动态:22698,动态:21745,动态:22688,动态:21737,动态:22323,动态:21556,动态:17337,动态:21776,动态:21975,动态:22019,动态:21757,动态:7746,动态:21972,动态:21740,动态:20364,动态:21780,动态:22667,动态:22697,动态:22512,动态:22684,动态:21763,动态:21753,动态:21727,动态:21436,动态:22680,动态:22710,动态:22706,动态:21857,动态:22146,动态:22507,动态:20720,动态:22692,动态:20399,动态:21741,动态:22702,动态:22699,动态:20440,动态:21756</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>动态:22323,动态:20720,动态:21972,动态:20439,动态:21741,动态:22667,动态:20440,动态:22699,动态:20364,动态:21753,动态:21776,动态:22684,动态:17337,动态:22706,动态:21436,动态:22697,动态:21857,动态:21740,动态:22507,动态:21975,动态:22702,动态:22019,动态:22692,动态:21780,动态:21757,动态:22659,动态:4036,动态:7746,动态:22696,动态:22710,动态:20399,动态:21745,动态:22688,动态:22512,动态:21756,动态:22685,动态:22680,动态:21727,动态:21763,动态:21556,动态:21737,动态:22698,动态:22146</t>
+          <t>动态:22688,动态:22684,动态:22696,动态:22698,动态:21745,动态:20399,动态:20364,动态:21556,动态:20439,动态:22512,动态:21757,动态:22323,动态:22710,动态:21776,动态:22697,动态:22685,动态:21756,动态:22659,动态:22019,动态:21737,动态:22699,动态:21972,动态:21727,动态:22667,动态:22146,动态:22706,动态:22702,动态:22507,动态:21975,动态:21753,动态:21436,动态:4036,动态:21741,动态:21740,动态:7746,动态:22680,动态:21763,动态:20720,动态:17337,动态:20440,动态:22692,动态:21780,动态:21857</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>动态:22146,动态:22680,动态:21740,动态:17337,动态:22699,动态:21436,动态:20440,动态:20364,动态:20439,动态:21776,动态:21757,动态:22688,动态:22507,动态:21727,动态:21857,动态:21763,动态:22698,动态:21756,动态:22706,动态:22692,动态:21780,动态:21745,动态:22659,动态:7746,动态:21975,动态:21737,动态:22702,动态:20720,动态:22684,动态:21753,动态:22696,动态:21556,动态:21972,动态:4036,动态:22323,动态:21741,动态:22667,动态:20399,动态:22512,动态:22685,动态:22019,动态:22697,动态:22710</t>
+          <t>动态:21756,动态:7746,动态:22512,动态:20364,动态:22323,动态:21776,动态:21763,动态:21857,动态:22699,动态:21972,动态:21975,动态:22507,动态:21780,动态:4036,动态:22146,动态:21745,动态:22696,动态:21436,动态:22659,动态:22685,动态:20720,动态:21757,动态:21741,动态:21737,动态:22706,动态:20399,动态:22702,动态:22667,动态:22692,动态:22697,动态:21740,动态:22680,动态:22019,动态:21753,动态:17337,动态:20439,动态:22698,动态:21556,动态:20440,动态:22688,动态:22710,动态:21727,动态:22684</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>动态:22659,动态:22699,动态:21556,动态:21975,动态:21756,动态:20720,动态:21737,动态:22697,动态:22507,动态:21753,动态:21745,动态:22710,动态:21740,动态:22323,动态:21857,动态:22692,动态:22667,动态:22702,动态:22685,动态:21776,动态:21972,动态:4036,动态:22680,动态:22688,动态:22684,动态:21436,动态:22698,动态:20439,动态:21757,动态:17337,动态:22146,动态:22696,动态:20399,动态:22706,动态:20364,动态:7746,动态:21780,动态:22512,动态:21763,动态:21727,动态:22019,动态:21741,动态:20440</t>
+          <t>动态:20439,动态:7746,动态:21756,动态:22323,动态:22688,动态:22696,动态:21757,动态:20440,动态:21741,动态:22507,动态:22698,动态:21857,动态:21745,动态:22692,动态:22667,动态:21972,动态:17337,动态:22680,动态:22697,动态:22019,动态:22706,动态:21436,动态:21975,动态:22710,动态:21740,动态:22512,动态:21776,动态:21753,动态:21763,动态:22146,动态:22685,动态:21727,动态:4036,动态:20399,动态:22659,动态:21737,动态:20364,动态:22684,动态:21780,动态:22699,动态:21556,动态:20720,动态:22702</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>动态:20720,动态:22680,动态:22684,动态:22710,动态:20440,动态:21753,动态:22019,动态:21556,动态:22699,动态:21776,动态:22507,动态:21975,动态:4036,动态:22692,动态:22685,动态:21756,动态:22702,动态:21741,动态:20399,动态:17337,动态:21763,动态:22323,动态:22659,动态:22146,动态:22688,动态:21757,动态:22697,动态:20364,动态:21740,动态:21727,动态:21780,动态:22698,动态:21737,动态:20439,动态:7746,动态:21436,动态:22696,动态:21972,动态:22706,动态:21857,动态:22512,动态:22667,动态:21745</t>
+          <t>动态:22685,动态:22019,动态:22684,动态:17337,动态:22146,动态:22692,动态:20720,动态:22699,动态:20364,动态:21756,动态:21745,动态:21753,动态:21737,动态:21741,动态:21436,动态:22323,动态:21763,动态:7746,动态:22512,动态:20399,动态:21857,动态:20440,动态:22507,动态:22706,动态:22659,动态:21776,动态:22702,动态:20439,动态:22698,动态:21780,动态:21975,动态:22680,动态:21757,动态:22710,动态:22696,动态:22688,动态:22697,动态:4036,动态:21740,动态:22667,动态:21727,动态:21972,动态:21556</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>动态:22698,动态:22706,动态:22685,动态:17337,动态:21857,动态:21776,动态:21740,动态:21737,动态:22667,动态:21972,动态:21975,动态:4036,动态:21756,动态:21763,动态:22696,动态:21780,动态:22710,动态:7746,动态:22512,动态:22702,动态:22146,动态:22684,动态:20364,动态:22323,动态:21727,动态:21436,动态:21757,动态:22692,动态:22659,动态:22680,动态:20399,动态:22688,动态:21753,动态:22507,动态:20440,动态:22699,动态:21745,动态:20439,动态:22019,动态:20720,动态:22697,动态:21556,动态:21741</t>
+          <t>动态:21776,动态:21556,动态:22710,动态:21780,动态:22507,动态:22692,动态:7746,动态:20399,动态:20720,动态:22699,动态:20439,动态:22684,动态:22702,动态:20440,动态:22680,动态:21757,动态:22696,动态:22706,动态:21763,动态:22667,动态:22323,动态:21753,动态:21740,动态:22659,动态:20364,动态:22019,动态:22512,动态:21741,动态:21745,动态:22698,动态:22146,动态:22697,动态:4036,动态:21727,动态:21436,动态:22685,动态:22688,动态:17337,动态:21756,动态:21972,动态:21975,动态:21857,动态:21737</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>动态:22507,动态:21757,动态:4036,动态:21753,动态:22680,动态:17337,动态:22692,动态:21741,动态:21780,动态:21756,动态:21857,动态:21737,动态:22698,动态:22146,动态:22684,动态:20364,动态:21436,动态:21745,动态:22019,动态:20399,动态:21975,动态:21972,动态:22512,动态:22710,动态:22659,动态:21740,动态:21556,动态:22702,动态:22706,动态:22699,动态:22323,动态:20440,动态:22697,动态:21727,动态:22667,动态:7746,动态:21763,动态:22696,动态:20439,动态:22685,动态:21776,动态:22688,动态:20720</t>
+          <t>动态:22692,动态:21737,动态:21763,动态:22698,动态:22146,动态:22667,动态:21727,动态:21741,动态:22688,动态:21757,动态:21972,动态:22659,动态:22706,动态:21776,动态:22019,动态:22684,动态:21745,动态:22507,动态:22680,动态:21753,动态:21556,动态:21740,动态:22696,动态:22710,动态:22702,动态:20439,动态:22512,动态:21975,动态:22699,动态:20720,动态:21780,动态:21857,动态:4036,动态:21756,动态:22685,动态:22697,动态:20364,动态:17337,动态:22323,动态:7746,动态:21436,动态:20399,动态:20440</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>动态:21763,动态:22659,动态:20720,动态:22702,动态:17337,动态:22685,动态:21753,动态:21737,动态:21741,动态:21436,动态:20364,动态:22684,动态:21727,动态:20440,动态:21745,动态:21756,动态:21740,动态:22696,动态:21556,动态:21972,动态:4036,动态:22507,动态:21757,动态:21857,动态:22699,动态:22688,动态:20399,动态:21780,动态:22146,动态:22692,动态:22512,动态:7746,动态:22680,动态:22019,动态:22706,动态:22323,动态:22697,动态:22698,动态:22667,动态:21975,动态:20439,动态:22710,动态:21776</t>
+          <t>动态:21757,动态:22146,动态:21975,动态:4036,动态:21763,动态:21972,动态:21436,动态:21741,动态:22684,动态:22702,动态:22323,动态:22696,动态:21753,动态:22692,动态:21857,动态:21556,动态:22698,动态:21756,动态:21776,动态:22512,动态:22697,动态:20720,动态:21780,动态:22685,动态:22507,动态:22688,动态:22667,动态:21745,动态:22706,动态:21740,动态:21727,动态:22680,动态:20439,动态:21737,动态:22659,动态:20364,动态:22699,动态:22710,动态:17337,动态:22019,动态:20399,动态:20440,动态:7746</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>动态:20720,动态:22684,动态:22710,动态:21556,动态:21757,动态:22680,动态:22019,动态:21857,动态:22323,动态:22659,动态:22507,动态:21737,动态:21780,动态:20440,动态:21756,动态:21727,动态:22667,动态:21740,动态:20399,动态:21436,动态:20439,动态:22698,动态:21753,动态:22512,动态:22692,动态:21776,动态:17337,动态:22688,动态:21975,动态:22699,动态:4036,动态:21972,动态:21763,动态:22696,动态:20364,动态:22685,动态:22706,动态:21741,动态:22146,动态:22702,动态:21745,动态:7746,动态:22697</t>
+          <t>动态:4036,动态:22699,动态:21857,动态:20440,动态:21556,动态:21740,动态:22688,动态:22697,动态:20364,动态:17337,动态:22706,动态:22507,动态:22659,动态:21975,动态:20399,动态:7746,动态:21436,动态:21737,动态:21776,动态:21753,动态:22667,动态:21757,动态:21763,动态:22323,动态:22512,动态:22684,动态:22019,动态:21745,动态:22692,动态:22146,动态:20720,动态:22698,动态:21741,动态:21727,动态:22685,动态:22710,动态:21972,动态:21780,动态:21756,动态:22680,动态:22702,动态:22696,动态:20439</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>动态:22019,动态:22697,动态:20439,动态:22512,动态:7746,动态:17337,动态:21757,动态:22702,动态:22696,动态:22706,动态:21780,动态:22146,动态:21737,动态:4036,动态:21556,动态:22680,动态:21776,动态:20399,动态:21745,动态:22684,动态:22698,动态:22692,动态:21975,动态:21727,动态:20720,动态:21740,动态:22323,动态:20440,动态:22688,动态:22659,动态:22667,动态:21857,动态:21741,动态:22699,动态:21972,动态:21763,动态:21756,动态:20364,动态:22507,动态:22710,动态:21436,动态:21753,动态:22685</t>
+          <t>动态:22698,动态:20439,动态:22710,动态:20399,动态:22684,动态:22688,动态:21737,动态:21857,动态:20720,动态:4036,动态:21753,动态:22706,动态:21745,动态:22659,动态:22680,动态:22685,动态:22146,动态:21780,动态:21975,动态:21741,动态:20364,动态:21776,动态:22697,动态:22667,动态:21436,动态:22699,动态:22702,动态:21763,动态:22692,动态:21727,动态:21756,动态:20440,动态:21740,动态:21972,动态:22019,动态:22323,动态:22512,动态:17337,动态:22507,动态:21556,动态:22696,动态:7746,动态:21757</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>动态:21857,动态:21757,动态:20439,动态:20399,动态:21975,动态:7746,动态:20440,动态:22684,动态:22146,动态:21436,动态:21556,动态:20720,动态:22697,动态:21972,动态:21756,动态:22685,动态:17337,动态:22680,动态:21776,动态:22692,动态:21740,动态:22688,动态:4036,动态:22710,动态:21741,动态:21745,动态:22702,动态:20364,动态:21727,动态:22019,动态:22706,动态:21763,动态:22512,动态:22698,动态:22696,动态:22667,动态:22507,动态:22699,动态:21780,动态:21753,动态:22323,动态:21737,动态:22659</t>
+          <t>动态:21780,动态:21556,动态:22699,动态:7746,动态:22688,动态:22684,动态:20440,动态:22667,动态:22697,动态:20399,动态:22512,动态:22692,动态:22696,动态:21740,动态:22659,动态:21436,动态:22680,动态:21756,动态:22706,动态:21776,动态:21727,动态:21975,动态:22702,动态:20720,动态:21741,动态:4036,动态:21972,动态:21745,动态:20364,动态:21763,动态:22685,动态:21757,动态:22507,动态:21737,动态:22146,动态:20439,动态:22698,动态:22019,动态:21857,动态:22323,动态:22710,动态:21753,动态:17337</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>动态:22688,动态:22323,动态:21727,动态:22696,动态:21975,动态:20399,动态:21776,动态:20440,动态:21745,动态:21972,动态:22697,动态:21757,动态:21756,动态:20364,动态:22706,动态:22699,动态:21857,动态:21780,动态:22692,动态:21737,动态:22659,动态:22019,动态:22698,动态:22667,动态:7746,动态:20439,动态:20720,动态:22685,动态:22507,动态:22512,动态:21740,动态:22684,动态:21763,动态:21556,动态:22702,动态:4036,动态:17337,动态:22680,动态:21741,动态:22710,动态:21753,动态:21436,动态:22146</t>
+          <t>动态:17337,动态:21763,动态:21740,动态:20399,动态:22323,动态:7746,动态:22146,动态:21737,动态:22697,动态:21972,动态:21741,动态:21776,动态:22684,动态:22710,动态:4036,动态:20439,动态:21753,动态:22688,动态:21556,动态:22702,动态:20440,动态:22507,动态:22680,动态:22692,动态:22699,动态:21757,动态:20364,动态:20720,动态:22706,动态:21857,动态:22685,动态:22696,动态:22512,动态:21745,动态:21780,动态:22019,动态:21756,动态:21727,动态:22667,动态:21436,动态:22698,动态:22659,动态:21975</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>动态:21857,动态:21753,动态:21741,动态:21757,动态:22323,动态:22699,动态:22659,动态:21972,动态:4036,动态:21975,动态:20399,动态:20364,动态:21436,动态:22710,动态:21740,动态:22688,动态:21763,动态:20439,动态:22684,动态:20720,动态:21727,动态:22512,动态:22685,动态:22667,动态:21556,动态:7746,动态:22696,动态:22019,动态:21756,动态:22680,动态:21745,动态:21737,动态:21780,动态:20440,动态:22698,动态:22507,动态:22706,动态:17337,动态:22697,动态:22702,动态:22692,动态:22146,动态:21776</t>
+          <t>动态:21780,动态:20364,动态:22684,动态:20399,动态:22512,动态:21740,动态:21436,动态:22696,动态:22019,动态:21741,动态:22706,动态:22692,动态:21763,动态:21975,动态:22702,动态:22680,动态:21745,动态:22146,动态:21727,动态:21756,动态:20440,动态:21737,动态:22697,动态:7746,动态:21972,动态:22685,动态:22323,动态:17337,动态:21857,动态:22659,动态:22698,动态:22667,动态:22710,动态:21776,动态:22688,动态:21757,动态:22507,动态:21753,动态:21556,动态:20439,动态:22699,动态:20720,动态:4036</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>动态:21857,动态:22659,动态:22512,动态:22697,动态:21753,动态:21740,动态:22667,动态:21737,动态:20720,动态:22680,动态:20439,动态:21780,动态:21776,动态:22706,动态:22146,动态:4036,动态:22696,动态:21763,动态:22699,动态:21972,动态:22688,动态:20399,动态:22698,动态:22684,动态:21757,动态:21436,动态:17337,动态:22019,动态:21745,动态:21975,动态:21741,动态:21756,动态:21556,动态:22702,动态:7746,动态:20440,动态:22692,动态:22507,动态:22323,动态:22685,动态:21727,动态:20364,动态:22710</t>
+          <t>动态:22698,动态:20364,动态:7746,动态:22688,动态:21780,动态:21745,动态:22685,动态:21763,动态:20440,动态:22706,动态:22019,动态:22702,动态:22696,动态:21727,动态:22692,动态:4036,动态:21975,动态:21857,动态:20439,动态:22146,动态:22680,动态:21740,动态:21753,动态:22507,动态:22667,动态:21741,动态:21757,动态:22697,动态:21436,动态:20399,动态:22684,动态:22323,动态:21756,动态:22710,动态:20720,动态:22512,动态:21776,动态:21972,动态:22659,动态:17337,动态:21737,动态:21556,动态:22699</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>动态:20364,动态:21740,动态:22659,动态:22702,动态:22019,动态:22512,动态:7746,动态:22507,动态:20399,动态:22697,动态:22680,动态:22684,动态:21757,动态:21741,动态:22698,动态:21436,动态:22323,动态:22706,动态:22146,动态:20439,动态:22692,动态:20440,动态:21556,动态:22710,动态:21737,动态:21776,动态:21727,动态:22699,动态:21857,动态:21753,动态:22688,动态:22696,动态:21745,动态:22685,动态:21780,动态:20720,动态:17337,动态:21763,动态:21756,动态:21975,动态:22667,动态:4036,动态:21972</t>
+          <t>动态:22684,动态:21757,动态:22680,动态:22019,动态:20364,动态:22512,动态:21756,动态:21776,动态:22323,动态:21972,动态:21753,动态:22507,动态:22685,动态:22688,动态:21975,动态:22706,动态:22692,动态:21741,动态:21737,动态:22696,动态:22710,动态:21556,动态:22702,动态:21763,动态:21780,动态:20720,动态:22146,动态:22698,动态:21727,动态:21436,动态:7746,动态:17337,动态:22699,动态:22667,动态:21745,动态:21740,动态:20440,动态:22697,动态:22659,动态:20439,动态:21857,动态:20399,动态:4036</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>动态:22685,动态:22146,动态:21975,动态:22659,动态:22699,动态:21780,动态:21727,动态:21757,动态:21737,动态:20439,动态:22706,动态:22696,动态:17337,动态:21740,动态:22019,动态:21753,动态:22710,动态:21741,动态:22507,动态:21763,动态:21972,动态:22702,动态:22667,动态:20399,动态:20440,动态:22698,动态:21756,动态:22688,动态:4036,动态:21436,动态:21857,动态:22684,动态:21556,动态:7746,动态:21776,动态:21745,动态:20720,动态:22697,动态:20364,动态:22512,动态:22680,动态:22323,动态:22692</t>
+          <t>动态:22699,动态:21972,动态:21436,动态:20364,动态:21756,动态:20720,动态:22688,动态:22698,动态:21741,动态:21745,动态:22323,动态:21740,动态:21556,动态:17337,动态:22685,动态:22706,动态:22146,动态:22019,动态:21763,动态:22507,动态:22697,动态:20440,动态:22512,动态:7746,动态:21857,动态:21753,动态:21975,动态:21727,动态:20439,动态:22710,动态:22684,动态:21737,动态:21757,动态:22696,动态:20399,动态:22702,动态:22667,动态:21780,动态:22680,动态:4036,动态:22692,动态:21776,动态:22659</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>动态:21975,动态:22146,动态:17337,动态:21756,动态:21753,动态:22323,动态:21556,动态:21737,动态:21776,动态:4036,动态:22696,动态:22706,动态:22507,动态:22702,动态:20440,动态:22680,动态:21741,动态:22667,动态:21436,动态:22710,动态:21740,动态:20399,动态:20439,动态:22698,动态:22019,动态:22699,动态:20720,动态:21727,动态:22697,动态:22685,动态:21780,动态:22684,动态:22659,动态:22512,动态:21757,动态:21857,动态:21745,动态:7746,动态:21763,动态:21972,动态:20364,动态:22692,动态:22688</t>
+          <t>动态:7746,动态:21727,动态:21757,动态:21776,动态:22512,动态:22146,动态:17337,动态:21741,动态:20399,动态:21780,动态:22698,动态:22659,动态:21740,动态:22507,动态:21763,动态:22684,动态:22688,动态:22699,动态:20364,动态:22680,动态:21436,动态:21745,动态:22697,动态:21857,动态:22702,动态:20720,动态:21756,动态:21975,动态:22692,动态:21737,动态:22019,动态:20439,动态:22696,动态:22710,动态:4036,动态:22667,动态:21556,动态:22706,动态:21972,动态:20440,动态:22685,动态:21753,动态:22323</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>动态:21741,动态:22146,动态:20439,动态:22659,动态:22702,动态:21780,动态:22696,动态:22706,动态:21727,动态:21745,动态:20399,动态:22710,动态:21737,动态:22323,动态:22684,动态:22699,动态:22697,动态:17337,动态:21763,动态:21753,动态:21975,动态:22667,动态:22692,动态:21436,动态:22698,动态:21972,动态:20440,动态:20720,动态:21756,动态:7746,动态:22019,动态:21757,动态:22512,动态:21857,动态:22507,动态:22688,动态:22685,动态:4036,动态:21776,动态:20364,动态:22680,动态:21740,动态:21556</t>
+          <t>动态:22696,动态:22706,动态:17337,动态:20364,动态:21737,动态:21972,动态:21763,动态:21741,动态:21753,动态:22699,动态:21740,动态:21727,动态:4036,动态:22710,动态:22507,动态:22685,动态:22659,动态:21780,动态:22019,动态:20440,动态:21776,动态:20439,动态:21756,动态:21857,动态:21745,动态:20720,动态:22702,动态:22667,动态:22323,动态:22688,动态:22680,动态:21436,动态:22698,动态:21556,动态:21757,动态:21975,动态:22697,动态:22684,动态:7746,动态:22512,动态:20399,动态:22146,动态:22692</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>动态:21753,动态:21757,动态:21727,动态:4036,动态:21780,动态:22146,动态:20399,动态:22659,动态:22699,动态:22696,动态:22667,动态:22680,动态:22323,动态:21741,动态:21756,动态:22698,动态:22702,动态:7746,动态:21776,动态:22710,动态:21763,动态:22685,动态:22706,动态:22692,动态:20439,动态:17337,动态:21975,动态:20440,动态:21972,动态:22512,动态:22697,动态:21740,动态:20720,动态:21556,动态:20364,动态:21745,动态:22507,动态:22688,动态:21737,动态:22684,动态:21857,动态:22019,动态:21436</t>
+          <t>动态:21556,动态:22706,动态:22710,动态:22688,动态:21763,动态:22684,动态:21436,动态:21857,动态:21745,动态:22146,动态:21776,动态:20440,动态:21740,动态:21727,动态:22323,动态:22019,动态:20364,动态:20720,动态:22680,动态:22685,动态:22659,动态:22702,动态:21756,动态:21975,动态:22698,动态:20399,动态:21741,动态:21757,动态:22512,动态:7746,动态:21737,动态:21972,动态:17337,动态:21780,动态:20439,动态:22699,动态:22697,动态:4036,动态:21753,动态:22696,动态:22692,动态:22667,动态:22507</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>动态:22702,动态:22688,动态:21757,动态:22667,动态:22512,动态:21756,动态:21972,动态:21741,动态:22659,动态:20440,动态:22710,动态:22697,动态:21727,动态:22706,动态:21776,动态:22019,动态:22696,动态:21763,动态:21975,动态:22699,动态:22507,动态:21740,动态:21436,动态:22680,动态:21857,动态:22692,动态:22698,动态:22323,动态:21753,动态:21780,动态:20399,动态:22684,动态:20364,动态:22685,动态:17337,动态:20439,动态:20720,动态:22146,动态:21745,动态:7746,动态:21556,动态:4036,动态:21737</t>
+          <t>动态:21780,动态:17337,动态:22699,动态:20439,动态:21972,动态:21975,动态:22702,动态:21763,动态:22688,动态:21753,动态:22685,动态:7746,动态:20364,动态:22706,动态:21757,动态:21741,动态:22684,动态:22667,动态:20399,动态:21740,动态:21436,动态:20720,动态:21857,动态:21745,动态:22710,动态:22659,动态:20440,动态:21556,动态:21776,动态:22698,动态:22019,动态:21727,动态:22692,动态:22680,动态:21756,动态:22323,动态:22507,动态:4036,动态:22512,动态:21737,动态:22697,动态:22696,动态:22146</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>动态:21741,动态:21745,动态:22685,动态:21776,动态:21763,动态:20720,动态:22699,动态:22696,动态:17337,动态:21972,动态:22680,动态:22512,动态:20440,动态:22659,动态:21780,动态:21757,动态:22706,动态:21740,动态:20439,动态:20399,动态:21556,动态:22688,动态:21753,动态:7746,动态:22710,动态:22323,动态:21727,动态:21756,动态:22684,动态:22507,动态:22692,动态:22702,动态:22146,动态:22019,动态:4036,动态:22698,动态:21436,动态:22667,动态:20364,动态:22697,动态:21857,动态:21737,动态:21975</t>
+          <t>动态:21556,动态:22512,动态:21975,动态:20439,动态:22688,动态:7746,动态:20364,动态:21727,动态:20720,动态:22685,动态:22507,动态:21776,动态:22684,动态:22019,动态:22697,动态:21757,动态:22699,动态:22659,动态:21740,动态:21753,动态:4036,动态:20440,动态:21436,动态:21756,动态:22710,动态:21741,动态:17337,动态:22323,动态:20399,动态:22698,动态:22146,动态:22667,动态:22696,动态:21972,动态:21857,动态:22702,动态:21763,动态:21780,动态:22692,动态:21745,动态:22680,动态:22706,动态:21737</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>动态:22698,动态:22706,动态:4036,动态:21780,动态:21745,动态:21756,动态:22659,动态:21741,动态:7746,动态:22688,动态:21857,动态:22146,动态:21972,动态:22507,动态:21556,动态:22702,动态:22697,动态:21975,动态:21763,动态:22696,动态:21740,动态:20439,动态:20440,动态:22699,动态:22710,动态:22323,动态:21776,动态:20720,动态:22680,动态:22667,动态:22685,动态:22019,动态:20364,动态:22692,动态:22512,动态:21436,动态:21727,动态:21737,动态:17337,动态:21753,动态:20399</t>
+          <t>动态:22697,动态:22512,动态:21436,动态:21740,动态:21756,动态:22692,动态:22507,动态:4036,动态:22685,动态:22688,动态:21857,动态:20720,动态:21737,动态:22019,动态:22710,动态:20440,动态:20399,动态:22698,动态:21975,动态:22702,动态:22699,动态:22706,动态:20364,动态:21727,动态:21972,动态:21763,动态:22659,动态:21745,动态:20439,动态:22323,动态:21776,动态:22680,动态:22696,动态:21780,动态:17337,动态:22667,动态:21556,动态:7746,动态:21753,动态:22146,动态:21741</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>动态:21745,动态:22685,动态:21436,动态:21975,动态:20439,动态:22692,动态:20720,动态:22688,动态:21757,动态:22323,动态:22706,动态:21727,动态:22659,动态:21556,动态:21740,动态:21972,动态:17337,动态:21753,动态:20399,动态:20364,动态:22699,动态:22507,动态:7746,动态:20440,动态:22667,动态:22696,动态:21756,动态:22710,动态:22512,动态:22702,动态:22697,动态:22680,动态:4036,动态:21763,动态:22684,动态:21737,动态:21741,动态:22146,动态:22019,动态:21857,动态:22698,动态:21780</t>
+          <t>动态:22702,动态:7746,动态:21857,动态:22698,动态:21763,动态:21556,动态:22696,动态:22507,动态:21740,动态:4036,动态:22667,动态:21753,动态:21741,动态:22146,动态:22692,动态:21756,动态:21975,动态:22706,动态:21745,动态:22680,动态:21972,动态:20364,动态:22688,动态:20720,动态:20439,动态:22019,动态:22659,动态:20399,动态:17337,动态:21780,动态:22685,动态:20440,动态:22699,动态:22697,动态:22323,动态:22710,动态:21436,动态:21757,动态:22512,动态:21737,动态:21727,动态:22684</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>动态:22684,动态:20439,动态:22696,动态:22685,动态:21753,动态:21857,动态:21780,动态:22692,动态:20440,动态:4036,动态:22659,动态:22699,动态:22667,动态:22680,动态:20364,动态:21436,动态:21972,动态:22146,动态:21737,动态:22507,动态:17337,动态:22512,动态:22323,动态:21741,动态:22019,动态:21975,动态:21756,动态:20720,动态:22697,动态:22710,动态:21763,动态:21757,动态:22706,动态:21745,动态:22702,动态:21556,动态:22688,动态:20399,动态:21740,动态:7746,动态:21727</t>
+          <t>动态:22699,动态:20440,动态:21753,动态:17337,动态:21745,动态:21857,动态:7746,动态:21780,动态:22684,动态:21741,动态:20399,动态:22659,动态:22696,动态:21436,动态:22685,动态:4036,动态:22512,动态:22697,动态:22323,动态:22667,动态:21972,动态:22702,动态:22706,动态:22688,动态:20439,动态:20364,动态:21556,动态:20720,动态:22019,动态:21975,动态:21740,动态:21756,动态:22692,动态:22507,动态:22710,动态:21727,动态:22680,动态:21757,动态:21763,动态:22146,动态:21737</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>动态:22667,动态:21857,动态:21756,动态:22697,动态:20399,动态:21727,动态:22702,动态:7746,动态:22706,动态:22699,动态:21556,动态:22710,动态:22323,动态:21737,动态:22680,动态:20720,动态:17337,动态:22692,动态:22684,动态:22696,动态:20364,动态:21776,动态:22512,动态:21757,动态:22146,动态:21436,动态:22685,动态:20440,动态:21740,动态:22507,动态:22688,动态:22698,动态:21975,动态:21763,动态:4036,动态:20439,动态:21741,动态:22659,动态:21780,动态:22019,动态:21972</t>
+          <t>动态:21741,动态:22697,动态:22688,动态:17337,动态:22710,动态:22146,动态:21975,动态:21763,动态:21757,动态:22706,动态:7746,动态:21857,动态:22696,动态:4036,动态:22684,动态:22323,动态:21436,动态:22659,动态:22019,动态:20399,动态:20440,动态:22507,动态:22685,动态:21756,动态:21740,动态:20720,动态:21972,动态:20364,动态:22680,动态:22512,动态:22702,动态:22692,动态:22667,动态:22698,动态:22699,动态:20439,动态:21776,动态:21727,动态:21556,动态:21737,动态:21780</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>动态:4036,动态:21757,动态:22019,动态:21756,动态:20439,动态:21972,动态:22696,动态:20364,动态:21780,动态:22659,动态:21776,动态:21745,动态:22699,动态:21727,动态:17337,动态:21741,动态:22684,动态:21740,动态:22323,动态:7746,动态:21763,动态:22667,动态:22710,动态:22698,动态:22512,动态:20440,动态:21737,动态:20399,动态:22702,动态:22706,动态:20720,动态:22685,动态:21753,动态:21857,动态:22697,动态:21975,动态:22692</t>
+          <t>动态:4036,动态:22019,动态:20439,动态:21757,动态:21857,动态:21776,动态:22699,动态:21763,动态:21737,动态:21753,动态:21756,动态:21740,动态:21745,动态:22685,动态:22698,动态:22710,动态:22696,动态:21780,动态:22692,动态:21727,动态:7746,动态:22702,动态:21975,动态:22323,动态:22706,动态:22512,动态:20399,动态:20440,动态:20364,动态:21972,动态:22684,动态:22697,动态:17337,动态:21741,动态:22667,动态:22659,动态:20720</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>动态:22659,动态:20439,动态:22019,动态:20440,动态:22323,动态:22685,动态:21757,动态:22697,动态:22696,动态:22507,动态:22699,动态:22680,动态:22698,动态:21972,动态:21857,动态:21436,动态:20364,动态:20720,动态:21727,动态:21975,动态:21737,动态:4036,动态:22667,动态:7746,动态:22146,动态:21745,动态:22684,动态:22512,动态:17337,动态:22688,动态:21740,动态:21776,动态:22692,动态:22706,动态:21556,动态:21780,动态:21756,动态:21753,动态:21741,动态:22710,动态:20399</t>
+          <t>动态:21972,动态:21975,动态:22684,动态:22692,动态:22512,动态:22688,动态:22696,动态:22507,动态:22697,动态:17337,动态:22323,动态:7746,动态:22659,动态:22685,动态:22680,动态:21436,动态:22667,动态:21776,动态:21745,动态:20440,动态:4036,动态:21741,动态:21780,动态:21757,动态:21727,动态:20439,动态:20364,动态:22019,动态:22710,动态:21756,动态:21753,动态:21737,动态:20399,动态:21740,动态:22699,动态:22146,动态:22706,动态:22698,动态:20720,动态:21857,动态:21556</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>动态:22680,动态:22692,动态:22696,动态:21745,动态:22684,动态:21757,动态:21740,动态:22702,动态:21556,动态:22667,动态:21972,动态:22019,动态:22507,动态:20439,动态:22659,动态:21780,动态:7746,动态:21753,动态:21763,动态:21741,动态:21436,动态:21857,动态:17337,动态:20399,动态:22146,动态:22697,动态:22698,动态:22685,动态:21975,动态:22512,动态:22699,动态:22706,动态:22688,动态:21776,动态:20440,动态:21727,动态:4036,动态:21737,动态:22710,动态:20720,动态:22323,动态:20364</t>
+          <t>动态:22710,动态:21727,动态:22685,动态:21780,动态:21436,动态:22699,动态:20364,动态:17337,动态:20440,动态:21740,动态:22688,动态:21975,动态:21737,动态:22698,动态:22692,动态:22697,动态:21972,动态:22323,动态:20720,动态:20439,动态:22146,动态:21741,动态:22019,动态:22706,动态:21763,动态:4036,动态:22659,动态:22680,动态:22696,动态:21753,动态:22667,动态:21745,动态:21556,动态:21776,动态:20399,动态:7746,动态:22684,动态:21857,动态:22702,动态:22512,动态:21757,动态:22507</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>动态:22680,动态:21556,动态:21737,动态:22692,动态:22706,动态:22685,动态:22697,动态:21780,动态:22696,动态:7746,动态:21741,动态:21745,动态:22323,动态:22699,动态:22667,动态:4036,动态:20720,动态:21436,动态:20439,动态:20440,动态:21740,动态:20364,动态:22507,动态:20399,动态:21757,动态:22684,动态:21763,动态:22702,动态:21857,动态:21975,动态:21753,动态:22146,动态:21727,动态:22019,动态:22512,动态:22688,动态:17337,动态:22710,动态:22659,动态:21776,动态:21972</t>
+          <t>动态:21763,动态:21753,动态:22706,动态:21776,动态:21972,动态:22697,动态:20399,动态:22702,动态:22659,动态:20364,动态:22019,动态:7746,动态:22685,动态:20720,动态:22696,动态:21737,动态:21740,动态:20440,动态:22699,动态:22688,动态:22692,动态:21857,动态:22146,动态:21780,动态:22507,动态:4036,动态:22512,动态:21975,动态:22680,动态:21436,动态:22710,动态:21745,动态:21556,动态:22667,动态:21741,动态:17337,动态:21727,动态:22684,动态:22323,动态:20439,动态:21757</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>动态:21745,动态:22323,动态:22019,动态:21436,动态:22146,动态:22685,动态:20720,动态:21780,动态:22667,动态:21727,动态:21756,动态:21556,动态:22697,动态:22699,动态:22512,动态:22659,动态:22702,动态:22684,动态:20439,动态:22706,动态:21776,动态:21763,动态:4036,动态:21741,动态:17337,动态:21737,动态:20440,动态:21975,动态:22696,动态:7746,动态:22710,动态:22698,动态:22692,动态:21972,动态:21857,动态:20399,动态:21740,动态:21757,动态:22507,动态:20364,动态:21753</t>
+          <t>动态:20399,动态:4036,动态:21776,动态:22019,动态:22710,动态:22684,动态:21975,动态:22323,动态:20439,动态:21972,动态:22706,动态:21745,动态:22696,动态:21737,动态:22667,动态:21763,动态:20440,动态:22699,动态:22512,动态:22692,动态:22685,动态:21756,动态:20364,动态:21727,动态:22146,动态:21556,动态:21857,动态:21753,动态:21436,动态:22697,动态:21741,动态:7746,动态:21780,动态:22698,动态:22702,动态:22507,动态:21740,动态:17337,动态:20720,动态:21757,动态:22659</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>动态:20440,动态:21780,动态:21556,动态:22659,动态:22698,动态:22710,动态:22699,动态:22680,动态:21745,动态:22697,动态:22507,动态:22688,动态:4036,动态:21737,动态:20720,动态:17337,动态:22692,动态:21753,动态:22685,动态:22667,动态:21727,动态:21763,动态:22696,动态:7746,动态:22323,动态:21972,动态:21740,动态:22512,动态:21757,动态:22706,动态:21975,动态:22019,动态:20364,动态:22684,动态:20439,动态:21857,动态:21741,动态:20399</t>
+          <t>动态:22507,动态:17337,动态:21727,动态:22698,动态:22699,动态:21753,动态:21757,动态:21972,动态:21763,动态:22667,动态:20720,动态:22684,动态:22323,动态:21741,动态:20439,动态:22685,动态:22706,动态:21556,动态:21857,动态:20440,动态:21745,动态:22710,动态:4036,动态:21737,动态:22512,动态:21975,动态:22688,动态:21780,动态:22696,动态:22019,动态:20399,动态:22680,动态:22692,动态:22659,动态:22697,动态:21740,动态:7746,动态:20364</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>动态:21727,动态:21757,动态:21436,动态:21975,动态:21753,动态:17337,动态:21972,动态:22667,动态:22659,动态:20440,动态:22688,动态:7746,动态:22512,动态:22685,动态:22702,动态:21745,动态:21556,动态:20364,动态:22146,动态:22706,动态:22680,动态:21737,动态:22692,动态:22698,动态:20720,动态:22684,动态:21776,动态:22019,动态:22696,动态:20399,动态:22323,动态:21740,动态:22699,动态:21741,动态:22697,动态:21763,动态:22507,动态:4036,动态:21857,动态:20439</t>
+          <t>动态:22692,动态:20399,动态:21727,动态:22659,动态:21776,动态:22680,动态:22507,动态:20720,动态:21436,动态:22146,动态:22698,动态:21972,动态:22706,动态:22702,动态:21745,动态:21763,动态:17337,动态:20440,动态:21556,动态:22019,动态:21737,动态:22696,动态:21975,动态:22699,动态:21857,动态:22688,动态:4036,动态:22684,动态:21740,动态:22685,动态:20364,动态:21753,动态:22667,动态:22512,动态:7746,动态:22697,动态:21741,动态:20439,动态:22323,动态:21757</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>动态:22706,动态:21756,动态:21757,动态:22512,动态:22710,动态:20364,动态:21741,动态:22688,动态:22692,动态:21857,动态:21776,动态:22667,动态:21727,动态:21780,动态:22699,动态:22680,动态:22702,动态:22507,动态:21972,动态:21745,动态:17337,动态:7746,动态:22659,动态:20439,动态:21763,动态:22019,动态:20399,动态:22698,动态:21975,动态:21753,动态:22696,动态:20720,动态:21737,动态:22146,动态:22685,动态:4036,动态:21740,动态:20440</t>
+          <t>动态:21753,动态:22685,动态:21780,动态:22146,动态:22696,动态:21745,动态:22692,动态:4036,动态:21737,动态:21857,动态:7746,动态:22667,动态:22659,动态:21727,动态:21740,动态:21756,动态:20720,动态:22706,动态:20439,动态:21776,动态:22512,动态:22688,动态:22698,动态:22680,动态:22699,动态:22710,动态:22507,动态:20364,动态:21763,动态:17337,动态:21757,动态:21975,动态:22702,动态:21972,动态:21741,动态:22019,动态:20399,动态:20440</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>动态:7746,动态:21776,动态:21763,动态:21975,动态:22680,动态:21972,动态:21740,动态:21741,动态:22507,动态:21737,动态:22146,动态:22667,动态:21757,动态:22706,动态:22692,动态:22710,动态:22019,动态:22699,动态:21753,动态:21756,动态:21745,动态:17337,动态:20399,动态:22702,动态:22512,动态:20364,动态:22697,动态:22688,动态:21780,动态:21436,动态:22659,动态:21727,动态:22696,动态:22698,动态:20439,动态:22685,动态:22684,动态:4036,动态:21857,动态:20440,动态:20720,动态:21556,动态:22323</t>
+          <t>动态:20440,动态:22146,动态:21436,动态:21763,动态:22688,动态:21756,动态:21776,动态:22684,动态:22659,动态:21740,动态:17337,动态:20720,动态:22323,动态:21972,动态:21741,动态:22019,动态:22698,动态:7746,动态:22697,动态:21745,动态:21737,动态:22667,动态:4036,动态:22710,动态:22699,动态:22692,动态:21857,动态:21757,动态:21975,动态:22706,动态:21556,动态:22696,动态:20439,动态:22507,动态:21753,动态:20399,动态:22702,动态:22680,动态:22512,动态:20364,动态:21727,动态:22685,动态:21780</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>动态:21740,动态:22692,动态:21857,动态:20720,动态:21780,动态:22659,动态:21972,动态:21756,动态:22680,动态:20439,动态:22697,动态:22685,动态:22667,动态:21975,动态:21776,动态:21753,动态:22710,动态:22688,动态:21757,动态:22706,动态:20440,动态:20364,动态:22512,动态:17337,动态:21727,动态:22698,动态:22696,动态:22684,动态:22146,动态:20399,动态:21436,动态:21556,动态:4036,动态:7746,动态:21737,动态:21763,动态:22019,动态:22699</t>
+          <t>动态:20720,动态:22667,动态:22697,动态:22710,动态:17337,动态:7746,动态:21737,动态:22696,动态:21757,动态:20399,动态:21776,动态:21857,动态:21763,动态:22146,动态:22706,动态:22684,动态:21756,动态:22688,动态:22698,动态:21753,动态:21780,动态:4036,动态:22659,动态:21972,动态:21556,动态:21436,动态:20440,动态:22680,动态:22699,动态:20439,动态:20364,动态:21975,动态:22685,动态:22019,动态:22512,动态:22692,动态:21727,动态:21740</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>动态:21740,动态:22019,动态:7746,动态:22696,动态:22692,动态:17337,动态:22702,动态:21737,动态:21972,动态:21776,动态:22323,动态:20439,动态:22680,动态:22659,动态:21727,动态:20720,动态:20399,动态:22706,动态:22697,动态:22698,动态:20440,动态:21857,动态:21975,动态:22710,动态:22512,动态:20364,动态:21780,动态:21753,动态:21745,动态:22699,动态:21763,动态:21741,动态:4036,动态:21556,动态:22684,动态:22685,动态:21756,动态:22667,动态:22146,动态:22688</t>
+          <t>动态:22698,动态:20440,动态:22699,动态:21756,动态:22680,动态:22702,动态:22706,动态:21740,动态:21763,动态:21745,动态:21975,动态:21556,动态:22710,动态:21857,动态:22659,动态:22019,动态:21753,动态:22146,动态:22684,动态:20364,动态:22667,动态:21776,动态:21741,动态:7746,动态:20399,动态:21727,动态:22688,动态:22697,动态:22512,动态:20439,动态:22685,动态:21737,动态:21780,动态:22323,动态:22696,动态:21972,动态:22692,动态:17337,动态:4036,动态:20720</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>动态:21972,动态:21436,动态:22698,动态:22019,动态:22146,动态:21763,动态:21745,动态:22680,动态:22667,动态:20720,动态:22688,动态:20440,动态:7746,动态:22697,动态:22323,动态:22512,动态:22685,动态:21857,动态:21740,动态:21776,动态:22659,动态:21741,动态:21975,动态:22710,动态:20364,动态:22696,动态:21780,动态:22702,动态:22706,动态:20439,动态:21756,动态:21737,动态:22684,动态:22699,动态:22507,动态:21757,动态:21753,动态:17337,动态:21556,动态:22692,动态:21727,动态:4036,动态:20399</t>
+          <t>动态:21857,动态:22698,动态:21745,动态:21436,动态:21737,动态:22697,动态:21972,动态:20399,动态:22019,动态:22684,动态:21757,动态:20364,动态:22706,动态:20439,动态:22685,动态:21556,动态:21975,动态:22659,动态:20720,动态:22699,动态:20440,动态:22507,动态:22710,动态:22696,动态:21780,动态:21776,动态:22688,动态:22512,动态:17337,动态:22323,动态:21740,动态:21741,动态:21753,动态:21727,动态:4036,动态:22702,动态:7746,动态:21756,动态:22680,动态:21763,动态:22692,动态:22667,动态:22146</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>动态:22710,动态:4036,动态:21776,动态:22146,动态:20364,动态:7746,动态:20440,动态:20399,动态:22696,动态:21780,动态:22699,动态:21556,动态:21727,动态:20439,动态:21436,动态:22692,动态:21857,动态:22697,动态:21737,动态:21745,动态:21763,动态:21975,动态:22698,动态:22512,动态:22323,动态:17337,动态:21972,动态:22688,动态:22680,动态:22685,动态:21740,动态:21756,动态:20720,动态:21757,动态:22702,动态:22659,动态:22684,动态:22667,动态:22019,动态:22706,动态:22507</t>
+          <t>动态:22710,动态:4036,动态:22659,动态:21556,动态:22699,动态:22680,动态:21857,动态:20399,动态:20439,动态:21975,动态:22146,动态:21740,动态:21436,动态:21727,动态:21756,动态:20440,动态:22706,动态:22698,动态:22692,动态:22512,动态:21776,动态:21780,动态:21972,动态:22684,动态:20720,动态:22696,动态:7746,动态:22667,动态:21763,动态:22697,动态:21745,动态:22323,动态:21757,动态:22685,动态:22702,动态:17337,动态:22019,动态:22507,动态:20364,动态:22688,动态:21737</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>动态:22698,动态:20399,动态:22688,动态:21975,动态:22323,动态:22697,动态:22507,动态:22692,动态:22667,动态:20440,动态:20439,动态:22684,动态:17337,动态:21763,动态:20720,动态:21745,动态:22710,动态:21741,动态:22512,动态:22019,动态:21740,动态:21753,动态:21972,动态:21757,动态:4036,动态:22706,动态:22702,动态:7746,动态:22685,动态:22146,动态:21857,动态:22699,动态:21756,动态:22659,动态:21556,动态:21727,动态:22696,动态:20364,动态:21776,动态:21737,动态:21780</t>
+          <t>动态:20364,动态:22698,动态:22659,动态:22710,动态:21745,动态:22697,动态:4036,动态:21857,动态:22692,动态:21776,动态:21972,动态:22507,动态:22706,动态:22685,动态:21753,动态:20399,动态:21727,动态:21780,动态:22512,动态:22696,动态:22702,动态:20439,动态:20440,动态:22667,动态:22699,动态:7746,动态:22688,动态:22684,动态:21737,动态:21757,动态:22146,动态:21556,动态:21975,动态:21756,动态:22019,动态:22323,动态:17337,动态:21740,动态:21763,动态:20720,动态:21741</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>动态:21753,动态:20399,动态:21740,动态:21972,动态:21727,动态:22698,动态:21737,动态:21745,动态:20720,动态:22019,动态:22697,动态:17337,动态:22706,动态:22702,动态:22696,动态:21780,动态:22692,动态:21763,动态:21975,动态:22146,动态:22688,动态:21556,动态:7746,动态:22512,动态:21757,动态:21776,动态:22680,动态:22699,动态:21741,动态:22507,动态:20364,动态:20440,动态:22659,动态:20439,动态:22667,动态:21756,动态:4036,动态:22685,动态:21857,动态:22684</t>
+          <t>动态:21776,动态:17337,动态:21753,动态:21737,动态:22146,动态:22706,动态:22692,动态:21756,动态:20440,动态:7746,动态:21857,动态:21972,动态:22699,动态:22698,动态:21975,动态:21740,动态:21780,动态:20439,动态:22019,动态:20399,动态:21763,动态:22680,动态:22696,动态:21556,动态:22659,动态:20720,动态:22688,动态:22697,动态:21727,动态:22685,动态:22667,动态:21741,动态:4036,动态:20364,动态:22702,动态:21757,动态:21745,动态:22512,动态:22684,动态:22507</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>动态:21740,动态:17337,动态:21745,动态:22680,动态:22146,动态:21753,动态:21857,动态:22692,动态:22699,动态:21972,动态:21741,动态:22667,动态:22512,动态:4036,动态:21975,动态:22507,动态:22659,动态:22323,动态:21780,动态:7746,动态:21756,动态:22696,动态:20720,动态:21737,动态:22685,动态:20439,动态:22688,动态:21436,动态:21556,动态:22698,动态:20364,动态:21757,动态:22710,动态:22706,动态:21727,动态:20440,动态:20399,动态:21776,动态:22019,动态:22697,动态:22684</t>
+          <t>动态:22667,动态:21745,动态:22698,动态:20364,动态:22507,动态:22685,动态:22323,动态:4036,动态:22512,动态:22019,动态:21975,动态:22696,动态:22710,动态:21776,动态:22680,动态:21727,动态:21740,动态:17337,动态:21436,动态:21756,动态:20720,动态:22688,动态:22659,动态:21737,动态:21757,动态:21556,动态:22706,动态:21753,动态:22684,动态:22692,动态:20440,动态:21972,动态:22146,动态:22699,动态:21780,动态:21741,动态:21857,动态:22697,动态:20439,动态:20399,动态:7746</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>动态:22146,动态:22684,动态:21776,动态:22692,动态:21763,动态:20440,动态:17337,动态:4036,动态:22702,动态:22512,动态:22685,动态:21972,动态:22667,动态:22706,动态:21741,动态:22696,动态:21727,动态:21753,动态:21436,动态:20364,动态:22680,动态:7746,动态:21857,动态:20720,动态:22019,动态:22659,动态:22688,动态:20399,动态:21756,动态:22710,动态:22323,动态:22698,动态:22697,动态:20439,动态:21740,动态:21757,动态:22507,动态:21737,动态:21745,动态:21780,动态:21556,动态:22699</t>
+          <t>动态:21763,动态:21972,动态:20399,动态:22685,动态:20720,动态:22680,动态:21740,动态:22696,动态:22323,动态:7746,动态:20440,动态:4036,动态:22692,动态:22667,动态:20439,动态:21727,动态:21780,动态:21753,动态:22507,动态:22688,动态:22699,动态:22697,动态:21741,动态:22698,动态:22710,动态:21756,动态:21737,动态:22684,动态:22659,动态:21857,动态:22512,动态:21776,动态:22702,动态:21745,动态:22019,动态:21436,动态:22146,动态:21556,动态:22706,动态:21757,动态:17337,动态:20364</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>动态:21741,动态:22684,动态:22667,动态:21757,动态:21975,动态:22680,动态:22019,动态:17337,动态:22323,动态:21756,动态:22659,动态:20399,动态:21727,动态:22706,动态:22696,动态:22692,动态:22698,动态:21745,动态:21737,动态:21972,动态:21776,动态:4036,动态:22512,动态:22697,动态:22688,动态:20439,动态:21740,动态:21763,动态:21556,动态:22685,动态:7746,动态:22146,动态:20720,动态:21780,动态:20440,动态:22710,动态:22507,动态:22702,动态:20364,动态:21753,动态:21857,动态:22699,动态:21436</t>
+          <t>动态:7746,动态:20439,动态:21753,动态:22696,动态:22710,动态:22688,动态:21857,动态:21556,动态:22680,动态:20399,动态:20720,动态:22706,动态:21436,动态:20440,动态:22692,动态:21740,动态:22699,动态:21745,动态:21776,动态:21763,动态:22697,动态:17337,动态:21737,动态:21727,动态:22698,动态:20364,动态:22667,动态:21757,动态:22323,动态:21741,动态:21756,动态:22685,动态:22659,动态:22512,动态:22684,动态:21780,动态:22702,动态:22507,动态:22146,动态:22019,动态:4036,动态:21972,动态:21975</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>动态:17337,动态:22698,动态:21780,动态:22507,动态:22019,动态:22680,动态:20440,动态:22512,动态:21436,动态:21745,动态:21737,动态:21756,动态:22323,动态:22702,动态:22659,动态:21975,动态:20439,动态:22146,动态:21763,动态:20720,动态:22706,动态:22710,动态:22696,动态:21556,动态:21727,动态:21857,动态:7746,动态:20399,动态:21753,动态:22697,动态:22692,动态:22667,动态:22699,动态:22688,动态:21972,动态:21757,动态:21740,动态:4036,动态:20364,动态:22684,动态:21776,动态:21741,动态:22685</t>
+          <t>动态:22706,动态:22659,动态:21780,动态:21741,动态:22698,动态:21756,动态:20440,动态:21436,动态:22688,动态:22697,动态:21737,动态:22702,动态:20399,动态:22019,动态:4036,动态:20364,动态:22146,动态:22685,动态:22512,动态:21740,动态:22692,动态:21857,动态:22699,动态:22507,动态:21745,动态:22684,动态:22667,动态:21776,动态:22323,动态:21727,动态:22696,动态:20720,动态:22680,动态:21753,动态:7746,动态:21972,动态:21556,动态:21757,动态:20439,动态:21763,动态:17337,动态:21975,动态:22710</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>动态:21753,动态:22146,动态:21763,动态:22697,动态:22696,动态:22706,动态:22512,动态:22667,动态:22680,动态:20364,动态:7746,动态:21741,动态:21740,动态:22702,动态:20440,动态:17337,动态:21727,动态:21780,动态:22659,动态:20399,动态:21972,动态:21757,动态:22685,动态:20439,动态:22698,动态:22019,动态:22684,动态:22688,动态:4036,动态:21857,动态:21436,动态:22323,动态:21975,动态:21745,动态:21737,动态:22710,动态:22699,动态:21556,动态:22507,动态:20720,动态:22692</t>
+          <t>动态:21972,动态:22685,动态:22680,动态:7746,动态:22146,动态:21737,动态:22698,动态:20399,动态:21753,动态:21763,动态:20440,动态:20439,动态:22692,动态:21741,动态:22659,动态:22706,动态:21857,动态:22512,动态:22702,动态:4036,动态:22710,动态:22688,动态:21727,动态:22667,动态:21780,动态:22699,动态:22696,动态:22684,动态:21975,动态:17337,动态:22697,动态:21740,动态:22323,动态:20720,动态:22507,动态:22019,动态:21745,动态:21436,动态:20364,动态:21757,动态:21556</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>动态:21737,动态:21741,动态:22696,动态:17337,动态:4036,动态:21556,动态:21745,动态:21776,动态:21740,动态:22698,动态:21780,动态:21857,动态:22146,动态:21763,动态:7746,动态:22710,动态:22507,动态:22706,动态:22512,动态:22692,动态:22702,动态:21727,动态:20364,动态:22667,动态:20399,动态:22680,动态:22019,动态:22697,动态:22688,动态:22323,动态:20439,动态:22699,动态:21756,动态:21757,动态:21972,动态:22685,动态:20440,动态:20720,动态:21975,动态:22659,动态:21436,动态:21753</t>
+          <t>动态:22146,动态:20440,动态:21737,动态:21757,动态:22659,动态:22699,动态:20364,动态:21763,动态:22698,动态:22507,动态:7746,动态:21780,动态:22512,动态:21756,动态:22710,动态:20720,动态:22702,动态:22696,动态:20399,动态:21740,动态:22019,动态:20439,动态:21753,动态:21741,动态:21972,动态:22680,动态:21776,动态:4036,动态:22688,动态:22697,动态:22692,动态:21556,动态:21857,动态:21745,动态:22706,动态:21436,动态:17337,动态:22667,动态:22685,动态:21727,动态:22323,动态:21975</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>动态:7746,动态:21780,动态:22697,动态:21776,动态:22680,动态:22710,动态:22512,动态:22706,动态:22507,动态:20720,动态:17337,动态:22684,动态:21745,动态:21757,动态:4036,动态:22699,动态:21436,动态:21741,动态:22019,动态:20364,动态:21975,动态:22659,动态:21727,动态:22698,动态:22692,动态:22146,动态:21753,动态:21756,动态:20440,动态:21740,动态:22688,动态:20399,动态:21857,动态:21556,动态:22667,动态:22685,动态:22323,动态:20439,动态:22696</t>
+          <t>动态:22692,动态:22667,动态:22146,动态:20439,动态:17337,动态:20364,动态:22688,动态:22710,动态:22684,动态:22685,动态:21757,动态:20440,动态:22699,动态:22019,动态:21857,动态:21727,动态:22696,动态:22698,动态:21556,动态:21756,动态:22323,动态:21780,动态:7746,动态:21436,动态:21745,动态:21776,动态:20720,动态:21741,动态:22512,动态:22706,动态:21753,动态:20399,动态:22697,动态:22659,动态:4036,动态:22507,动态:21740,动态:22680,动态:21975</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>动态:20440,动态:21727,动态:21972,动态:22512,动态:20439,动态:22699,动态:21857,动态:21780,动态:21763,动态:21556,动态:21975,动态:22507,动态:20364,动态:22688,动态:21757,动态:21436,动态:21753,动态:22697,动态:21740,动态:22706,动态:21776,动态:20720,动态:21745,动态:22692,动态:22685,动态:22710,动态:22659,动态:4036,动态:21737,动态:22019,动态:17337,动态:20399,动态:22323,动态:22702,动态:22696,动态:7746,动态:22698,动态:22667,动态:21741</t>
+          <t>动态:22706,动态:4036,动态:22699,动态:22659,动态:21741,动态:22710,动态:22692,动态:21757,动态:21727,动态:20399,动态:21745,动态:22688,动态:21972,动态:17337,动态:22507,动态:21436,动态:22685,动态:20440,动态:21780,动态:20364,动态:20720,动态:21740,动态:7746,动态:22696,动态:22698,动态:22512,动态:22667,动态:21753,动态:21763,动态:20439,动态:22697,动态:21556,动态:22702,动态:21857,动态:22019,动态:21776,动态:21737,动态:22323,动态:21975</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>动态:20720,动态:22659,动态:21757,动态:21737,动态:21857,动态:22697,动态:21436,动态:20399,动态:22684,动态:4036,动态:21740,动态:17337,动态:21753,动态:22507,动态:21727,动态:21972,动态:21975,动态:7746,动态:21745,动态:22512,动态:20440,动态:20439,动态:22706,动态:22680,动态:22692,动态:22323,动态:20364,动态:22019,动态:22685,动态:21756,动态:22667,动态:22698,动态:22699,动态:22688,动态:21741,动态:21780,动态:21556</t>
+          <t>动态:22659,动态:20399,动态:7746,动态:22698,动态:22667,动态:22697,动态:21745,动态:21436,动态:20440,动态:20439,动态:22323,动态:22699,动态:21727,动态:21857,动态:4036,动态:20364,动态:22507,动态:21972,动态:22019,动态:21556,动态:17337,动态:21737,动态:22688,动态:21741,动态:22680,动态:21756,动态:22706,动态:21757,动态:21753,动态:20720,动态:22685,动态:22684,动态:21975,动态:21780,动态:22692,动态:21740,动态:22512</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>动态:22699,动态:21763,动态:21740,动态:7746,动态:21972,动态:4036,动态:22146,动态:20364,动态:22697,动态:22692,动态:20399,动态:22696,动态:22685,动态:22702,动态:22659,动态:21737,动态:22688,动态:21975,动态:21756,动态:22323,动态:22706,动态:21753,动态:22019,动态:22512,动态:20720,动态:22507,动态:21857,动态:22698,动态:22667,动态:21776,动态:21757,动态:20440,动态:17337,动态:21741,动态:20439,动态:21556,动态:21436,动态:22680,动态:21780,动态:22710,动态:22684,动态:21745,动态:21727</t>
+          <t>动态:22692,动态:22512,动态:21757,动态:22323,动态:21436,动态:21556,动态:22710,动态:22697,动态:22684,动态:22702,动态:22696,动态:22698,动态:21745,动态:22507,动态:22685,动态:7746,动态:22699,动态:22019,动态:21753,动态:21780,动态:20440,动态:20720,动态:22706,动态:21972,动态:17337,动态:4036,动态:21737,动态:21776,动态:21756,动态:21740,动态:22146,动态:21741,动态:21763,动态:22688,动态:22659,动态:22680,动态:20439,动态:21727,动态:20399,动态:21975,动态:22667,动态:21857,动态:20364</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>动态:22680,动态:22667,动态:21737,动态:21780,动态:20399,动态:21776,动态:22706,动态:22702,动态:22684,动态:22688,动态:17337,动态:22710,动态:21757,动态:21727,动态:22697,动态:21753,动态:20440,动态:22685,动态:22323,动态:21975,动态:4036,动态:21857,动态:22696,动态:22146,动态:21741,动态:22512,动态:21556,动态:22692,动态:22019,动态:21972,动态:22507,动态:21763,动态:21436,动态:22699,动态:22659,动态:20720,动态:20364,动态:21756,动态:22698,动态:21740,动态:7746,动态:20439</t>
+          <t>动态:21780,动态:4036,动态:22667,动态:22696,动态:22659,动态:21436,动态:22685,动态:21753,动态:20440,动态:21727,动态:22698,动态:22019,动态:22706,动态:21763,动态:21740,动态:22710,动态:20439,动态:22146,动态:20399,动态:21776,动态:21757,动态:22699,动态:22697,动态:22512,动态:22680,动态:22688,动态:21741,动态:22323,动态:22702,动态:21556,动态:22692,动态:20364,动态:7746,动态:22507,动态:20720,动态:21975,动态:22684,动态:21737,动态:17337,动态:21756,动态:21972,动态:21857</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>动态:22696,动态:22146,动态:21975,动态:22698,动态:20439,动态:22702,动态:17337,动态:22680,动态:22699,动态:21741,动态:21756,动态:21727,动态:21776,动态:20399,动态:21737,动态:21857,动态:20440,动态:21436,动态:22323,动态:4036,动态:22697,动态:22710,动态:21757,动态:22019,动态:22684,动态:22512,动态:22706,动态:20364,动态:22659,动态:20720,动态:21780,动态:21753,动态:21972,动态:21556,动态:21763,动态:7746,动态:22667,动态:22688,动态:22692,动态:22507,动态:22685</t>
+          <t>动态:21780,动态:22706,动态:20364,动态:21972,动态:20720,动态:22680,动态:21763,动态:22710,动态:22667,动态:22019,动态:22696,动态:7746,动态:22698,动态:21753,动态:21737,动态:21556,动态:22699,动态:21776,动态:21857,动态:17337,动态:22659,动态:21727,动态:22512,动态:20439,动态:22685,动态:21436,动态:22323,动态:22688,动态:21756,动态:21757,动态:20399,动态:20440,动态:22684,动态:22507,动态:22146,动态:22697,动态:22702,动态:22692,动态:21975,动态:4036,动态:21741</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>动态:21763,动态:21756,动态:21556,动态:21745,动态:21737,动态:22697,动态:22696,动态:22667,动态:17337,动态:20364,动态:7746,动态:20720,动态:22699,动态:22698,动态:21727,动态:21436,动态:22146,动态:21780,动态:21741,动态:22685,动态:21972,动态:21776,动态:20439,动态:22019,动态:22659,动态:20440,动态:22323,动态:21975,动态:20399,动态:22706,动态:22688,动态:22684,动态:21740,动态:22507,动态:4036,动态:22680,动态:21753,动态:22692,动态:21757,动态:21857</t>
+          <t>动态:22688,动态:22507,动态:22146,动态:20720,动态:20439,动态:21737,动态:21757,动态:22659,动态:22692,动态:22667,动态:21740,动态:21763,动态:22019,动态:22697,动态:21756,动态:21753,动态:21727,动态:21780,动态:20399,动态:22699,动态:21436,动态:21972,动态:20440,动态:22323,动态:22684,动态:21745,动态:22685,动态:17337,动态:21556,动态:22698,动态:21776,动态:22680,动态:21857,动态:20364,动态:21741,动态:7746,动态:22696,动态:22706,动态:21975,动态:4036</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>动态:17337,动态:21556,动态:22323,动态:20399,动态:21740,动态:20440,动态:22698,动态:21756,动态:22699,动态:21745,动态:22667,动态:21753,动态:22512,动态:21737,动态:7746,动态:22696,动态:20364,动态:22688,动态:22019,动态:22692,动态:21727,动态:20720,动态:20439,动态:21857,动态:4036,动态:22702,动态:22685,动态:22146,动态:21776,动态:21436,动态:22507,动态:22659,动态:22706,动态:21741,动态:22680</t>
+          <t>动态:22688,动态:21753,动态:21741,动态:21556,动态:21776,动态:22685,动态:17337,动态:22019,动态:21740,动态:21727,动态:7746,动态:22692,动态:22507,动态:21436,动态:21737,动态:22698,动态:22512,动态:20399,动态:20439,动态:20720,动态:22702,动态:22146,动态:22659,动态:21857,动态:20364,动态:22699,动态:21745,动态:22323,动态:20440,动态:22680,动态:22667,动态:4036,动态:21756,动态:22696,动态:22706</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>动态:21740,动态:22688,动态:17337,动态:20439,动态:7746,动态:20440,动态:20399,动态:22692,动态:22667,动态:22680,动态:4036,动态:22019,动态:21763,动态:22706,动态:21972,动态:22702,动态:22507,动态:21556,动态:22699,动态:22684,动态:21975,动态:20720,动态:22512,动态:22323,动态:21776,动态:22685,动态:20364,动态:22710,动态:21737,动态:21753,动态:22697,动态:21780,动态:21436,动态:22698,动态:21727,动态:22659,动态:21741,动态:21745,动态:21756,动态:21757,动态:21857,动态:22696,动态:22146</t>
+          <t>动态:21757,动态:20399,动态:21740,动态:22702,动态:20439,动态:22684,动态:21556,动态:21756,动态:21975,动态:21436,动态:22692,动态:21753,动态:22680,动态:20440,动态:22659,动态:21857,动态:22697,动态:20364,动态:22667,动态:22706,动态:22507,动态:22146,动态:22323,动态:4036,动态:22696,动态:22688,动态:21780,动态:22699,动态:22512,动态:21972,动态:22710,动态:21763,动态:7746,动态:22019,动态:22685,动态:21745,动态:21737,动态:21727,动态:20720,动态:21776,动态:21741,动态:17337,动态:22698</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>动态:22659,动态:17337,动态:22323,动态:22512,动态:20364,动态:21753,动态:4036,动态:22667,动态:22696,动态:22702,动态:22699,动态:22698,动态:7746,动态:20439,动态:21972,动态:22507,动态:21740,动态:22692,动态:21857,动态:22706,动态:20440,动态:21741,动态:21780,动态:22688,动态:22710,动态:21763,动态:22697,动态:21776,动态:21556,动态:21757,动态:21737,动态:21756,动态:20399,动态:22684,动态:21975,动态:21436,动态:21727,动态:22019,动态:20720,动态:21745,动态:22685,动态:22146,动态:22680</t>
+          <t>动态:7746,动态:22323,动态:21737,动态:22699,动态:22512,动态:21763,动态:22692,动态:20440,动态:21745,动态:22667,动态:21857,动态:22685,动态:22706,动态:21753,动态:17337,动态:22688,动态:21436,动态:20364,动态:20439,动态:22710,动态:21780,动态:22680,动态:22146,动态:21740,动态:22684,动态:21756,动态:22702,动态:22698,动态:21757,动态:22696,动态:4036,动态:22019,动态:21776,动态:21727,动态:21972,动态:21741,动态:21556,动态:21975,动态:20720,动态:20399,动态:22697,动态:22507,动态:22659</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>动态:4036,动态:21972,动态:22684,动态:21737,动态:21727,动态:21756,动态:22659,动态:21776,动态:22697,动态:22667,动态:21741,动态:22696,动态:22680,动态:17337,动态:22146,动态:22685,动态:21757,动态:22706,动态:21975,动态:21780,动态:22698,动态:22692,动态:22512,动态:22688,动态:21745,动态:21740,动态:22699,动态:20440,动态:21753,动态:22702,动态:7746,动态:21857,动态:20439,动态:22019,动态:21556,动态:21436,动态:20364,动态:22323,动态:22507,动态:20720,动态:21763,动态:20399,动态:22710</t>
+          <t>动态:22688,动态:20720,动态:21975,动态:21780,动态:22507,动态:21757,动态:21753,动态:4036,动态:21737,动态:17337,动态:22019,动态:22702,动态:21756,动态:22699,动态:20399,动态:21857,动态:22680,动态:20439,动态:22697,动态:22706,动态:21972,动态:21776,动态:22512,动态:22692,动态:22659,动态:20364,动态:21740,动态:21727,动态:21745,动态:22710,动态:22146,动态:21741,动态:7746,动态:21763,动态:22323,动态:22667,动态:21436,动态:22684,动态:22696,动态:22685,动态:21556,动态:20440,动态:22698</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>动态:22706,动态:22697,动态:22659,动态:22507,动态:20364,动态:20720,动态:22512,动态:21757,动态:21753,动态:21780,动态:22323,动态:22680,动态:22146,动态:4036,动态:21741,动态:20399,动态:21737,动态:22667,动态:21975,动态:22702,动态:20439,动态:22019,动态:22696,动态:21745,动态:22684,动态:21727,动态:21857,动态:22699,动态:21556,动态:22710,动态:7746,动态:22685,动态:17337,动态:21776,动态:20440,动态:22688,动态:22692,动态:22698,动态:21972,动态:21763,动态:21756,动态:21740,动态:21436</t>
+          <t>动态:20364,动态:22680,动态:22698,动态:22323,动态:21780,动态:21757,动态:22696,动态:22702,动态:22659,动态:21763,动态:22685,动态:21741,动态:21745,动态:7746,动态:21972,动态:22019,动态:21975,动态:22697,动态:21756,动态:21737,动态:22710,动态:20439,动态:20720,动态:22699,动态:21556,动态:22146,动态:21857,动态:22512,动态:20399,动态:21753,动态:21727,动态:4036,动态:21776,动态:20440,动态:22706,动态:22667,动态:22688,动态:17337,动态:22684,动态:22692,动态:21740,动态:22507,动态:21436</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>动态:22702,动态:22512,动态:22323,动态:22685,动态:22710,动态:21436,动态:21556,动态:22146,动态:22697,动态:20364,动态:21857,动态:20439,动态:21737,动态:22684,动态:22680,动态:7746,动态:22696,动态:21972,动态:21763,动态:22659,动态:21776,动态:22507,动态:22692,动态:17337,动态:21753,动态:22667,动态:22019,动态:21780,动态:22688,动态:21756,动态:20440,动态:21741,动态:21745,动态:20720,动态:22698,动态:22706,动态:21757,动态:21740,动态:21975,动态:4036,动态:22699,动态:20399,动态:21727</t>
+          <t>动态:21975,动态:21780,动态:22706,动态:20399,动态:7746,动态:21776,动态:21741,动态:22702,动态:21727,动态:20364,动态:20720,动态:21436,动态:22696,动态:21972,动态:22667,动态:22692,动态:22698,动态:20440,动态:22680,动态:21556,动态:21745,动态:22710,动态:22684,动态:22512,动态:22688,动态:17337,动态:21757,动态:21737,动态:4036,动态:22507,动态:22146,动态:21740,动态:21753,动态:22699,动态:22019,动态:21756,动态:21763,动态:21857,动态:22697,动态:22323,动态:22685,动态:22659,动态:20439</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>动态:22710,动态:21780,动态:21436,动态:22507,动态:21975,动态:4036,动态:22019,动态:20399,动态:22323,动态:22698,动态:22688,动态:21556,动态:20364,动态:22659,动态:22699,动态:22702,动态:22667,动态:20440,动态:22684,动态:22706,动态:20439,动态:21727,动态:22685,动态:21757,动态:21763,动态:21745,动态:21753,动态:17337,动态:21737,动态:22697,动态:21740,动态:22146,动态:21857,动态:22696,动态:21756,动态:22680,动态:21741,动态:22692,动态:21972,动态:20720,动态:21776,动态:7746,动态:22512</t>
+          <t>动态:22710,动态:22697,动态:22699,动态:21972,动态:21975,动态:21556,动态:20364,动态:21763,动态:22684,动态:21776,动态:22680,动态:21753,动态:21741,动态:22696,动态:22706,动态:22146,动态:21740,动态:22512,动态:21727,动态:21780,动态:4036,动态:7746,动态:22702,动态:22667,动态:22019,动态:17337,动态:22698,动态:20440,动态:20399,动态:21737,动态:22688,动态:22659,动态:22507,动态:22692,动态:21756,动态:21857,动态:21745,动态:22685,动态:22323,动态:20720,动态:21757,动态:20439,动态:21436</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>动态:17337,动态:21753,动态:22684,动态:21776,动态:21975,动态:22699,动态:21757,动态:21741,动态:22692,动态:20399,动态:21737,动态:22698,动态:22697,动态:21857,动态:4036,动态:22507,动态:21763,动态:22710,动态:20364,动态:22680,动态:21972,动态:21436,动态:20720,动态:21727,动态:22323,动态:21780,动态:22685,动态:7746,动态:22659,动态:21740,动态:22696,动态:22706,动态:22019,动态:20439,动态:22146,动态:22688,动态:20440,动态:21756,动态:21556,动态:22667,动态:22512</t>
+          <t>动态:22507,动态:4036,动态:22697,动态:21753,动态:21857,动态:21727,动态:21757,动态:22667,动态:21436,动态:21972,动态:22146,动态:20439,动态:22710,动态:22019,动态:22692,动态:21975,动态:22684,动态:21740,动态:22512,动态:22323,动态:21556,动态:20364,动态:22688,动态:21737,动态:7746,动态:22680,动态:21756,动态:21741,动态:21763,动态:17337,动态:22706,动态:22685,动态:20720,动态:21780,动态:21776,动态:22698,动态:20399,动态:22699,动态:22659,动态:20440,动态:22696</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>动态:22680,动态:22019,动态:22323,动态:21745,动态:17337,动态:7746,动态:20720,动态:22710,动态:21757,动态:21740,动态:22688,动态:20439,动态:21763,动态:21776,动态:21436,动态:21741,动态:21727,动态:22146,动态:22512,动态:22702,动态:20440,动态:22697,动态:22685,动态:21780,动态:21737,动态:20399,动态:21753,动态:22667,动态:21857,动态:22684,动态:22696,动态:22692,动态:22699,动态:21975,动态:22706,动态:4036,动态:22698,动态:20364,动态:21972,动态:22659</t>
+          <t>动态:22696,动态:21745,动态:17337,动态:21737,动态:22659,动态:21780,动态:4036,动态:22692,动态:20440,动态:22702,动态:22667,动态:20364,动态:20720,动态:22706,动态:21727,动态:21975,动态:20439,动态:22680,动态:22019,动态:21436,动态:20399,动态:21741,动态:21757,动态:21776,动态:22685,动态:21753,动态:7746,动态:21763,动态:22697,动态:22710,动态:22512,动态:21972,动态:22688,动态:22146,动态:22698,动态:22699,动态:22684,动态:22323,动态:21857,动态:21740</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>动态:21737,动态:20399,动态:22667,动态:22146,动态:22688,动态:20439,动态:22706,动态:21436,动态:22692,动态:20440,动态:22697,动态:22685,动态:21745,动态:20364,动态:22710,动态:21753,动态:22512,动态:22684,动态:22659,动态:21763,动态:17337,动态:21740,动态:21556,动态:22696,动态:21727,动态:22680,动态:21741,动态:21757,动态:22702,动态:22698,动态:20720,动态:21780,动态:22699,动态:21776,动态:21975,动态:21857,动态:7746,动态:22019,动态:4036,动态:22507</t>
+          <t>动态:4036,动态:21745,动态:21741,动态:22146,动态:20439,动态:21753,动态:7746,动态:21975,动态:21763,动态:22019,动态:22706,动态:21757,动态:22697,动态:22698,动态:20399,动态:17337,动态:22699,动态:22667,动态:22702,动态:22507,动态:22696,动态:21780,动态:22684,动态:20440,动态:22692,动态:22512,动态:21737,动态:21727,动态:21776,动态:21556,动态:20364,动态:22685,动态:22710,动态:21857,动态:21740,动态:22680,动态:22688,动态:21436,动态:22659,动态:20720</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>动态:21776,动态:21780,动态:17337,动态:21727,动态:21741,动态:22507,动态:22685,动态:21857,动态:4036,动态:7746,动态:21763,动态:22692,动态:22512,动态:22696,动态:21972,动态:22702,动态:22699,动态:22688,动态:22710,动态:21757,动态:20440,动态:22659,动态:22698,动态:22684,动态:21737,动态:20364,动态:20399,动态:22706,动态:22680,动态:20439,动态:22697,动态:21975,动态:22667,动态:21740,动态:22323,动态:20720,动态:21745,动态:21753,动态:21436</t>
+          <t>动态:21436,动态:21763,动态:21741,动态:21857,动态:22698,动态:21753,动态:22659,动态:21757,动态:22685,动态:17337,动态:22323,动态:22512,动态:20720,动态:21776,动态:21740,动态:22680,动态:22697,动态:4036,动态:20440,动态:20439,动态:21975,动态:21737,动态:22706,动态:20364,动态:22692,动态:22699,动态:21972,动态:22696,动态:22702,动态:22688,动态:21780,动态:22667,动态:22684,动态:22507,动态:21745,动态:21727,动态:22710,动态:20399,动态:7746</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>动态:22699,动态:22692,动态:21757,动态:21436,动态:22688,动态:22512,动态:21745,动态:17337,动态:21763,动态:22507,动态:21776,动态:21756,动态:20364,动态:22698,动态:22659,动态:21780,动态:22146,动态:22710,动态:22697,动态:21857,动态:22685,动态:21740,动态:21975,动态:22706,动态:20720,动态:20440,动态:22019,动态:21753,动态:22696,动态:20439,动态:22684,动态:22702,动态:7746,动态:4036,动态:21972,动态:22680,动态:21727,动态:20399,动态:21741</t>
+          <t>动态:21975,动态:20440,动态:21763,动态:22680,动态:22710,动态:21757,动态:21727,动态:21857,动态:21741,动态:22699,动态:17337,动态:22019,动态:21972,动态:20364,动态:21753,动态:4036,动态:22688,动态:21776,动态:21745,动态:22696,动态:22685,动态:21780,动态:22507,动态:21756,动态:22659,动态:22698,动态:7746,动态:21740,动态:22692,动态:22702,动态:20399,动态:22684,动态:21436,动态:22697,动态:22146,动态:20720,动态:22706,动态:20439,动态:22512</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>动态:22706,动态:22696,动态:20439,动态:21740,动态:22667,动态:22698,动态:22512,动态:21745,动态:22019,动态:22659,动态:22507,动态:20720,动态:22697,动态:4036,动态:22702,动态:22323,动态:22146,动态:22680,动态:21436,动态:21780,动态:21753,动态:21741,动态:22685,动态:17337,动态:21776,动态:22699,动态:21737,动态:21757,动态:21727,动态:20440,动态:22688,动态:22684,动态:22692,动态:21972,动态:22710,动态:20399,动态:21857,动态:7746,动态:20364,动态:21975</t>
+          <t>动态:22706,动态:20720,动态:20439,动态:22684,动态:22702,动态:7746,动态:22692,动态:21975,动态:21741,动态:21436,动态:22699,动态:21972,动态:20440,动态:22019,动态:21727,动态:4036,动态:22697,动态:22688,动态:21745,动态:20364,动态:22696,动态:22685,动态:17337,动态:22710,动态:21857,动态:22323,动态:22667,动态:22512,动态:21753,动态:22146,动态:21737,动态:21776,动态:22507,动态:22680,动态:21780,动态:22698,动态:21740,动态:22659,动态:20399,动态:21757</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>动态:22507,动态:4036,动态:22323,动态:22706,动态:21975,动态:22698,动态:21727,动态:20720,动态:21776,动态:22146,动态:21556,动态:21436,动态:22685,动态:21972,动态:22710,动态:22697,动态:20399,动态:21763,动态:21857,动态:22512,动态:22692,动态:22684,动态:20364,动态:21737,动态:21780,动态:17337,动态:20440,动态:7746,动态:22688,动态:21745,动态:22696,动态:22680,动态:22019,动态:22699,动态:22667,动态:22659,动态:21741,动态:20439,动态:22702,动态:21740,动态:21757</t>
+          <t>动态:22667,动态:22688,动态:22697,动态:21972,动态:22702,动态:22696,动态:22019,动态:21763,动态:21727,动态:7746,动态:22698,动态:22680,动态:21975,动态:22692,动态:21776,动态:20399,动态:22684,动态:22512,动态:4036,动态:22699,动态:22710,动态:21737,动态:21757,动态:21745,动态:20440,动态:20439,动态:22685,动态:21780,动态:21436,动态:22507,动态:17337,动态:22146,动态:20364,动态:22323,动态:21741,动态:21556,动态:22706,动态:20720,动态:22659,动态:21857,动态:21740</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>动态:22710,动态:22684,动态:7746,动态:22512,动态:22146,动态:21756,动态:21727,动态:20720,动态:21737,动态:22507,动态:22685,动态:21757,动态:21753,动态:22692,动态:22696,动态:22323,动态:21780,动态:22706,动态:21763,动态:22659,动态:20364,动态:21556,动态:21975,动态:22699,动态:17337,动态:21857,动态:4036,动态:21740,动态:20440,动态:22019,动态:22698,动态:22702,动态:22667,动态:21776,动态:22680,动态:20399,动态:21745,动态:20439,动态:21972,动态:21436,动态:22697,动态:22688</t>
+          <t>动态:21727,动态:4036,动态:22692,动态:20439,动态:20720,动态:22667,动态:21975,动态:21745,动态:22684,动态:22688,动态:22685,动态:21756,动态:21556,动态:21776,动态:22702,动态:21753,动态:21857,动态:22706,动态:21757,动态:17337,动态:22710,动态:20364,动态:7746,动态:22697,动态:21436,动态:22323,动态:22698,动态:20399,动态:21972,动态:21737,动态:22699,动态:22659,动态:21763,动态:22512,动态:20440,动态:22507,动态:21780,动态:22146,动态:21740,动态:22696,动态:22680,动态:22019</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>动态:4036,动态:21857,动态:22512,动态:22684,动态:20439,动态:21556,动态:22699,动态:20720,动态:21780,动态:21741,动态:21753,动态:21972,动态:20364,动态:22692,动态:20440,动态:22706,动态:22667,动态:21740,动态:22688,动态:22696,动态:21737,动态:7746,动态:21745,动态:21436,动态:17337,动态:22697,动态:22507,动态:22698,动态:21727,动态:22680,动态:20399,动态:22685,动态:21757,动态:22019,动态:21776</t>
+          <t>动态:21753,动态:21780,动态:4036,动态:22667,动态:22706,动态:7746,动态:21972,动态:22019,动态:21745,动态:22699,动态:22692,动态:22684,动态:20720,动态:20399,动态:20439,动态:22697,动态:21740,动态:21737,动态:22512,动态:21776,动态:21741,动态:17337,动态:22698,动态:22696,动态:21436,动态:22507,动态:21556,动态:21857,动态:22685,动态:20364,动态:22688,动态:22680,动态:21757,动态:21727,动态:20440</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>动态:22323,动态:22698,动态:22659,动态:21776,动态:21972,动态:22688,动态:22667,动态:22697,动态:21737,动态:20440,动态:22702,动态:20439,动态:20720,动态:22692,动态:22710,动态:21763,动态:21757,动态:21745,动态:22685,动态:7746,动态:22696,动态:22019,动态:20364,动态:17337,动态:22699,动态:21753,动态:20399,动态:22680,动态:21975,动态:21436,动态:22706,动态:21740,动态:21857,动态:22512,动态:21727,动态:4036,动态:22146,动态:21741,动态:21780,动态:22507</t>
+          <t>动态:20399,动态:22667,动态:22699,动态:22702,动态:22706,动态:22680,动态:4036,动态:21745,动态:21975,动态:21727,动态:22696,动态:21740,动态:22692,动态:21776,动态:21753,动态:21763,动态:20364,动态:22697,动态:22507,动态:21757,动态:22146,动态:20439,动态:20720,动态:22512,动态:21857,动态:21737,动态:22659,动态:22710,动态:21972,动态:22685,动态:21436,动态:20440,动态:17337,动态:21741,动态:7746,动态:21780,动态:22019,动态:22323,动态:22698,动态:22688</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>动态:22667,动态:21753,动态:22692,动态:22659,动态:22685,动态:21857,动态:22684,动态:20439,动态:22019,动态:20399,动态:21780,动态:21727,动态:7746,动态:20440,动态:22710,动态:21975,动态:22146,动态:21972,动态:21757,动态:21556,动态:20364,动态:20720,动态:22706,动态:21763,动态:17337,动态:4036,动态:22697,动态:21776,动态:21745,动态:22698,动态:22696,动态:22507,动态:22688,动态:21741,动态:22702,动态:21436,动态:21740,动态:22512,动态:22680,动态:22699,动态:21737,动态:22323</t>
+          <t>动态:21741,动态:4036,动态:21763,动态:21972,动态:22706,动态:21740,动态:22685,动态:22512,动态:17337,动态:22659,动态:21737,动态:20364,动态:22698,动态:22684,动态:21753,动态:21857,动态:20439,动态:22146,动态:20399,动态:20720,动态:22019,动态:21757,动态:21780,动态:22507,动态:22667,动态:7746,动态:22697,动态:22323,动态:22699,动态:20440,动态:21776,动态:21556,动态:22696,动态:22710,动态:21727,动态:21975,动态:21436,动态:22680,动态:22692,动态:22688,动态:22702,动态:21745</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>动态:17337,动态:20720,动态:22702,动态:22692,动态:22699,动态:21727,动态:22685,动态:20399,动态:22697,动态:22706,动态:7746,动态:21776,动态:21753,动态:21857,动态:21745,动态:20440,动态:21763,动态:21556,动态:21780,动态:22146,动态:22698,动态:21737,动态:22710,动态:21972,动态:4036,动态:22680,动态:20364,动态:22323,动态:22667,动态:22684,动态:22659,动态:22696,动态:21740,动态:21436,动态:22688,动态:21975,动态:20439,动态:22507,动态:22512,动态:21757,动态:21741</t>
+          <t>动态:22692,动态:22702,动态:22688,动态:21975,动态:20439,动态:4036,动态:20364,动态:22698,动态:21556,动态:21763,动态:22659,动态:22680,动态:22684,动态:21436,动态:22699,动态:22323,动态:22685,动态:21972,动态:22706,动态:20399,动态:21727,动态:21740,动态:22696,动态:20440,动态:22697,动态:21857,动态:21780,动态:22512,动态:22667,动态:21745,动态:21757,动态:7746,动态:22146,动态:22507,动态:21776,动态:22710,动态:17337,动态:21753,动态:20720,动态:21737,动态:21741</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>动态:22684,动态:21763,动态:21740,动态:22659,动态:21556,动态:22698,动态:22507,动态:21737,动态:22710,动态:21857,动态:17337,动态:22702,动态:22706,动态:7746,动态:20399,动态:22688,动态:21741,动态:21727,动态:22696,动态:22692,动态:4036,动态:20439,动态:20720,动态:22512,动态:20440,动态:21745,动态:21972,动态:21436,动态:22146,动态:21975,动态:21776,动态:21780,动态:22699,动态:22680,动态:22667,动态:21753,动态:22019,动态:22697,动态:22323,动态:21757,动态:22685,动态:20364</t>
+          <t>动态:21757,动态:22699,动态:22659,动态:22685,动态:22710,动态:17337,动态:22696,动态:21753,动态:21727,动态:21436,动态:22680,动态:20439,动态:21745,动态:22323,动态:22706,动态:20364,动态:22698,动态:22702,动态:20720,动态:21740,动态:22507,动态:21556,动态:22697,动态:21975,动态:22512,动态:21776,动态:7746,动态:21780,动态:21741,动态:21763,动态:22667,动态:22692,动态:22146,动态:22684,动态:20440,动态:20399,动态:22688,动态:22019,动态:21972,动态:21857,动态:4036,动态:21737</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>动态:21727,动态:22696,动态:21776,动态:22019,动态:22697,动态:20440,动态:21556,动态:22710,动态:20399,动态:21975,动态:21753,动态:21740,动态:22146,动态:22323,动态:22692,动态:22507,动态:21741,动态:22680,动态:21745,动态:21436,动态:22659,动态:22685,动态:21756,动态:22702,动态:22667,动态:22688,动态:22684,动态:22698,动态:22512,动态:17337,动态:21737,动态:4036,动态:21972,动态:7746,动态:20720,动态:21757,动态:21763,动态:21857,动态:20364,动态:20439,动态:22706</t>
+          <t>动态:22667,动态:22507,动态:22659,动态:22323,动态:21857,动态:7746,动态:22702,动态:22684,动态:22706,动态:21727,动态:21753,动态:22710,动态:21436,动态:21776,动态:22685,动态:21975,动态:21763,动态:17337,动态:22696,动态:22146,动态:21740,动态:4036,动态:21972,动态:21556,动态:22019,动态:20439,动态:21737,动态:21745,动态:20399,动态:22698,动态:20440,动态:22512,动态:22692,动态:21757,动态:21756,动态:22680,动态:21741,动态:22697,动态:22688,动态:20364,动态:20720</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>动态:21756,动态:22146,动态:22684,动态:22512,动态:22702,动态:22507,动态:21727,动态:20440,动态:21780,动态:4036,动态:22323,动态:20439,动态:22680,动态:22698,动态:22697,动态:21972,动态:22706,动态:21741,动态:22667,动态:21740,动态:22692,动态:7746,动态:21745,动态:21436,动态:21556,动态:22659,动态:22685,动态:20399,动态:17337,动态:20364,动态:22688,动态:20720,动态:21753,动态:21857,动态:22019,动态:22699</t>
+          <t>动态:22702,动态:22667,动态:20399,动态:22684,动态:21972,动态:20439,动态:22507,动态:20440,动态:21556,动态:22019,动态:20720,动态:22706,动态:21436,动态:21741,动态:22685,动态:22692,动态:4036,动态:22146,动态:21857,动态:22512,动态:21753,动态:21756,动态:7746,动态:21745,动态:22659,动态:22697,动态:21740,动态:22680,动态:22698,动态:20364,动态:22699,动态:17337,动态:21780,动态:22323,动态:21727,动态:22688</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>动态:21740,动态:7746,动态:21753,动态:20720,动态:21972,动态:22688,动态:22699,动态:22696,动态:22667,动态:22702,动态:22710,动态:22684,动态:22507,动态:22706,动态:21857,动态:20440,动态:22697,动态:21757,动态:17337,动态:21745,动态:21763,动态:21780,动态:21556,动态:4036,动态:21975,动态:21436,动态:20364,动态:21727,动态:22692,动态:22323,动态:20399,动态:22659,动态:22685,动态:22019,动态:21776,动态:22680,动态:21741,动态:22146,动态:22698,动态:20439</t>
+          <t>动态:21857,动态:17337,动态:22688,动态:22019,动态:22659,动态:21757,动态:21972,动态:22667,动态:21436,动态:22696,动态:22706,动态:21556,动态:22685,动态:21776,动态:4036,动态:21763,动态:21741,动态:21740,动态:7746,动态:20364,动态:21780,动态:22146,动态:20440,动态:22680,动态:22507,动态:21753,动态:21975,动态:22698,动态:20399,动态:22684,动态:22710,动态:22692,动态:20720,动态:22699,动态:21727,动态:22323,动态:22702,动态:20439,动态:21745,动态:22697</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>动态:22680,动态:22685,动态:7746,动态:22710,动态:22507,动态:21556,动态:22698,动态:22659,动态:17337,动态:21972,动态:22706,动态:20364,动态:21757,动态:20439,动态:22692,动态:21727,动态:22667,动态:21740,动态:21975,动态:22146,动态:20440,动态:4036,动态:21857,动态:22697,动态:21753,动态:21741,动态:21436,动态:22699,动态:21776,动态:22019,动态:21780,动态:20720,动态:22684,动态:20399,动态:22512,动态:21756,动态:21737,动态:22696,动态:22688,动态:21745,动态:21763</t>
+          <t>动态:22512,动态:22696,动态:22684,动态:4036,动态:22685,动态:20440,动态:21780,动态:20364,动态:21737,动态:22692,动态:22706,动态:20720,动态:20439,动态:21763,动态:22688,动态:22699,动态:7746,动态:21857,动态:22019,动态:22697,动态:21753,动态:22710,动态:21740,动态:22667,动态:21741,动态:21776,动态:22680,动态:22659,动态:17337,动态:21745,动态:21436,动态:21727,动态:21975,动态:22146,动态:21972,动态:21556,动态:22507,动态:20399,动态:21756,动态:21757,动态:22698</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>动态:21757,动态:22688,动态:21763,动态:22019,动态:21857,动态:21753,动态:20399,动态:22698,动态:20364,动态:21740,动态:20440,动态:21556,动态:22684,动态:22706,动态:21741,动态:22667,动态:22323,动态:20720,动态:21780,动态:21727,动态:17337,动态:4036,动态:22702,动态:21776,动态:22692,动态:22680,动态:22512,动态:22697,动态:22699,动态:21756,动态:21745,动态:21975,动态:22696,动态:22710,动态:7746,动态:21436,动态:21972,动态:20439,动态:22507,动态:22659</t>
+          <t>动态:7746,动态:22688,动态:20399,动态:21756,动态:22710,动态:22667,动态:21741,动态:21857,动态:22702,动态:22706,动态:22684,动态:21436,动态:22019,动态:20440,动态:22696,动态:21740,动态:22323,动态:22659,动态:21763,动态:21972,动态:22699,动态:22507,动态:20439,动态:21745,动态:22692,动态:21776,动态:4036,动态:22697,动态:21780,动态:22698,动态:21757,动态:21753,动态:21975,动态:22680,动态:20720,动态:20364,动态:21556,动态:21727,动态:22512,动态:17337</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>动态:22323,动态:22685,动态:21975,动态:20364,动态:21763,动态:21740,动态:22699,动态:22684,动态:21857,动态:21436,动态:17337,动态:21780,动态:22019,动态:20399,动态:22698,动态:22706,动态:22702,动态:22680,动态:20720,动态:22692,动态:22146,动态:20440,动态:22710,动态:21556,动态:22696,动态:21741,动态:4036,动态:22507,动态:20439,动态:22688,动态:21756,动态:22659,动态:21972,动态:21727,动态:22697,动态:7746,动态:22512,动态:21753,动态:21776,动态:21757,动态:22667,动态:21737</t>
+          <t>动态:22680,动态:22512,动态:21757,动态:22710,动态:22698,动态:4036,动态:22696,动态:21740,动态:21975,动态:22692,动态:22507,动态:21756,动态:20364,动态:22706,动态:21556,动态:22684,动态:22697,动态:21741,动态:21972,动态:21857,动态:20720,动态:21436,动态:22146,动态:22688,动态:22667,动态:21780,动态:22702,动态:20399,动态:20439,动态:21763,动态:22019,动态:21737,动态:21727,动态:22685,动态:7746,动态:21753,动态:22323,动态:20440,动态:22659,动态:17337,动态:21776,动态:22699</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>动态:21776,动态:22696,动态:21780,动态:21756,动态:22710,动态:22512,动态:22697,动态:22692,动态:20364,动态:21741,动态:22702,动态:21972,动态:22323,动态:21763,动态:22680,动态:22659,动态:21757,动态:21975,动态:22019,动态:20440,动态:4036,动态:21436,动态:20439,动态:22507,动态:21740,动态:22706,动态:21556,动态:22688,动态:17337,动态:20720,动态:21745,动态:7746,动态:22684,动态:21737,动态:22685,动态:21753,动态:20399,动态:21727,动态:22699,动态:22698,动态:22667,动态:22146,动态:21857</t>
+          <t>动态:22146,动态:22698,动态:4036,动态:21436,动态:22680,动态:22667,动态:22659,动态:22323,动态:22702,动态:21756,动态:17337,动态:21757,动态:21975,动态:21741,动态:22507,动态:22684,动态:22019,动态:22706,动态:21776,动态:20439,动态:20364,动态:7746,动态:21556,动态:20399,动态:22710,动态:20440,动态:22688,动态:22512,动态:22699,动态:21753,动态:20720,动态:21727,动态:21763,动态:21745,动态:22696,动态:21972,动态:21780,动态:21737,动态:22692,动态:21740,动态:21857,动态:22685,动态:22697</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>动态:4036,动态:22019,动态:21753,动态:22699,动态:17337,动态:21556,动态:22323,动态:21857,动态:22692,动态:22685,动态:22698,动态:22684,动态:21756,动态:21975,动态:21776,动态:22659,动态:22507,动态:21757,动态:22667,动态:22706,动态:21745,动态:20364,动态:22697,动态:21972,动态:20439,动态:21740,动态:21436,动态:7746,动态:21741,动态:21737,动态:22696,动态:21727,动态:20440,动态:22146,动态:22680,动态:22702,动态:22710,动态:21763,动态:22512,动态:20399,动态:21780,动态:22688,动态:20720</t>
+          <t>动态:22680,动态:21741,动态:21737,动态:22688,动态:22706,动态:22685,动态:22696,动态:20399,动态:20720,动态:22710,动态:21780,动态:4036,动态:20364,动态:22698,动态:22019,动态:21776,动态:22697,动态:21857,动态:22667,动态:7746,动态:22702,动态:17337,动态:21763,动态:21972,动态:21975,动态:21756,动态:22692,动态:22699,动态:21757,动态:20440,动态:21727,动态:22507,动态:22659,动态:21753,动态:21556,动态:21436,动态:20439,动态:22512,动态:21740,动态:22146,动态:21745,动态:22323,动态:22684</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>动态:22507,动态:22688,动态:22685,动态:21753,动态:21436,动态:21556,动态:21737,动态:21975,动态:22696,动态:22680,动态:7746,动态:20720,动态:22667,动态:22706,动态:21745,动态:21741,动态:22684,动态:22323,动态:21756,动态:22692,动态:20440,动态:21763,动态:21972,动态:22699,动态:22146,动态:22512,动态:4036,动态:22659,动态:22698,动态:22019,动态:20439,动态:20364,动态:21857,动态:21757,动态:17337,动态:20399,动态:22710,动态:21780,动态:21740,动态:22697,动态:21727</t>
+          <t>动态:22688,动态:20440,动态:21757,动态:21740,动态:22019,动态:21780,动态:22692,动态:21857,动态:21741,动态:21436,动态:22706,动态:21727,动态:20439,动态:22699,动态:22323,动态:22685,动态:22710,动态:22146,动态:22698,动态:7746,动态:21756,动态:22667,动态:17337,动态:20720,动态:4036,动态:20364,动态:22684,动态:21737,动态:21763,动态:22697,动态:20399,动态:21975,动态:22659,动态:22680,动态:21972,动态:22507,动态:21556,动态:22512,动态:21753,动态:21745,动态:22696</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>动态:20720,动态:21727,动态:20364,动态:21753,动态:21780,动态:4036,动态:22698,动态:20439,动态:22697,动态:22512,动态:22684,动态:22702,动态:22710,动态:21756,动态:21737,动态:22507,动态:22696,动态:21741,动态:22667,动态:21556,动态:22323,动态:21740,动态:20440,动态:20399,动态:22699,动态:17337,动态:22685,动态:21763,动态:22146,动态:22692,动态:21857,动态:7746,动态:22659,动态:22019,动态:22680,动态:22706,动态:21745,动态:21975,动态:21757,动态:21436</t>
+          <t>动态:22692,动态:22698,动态:22684,动态:22702,动态:21756,动态:7746,动态:21740,动态:21780,动态:22019,动态:22685,动态:17337,动态:21753,动态:22659,动态:22697,动态:21741,动态:22512,动态:4036,动态:22507,动态:22667,动态:21763,动态:22699,动态:22696,动态:21727,动态:21556,动态:22710,动态:20720,动态:21745,动态:21975,动态:20439,动态:20364,动态:21436,动态:20440,动态:22323,动态:21737,动态:22146,动态:20399,动态:22706,动态:21757,动态:21857,动态:22680</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>动态:22512,动态:21556,动态:20439,动态:22702,动态:17337,动态:22706,动态:21727,动态:21776,动态:21975,动态:21436,动态:7746,动态:22146,动态:22667,动态:21972,动态:20720,动态:22680,动态:21780,动态:21753,动态:4036,动态:20364,动态:22688,动态:22698,动态:22684,动态:21763,动态:22659,动态:22685,动态:21741,动态:22323,动态:20440,动态:22697,动态:22692,动态:21857,动态:21756,动态:22507,动态:22019,动态:20399,动态:22699,动态:21737,动态:22696,动态:21745,动态:21757,动态:22710</t>
+          <t>动态:22146,动态:22699,动态:22697,动态:20364,动态:21741,动态:22698,动态:20720,动态:22323,动态:17337,动态:21780,动态:21737,动态:21975,动态:22688,动态:21972,动态:22685,动态:21753,动态:21757,动态:22706,动态:20439,动态:21436,动态:22702,动态:21756,动态:20440,动态:22667,动态:22696,动态:22684,动态:21745,动态:21556,动态:21727,动态:22710,动态:22507,动态:21776,动态:20399,动态:22659,动态:22680,动态:22019,动态:21763,动态:21857,动态:22692,动态:22512,动态:4036,动态:7746</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>动态:21757,动态:21727,动态:22699,动态:21556,动态:22688,动态:20399,动态:22323,动态:22680,动态:21972,动态:22019,动态:22696,动态:22684,动态:21756,动态:21763,动态:21857,动态:22692,动态:21737,动态:22706,动态:20440,动态:21745,动态:22698,动态:17337,动态:21776,动态:22512,动态:22667,动态:22685,动态:22507,动态:21975,动态:21780,动态:22702,动态:22146,动态:22659,动态:22710,动态:21740,动态:20439,动态:21753,动态:20720,动态:4036,动态:21436,动态:21741,动态:20364,动态:7746</t>
+          <t>动态:21972,动态:21436,动态:21756,动态:22146,动态:22680,动态:22667,动态:22019,动态:21741,动态:22685,动态:21745,动态:21776,动态:7746,动态:21753,动态:22512,动态:21857,动态:22688,动态:22702,动态:21727,动态:22710,动态:22699,动态:22659,动态:22323,动态:22696,动态:4036,动态:22706,动态:22698,动态:20364,动态:21975,动态:22507,动态:21780,动态:20439,动态:21740,动态:21556,动态:20399,动态:21763,动态:20440,动态:22684,动态:21737,动态:21757,动态:20720,动态:22692,动态:17337</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>动态:21756,动态:21763,动态:21737,动态:21753,动态:21857,动态:22692,动态:20399,动态:21740,动态:22146,动态:22512,动态:22507,动态:22684,动态:20440,动态:22696,动态:22699,动态:21757,动态:21727,动态:17337,动态:22706,动态:22702,动态:22710,动态:7746,动态:21556,动态:21741,动态:22688,动态:20364,动态:21776,动态:22698,动态:22697,动态:22019,动态:22685,动态:21436,动态:22667,动态:4036,动态:22659,动态:21745,动态:20439,动态:20720,动态:22323,动态:22680,动态:21780,动态:21975,动态:21972</t>
+          <t>动态:20439,动态:20440,动态:21727,动态:21972,动态:22680,动态:21737,动态:22659,动态:21745,动态:21776,动态:20720,动态:22684,动态:22512,动态:21763,动态:21975,动态:22146,动态:22667,动态:22507,动态:22692,动态:21741,动态:22706,动态:4036,动态:22696,动态:21436,动态:20399,动态:21780,动态:21753,动态:22688,动态:21757,动态:22019,动态:17337,动态:21857,动态:22699,动态:21740,动态:22697,动态:21756,动态:21556,动态:20364,动态:22698,动态:22685,动态:7746,动态:22323,动态:22710,动态:22702</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>动态:22323,动态:22684,动态:22685,动态:21556,动态:22146,动态:22699,动态:7746,动态:21763,动态:22688,动态:21975,动态:22698,动态:22697,动态:21741,动态:21780,动态:22702,动态:22019,动态:20440,动态:22667,动态:21737,动态:21972,动态:21753,动态:21727,动态:22710,动态:21857,动态:22659,动态:22507,动态:22680,动态:20720,动态:22512,动态:22696,动态:20364,动态:22692,动态:21756,动态:20439,动态:17337,动态:22706,动态:21757,动态:4036,动态:20399,动态:21776,动态:21436</t>
+          <t>动态:22696,动态:22699,动态:22146,动态:21753,动态:21763,动态:21857,动态:22512,动态:20364,动态:21556,动态:22323,动态:22507,动态:22698,动态:20720,动态:22684,动态:22697,动态:22710,动态:20399,动态:7746,动态:21975,动态:22702,动态:4036,动态:22667,动态:22019,动态:21436,动态:21776,动态:20440,动态:20439,动态:22692,动态:22706,动态:21972,动态:22680,动态:21727,动态:22659,动态:21757,动态:21780,动态:22688,动态:21741,动态:21756,动态:17337,动态:21737,动态:22685</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>动态:20440,动态:22696,动态:20364,动态:20399,动态:21780,动态:21753,动态:22667,动态:22688,动态:21436,动态:7746,动态:21975,动态:21745,动态:22685,动态:21757,动态:22699,动态:22512,动态:22019,动态:22680,动态:22684,动态:20439,动态:21727,动态:22697,动态:22702,动态:22323,动态:21741,动态:21556,动态:20720,动态:17337,动态:22710,动态:4036,动态:22692,动态:22507,动态:21857,动态:21776,动态:22706,动态:21763,动态:21972,动态:22659,动态:22146,动态:21756,动态:21740,动态:22698,动态:21737</t>
+          <t>动态:20364,动态:22696,动态:21741,动态:21436,动态:22667,动态:22692,动态:22702,动态:20720,动态:21556,动态:22019,动态:4036,动态:22512,动态:22697,动态:21757,动态:21740,动态:21857,动态:21975,动态:21763,动态:22680,动态:22659,动态:21727,动态:22688,动态:22699,动态:22710,动态:21776,动态:17337,动态:22685,动态:22706,动态:20440,动态:21745,动态:21753,动态:21756,动态:22507,动态:20399,动态:20439,动态:21780,动态:22323,动态:21737,动态:22698,动态:22146,动态:21972,动态:7746,动态:22684</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>动态:22688,动态:21972,动态:4036,动态:21857,动态:22667,动态:22684,动态:21436,动态:17337,动态:22019,动态:21727,动态:22697,动态:22685,动态:21740,动态:21776,动态:22512,动态:20439,动态:20720,动态:21753,动态:22698,动态:21763,动态:22696,动态:20440,动态:20364,动态:21757,动态:20399,动态:22507,动态:21975,动态:21780,动态:21756,动态:7746,动态:22680,动态:22146,动态:21745,动态:22702,动态:21556,动态:22659,动态:22699,动态:21741,动态:22692</t>
+          <t>动态:22688,动态:21741,动态:22685,动态:20440,动态:22680,动态:21857,动态:20364,动态:21756,动态:21776,动态:22692,动态:20720,动态:21763,动态:4036,动态:22696,动态:21972,动态:22019,动态:22684,动态:22659,动态:21740,动态:21745,动态:22702,动态:22146,动态:20439,动态:21556,动态:17337,动态:21436,动态:7746,动态:21753,动态:22697,动态:22699,动态:22507,动态:20399,动态:22512,动态:22667,动态:22698,动态:21975,动态:21757,动态:21727,动态:21780</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>动态:20399,动态:22685,动态:20720,动态:22659,动态:21737,动态:21740,动态:21556,动态:21727,动态:21753,动态:22710,动态:22699,动态:22680,动态:22688,动态:21757,动态:21776,动态:22146,动态:4036,动态:21436,动态:21741,动态:22507,动态:22512,动态:21745,动态:22697,动态:21975,动态:21756,动态:21763,动态:22667,动态:20439,动态:22698,动态:20364,动态:17337,动态:22323,动态:21972,动态:22692,动态:21780,动态:22706,动态:22019,动态:22696,动态:20440,动态:21857,动态:7746,动态:22684</t>
+          <t>动态:17337,动态:22710,动态:21776,动态:21737,动态:22692,动态:21975,动态:22512,动态:22323,动态:22706,动态:21745,动态:22659,动态:22699,动态:22685,动态:7746,动态:21741,动态:21857,动态:20720,动态:20364,动态:21780,动态:21753,动态:22667,动态:22696,动态:21972,动态:21763,动态:22146,动态:22697,动态:4036,动态:20399,动态:22688,动态:20440,动态:22698,动态:21556,动态:22019,动态:22684,动态:21436,动态:21757,动态:21756,动态:22680,动态:22507,动态:21740,动态:20439,动态:21727</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>动态:22667,动态:21740,动态:22685,动态:17337,动态:21436,动态:22146,动态:21857,动态:22512,动态:20364,动态:21975,动态:22696,动态:21776,动态:22019,动态:21556,动态:22710,动态:22688,动态:22323,动态:22699,动态:4036,动态:22684,动态:22697,动态:20399,动态:21741,动态:21727,动态:21756,动态:21757,动态:20439,动态:22659,动态:22507,动态:22698,动态:21780,动态:20720,动态:21763,动态:22692,动态:20440,动态:21753,动态:7746,动态:22680,动态:21745,动态:22706,动态:21737</t>
+          <t>动态:22706,动态:20440,动态:21753,动态:21776,动态:22698,动态:22696,动态:22710,动态:22019,动态:22667,动态:22680,动态:20364,动态:21556,动态:22323,动态:22697,动态:21857,动态:21975,动态:21740,动态:22685,动态:21780,动态:20439,动态:21757,动态:21763,动态:21756,动态:21741,动态:22507,动态:17337,动态:21436,动态:20399,动态:21727,动态:20720,动态:21737,动态:22659,动态:22688,动态:7746,动态:22146,动态:22692,动态:22512,动态:22684,动态:4036,动态:22699,动态:21745</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>动态:22512,动态:20439,动态:22019,动态:22688,动态:22685,动态:21780,动态:22696,动态:20399,动态:4036,动态:21857,动态:21745,动态:20440,动态:22710,动态:21740,动态:21763,动态:22698,动态:22706,动态:22146,动态:21737,动态:21972,动态:22507,动态:22323,动态:22684,动态:21753,动态:17337,动态:22697,动态:21436,动态:22702,动态:20720,动态:21741,动态:20364,动态:22667,动态:22699,动态:21776,动态:21727,动态:21556,动态:22680,动态:21975,动态:22659,动态:7746,动态:21757,动态:22692</t>
+          <t>动态:20399,动态:22019,动态:22507,动态:22323,动态:22659,动态:22710,动态:20440,动态:22680,动态:22146,动态:22667,动态:22684,动态:17337,动态:21727,动态:20439,动态:22685,动态:22699,动态:22702,动态:22696,动态:21741,动态:7746,动态:21753,动态:4036,动态:22706,动态:21972,动态:21737,动态:20720,动态:21556,动态:20364,动态:22697,动态:21780,动态:21975,动态:21763,动态:21757,动态:21436,动态:21776,动态:22688,动态:22698,动态:21857,动态:22512,动态:21745,动态:22692,动态:21740</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>动态:21740,动态:21780,动态:21857,动态:21436,动态:22507,动态:21727,动态:21972,动态:22697,动态:22323,动态:22512,动态:22680,动态:21776,动态:22688,动态:17337,动态:22146,动态:21756,动态:22698,动态:22699,动态:22019,动态:21763,动态:20440,动态:4036,动态:22685,动态:21741,动态:22710,动态:22692,动态:21737,动态:21745,动态:22696,动态:22702,动态:22667,动态:20439,动态:21975,动态:22659,动态:22706,动态:20720,动态:21556,动态:20399,动态:20364,动态:22684,动态:7746,动态:21753,动态:21757</t>
+          <t>动态:20440,动态:20364,动态:21975,动态:22019,动态:21727,动态:22667,动态:22696,动态:22688,动态:21556,动态:4036,动态:7746,动态:20720,动态:21757,动态:22710,动态:21436,动态:20399,动态:22697,动态:22684,动态:21753,动态:22680,动态:21740,动态:22685,动态:22512,动态:21737,动态:22698,动态:22146,动态:21741,动态:22699,动态:21972,动态:22507,动态:21857,动态:22659,动态:17337,动态:20439,动态:21776,动态:21780,动态:21763,动态:22323,动态:22702,动态:21745,动态:22706,动态:21756,动态:22692</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>动态:21727,动态:22710,动态:20720,动态:22698,动态:21857,动态:22667,动态:22692,动态:20364,动态:22512,动态:21780,动态:22706,动态:21975,动态:20399,动态:22507,动态:21776,动态:7746,动态:22699,动态:21756,动态:22019,动态:22323,动态:17337,动态:21436,动态:22146,动态:22680,动态:21972,动态:21556,动态:22688,动态:4036,动态:21753,动态:22659,动态:21763,动态:21737,动态:22697,动态:20440,动态:22696,动态:22684,动态:22685,动态:20439,动态:22702</t>
+          <t>动态:22692,动态:20364,动态:22699,动态:22702,动态:7746,动态:22659,动态:20399,动态:22019,动态:21436,动态:22688,动态:22680,动态:21727,动态:21737,动态:21776,动态:21972,动态:20440,动态:22706,动态:22667,动态:21857,动态:22323,动态:4036,动态:22512,动态:21780,动态:21753,动态:22697,动态:21556,动态:21975,动态:22710,动态:22685,动态:20720,动态:20439,动态:22696,动态:22507,动态:17337,动态:22698,动态:22684,动态:22146,动态:21763,动态:21756</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>动态:22507,动态:21436,动态:22685,动态:21737,动态:7746,动态:22684,动态:22659,动态:22710,动态:21741,动态:4036,动态:21745,动态:21757,动态:21740,动态:20720,动态:22019,动态:21857,动态:22146,动态:21756,动态:21763,动态:21727,动态:22706,动态:22680,动态:21556,动态:22697,动态:20439,动态:22667,动态:22512,动态:22696,动态:20399,动态:21753,动态:21776,动态:22323,动态:22699,动态:21972,动态:17337,动态:20364,动态:22698,动态:21975,动态:22692,动态:20440,动态:22688,动态:21780,动态:22702</t>
+          <t>动态:20720,动态:20439,动态:21776,动态:22696,动态:22146,动态:21756,动态:21780,动态:22323,动态:22698,动态:21741,动态:22706,动态:21745,动态:21972,动态:21753,动态:22710,动态:22507,动态:21436,动态:20440,动态:22685,动态:4036,动态:17337,动态:21737,动态:20364,动态:7746,动态:22702,动态:21556,动态:22680,动态:21975,动态:22697,动态:22699,动态:22659,动态:22684,动态:22692,动态:22512,动态:21757,动态:21727,动态:21763,动态:22667,动态:22019,动态:20399,动态:21740,动态:22688,动态:21857</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>动态:22697,动态:22685,动态:22692,动态:21741,动态:21740,动态:21972,动态:20720,动态:21737,动态:21436,动态:21727,动态:21757,动态:20364,动态:20439,动态:21780,动态:22323,动态:22512,动态:22019,动态:7746,动态:4036,动态:22696,动态:21975,动态:22507,动态:22688,动态:20399,动态:22146,动态:22710,动态:22698,动态:21753,动态:21756,动态:22680,动态:17337,动态:21556,动态:21745,动态:22702,动态:21776,动态:22659,动态:22706,动态:22699,动态:21763,动态:21857,动态:22667,动态:20440</t>
+          <t>动态:21436,动态:4036,动态:22146,动态:20439,动态:21756,动态:21857,动态:20364,动态:22702,动态:22685,动态:21763,动态:21740,动态:21975,动态:22696,动态:22692,动态:22710,动态:22688,动态:21737,动态:17337,动态:21780,动态:22323,动态:21556,动态:20399,动态:21745,动态:20720,动态:22680,动态:21741,动态:21727,动态:22019,动态:22697,动态:21753,动态:22699,动态:21972,动态:20440,动态:22667,动态:22659,动态:21776,动态:22698,动态:22512,动态:22706,动态:21757,动态:22507,动态:7746</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>动态:22323,动态:22680,动态:17337,动态:22702,动态:21975,动态:22692,动态:22019,动态:21727,动态:22710,动态:20720,动态:22706,动态:21436,动态:22507,动态:21740,动态:20439,动态:21753,动态:21737,动态:22146,动态:21776,动态:20364,动态:20440,动态:22688,动态:21857,动态:22512,动态:4036,动态:22684,动态:22699,动态:22697,动态:21780,动态:20399,动态:22667,动态:22659,动态:22685,动态:21757,动态:21741,动态:22698,动态:21763,动态:21745,动态:7746,动态:22696,动态:21556</t>
+          <t>动态:21857,动态:21975,动态:21763,动态:4036,动态:22697,动态:17337,动态:21740,动态:21745,动态:7746,动态:21780,动态:21436,动态:21753,动态:22706,动态:22667,动态:22659,动态:20399,动态:22684,动态:21741,动态:20440,动态:22688,动态:21776,动态:22685,动态:22507,动态:20439,动态:21727,动态:22146,动态:22699,动态:22323,动态:20720,动态:22710,动态:21737,动态:22698,动态:22512,动态:22680,动态:21556,动态:22702,动态:22696,动态:20364,动态:21757,动态:22692,动态:22019</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>动态:4036,动态:22512,动态:22685,动态:22659,动态:21745,动态:21741,动态:21857,动态:21780,动态:22706,动态:22692,动态:22699,动态:17337,动态:21753,动态:21727,动态:20399,动态:22688,动态:20364,动态:20440,动态:20439,动态:7746,动态:22680,动态:22146,动态:22698,动态:22667,动态:22710,动态:22696,动态:21756,动态:21972,动态:21436,动态:21757,动态:21556,动态:22702,动态:21975,动态:21776,动态:22697,动态:22019,动态:21763,动态:20720,动态:22507,动态:21740,动态:22684</t>
+          <t>动态:22684,动态:22512,动态:22019,动态:22667,动态:21436,动态:22692,动态:22659,动态:20439,动态:22507,动态:21740,动态:21763,动态:22685,动态:22699,动态:22146,动态:4036,动态:21556,动态:21727,动态:21776,动态:17337,动态:22697,动态:22698,动态:22680,动态:20720,动态:21741,动态:20440,动态:22710,动态:21745,动态:21757,动态:21972,动态:20399,动态:22696,动态:21975,动态:7746,动态:21780,动态:22688,动态:21857,动态:21753,动态:22706,动态:22702,动态:21756,动态:20364</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>动态:21763,动态:21727,动态:22323,动态:7746,动态:22146,动态:22710,动态:21757,动态:21436,动态:20399,动态:20439,动态:20440,动态:21972,动态:21745,动态:22684,动态:22680,动态:22698,动态:22702,动态:21857,动态:22706,动态:4036,动态:22692,动态:22699,动态:22659,动态:21776,动态:21556,动态:22696,动态:17337,动态:22667,动态:21740,动态:20720,动态:22685,动态:22697,动态:21741,动态:20364,动态:22507,动态:22019,动态:21737,动态:22688,动态:21780,动态:21975,动态:21753,动态:22512</t>
+          <t>动态:21556,动态:17337,动态:21857,动态:22684,动态:22696,动态:22323,动态:20399,动态:21741,动态:20439,动态:22697,动态:7746,动态:22688,动态:21737,动态:22667,动态:22698,动态:22710,动态:21763,动态:21757,动态:21740,动态:21972,动态:22507,动态:4036,动态:21436,动态:21776,动态:22699,动态:22680,动态:22692,动态:22659,动态:22512,动态:22146,动态:22019,动态:22685,动态:21745,动态:21780,动态:20720,动态:22706,动态:22702,动态:21727,动态:21975,动态:20440,动态:20364,动态:21753</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>动态:21737,动态:21741,动态:21745,动态:22688,动态:22706,动态:22696,动态:20720,动态:17337,动态:20439,动态:21857,动态:22710,动态:21780,动态:22512,动态:21757,动态:21763,动态:22692,动态:21972,动态:21556,动态:22019,动态:22146,动态:22697,动态:21756,动态:21753,动态:20399,动态:21436,动态:7746,动态:21975,动态:4036,动态:22680,动态:22698,动态:22685,动态:21727,动态:22667,动态:22684,动态:20364,动态:22699,动态:21740,动态:22702,动态:20440,动态:22323</t>
+          <t>动态:21737,动态:20439,动态:21745,动态:21972,动态:20399,动态:21727,动态:22688,动态:22019,动态:21857,动态:22710,动态:22680,动态:22667,动态:22323,动态:20364,动态:21780,动态:22146,动态:22697,动态:22512,动态:21763,动态:21740,动态:21436,动态:22696,动态:21753,动态:22702,动态:22685,动态:22698,动态:20440,动态:22699,动态:22684,动态:21556,动态:20720,动态:21757,动态:21975,动态:22692,动态:22706,动态:4036,动态:21756,动态:21741,动态:17337,动态:7746</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>动态:21757,动态:21737,动态:21763,动态:21745,动态:21756,动态:22019,动态:20439,动态:4036,动态:21727,动态:22667,动态:22323,动态:22685,动态:22659,动态:20364,动态:21975,动态:22696,动态:22684,动态:22697,动态:21972,动态:21740,动态:22702,动态:22512,动态:22698,动态:22680,动态:21556,动态:21780,动态:20720,动态:21741,动态:22699,动态:21857,动态:7746,动态:21436,动态:20440,动态:20399,动态:22710,动态:21753,动态:22706,动态:22692,动态:21776,动态:17337,动态:22507,动态:22688,动态:22146</t>
+          <t>动态:21756,动态:21753,动态:21745,动态:21740,动态:22146,动态:21975,动态:22323,动态:20720,动态:22019,动态:22697,动态:22685,动态:21727,动态:22667,动态:22706,动态:22507,动态:22702,动态:22696,动态:21436,动态:21737,动态:22684,动态:22680,动态:17337,动态:22688,动态:22512,动态:21741,动态:22698,动态:20440,动态:21776,动态:4036,动态:20439,动态:7746,动态:20364,动态:22659,动态:21556,动态:21757,动态:22699,动态:21780,动态:21972,动态:22692,动态:22710,动态:20399,动态:21763,动态:21857</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>动态:21975,动态:22699,动态:21727,动态:21753,动态:17337,动态:22667,动态:20364,动态:21737,动态:22698,动态:22696,动态:22659,动态:21780,动态:22512,动态:4036,动态:22685,动态:22507,动态:21740,动态:7746,动态:22702,动态:21745,动态:21757,动态:21756,动态:21556,动态:22697,动态:21776,动态:21972,动态:20399,动态:22692,动态:21436,动态:22680,动态:21857,动态:20440,动态:22710,动态:20439,动态:21741,动态:21763,动态:22323,动态:22019,动态:22706,动态:20720</t>
+          <t>动态:21737,动态:20440,动态:20439,动态:20399,动态:22710,动态:22706,动态:20364,动态:21727,动态:22019,动态:21756,动态:21556,动态:21740,动态:21857,动态:21745,动态:21753,动态:22512,动态:7746,动态:21972,动态:21436,动态:21975,动态:22702,动态:4036,动态:21763,动态:22507,动态:22680,动态:22659,动态:21741,动态:20720,动态:21780,动态:17337,动态:22323,动态:22699,动态:22667,动态:22685,动态:22696,动态:21776,动态:21757,动态:22698,动态:22692,动态:22697</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>动态:22692,动态:21753,动态:22688,动态:20364,动态:22706,动态:21857,动态:22699,动态:22684,动态:21757,动态:21763,动态:22019,动态:22697,动态:21756,动态:7746,动态:22659,动态:22702,动态:21741,动态:21556,动态:22680,动态:22146,动态:22507,动态:21727,动态:22698,动态:20439,动态:22696,动态:4036,动态:21737,动态:20399,动态:21776,动态:22667,动态:22323,动态:22710,动态:21972,动态:20440,动态:21740,动态:20720,动态:21745,动态:22685,动态:21436,动态:22512,动态:17337,动态:21975,动态:21780</t>
+          <t>动态:22667,动态:22697,动态:22699,动态:21556,动态:22710,动态:22692,动态:22512,动态:21780,动态:22684,动态:20364,动态:22659,动态:21727,动态:22706,动态:20399,动态:7746,动态:21737,动态:4036,动态:21741,动态:21857,动态:22696,动态:20439,动态:21740,动态:22507,动态:22323,动态:22019,动态:21756,动态:20720,动态:22680,动态:17337,动态:21972,动态:22146,动态:21763,动态:22702,动态:21753,动态:22698,动态:21745,动态:21776,动态:20440,动态:22685,动态:21436,动态:21757,动态:22688,动态:21975</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>动态:20439,动态:21436,动态:20440,动态:4036,动态:21737,动态:22697,动态:22019,动态:22692,动态:22680,动态:21727,动态:22146,动态:21556,动态:21756,动态:21753,动态:22685,动态:21740,动态:17337,动态:21741,动态:21763,动态:21757,动态:21745,动态:22512,动态:22698,动态:22323,动态:22710,动态:22684,动态:22706,动态:22688,动态:21972,动态:20364,动态:22696,动态:22659,动态:20399,动态:22667,动态:21776,动态:21857,动态:22699,动态:22507,动态:7746,动态:21780,动态:20720,动态:21975</t>
+          <t>动态:21556,动态:22699,动态:22680,动态:21753,动态:21740,动态:22684,动态:17337,动态:22512,动态:22667,动态:22507,动态:22692,动态:22685,动态:7746,动态:21436,动态:4036,动态:20364,动态:21756,动态:20439,动态:22710,动态:21972,动态:22688,动态:21757,动态:21975,动态:21745,动态:21763,动态:21737,动态:22659,动态:22323,动态:20440,动态:21727,动态:21857,动态:22696,动态:22146,动态:21776,动态:21741,动态:22019,动态:22706,动态:20720,动态:20399,动态:21780,动态:22697,动态:22698</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>动态:21857,动态:20439,动态:22659,动态:22702,动态:21741,动态:22323,动态:20720,动态:7746,动态:21757,动态:22685,动态:22688,动态:21740,动态:22706,动态:21753,动态:20440,动态:21745,动态:21727,动态:21972,动态:22698,动态:21975,动态:22667,动态:4036,动态:21776,动态:22692,动态:17337,动态:21763,动态:21780,动态:21556,动态:21756,动态:22699,动态:22512,动态:21436,动态:21737,动态:22146,动态:22680,动态:22697,动态:22696,动态:22710,动态:22684,动态:22019,动态:20364,动态:20399,动态:22507</t>
+          <t>动态:22507,动态:7746,动态:21857,动态:21745,动态:21780,动态:22710,动态:22667,动态:20440,动态:22684,动态:17337,动态:21757,动态:22699,动态:21776,动态:22659,动态:21763,动态:20720,动态:21556,动态:4036,动态:21727,动态:22692,动态:20364,动态:22697,动态:21972,动态:22512,动态:22323,动态:21436,动态:21741,动态:21975,动态:22702,动态:21740,动态:22706,动态:22685,动态:20439,动态:22146,动态:22680,动态:21756,动态:22019,动态:22688,动态:20399,动态:22698,动态:21753,动态:22696,动态:21737</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>动态:21727,动态:22146,动态:17337,动态:21745,动态:21737,动态:22667,动态:22659,动态:20364,动态:22699,动态:22685,动态:22697,动态:21780,动态:22710,动态:22688,动态:21776,动态:21975,动态:22684,动态:21763,动态:22702,动态:20440,动态:22512,动态:21741,动态:21972,动态:20399,动态:22696,动态:20439,动态:7746,动态:22692,动态:20720,动态:21753,动态:22507,动态:22698,动态:21556,动态:21740,动态:4036,动态:21857,动态:21757,动态:21436,动态:22706,动态:21756,动态:22323</t>
+          <t>动态:22688,动态:17337,动态:21756,动态:22702,动态:22699,动态:20439,动态:22692,动态:21975,动态:20364,动态:21857,动态:21972,动态:22706,动态:22667,动态:21776,动态:22697,动态:21753,动态:21436,动态:22685,动态:22323,动态:21741,动态:20720,动态:21727,动态:22684,动态:20399,动态:21745,动态:22710,动态:21556,动态:4036,动态:21740,动态:21763,动态:22696,动态:7746,动态:20440,动态:21737,动态:21780,动态:22512,动态:22507,动态:22698,动态:21757,动态:22146,动态:22659</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>动态:21857,动态:20720,动态:21776,动态:22696,动态:21972,动态:22507,动态:22702,动态:20364,动态:22323,动态:21740,动态:22698,动态:21753,动态:17337,动态:22685,动态:22667,动态:21780,动态:21745,动态:21737,动态:20399,动态:22146,动态:7746,动态:22699,动态:4036,动态:22688,动态:20440,动态:22692,动态:21757,动态:22680,动态:21975,动态:21436,动态:22710,动态:21763,动态:21741,动态:21756,动态:21727,动态:22684,动态:22512,动态:22697,动态:21556,动态:22706,动态:22659,动态:22019,动态:20439</t>
+          <t>动态:22688,动态:21780,动态:20364,动态:21740,动态:22702,动态:21776,动态:22710,动态:21756,动态:21972,动态:7746,动态:22659,动态:22680,动态:22512,动态:21741,动态:17337,动态:21763,动态:21857,动态:22323,动态:22698,动态:21753,动态:22692,动态:21556,动态:21436,动态:21727,动态:22146,动态:20439,动态:22684,动态:21745,动态:21975,动态:22696,动态:22685,动态:22706,动态:22699,动态:21737,动态:20399,动态:21757,动态:22019,动态:22667,动态:20440,动态:22697,动态:4036,动态:22507,动态:20720</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>动态:21840,动态:22650,动态:22633,动态:22622,动态:22294,动态:22296,动态:21661,动态:21675,动态:21740,动态:21727,动态:22710,动态:22692,动态:22323,动态:21745,动态:22706,动态:21753,动态:22146,动态:21763,动态:4036,动态:21975,动态:20399,动态:22696,动态:20720,动态:21741,动态:21780,动态:21757,动态:21737,动态:22698,动态:22680,动态:21556,动态:17337,动态:7746,动态:21776,动态:20439,动态:20440,动态:21756,动态:20364,动态:22688,动态:21436,动态:22659,动态:22699,动态:22697,动态:21972,动态:21857,动态:22667,动态:22507,动态:22019,动态:22684,动态:22512,动态:22702</t>
+          <t>动态:21840,动态:22650,动态:22633,动态:22622,动态:22294,动态:22296,动态:21661,动态:21675,动态:21737,动态:22680,动态:22710,动态:21727,动态:21763,动态:20399,动态:22699,动态:22667,动态:17337,动态:21556,动态:21857,动态:21740,动态:22019,动态:20440,动态:22688,动态:21972,动态:21756,动态:22685,动态:22512,动态:22507,动态:22684,动态:22146,动态:22702,动态:21757,动态:22697,动态:22698,动态:21975,动态:21745,动态:21776,动态:22692,动态:20364,动态:22696,动态:20439,动态:21741,动态:22323,动态:20720,动态:22659,动态:4036,动态:21753,动态:21436,动态:21780,动态:22706</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>动态:20440,动态:22667,动态:22659,动态:22685,动态:20720,动态:21763,动态:21740,动态:22697,动态:22019,动态:22323,动态:22688,动态:21436,动态:21757,动态:21776,动态:22702,动态:22706,动态:21727,动态:22512,动态:22684,动态:21975,动态:22699,动态:4036,动态:20399,动态:20439,动态:22696,动态:22710,动态:22680,动态:21780,动态:21753,动态:22146,动态:17337,动态:21737,动态:22698,动态:7746,动态:22692,动态:21741,动态:21556,动态:22507,动态:21972,动态:21756,动态:21745,动态:21857,动态:20364</t>
+          <t>动态:21857,动态:22699,动态:22696,动态:17337,动态:20440,动态:21975,动态:22019,动态:21727,动态:22702,动态:22688,动态:22684,动态:22667,动态:20720,动态:21737,动态:21556,动态:20364,动态:21745,动态:22692,动态:22698,动态:21753,动态:21763,动态:21740,动态:21972,动态:21756,动态:22512,动态:22685,动态:22146,动态:22507,动态:20439,动态:21757,动态:21776,动态:22706,动态:22323,动态:21780,动态:22680,动态:22697,动态:20399,动态:22710,动态:22659,动态:21741,动态:4036,动态:7746,动态:21436</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>动态:21740,动态:22697,动态:21975,动态:17337,动态:22680,动态:21776,动态:20440,动态:21556,动态:21756,动态:22706,动态:22684,动态:21757,动态:22019,动态:21972,动态:22692,动态:22512,动态:20439,动态:20399,动态:22699,动态:22507,动态:22685,动态:21763,动态:22710,动态:22696,动态:21436,动态:21753,动态:22698,动态:20720,动态:21780,动态:21745,动态:22659,动态:20364,动态:22323,动态:21857,动态:21727,动态:21741,动态:22667,动态:7746,动态:4036,动态:21737</t>
+          <t>动态:21727,动态:17337,动态:21972,动态:21757,动态:22710,动态:20439,动态:21975,动态:20364,动态:22512,动态:22667,动态:21740,动态:22698,动态:22692,动态:21857,动态:21776,动态:22699,动态:22684,动态:22697,动态:7746,动态:22696,动态:21753,动态:21737,动态:22680,动态:20399,动态:20440,动态:21763,动态:21741,动态:22685,动态:22323,动态:22019,动态:21756,动态:21436,动态:4036,动态:22507,动态:21780,动态:22659,动态:21745,动态:22706,动态:21556,动态:20720</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>动态:20399,动态:21727,动态:21556,动态:22323,动态:21753,动态:22698,动态:22659,动态:21780,动态:22692,动态:20440,动态:7746,动态:20720,动态:22680,动态:21741,动态:22146,动态:21745,动态:21857,动态:22019,动态:21975,动态:21763,动态:22706,动态:22696,动态:21757,动态:21972,动态:22684,动态:22702,动态:22507,动态:4036,动态:22685,动态:21756,动态:22710,动态:20364,动态:21776,动态:22667,动态:22699,动态:22688,动态:22512,动态:21737,动态:21436,动态:17337,动态:22697,动态:20439,动态:21740</t>
+          <t>动态:21556,动态:21763,动态:17337,动态:22323,动态:22507,动态:22146,动态:22696,动态:22692,动态:4036,动态:21753,动态:22684,动态:22659,动态:21737,动态:20440,动态:21727,动态:20399,动态:22699,动态:22019,动态:21857,动态:21756,动态:20720,动态:20364,动态:21975,动态:20439,动态:22688,动态:21780,动态:22706,动态:21436,动态:21740,动态:21741,动态:21757,动态:21745,动态:7746,动态:22698,动态:21972,动态:22512,动态:22667,动态:22710,动态:22685,动态:22702,动态:21776,动态:22680,动态:22697</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>动态:22667,动态:21740,动态:22688,动态:21776,动态:22659,动态:22146,动态:21745,动态:22684,动态:21975,动态:22680,动态:20720,动态:22698,动态:21763,动态:22696,动态:22699,动态:22507,动态:21727,动态:21741,动态:20439,动态:22692,动态:22702,动态:20364,动态:4036,动态:21756,动态:7746,动态:22323,动态:22019,动态:21972,动态:21556,动态:21436,动态:21753,动态:21737,动态:22685,动态:21757,动态:21780,动态:22512,动态:22697,动态:17337,动态:20440,动态:22710,动态:20399,动态:21857</t>
+          <t>动态:22699,动态:21556,动态:22667,动态:21741,动态:21740,动态:22512,动态:21756,动态:22507,动态:20364,动态:22323,动态:7746,动态:22019,动态:20440,动态:22146,动态:21436,动态:20720,动态:21975,动态:22692,动态:20399,动态:22710,动态:21857,动态:17337,动态:4036,动态:21776,动态:22697,动态:22702,动态:22698,动态:21727,动态:21972,动态:21757,动态:21745,动态:22659,动态:21780,动态:21737,动态:22684,动态:21753,动态:21763,动态:20439,动态:22680,动态:22688,动态:22696,动态:22685</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>动态:22684,动态:21436,动态:20399,动态:21763,动态:22696,动态:22710,动态:22697,动态:20364,动态:22685,动态:21857,动态:21757,动态:21740,动态:22698,动态:21741,动态:22702,动态:21975,动态:22019,动态:21780,动态:20720,动态:22688,动态:22323,动态:22706,动态:21737,动态:22507,动态:21756,动态:20440,动态:22146,动态:21972,动态:4036,动态:22692,动态:21745,动态:7746,动态:17337,动态:22699,动态:21753,动态:21727,动态:20439,动态:21556,动态:22680,动态:21776</t>
+          <t>动态:22710,动态:20440,动态:22688,动态:21737,动态:22697,动态:21757,动态:21753,动态:22698,动态:21740,动态:17337,动态:7746,动态:21756,动态:22699,动态:22146,动态:21780,动态:20720,动态:22684,动态:22323,动态:22692,动态:22019,动态:22507,动态:21857,动态:21727,动态:22696,动态:21975,动态:21972,动态:21745,动态:21436,动态:21741,动态:22702,动态:22706,动态:21556,动态:4036,动态:22685,动态:20439,动态:20399,动态:21776,动态:22680,动态:20364,动态:21763</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>动态:17337,动态:20440,动态:21756,动态:21757,动态:20399,动态:22697,动态:21776,动态:4036,动态:21740,动态:21737,动态:21556,动态:22680,动态:22698,动态:20720,动态:22710,动态:22692,动态:20364,动态:21727,动态:21741,动态:22696,动态:22512,动态:7746,动态:22706,动态:22702,动态:21753,动态:20439,动态:22685,动态:21745,动态:22019,动态:21780,动态:21972,动态:21436,动态:22323,动态:22507,动态:21857,动态:22659,动态:21763,动态:22146,动态:22699</t>
+          <t>动态:22710,动态:22699,动态:17337,动态:21857,动态:20440,动态:21745,动态:22698,动态:21756,动态:20439,动态:4036,动态:20364,动态:22706,动态:22680,动态:21436,动态:22685,动态:21727,动态:21556,动态:21741,动态:22507,动态:21753,动态:22696,动态:22659,动态:22692,动态:21763,动态:22146,动态:22019,动态:22697,动态:22323,动态:20399,动态:22512,动态:21776,动态:22702,动态:21757,动态:21737,动态:21972,动态:20720,动态:21780,动态:21740,动态:7746</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>动态:22019,动态:22667,动态:22659,动态:22146,动态:21972,动态:22696,动态:4036,动态:22507,动态:21741,动态:21756,动态:22684,动态:22698,动态:22680,动态:21740,动态:17337,动态:22710,动态:22685,动态:21745,动态:21757,动态:21776,动态:21753,动态:22702,动态:7746,动态:22692,动态:21737,动态:20439,动态:22688,动态:21975,动态:22323,动态:20720,动态:21780,动态:22512,动态:21727,动态:20440,动态:22706,动态:22699,动态:22697,动态:21436,动态:21556,动态:21857,动态:20364,动态:20399,动态:21763</t>
+          <t>动态:21857,动态:22697,动态:21436,动态:22507,动态:22146,动态:21556,动态:22512,动态:21756,动态:20399,动态:21745,动态:20720,动态:22698,动态:22688,动态:20439,动态:22706,动态:21740,动态:22019,动态:4036,动态:21753,动态:22710,动态:22684,动态:20364,动态:22680,动态:20440,动态:22667,动态:21737,动态:22699,动态:22692,动态:22659,动态:21776,动态:21727,动态:22696,动态:7746,动态:22323,动态:21780,动态:21972,动态:22702,动态:21975,动态:17337,动态:21763,动态:22685,动态:21757,动态:21741</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>动态:22512,动态:22019,动态:20364,动态:22696,动态:22685,动态:21436,动态:20720,动态:7746,动态:22323,动态:22710,动态:22659,动态:21780,动态:17337,动态:21727,动态:22692,动态:21756,动态:22697,动态:21975,动态:20439,动态:21857,动态:20399,动态:21745,动态:21757,动态:22507,动态:21972,动态:22699,动态:22698,动态:4036,动态:22146,动态:21741,动态:22688,动态:22667,动态:21776,动态:21763,动态:21740,动态:22680,动态:21556,动态:20440,动态:21737,动态:21753,动态:22706</t>
+          <t>动态:22688,动态:21757,动态:22706,动态:21741,动态:22512,动态:21737,动态:22697,动态:21436,动态:21857,动态:21763,动态:22667,动态:21727,动态:17337,动态:22696,动态:22685,动态:21756,动态:22692,动态:22323,动态:21972,动态:20440,动态:22699,动态:22698,动态:20399,动态:7746,动态:22146,动态:22507,动态:22019,动态:21556,动态:22710,动态:21745,动态:21740,动态:21753,动态:22680,动态:21780,动态:20720,动态:4036,动态:22659,动态:21975,动态:21776,动态:20364,动态:20439</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>动态:22688,动态:21753,动态:21757,动态:20439,动态:22680,动态:22684,动态:22706,动态:21780,动态:21756,动态:22659,动态:21741,动态:22146,动态:21737,动态:21745,动态:22692,动态:21727,动态:22512,动态:21556,动态:22323,动态:22699,动态:22685,动态:20399,动态:22697,动态:21740,动态:21776,动态:22507,动态:20364,动态:20720,动态:21436,动态:22710,动态:21975,动态:22698,动态:7746,动态:22696,动态:22019,动态:4036,动态:21972,动态:22667,动态:17337,动态:22702,动态:21857,动态:20440,动态:21763</t>
+          <t>动态:4036,动态:21972,动态:21745,动态:22684,动态:20720,动态:22667,动态:22697,动态:22688,动态:7746,动态:21727,动态:22696,动态:22507,动态:21741,动态:22323,动态:21780,动态:22706,动态:22019,动态:21556,动态:22702,动态:21776,动态:22685,动态:22710,动态:22659,动态:21857,动态:21740,动态:20364,动态:22146,动态:22692,动态:21753,动态:20440,动态:22698,动态:22512,动态:20439,动态:20399,动态:21737,动态:22699,动态:21756,动态:21975,动态:17337,动态:21763,动态:21757,动态:22680,动态:21436</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>动态:22697,动态:21776,动态:21745,动态:22696,动态:22698,动态:22699,动态:20440,动态:17337,动态:21756,动态:22507,动态:21972,动态:22659,动态:4036,动态:21975,动态:22706,动态:21737,动态:21763,动态:20720,动态:7746,动态:20399,动态:21753,动态:21757,动态:22019,动态:20439,动态:22685,动态:21780,动态:22323,动态:22702,动态:22684,动态:21556,动态:20364,动态:22692,动态:22680,动态:21436,动态:21857,动态:21727,动态:21740,动态:22667,动态:21741</t>
+          <t>动态:17337,动态:4036,动态:20399,动态:21763,动态:21556,动态:7746,动态:22692,动态:22698,动态:22699,动态:22706,动态:22696,动态:22323,动态:21753,动态:20439,动态:21975,动态:22507,动态:21740,动态:22697,动态:21780,动态:20720,动态:22667,动态:21745,动态:22680,动态:21727,动态:22702,动态:21741,动态:21756,动态:21737,动态:22684,动态:22685,动态:21436,动态:21776,动态:21757,动态:21972,动态:20364,动态:22659,动态:20440,动态:21857,动态:22019</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>动态:22659,动态:21756,动态:20439,动态:4036,动态:21753,动态:22507,动态:22699,动态:20399,动态:21975,动态:17337,动态:22667,动态:21780,动态:20720,动态:21763,动态:21436,动态:21727,动态:22710,动态:7746,动态:21556,动态:22688,动态:21737,动态:22146,动态:21857,动态:21740,动态:21741,动态:22685,动态:21757,动态:20440,动态:22019,动态:22692,动态:21745,动态:22684,动态:20364,动态:22696,动态:21776,动态:22680,动态:22697,动态:22706,动态:21972</t>
+          <t>动态:21857,动态:20440,动态:21972,动态:17337,动态:21737,动态:21727,动态:21776,动态:22659,动态:22697,动态:21763,动态:20364,动态:22710,动态:22699,动态:21756,动态:21740,动态:22146,动态:22507,动态:20399,动态:21757,动态:22684,动态:21745,动态:22692,动态:20439,动态:21780,动态:22019,动态:22688,动态:22706,动态:20720,动态:21556,动态:22680,动态:22667,动态:21753,动态:21741,动态:21975,动态:4036,动态:22685,动态:22696,动态:21436,动态:7746</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>动态:22706,动态:22685,动态:21436,动态:20439,动态:21757,动态:7746,动态:21763,动态:21556,动态:20364,动态:22692,动态:22659,动态:21737,动态:22696,动态:22507,动态:22146,动态:21972,动态:22688,动态:22710,动态:21780,动态:4036,动态:21727,动态:22323,动态:21745,动态:21857,动态:22019,动态:22667,动态:22702,动态:22699,动态:20440,动态:22512,动态:21753,动态:17337,动态:20399,动态:21975,动态:22680,动态:21776,动态:21741,动态:21740,动态:22698,动态:21756,动态:22697,动态:20720</t>
+          <t>动态:4036,动态:22512,动态:22667,动态:22688,动态:21741,动态:22706,动态:21972,动态:22692,动态:20439,动态:21857,动态:21436,动态:22507,动态:21780,动态:20440,动态:22702,动态:22697,动态:22710,动态:7746,动态:21757,动态:21727,动态:22685,动态:20399,动态:21740,动态:17337,动态:20720,动态:21556,动态:22019,动态:22696,动态:21756,动态:22698,动态:22699,动态:21763,动态:22680,动态:21753,动态:21745,动态:21975,动态:22323,动态:22659,动态:21737,动态:21776,动态:20364,动态:22146</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>动态:21780,动态:22699,动态:21741,动态:22697,动态:22512,动态:17337,动态:22696,动态:22706,动态:21737,动态:20720,动态:22685,动态:22507,动态:21975,动态:20364,动态:20399,动态:21727,动态:22659,动态:21757,动态:21740,动态:22702,动态:22692,动态:22688,动态:22680,动态:22667,动态:21763,动态:21756,动态:21776,动态:4036,动态:21436,动态:21972,动态:21857,动态:22019,动态:7746,动态:20440,动态:22684,动态:21556,动态:22698,动态:22323,动态:21745,动态:20439,动态:21753,动态:22710</t>
+          <t>动态:20440,动态:20364,动态:22507,动态:21776,动态:22702,动态:21763,动态:21757,动态:21857,动态:22696,动态:22688,动态:20720,动态:7746,动态:22019,动态:22699,动态:21436,动态:21727,动态:17337,动态:4036,动态:21975,动态:21972,动态:21780,动态:22684,动态:21556,动态:21753,动态:22692,动态:22680,动态:22659,动态:22698,动态:22710,动态:21756,动态:20439,动态:22706,动态:20399,动态:21741,动态:22512,动态:22323,动态:21740,动态:22667,动态:21745,动态:22685,动态:22697,动态:21737</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>动态:22507,动态:20440,动态:22702,动态:22696,动态:20399,动态:21753,动态:22710,动态:22659,动态:21740,动态:21436,动态:22699,动态:22688,动态:20364,动态:21737,动态:21780,动态:22019,动态:22512,动态:21975,动态:21556,动态:22323,动态:17337,动态:22692,动态:4036,动态:21857,动态:21972,动态:20439,动态:22680,动态:20720,动态:7746,动态:22684,动态:21756,动态:22146,动态:21763,动态:21757,动态:22667,动态:21741,动态:21745,动态:21776,动态:22697,动态:22706,动态:22698,动态:21727,动态:22685</t>
+          <t>动态:22507,动态:21975,动态:21741,动态:22696,动态:20364,动态:22019,动态:21737,动态:22512,动态:21436,动态:22710,动态:17337,动态:21972,动态:22146,动态:22702,动态:22685,动态:22699,动态:22698,动态:20399,动态:22323,动态:21763,动态:4036,动态:21780,动态:21857,动态:22692,动态:22697,动态:20720,动态:20440,动态:21740,动态:21757,动态:22688,动态:20439,动态:22706,动态:22659,动态:22667,动态:21556,动态:22684,动态:21756,动态:21776,动态:21753,动态:21745,动态:7746,动态:21727,动态:22680</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>动态:22696,动态:7746,动态:22702,动态:21556,动态:22680,动态:21727,动态:22688,动态:21972,动态:22692,动态:21763,动态:17337,动态:21857,动态:20439,动态:21780,动态:20364,动态:21436,动态:20440,动态:4036,动态:22659,动态:22512,动态:21776,动态:22667,动态:21740,动态:21753,动态:22697,动态:22685,动态:22699,动态:22507,动态:22146,动态:22698,动态:22710,动态:22684,动态:21757,动态:21741,动态:22019,动态:21756,动态:22706,动态:21745,动态:22323,动态:21737,动态:21975,动态:20720,动态:20399</t>
+          <t>动态:20720,动态:21757,动态:17337,动态:22667,动态:21776,动态:21780,动态:20440,动态:7746,动态:21727,动态:22684,动态:22692,动态:21740,动态:22696,动态:20364,动态:21436,动态:21857,动态:20399,动态:22146,动态:22710,动态:22706,动态:21763,动态:22680,动态:21737,动态:22507,动态:22699,动态:22697,动态:20439,动态:21741,动态:4036,动态:21756,动态:21972,动态:22323,动态:22688,动态:22019,动态:22512,动态:22685,动态:22659,动态:21745,动态:21556,动态:22702,动态:21753,动态:21975,动态:22698</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>动态:21741,动态:21763,动态:21737,动态:22699,动态:22680,动态:21740,动态:22697,动态:17337,动态:22323,动态:21556,动态:22507,动态:22019,动态:22667,动态:21776,动态:22146,动态:21857,动态:21757,动态:21756,动态:22512,动态:22688,动态:4036,动态:22706,动态:22692,动态:22659,动态:21745,动态:21975,动态:22684,动态:21780,动态:22702,动态:20439,动态:20440,动态:21727,动态:22696,动态:20364,动态:22698,动态:20720,动态:22710,动态:20399,动态:21753,动态:21436,动态:7746,动态:21972</t>
+          <t>动态:21780,动态:21737,动态:22019,动态:21753,动态:21745,动态:22702,动态:21556,动态:21857,动态:22698,动态:21975,动态:7746,动态:20399,动态:22512,动态:21740,动态:20364,动态:22323,动态:22692,动态:4036,动态:20439,动态:22507,动态:22710,动态:21776,动态:22667,动态:21741,动态:20720,动态:21436,动态:22680,动态:22697,动态:21757,动态:21756,动态:17337,动态:21972,动态:22146,动态:22659,动态:22688,动态:22696,动态:21763,动态:22684,动态:22706,动态:21727,动态:20440,动态:22699</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>动态:22019,动态:4036,动态:21780,动态:22692,动态:7746,动态:21972,动态:21776,动态:22702,动态:22507,动态:22685,动态:22667,动态:22512,动态:22323,动态:21740,动态:20399,动态:21763,动态:21741,动态:21556,动态:22706,动态:22680,动态:20364,动态:21756,动态:22710,动态:22697,动态:21975,动态:22684,动态:21727,动态:21436,动态:21737,动态:21857,动态:22698,动态:20439,动态:22688,动态:21745,动态:21757,动态:20440,动态:22696,动态:20720,动态:22699,动态:22146,动态:17337,动态:21753</t>
+          <t>动态:17337,动态:21756,动态:21740,动态:22323,动态:22512,动态:22667,动态:21857,动态:22706,动态:4036,动态:21780,动态:22507,动态:21972,动态:22696,动态:21727,动态:21556,动态:7746,动态:21776,动态:21975,动态:22692,动态:21753,动态:21757,动态:20440,动态:21763,动态:22019,动态:22680,动态:20364,动态:20439,动态:22710,动态:22698,动态:22702,动态:22699,动态:20720,动态:22685,动态:22697,动态:21737,动态:20399,动态:22688,动态:21741,动态:21745,动态:22146,动态:22684,动态:21436</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>动态:21741,动态:21753,动态:21972,动态:22697,动态:21776,动态:22019,动态:22706,动态:22699,动态:22146,动态:22684,动态:22667,动态:22688,动态:20720,动态:21763,动态:21556,动态:22507,动态:20440,动态:22323,动态:22659,动态:22512,动态:22692,动态:21745,动态:20364,动态:21727,动态:21756,动态:4036,动态:21857,动态:21737,动态:7746,动态:22685,动态:21740,动态:22680,动态:22698,动态:21780,动态:17337,动态:22702,动态:21975,动态:20439,动态:21757,动态:21436,动态:20399</t>
+          <t>动态:22659,动态:22702,动态:21756,动态:20439,动态:22684,动态:22667,动态:22692,动态:21757,动态:21763,动态:21857,动态:4036,动态:21745,动态:22512,动态:22697,动态:21753,动态:20399,动态:21776,动态:22699,动态:22688,动态:22323,动态:7746,动态:22685,动态:21727,动态:21740,动态:21556,动态:22019,动态:22698,动态:21741,动态:22680,动态:17337,动态:21972,动态:21780,动态:20720,动态:22507,动态:20440,动态:22706,动态:21436,动态:20364,动态:21975,动态:22146,动态:21737</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>动态:20440,动态:20720,动态:21737,动态:20439,动态:21776,动态:22667,动态:21753,动态:21556,动态:21975,动态:22512,动态:22688,动态:22692,动态:21745,动态:22685,动态:21741,动态:21763,动态:22706,动态:21757,动态:22699,动态:7746,动态:21740,动态:22710,动态:22146,动态:4036,动态:20364,动态:22684,动态:22659,动态:21727,动态:22019,动态:21780,动态:22323,动态:17337,动态:20399,动态:21756,动态:22696,动态:21436,动态:21857,动态:21972,动态:22697,动态:22698,动态:22702,动态:22507,动态:22680</t>
+          <t>动态:20720,动态:21780,动态:22667,动态:22659,动态:21857,动态:21737,动态:22688,动态:22698,动态:21436,动态:22685,动态:21740,动态:20440,动态:22512,动态:22696,动态:21741,动态:21756,动态:21745,动态:21556,动态:22323,动态:22684,动态:22146,动态:21727,动态:22699,动态:22706,动态:22507,动态:22692,动态:21776,动态:21972,动态:22702,动态:17337,动态:22680,动态:22710,动态:21763,动态:7746,动态:21975,动态:4036,动态:22697,动态:20364,动态:21753,动态:20399,动态:22019,动态:20439,动态:21757</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>动态:22507,动态:22512,动态:22323,动态:22702,动态:22699,动态:7746,动态:21776,动态:21556,动态:21757,动态:21763,动态:20439,动态:21745,动态:20399,动态:22697,动态:21436,动态:22698,动态:22146,动态:22710,动态:21727,动态:22692,动态:22680,动态:22706,动态:17337,动态:21741,动态:22685,动态:22659,动态:21737,动态:22696,动态:4036,动态:21753,动态:21756,动态:20440,动态:20720,动态:22019,动态:22667,动态:21972,动态:21780,动态:22684,动态:20364,动态:21975,动态:21740,动态:22688,动态:21857</t>
+          <t>动态:21556,动态:21740,动态:20440,动态:22699,动态:22685,动态:22697,动态:20720,动态:22698,动态:22507,动态:20399,动态:21756,动态:22146,动态:21753,动态:22323,动态:21757,动态:21436,动态:17337,动态:22680,动态:21857,动态:22696,动态:20364,动态:21741,动态:7746,动态:4036,动态:22692,动态:22710,动态:21972,动态:22706,动态:22702,动态:21727,动态:21975,动态:20439,动态:21745,动态:21776,动态:22667,动态:22688,动态:21737,动态:22512,动态:21780,动态:22019,动态:21763,动态:22684,动态:22659</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>动态:22507,动态:20364,动态:21780,动态:22667,动态:22698,动态:22659,动态:21737,动态:22512,动态:21727,动态:7746,动态:22699,动态:22697,动态:17337,动态:21436,动态:22680,动态:21857,动态:21763,动态:21972,动态:22706,动态:22323,动态:21757,动态:20720,动态:22684,动态:22019,动态:21975,动态:21556,动态:21745,动态:22702,动态:22692,动态:21740,动态:20440,动态:21741,动态:22696,动态:21753,动态:20399,动态:20439,动态:22146,动态:21756,动态:22710,动态:4036,动态:21776,动态:22688,动态:22685</t>
+          <t>动态:22699,动态:22680,动态:20364,动态:22692,动态:22146,动态:22659,动态:21763,动态:22685,动态:21741,动态:21745,动态:21436,动态:21556,动态:17337,动态:21780,动态:22507,动态:22696,动态:21972,动态:21757,动态:22688,动态:20399,动态:22019,动态:21740,动态:22667,动态:22684,动态:21753,动态:21776,动态:20439,动态:20720,动态:22702,动态:20440,动态:22697,动态:21756,动态:22698,动态:21857,动态:4036,动态:21975,动态:22710,动态:22512,动态:21727,动态:7746,动态:22323,动态:22706,动态:21737</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>动态:21737,动态:20399,动态:22698,动态:21763,动态:21753,动态:21436,动态:4036,动态:22019,动态:22702,动态:22697,动态:22507,动态:22710,动态:22512,动态:20364,动态:21780,动态:20439,动态:21556,动态:22146,动态:22659,动态:22706,动态:21741,动态:21740,动态:20720,动态:21757,动态:17337,动态:22667,动态:21857,动态:21972,动态:7746,动态:21776,动态:21975,动态:22699,动态:21756,动态:21727,动态:22323,动态:21745,动态:22688,动态:22685,动态:22680,动态:22696,动态:22684,动态:22692,动态:20440</t>
+          <t>动态:21756,动态:22684,动态:22697,动态:22696,动态:21763,动态:4036,动态:21745,动态:21741,动态:22146,动态:21975,动态:21972,动态:21737,动态:22698,动态:22702,动态:21857,动态:20440,动态:20720,动态:22667,动态:22512,动态:21727,动态:21776,动态:21740,动态:22699,动态:22680,动态:22019,动态:17337,动态:22688,动态:22692,动态:22706,动态:21780,动态:20399,动态:22685,动态:22507,动态:20439,动态:20364,动态:22659,动态:21556,动态:22710,动态:21757,动态:21753,动态:22323,动态:21436,动态:7746</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>动态:22702,动态:7746,动态:21740,动态:22698,动态:22685,动态:22680,动态:22667,动态:20440,动态:21756,动态:21857,动态:22697,动态:21745,动态:21753,动态:20399,动态:20364,动态:21727,动态:17337,动态:21741,动态:22706,动态:21436,动态:21776,动态:20720,动态:21763,动态:20439,动态:22019,动态:22699,动态:22696,动态:21757,动态:22684,动态:21556,动态:4036,动态:21975,动态:22507,动态:22512,动态:21780,动态:22692,动态:22710,动态:22659,动态:21972,动态:21737,动态:22688,动态:22146</t>
+          <t>动态:22696,动态:22697,动态:17337,动态:22710,动态:22688,动态:22692,动态:20399,动态:21756,动态:21857,动态:21740,动态:20364,动态:22684,动态:22702,动态:4036,动态:21757,动态:22507,动态:21556,动态:21753,动态:22512,动态:22698,动态:20440,动态:21776,动态:20439,动态:22699,动态:20720,动态:21780,动态:21763,动态:21737,动态:22019,动态:21436,动态:21745,动态:22685,动态:22706,动态:22667,动态:21972,动态:21741,动态:22659,动态:21727,动态:22146,动态:22680,动态:21975,动态:7746</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>动态:22706,动态:22507,动态:21972,动态:21756,动态:22323,动态:22019,动态:17337,动态:20720,动态:21740,动态:22696,动态:21757,动态:22684,动态:22710,动态:20439,动态:4036,动态:20399,动态:21556,动态:22699,动态:22702,动态:22667,动态:22146,动态:21975,动态:22659,动态:22680,动态:21753,动态:22692,动态:21776,动态:22688,动态:21857,动态:20364,动态:21737,动态:21763,动态:21436,动态:21727,动态:22685,动态:7746,动态:21780,动态:20440,动态:21741,动态:22697,动态:21745</t>
+          <t>动态:21727,动态:22706,动态:20399,动态:22692,动态:21972,动态:21745,动态:22684,动态:22710,动态:22685,动态:4036,动态:22323,动态:21975,动态:7746,动态:21556,动态:20440,动态:20439,动态:21776,动态:21436,动态:21763,动态:22680,动态:22667,动态:22696,动态:22659,动态:21753,动态:21737,动态:22688,动态:22697,动态:21740,动态:21757,动态:21741,动态:22146,动态:21780,动态:22019,动态:20720,动态:21857,动态:20364,动态:21756,动态:22507,动态:22702,动态:22699,动态:17337</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>动态:22696,动态:22512,动态:7746,动态:21757,动态:20440,动态:20364,动态:22710,动态:21972,动态:21763,动态:22680,动态:22019,动态:22659,动态:22507,动态:21780,动态:22702,动态:21436,动态:21857,动态:21776,动态:21756,动态:20720,动态:22146,动态:22667,动态:22699,动态:4036,动态:22692,动态:20399,动态:22688,动态:21975,动态:21737,动态:22685,动态:21741,动态:22698,动态:22706,动态:22684,动态:21740,动态:21556,动态:17337,动态:21745,动态:21753,动态:22697,动态:22323,动态:20439,动态:21727</t>
+          <t>动态:20720,动态:20364,动态:21975,动态:21757,动态:22698,动态:20399,动态:21741,动态:21740,动态:22323,动态:22697,动态:22659,动态:22667,动态:22706,动态:21556,动态:22680,动态:22685,动态:21436,动态:22699,动态:21753,动态:22692,动态:22688,动态:21745,动态:22507,动态:22710,动态:21763,动态:21972,动态:22019,动态:22512,动态:22702,动态:7746,动态:21857,动态:21727,动态:21756,动态:20439,动态:20440,动态:22696,动态:21737,动态:22146,动态:22684,动态:21776,动态:21780,动态:4036,动态:17337</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>动态:22699,动态:20720,动态:21757,动态:21763,动态:21857,动态:21727,动态:22019,动态:22323,动态:22692,动态:21737,动态:21975,动态:20440,动态:22710,动态:21753,动态:22688,动态:21745,动态:22702,动态:20364,动态:7746,动态:22659,动态:22697,动态:20439,动态:20399,动态:22667,动态:22698,动态:21436,动态:21741,动态:21776,动态:22685,动态:21556,动态:17337,动态:22146,动态:22512,动态:4036,动态:21780,动态:21972,动态:21756,动态:22706,动态:22680,动态:21740,动态:22684,动态:22696</t>
+          <t>动态:22688,动态:21740,动态:22659,动态:22697,动态:22698,动态:7746,动态:22699,动态:20720,动态:20364,动态:22019,动态:21975,动态:22696,动态:21741,动态:21776,动态:22512,动态:21745,动态:21857,动态:22323,动态:21436,动态:22710,动态:20439,动态:20440,动态:20399,动态:21763,动态:21780,动态:4036,动态:22702,动态:22692,动态:22685,动态:17337,动态:22680,动态:22706,动态:21737,动态:21556,动态:22667,动态:21972,动态:22146,动态:21753,动态:21757,动态:21727,动态:22684,动态:21756</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>动态:21757,动态:21776,动态:22710,动态:22692,动态:22688,动态:21727,动态:21780,动态:22699,动态:20720,动态:22702,动态:21737,动态:21741,动态:22019,动态:22680,动态:22507,动态:22684,动态:7746,动态:20364,动态:22696,动态:22146,动态:22706,动态:21756,动态:22685,动态:22697,动态:20440,动态:17337,动态:21753,动态:21745,动态:22698,动态:20439,动态:20399,动态:21763,动态:22323,动态:22659,动态:22667,动态:22512,动态:4036,动态:21857,动态:21740,动态:21556,动态:21975,动态:21436,动态:21972</t>
+          <t>动态:22146,动态:22507,动态:4036,动态:22710,动态:22685,动态:7746,动态:21740,动态:22019,动态:20440,动态:21556,动态:22680,动态:21753,动态:22684,动态:22667,动态:22699,动态:22692,动态:21975,动态:17337,动态:21745,动态:21756,动态:22698,动态:22702,动态:22512,动态:21776,动态:21436,动态:22688,动态:22696,动态:21780,动态:21727,动态:21763,动态:21857,动态:22697,动态:21757,动态:22659,动态:20399,动态:20364,动态:20439,动态:22706,动态:21972,动态:20720,动态:22323,动态:21741,动态:21737</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>动态:21780,动态:21756,动态:22019,动态:20439,动态:22659,动态:21763,动态:20399,动态:22706,动态:22697,动态:20720,动态:21972,动态:22684,动态:22507,动态:22699,动态:22685,动态:22146,动态:22710,动态:21740,动态:21737,动态:20440,动态:21975,动态:22680,动态:22688,动态:22696,动态:4036,动态:21727,动态:21556,动态:21436,动态:21857,动态:22512,动态:7746,动态:21776,动态:21741,动态:20364,动态:21753,动态:17337,动态:22667,动态:22698,动态:22702,动态:21757,动态:22323,动态:22692,动态:21745</t>
+          <t>动态:21727,动态:22692,动态:21763,动态:21776,动态:22696,动态:22706,动态:21741,动态:22697,动态:21975,动态:22019,动态:22698,动态:21737,动态:22512,动态:22323,动态:22710,动态:21745,动态:21740,动态:22680,动态:22667,动态:22688,动态:21972,动态:21753,动态:21556,动态:20720,动态:21857,动态:22659,动态:22699,动态:22146,动态:21780,动态:17337,动态:20399,动态:20440,动态:22702,动态:22507,动态:21756,动态:20439,动态:21757,动态:7746,动态:22684,动态:20364,动态:21436,动态:4036,动态:22685</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>动态:7746,动态:22697,动态:21737,动态:21972,动态:20364,动态:20440,动态:21740,动态:22684,动态:21727,动态:22699,动态:22507,动态:21556,动态:21753,动态:22323,动态:21745,动态:22710,动态:22659,动态:21757,动态:22019,动态:22706,动态:21780,动态:20439,动态:22688,动态:21436,动态:22667,动态:22680,动态:4036,动态:21763,动态:17337,动态:22146,动态:22698,动态:20720,动态:20399,动态:22702,动态:21975,动态:21741,动态:21756,动态:22692,动态:21857,动态:22512,动态:22685,动态:21776,动态:22696</t>
+          <t>动态:22697,动态:22696,动态:21857,动态:22710,动态:21975,动态:17337,动态:22685,动态:22146,动态:21972,动态:22702,动态:7746,动态:21745,动态:22698,动态:21556,动态:22699,动态:21740,动态:21756,动态:22323,动态:22688,动态:21780,动态:22507,动态:20440,动态:21763,动态:21776,动态:4036,动态:21737,动态:21753,动态:20364,动态:21757,动态:22706,动态:22692,动态:20720,动态:22659,动态:20439,动态:20399,动态:22667,动态:22680,动态:22019,动态:21741,动态:21436,动态:22512,动态:22684,动态:21727</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>动态:21436,动态:21556,动态:22019,动态:22507,动态:22706,动态:22697,动态:22710,动态:21745,动态:21727,动态:20440,动态:21756,动态:22323,动态:20399,动态:21757,动态:21780,动态:22684,动态:21741,动态:22692,动态:21763,动态:22685,动态:21857,动态:20439,动态:21975,动态:20364,动态:22512,动态:7746,动态:17337,动态:21753,动态:21776,动态:22667,动态:4036,动态:22696,动态:22146,动态:21737,动态:21740,动态:22680,动态:22659,动态:22688,动态:22698,动态:22699,动态:21972,动态:20720</t>
+          <t>动态:22146,动态:21556,动态:22667,动态:17337,动态:21975,动态:4036,动态:22696,动态:22698,动态:22680,动态:22512,动态:21745,动态:21756,动态:21436,动态:20399,动态:21780,动态:21740,动态:22706,动态:22659,动态:21727,动态:22699,动态:20440,动态:21857,动态:22688,动态:22697,动态:21741,动态:22685,动态:21776,动态:20439,动态:21763,动态:22692,动态:22323,动态:20364,动态:21972,动态:21757,动态:21737,动态:20720,动态:22684,动态:22507,动态:22019,动态:7746,动态:22710,动态:21753</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>动态:22696,动态:22710,动态:22019,动态:22698,动态:22667,动态:22697,动态:20439,动态:22507,动态:20720,动态:21780,动态:21436,动态:21763,动态:21776,动态:22146,动态:22659,动态:22680,动态:20399,动态:22685,动态:21753,动态:22323,动态:22706,动态:22512,动态:21857,动态:7746,动态:21741,动态:22684,动态:21972,动态:21727,动态:21975,动态:21745,动态:21556,动态:22692,动态:20440,动态:17337,动态:4036,动态:21756,动态:21757,动态:22688,动态:20364,动态:21737,动态:21740</t>
+          <t>动态:22706,动态:21727,动态:21556,动态:22685,动态:22710,动态:22323,动态:22688,动态:21737,动态:22146,动态:22507,动态:20440,动态:20399,动态:21975,动态:21436,动态:17337,动态:22659,动态:21857,动态:20439,动态:22696,动态:20720,动态:21763,动态:22667,动态:21741,动态:21756,动态:22019,动态:22684,动态:21972,动态:20364,动态:22692,动态:21753,动态:22698,动态:21757,动态:4036,动态:22512,动态:21745,动态:22697,动态:21776,动态:21740,动态:7746,动态:21780,动态:22680</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>动态:22692,动态:22512,动态:21776,动态:21975,动态:20720,动态:21741,动态:22659,动态:22688,动态:21780,动态:22680,动态:21727,动态:22019,动态:21436,动态:22710,动态:22507,动态:21763,动态:20440,动态:22684,动态:22696,动态:21857,动态:20364,动态:21556,动态:7746,动态:22146,动态:22685,动态:21756,动态:20399,动态:4036,动态:22667,动态:22702,动态:21737,动态:17337,动态:22698,动态:21745,动态:21740,动态:21972,动态:20439,动态:22323,动态:21757,动态:22697,动态:21753</t>
+          <t>动态:21740,动态:22680,动态:21741,动态:22146,动态:20720,动态:22698,动态:21436,动态:22692,动态:22667,动态:22702,动态:4036,动态:21857,动态:22684,动态:21776,动态:20399,动态:22512,动态:21756,动态:20439,动态:17337,动态:21745,动态:21757,动态:22019,动态:22685,动态:21975,动态:21753,动态:21763,动态:7746,动态:20440,动态:22688,动态:21727,动态:22659,动态:22696,动态:20364,动态:22710,动态:22507,动态:21780,动态:21556,动态:21972,动态:22323,动态:22697,动态:21737</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>动态:22697,动态:21857,动态:22680,动态:21972,动态:22684,动态:20399,动态:21740,动态:22698,动态:21757,动态:21753,动态:21741,动态:22512,动态:22706,动态:7746,动态:21776,动态:22323,动态:21745,动态:22685,动态:20720,动态:22696,动态:21737,动态:17337,动态:20439,动态:22507,动态:4036,动态:21556,动态:21436,动态:22019,动态:22667,动态:21780,动态:20364,动态:21763,动态:22146,动态:22688,动态:22692,动态:21756,动态:22659,动态:21975,动态:22710,动态:22699,动态:21727,动态:20440</t>
+          <t>动态:22710,动态:20720,动态:21857,动态:17337,动态:22696,动态:7746,动态:21776,动态:22699,动态:22146,动态:21436,动态:21753,动态:22667,动态:21757,动态:22706,动态:22323,动态:22019,动态:22512,动态:22697,动态:22507,动态:20440,动态:22659,动态:21745,动态:21727,动态:21556,动态:22688,动态:21972,动态:22680,动态:20399,动态:20364,动态:20439,动态:21756,动态:22684,动态:21741,动态:22692,动态:22685,动态:22698,动态:21737,动态:4036,动态:21780,动态:21763,动态:21975,动态:21740</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>动态:22684,动态:17337,动态:20439,动态:21756,动态:21737,动态:22685,动态:21975,动态:20399,动态:21741,动态:21776,动态:7746,动态:21745,动态:22710,动态:22698,动态:22680,动态:22507,动态:22019,动态:22512,动态:21727,动态:20440,动态:22146,动态:21857,动态:22697,动态:21763,动态:21780,动态:21972,动态:22667,动态:21757,动态:20720,动态:4036,动态:21740,动态:21556,动态:22696,动态:21436,动态:22659,动态:22688,动态:20364,动态:22692,动态:21753,动态:22706,动态:22323</t>
+          <t>动态:22710,动态:21753,动态:21763,动态:22146,动态:22323,动态:22512,动态:21780,动态:21756,动态:20399,动态:22692,动态:20439,动态:21757,动态:22684,动态:20440,动态:22507,动态:22698,动态:21975,动态:21740,动态:4036,动态:22667,动态:22019,动态:21857,动态:22659,动态:22697,动态:22680,动态:21727,动态:22706,动态:17337,动态:22696,动态:21776,动态:22685,动态:21741,动态:21972,动态:21737,动态:20720,动态:21556,动态:7746,动态:20364,动态:21436,动态:22688,动态:21745</t>
         </is>
       </c>
     </row>
